--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\safo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8430329-FAD6-4E92-99E0-C3205F0B5675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87631811-A31D-4EFC-806C-504731C68E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
+    <workbookView xWindow="30090" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="393">
   <si>
     <t>ID</t>
   </si>
@@ -857,22 +857,314 @@
     <t>O histórico do REDS deve conter diligências e dificuldades; sua omissão compromete a qualidade da prova.</t>
   </si>
   <si>
-    <t>Diretriz de Segurança</t>
+    <t>A segurança como valor fundamental.</t>
+  </si>
+  <si>
+    <t>Proatividade dos comandantes no zelo com o subordinado.</t>
+  </si>
+  <si>
+    <t>Aceitação do risco como justificativa para flexibilização de EPI.</t>
+  </si>
+  <si>
+    <t>Não banalização do risco.</t>
+  </si>
+  <si>
+    <t>A Diretriz distingue risco inevitável de risco desnecessário, vedando sua banalização. Aceitar o risco não autoriza flexibilizar EPI.</t>
+  </si>
+  <si>
+    <t>Extinguir mortes e lesões graves decorrentes do não uso ou mau uso de EPI.</t>
+  </si>
+  <si>
+    <t>Promover cultura de segurança com campanhas e responsabilização.</t>
+  </si>
+  <si>
+    <t>Implementar treinamento contínuo focado em prevenção.</t>
+  </si>
+  <si>
+    <t>Priorizar eficiência operacional mesmo com aumento do risco.</t>
+  </si>
+  <si>
+    <t>A Diretriz não admite eficiência operacional com aumento de risco; o foco é preservação da vida.</t>
+  </si>
+  <si>
+    <t>Avaliam mortes e lesões graves dos últimos 10 anos.</t>
+  </si>
+  <si>
+    <t>Podem fundamentar punições disciplinares futuras.</t>
+  </si>
+  <si>
+    <t>Visam identificar relação com uso/mau uso de EPI/EPC.</t>
+  </si>
+  <si>
+    <t>Funcionam como blindagem institucional.</t>
+  </si>
+  <si>
+    <t>O texto veda expressamente uso dos diagnósticos para punição ou perda de direitos.</t>
+  </si>
+  <si>
+    <t>O comandante imediato da equipe.</t>
+  </si>
+  <si>
+    <t>O Chefe do Estado-Maior.</t>
+  </si>
+  <si>
+    <t>A Assessoria de Desenvolvimento Organizacional.</t>
+  </si>
+  <si>
+    <t>O policial individualmente considerado.</t>
+  </si>
+  <si>
+    <t>O comandante imediato é responsável direto pela fiscalização e proteção dos subordinados.</t>
+  </si>
+  <si>
+    <t>Checklist obrigatório antes do serviço.</t>
+  </si>
+  <si>
+    <t>Fiscalização ativa do uso de EPI.</t>
+  </si>
+  <si>
+    <t>Evitar riscos exagerados e desnecessários.</t>
+  </si>
+  <si>
+    <t>Aceitação tácita de improvisações operacionais.</t>
+  </si>
+  <si>
+    <t>Improvisação que gera risco contraria a lógica de hábito angular e a não banalização do risco.</t>
+  </si>
+  <si>
+    <t>Tem caráter disciplinar prioritário.</t>
+  </si>
+  <si>
+    <t>Garante eficiência estatística institucional.</t>
+  </si>
+  <si>
+    <t>Está vinculada à sobrevivência e integridade física.</t>
+  </si>
+  <si>
+    <t>Permite responsabilização administrativa imediata.</t>
+  </si>
+  <si>
+    <t>A Diretriz afirma que a fiscalização não é meramente disciplinar, mas de sobrevivência.</t>
+  </si>
+  <si>
+    <t>Integrar o tema nos cursos de formação.</t>
+  </si>
+  <si>
+    <t>Promover prevenção de acidentes.</t>
+  </si>
+  <si>
+    <t>Internalizar segurança como valor intrínseco.</t>
+  </si>
+  <si>
+    <t>Atuar apenas após acidentes graves.</t>
+  </si>
+  <si>
+    <t>O treinamento é preventivo e estruturante, não reativo a acidentes.</t>
+  </si>
+  <si>
+    <t>Aperfeiçoar protocolos de segurança.</t>
+  </si>
+  <si>
+    <t>Identificar EPI mais eficientes.</t>
+  </si>
+  <si>
+    <t>Definir prioridades de investimento.</t>
+  </si>
+  <si>
+    <t>Desconsiderar normas vigentes por experiência prática.</t>
+  </si>
+  <si>
+    <t>O feedback orienta melhorias, mas não substitui normas nem autoriza descumprimento.</t>
+  </si>
+  <si>
+    <t>A expressão “Risco inevitável ≠ risco desnecessário” implica que:</t>
+  </si>
+  <si>
+    <t>Todo risco deve ser eliminado.</t>
+  </si>
+  <si>
+    <t>O risco autoriza flexibilização de condutas.</t>
+  </si>
+  <si>
+    <t>Apenas riscos controlados e mitigados são aceitáveis.</t>
+  </si>
+  <si>
+    <t>O risco é inerente e, portanto, irrelevante.</t>
+  </si>
+  <si>
+    <t>A Diretriz admite o risco inerente, mas exige mitigação e eliminação do desnecessário.</t>
+  </si>
+  <si>
+    <t>Criação de checklist pré-serviço.</t>
+  </si>
+  <si>
+    <t>Reconhecimento do kit APH Tático como EPI.</t>
+  </si>
+  <si>
+    <t>Banco de dados de mortes e lesões.</t>
+  </si>
+  <si>
+    <t>Uso dos estudos de caso para punição direta.</t>
+  </si>
+  <si>
+    <t>O Estudo de Caso é instrumento pedagógico; apuração sancionadora tramita separadamente.</t>
+  </si>
+  <si>
+    <t>Subsidiar políticas preventivas.</t>
+  </si>
+  <si>
+    <t>Identificar relação com uso de EPI/EPC.</t>
+  </si>
+  <si>
+    <t>Orientar investimentos e treinamentos.</t>
+  </si>
+  <si>
+    <t>Fundamentar responsabilização disciplinar automática.</t>
+  </si>
+  <si>
+    <t>A Diretriz veda expressamente o uso dos diagnósticos para punição ou perda de direitos.</t>
+  </si>
+  <si>
+    <t>Definir EPIs por tipo de serviço.</t>
+  </si>
+  <si>
+    <t>Criar banco de dados de mortes e lesões em serviço.</t>
+  </si>
+  <si>
+    <t>Diagnosticar EPIs classificados como patrimônio.</t>
+  </si>
+  <si>
+    <t>Produzir campanhas audiovisuais.</t>
+  </si>
+  <si>
+    <t>A PM2 é responsável pelo fluxo e banco de dados de ocorrências com morte ou lesão.</t>
+  </si>
+  <si>
+    <t>É obrigatório em ocorrências graves.</t>
+  </si>
+  <si>
+    <t>Deve preservar a identidade dos envolvidos.</t>
+  </si>
+  <si>
+    <t>Pode ser utilizado diretamente para punição disciplinar.</t>
+  </si>
+  <si>
+    <t>Deve definir a abrangência de divulgação.</t>
+  </si>
+  <si>
+    <t>O Estudo de Caso tem caráter pedagógico; apuração sancionadora tramita separadamente.</t>
+  </si>
+  <si>
+    <t>Abranger equipamentos e procedimentos.</t>
+  </si>
+  <si>
+    <t>Estar disponível ao comandante da guarnição.</t>
+  </si>
+  <si>
+    <t>Ser realizado após o término do turno.</t>
+  </si>
+  <si>
+    <t>Integrar a rotina operacional.</t>
+  </si>
+  <si>
+    <t>A definição formal dos EPIs e EPCs por tipo de serviço é atribuição do(a):</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>PM3</t>
+  </si>
+  <si>
+    <t>APM</t>
+  </si>
+  <si>
+    <t>A PM3 define e publica os EPIs/EPCs de cada serviço do portfólio operacional.</t>
+  </si>
+  <si>
+    <t>Diagnosticar materiais de consumo.</t>
+  </si>
+  <si>
+    <t>Planejar aquisição de EPIs consumíveis.</t>
+  </si>
+  <si>
+    <t>Fiscalizar uso de EPI na guarnição.</t>
+  </si>
+  <si>
+    <t>Propor distribuição logística.</t>
+  </si>
+  <si>
+    <t>Fiscalização do uso é função do comando; a DAL atua na logística de materiais de consumo.</t>
+  </si>
+  <si>
+    <t>A produção do vídeo institucional “É preciso voltar pra casa...” compete à:</t>
+  </si>
+  <si>
+    <t>PM5</t>
+  </si>
+  <si>
+    <t>DCO</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
+  <si>
+    <t>A Diretriz atribui à DCO a produção de materiais audiovisuais e campanhas.</t>
+  </si>
+  <si>
+    <t>Apresentar a Diretriz aos oficiais.</t>
+  </si>
+  <si>
+    <t>Garantir replicação às praças.</t>
+  </si>
+  <si>
+    <t>Executar diagnósticos técnicos de EPI.</t>
+  </si>
+  <si>
+    <t>Observar prazos definidos.</t>
+  </si>
+  <si>
+    <t>Diagnósticos técnicos cabem a DRH, CPM, PM4 e DAL, conforme o caso.</t>
+  </si>
+  <si>
+    <t>O kit APH Tático, segundo a Diretriz, é classificado como:</t>
+  </si>
+  <si>
+    <t>Equipamento opcional.</t>
+  </si>
+  <si>
+    <t>Equipamento administrativo.</t>
+  </si>
+  <si>
+    <t>Equipamento de proteção.</t>
+  </si>
+  <si>
+    <t>Material exclusivamente médico.</t>
+  </si>
+  <si>
+    <t>O texto reconhece expressamente o kit APH Tático como equipamento de proteção.</t>
+  </si>
+  <si>
+    <t>É diretriz estratégica.</t>
+  </si>
+  <si>
+    <t>Visa mudança cultural.</t>
+  </si>
+  <si>
+    <t>Substitui normas operacionais específicas.</t>
+  </si>
+  <si>
+    <t>Estabelece princípios e objetivos.</t>
+  </si>
+  <si>
+    <t>A Diretriz orienta e integra a doutrina, não substitui normas operacionais específicas.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Assinale a alternativa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INCORRETA</t>
     </r>
     <r>
       <rPr>
@@ -882,38 +1174,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto aos princípios da Diretriz de Segurança para o Emprego Operacional.</t>
+      <t>INCORRETA quanto aos princípios da Diretriz de Segurança para o Emprego Operacional.</t>
     </r>
-  </si>
-  <si>
-    <t>A segurança como valor fundamental.</t>
-  </si>
-  <si>
-    <t>Proatividade dos comandantes no zelo com o subordinado.</t>
-  </si>
-  <si>
-    <t>Aceitação do risco como justificativa para flexibilização de EPI.</t>
-  </si>
-  <si>
-    <t>Não banalização do risco.</t>
-  </si>
-  <si>
-    <t>A Diretriz distingue risco inevitável de risco desnecessário, vedando sua banalização. Aceitar o risco não autoriza flexibilizar EPI.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO</t>
     </r>
     <r>
       <rPr>
@@ -923,38 +1189,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto aos objetivos formais da Diretriz.</t>
+      <t>ERRO quanto aos objetivos formais da Diretriz.</t>
     </r>
-  </si>
-  <si>
-    <t>Extinguir mortes e lesões graves decorrentes do não uso ou mau uso de EPI.</t>
-  </si>
-  <si>
-    <t>Promover cultura de segurança com campanhas e responsabilização.</t>
-  </si>
-  <si>
-    <t>Implementar treinamento contínuo focado em prevenção.</t>
-  </si>
-  <si>
-    <t>Priorizar eficiência operacional mesmo com aumento do risco.</t>
-  </si>
-  <si>
-    <t>A Diretriz não admite eficiência operacional com aumento de risco; o foco é preservação da vida.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Sobre os diagnósticos previstos, assinale a alternativa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INCORRETA</t>
     </r>
     <r>
       <rPr>
@@ -964,38 +1204,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t>INCORRETA.</t>
     </r>
-  </si>
-  <si>
-    <t>Avaliam mortes e lesões graves dos últimos 10 anos.</t>
-  </si>
-  <si>
-    <t>Podem fundamentar punições disciplinares futuras.</t>
-  </si>
-  <si>
-    <t>Visam identificar relação com uso/mau uso de EPI/EPC.</t>
-  </si>
-  <si>
-    <t>Funcionam como blindagem institucional.</t>
-  </si>
-  <si>
-    <t>O texto veda expressamente uso dos diagnósticos para punição ou perda de direitos.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Nos termos da Diretriz, a responsabilidade </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>direta</t>
     </r>
     <r>
       <rPr>
@@ -1005,38 +1219,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> pela proteção da guarnição recai sobre:</t>
+      <t>direta pela proteção da guarnição recai sobre:</t>
     </r>
-  </si>
-  <si>
-    <t>O comandante imediato da equipe.</t>
-  </si>
-  <si>
-    <t>O Chefe do Estado-Maior.</t>
-  </si>
-  <si>
-    <t>A Assessoria de Desenvolvimento Organizacional.</t>
-  </si>
-  <si>
-    <t>O policial individualmente considerado.</t>
-  </si>
-  <si>
-    <t>O comandante imediato é responsável direto pela fiscalização e proteção dos subordinados.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Assinale a alternativa que </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NÃO caracteriza</t>
     </r>
     <r>
       <rPr>
@@ -1046,38 +1234,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hábito angular segundo a Diretriz.</t>
+      <t>NÃO caracteriza hábito angular segundo a Diretriz.</t>
     </r>
-  </si>
-  <si>
-    <t>Checklist obrigatório antes do serviço.</t>
-  </si>
-  <si>
-    <t>Fiscalização ativa do uso de EPI.</t>
-  </si>
-  <si>
-    <t>Evitar riscos exagerados e desnecessários.</t>
-  </si>
-  <si>
-    <t>Aceitação tácita de improvisações operacionais.</t>
-  </si>
-  <si>
-    <t>Improvisação que gera risco contraria a lógica de hábito angular e a não banalização do risco.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">A fiscalização do uso de EPI, segundo a Diretriz, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>somente se</t>
     </r>
     <r>
       <rPr>
@@ -1087,38 +1249,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> justifica porque:</t>
+      <t>somente se justifica porque:</t>
     </r>
-  </si>
-  <si>
-    <t>Tem caráter disciplinar prioritário.</t>
-  </si>
-  <si>
-    <t>Garante eficiência estatística institucional.</t>
-  </si>
-  <si>
-    <t>Está vinculada à sobrevivência e integridade física.</t>
-  </si>
-  <si>
-    <t>Permite responsabilização administrativa imediata.</t>
-  </si>
-  <si>
-    <t>A Diretriz afirma que a fiscalização não é meramente disciplinar, mas de sobrevivência.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO</t>
     </r>
     <r>
       <rPr>
@@ -1128,38 +1264,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto ao papel da Academia de Polícia Militar (APM).</t>
+      <t>ERRO quanto ao papel da Academia de Polícia Militar (APM).</t>
     </r>
-  </si>
-  <si>
-    <t>Integrar o tema nos cursos de formação.</t>
-  </si>
-  <si>
-    <t>Promover prevenção de acidentes.</t>
-  </si>
-  <si>
-    <t>Internalizar segurança como valor intrínseco.</t>
-  </si>
-  <si>
-    <t>Atuar apenas após acidentes graves.</t>
-  </si>
-  <si>
-    <t>O treinamento é preventivo e estruturante, não reativo a acidentes.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">O feedback da tropa operacional </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NÃO autoriza</t>
     </r>
     <r>
       <rPr>
@@ -1169,56 +1279,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
+      <t>NÃO autoriza:</t>
     </r>
-  </si>
-  <si>
-    <t>Aperfeiçoar protocolos de segurança.</t>
-  </si>
-  <si>
-    <t>Identificar EPI mais eficientes.</t>
-  </si>
-  <si>
-    <t>Definir prioridades de investimento.</t>
-  </si>
-  <si>
-    <t>Desconsiderar normas vigentes por experiência prática.</t>
-  </si>
-  <si>
-    <t>O feedback orienta melhorias, mas não substitui normas nem autoriza descumprimento.</t>
-  </si>
-  <si>
-    <t>A expressão “Risco inevitável ≠ risco desnecessário” implica que:</t>
-  </si>
-  <si>
-    <t>Todo risco deve ser eliminado.</t>
-  </si>
-  <si>
-    <t>O risco autoriza flexibilização de condutas.</t>
-  </si>
-  <si>
-    <t>Apenas riscos controlados e mitigados são aceitáveis.</t>
-  </si>
-  <si>
-    <t>O risco é inerente e, portanto, irrelevante.</t>
-  </si>
-  <si>
-    <t>A Diretriz admite o risco inerente, mas exige mitigação e eliminação do desnecessário.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO</t>
     </r>
     <r>
       <rPr>
@@ -1228,41 +1294,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto aos desdobramentos obrigatórios da Diretriz.</t>
+      <t>ERRO quanto aos desdobramentos obrigatórios da Diretriz.</t>
     </r>
-  </si>
-  <si>
-    <t>Criação de checklist pré-serviço.</t>
-  </si>
-  <si>
-    <t>Reconhecimento do kit APH Tático como EPI.</t>
-  </si>
-  <si>
-    <t>Banco de dados de mortes e lesões.</t>
-  </si>
-  <si>
-    <t>Uso dos estudos de caso para punição direta.</t>
-  </si>
-  <si>
-    <t>O Estudo de Caso é instrumento pedagógico; apuração sancionadora tramita separadamente.</t>
-  </si>
-  <si>
-    <t>Doutrina Operacional</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO</t>
     </r>
     <r>
       <rPr>
@@ -1272,38 +1309,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto à finalidade institucional do diagnóstico de mortes e lesões graves.</t>
+      <t>ERRO quanto à finalidade institucional do diagnóstico de mortes e lesões graves.</t>
     </r>
-  </si>
-  <si>
-    <t>Subsidiar políticas preventivas.</t>
-  </si>
-  <si>
-    <t>Identificar relação com uso de EPI/EPC.</t>
-  </si>
-  <si>
-    <t>Orientar investimentos e treinamentos.</t>
-  </si>
-  <si>
-    <t>Fundamentar responsabilização disciplinar automática.</t>
-  </si>
-  <si>
-    <t>A Diretriz veda expressamente o uso dos diagnósticos para punição ou perda de direitos.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Compete </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exclusivamente</t>
     </r>
     <r>
       <rPr>
@@ -1313,38 +1324,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> à PM2, nos desdobramentos da Diretriz:</t>
+      <t>exclusivamente à PM2, nos desdobramentos da Diretriz:</t>
     </r>
-  </si>
-  <si>
-    <t>Definir EPIs por tipo de serviço.</t>
-  </si>
-  <si>
-    <t>Criar banco de dados de mortes e lesões em serviço.</t>
-  </si>
-  <si>
-    <t>Diagnosticar EPIs classificados como patrimônio.</t>
-  </si>
-  <si>
-    <t>Produzir campanhas audiovisuais.</t>
-  </si>
-  <si>
-    <t>A PM2 é responsável pelo fluxo e banco de dados de ocorrências com morte ou lesão.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Assinale a alternativa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INCORRETA</t>
     </r>
     <r>
       <rPr>
@@ -1354,38 +1339,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sobre o Estudo de Caso previsto na Diretriz.</t>
+      <t>INCORRETA sobre o Estudo de Caso previsto na Diretriz.</t>
     </r>
-  </si>
-  <si>
-    <t>É obrigatório em ocorrências graves.</t>
-  </si>
-  <si>
-    <t>Deve preservar a identidade dos envolvidos.</t>
-  </si>
-  <si>
-    <t>Pode ser utilizado diretamente para punição disciplinar.</t>
-  </si>
-  <si>
-    <t>Deve definir a abrangência de divulgação.</t>
-  </si>
-  <si>
-    <t>O Estudo de Caso tem caráter pedagógico; apuração sancionadora tramita separadamente.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">O checklist pré-serviço, segundo a Diretriz, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NÃO pode</t>
     </r>
     <r>
       <rPr>
@@ -1395,35 +1354,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
+      <t>NÃO pode:</t>
     </r>
-  </si>
-  <si>
-    <t>Abranger equipamentos e procedimentos.</t>
-  </si>
-  <si>
-    <t>Estar disponível ao comandante da guarnição.</t>
-  </si>
-  <si>
-    <t>Ser realizado após o término do turno.</t>
-  </si>
-  <si>
-    <t>Integrar a rotina operacional.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">O checklist é obrigatório </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>antes</t>
     </r>
     <r>
       <rPr>
@@ -1433,41 +1369,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de assumir o serviço operacional.</t>
+      <t>antes de assumir o serviço operacional.</t>
     </r>
-  </si>
-  <si>
-    <t>A definição formal dos EPIs e EPCs por tipo de serviço é atribuição do(a):</t>
-  </si>
-  <si>
-    <t>PM4</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>PM3</t>
-  </si>
-  <si>
-    <t>APM</t>
-  </si>
-  <si>
-    <t>A PM3 define e publica os EPIs/EPCs de cada serviço do portfólio operacional.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO</t>
     </r>
     <r>
       <rPr>
@@ -1477,53 +1384,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> quanto às atribuições da DAL no âmbito da Diretriz.</t>
+      <t>ERRO quanto às atribuições da DAL no âmbito da Diretriz.</t>
     </r>
-  </si>
-  <si>
-    <t>Diagnosticar materiais de consumo.</t>
-  </si>
-  <si>
-    <t>Planejar aquisição de EPIs consumíveis.</t>
-  </si>
-  <si>
-    <t>Fiscalizar uso de EPI na guarnição.</t>
-  </si>
-  <si>
-    <t>Propor distribuição logística.</t>
-  </si>
-  <si>
-    <t>Fiscalização do uso é função do comando; a DAL atua na logística de materiais de consumo.</t>
-  </si>
-  <si>
-    <t>A produção do vídeo institucional “É preciso voltar pra casa...” compete à:</t>
-  </si>
-  <si>
-    <t>PM5</t>
-  </si>
-  <si>
-    <t>DCO</t>
-  </si>
-  <si>
-    <t>ADO</t>
-  </si>
-  <si>
-    <t>A Diretriz atribui à DCO a produção de materiais audiovisuais e campanhas.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Assinale a alternativa que </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NÃO corresponde</t>
     </r>
     <r>
       <rPr>
@@ -1533,56 +1399,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a desdobramento imposto aos Coronéis do Alto-Comando.</t>
+      <t>NÃO corresponde a desdobramento imposto aos Coronéis do Alto-Comando.</t>
     </r>
-  </si>
-  <si>
-    <t>Apresentar a Diretriz aos oficiais.</t>
-  </si>
-  <si>
-    <t>Garantir replicação às praças.</t>
-  </si>
-  <si>
-    <t>Executar diagnósticos técnicos de EPI.</t>
-  </si>
-  <si>
-    <t>Observar prazos definidos.</t>
-  </si>
-  <si>
-    <t>Diagnósticos técnicos cabem a DRH, CPM, PM4 e DAL, conforme o caso.</t>
-  </si>
-  <si>
-    <t>O kit APH Tático, segundo a Diretriz, é classificado como:</t>
-  </si>
-  <si>
-    <t>Equipamento opcional.</t>
-  </si>
-  <si>
-    <t>Equipamento administrativo.</t>
-  </si>
-  <si>
-    <t>Equipamento de proteção.</t>
-  </si>
-  <si>
-    <t>Material exclusivamente médico.</t>
-  </si>
-  <si>
-    <t>O texto reconhece expressamente o kit APH Tático como equipamento de proteção.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Constitui </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERRO conceitual</t>
     </r>
     <r>
       <rPr>
@@ -1592,23 +1414,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sobre a natureza da Diretriz de Segurança.</t>
+      <t>ERRO conceitual sobre a natureza da Diretriz de Segurança.</t>
     </r>
   </si>
   <si>
-    <t>É diretriz estratégica.</t>
-  </si>
-  <si>
-    <t>Visa mudança cultural.</t>
-  </si>
-  <si>
-    <t>Substitui normas operacionais específicas.</t>
-  </si>
-  <si>
-    <t>Estabelece princípios e objetivos.</t>
-  </si>
-  <si>
-    <t>A Diretriz orienta e integra a doutrina, não substitui normas operacionais específicas.</t>
+    <t>DIRETRIZ DE SEGURANÇA</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1632,7 +1441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1685,25 +1493,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,2182 +1849,2266 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="135" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="176.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="32.5703125" style="4"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="135" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="110.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="176.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="32.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="G45" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="K49" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="K50" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="K55" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="K56" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="K57" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="F58" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="H58" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="I58" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="J58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G56" s="1" t="s">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="H59" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="I59" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="K59" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F57" s="1" t="s">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="F60" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H60" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I60" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K60" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="1" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H61" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I61" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J58" s="1" t="s">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="K62" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J59" s="1" t="s">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="K63" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87631811-A31D-4EFC-806C-504731C68E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D1979F-3818-4C8F-81E3-E24187F9A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30090" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="934">
   <si>
     <t>ID</t>
   </si>
@@ -1420,19 +1420,2325 @@
   <si>
     <t>DIRETRIZ DE SEGURANÇA</t>
   </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto à natureza e aplicação do Portfólio de Serviços Operacionais da PMMG.</t>
+  </si>
+  <si>
+    <t>O Portfólio constitui rol taxativo de serviços e atividades operacionais da PMMG.</t>
+  </si>
+  <si>
+    <t>O Portfólio orienta o emprego dos recursos do SisEOp visando equilíbrio e efetividade.</t>
+  </si>
+  <si>
+    <t>O Portfólio descreve conceitos operacionais, não a missão das UEOp.</t>
+  </si>
+  <si>
+    <t>O Portfólio autoriza a criação imediata de novos serviços pela UEOp conforme necessidade local.</t>
+  </si>
+  <si>
+    <t>A Diretriz veda a criação direta de novos serviços pela UEOp, exigindo trâmite via canal de comando, CHEM, projeto-piloto e decisão do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto à distinção entre ação, atividade e serviço policial-militar.</t>
+  </si>
+  <si>
+    <t>A ação é a unidade elementar do procedimento operacional.</t>
+  </si>
+  <si>
+    <t>A atividade policial-militar é executada exclusivamente por Unidades Especializadas.</t>
+  </si>
+  <si>
+    <t>O serviço é composto por um conjunto de atividades com conceito operacional definido.</t>
+  </si>
+  <si>
+    <t>Um serviço pode agregar diversas atividades correlacionadas.</t>
+  </si>
+  <si>
+    <t>A Diretriz não restringe atividades a Unidades Especializadas; atividades podem ser executadas por equipes de POG.</t>
+  </si>
+  <si>
+    <t>Sobre a classificação quanto à essencialidade, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t>Serviços eletivos podem substituir serviços essenciais.</t>
+  </si>
+  <si>
+    <t>Serviços essenciais podem ser desativados temporariamente.</t>
+  </si>
+  <si>
+    <t>Serviços essenciais são imprescindíveis e não podem ser reduzidos a ponto de comprometer o atendimento.</t>
+  </si>
+  <si>
+    <t>Serviços exclusivos podem ser executados por qualquer Unidade em caráter excepcional.</t>
+  </si>
+  <si>
+    <t>Serviços essenciais são basilares e obrigatórios, não podendo ser desativados ou reduzidos com prejuízo à capacidade operacional.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa que NÃO autoriza a ativação de serviço eletivo.</t>
+  </si>
+  <si>
+    <t>Serviços essenciais previamente ativados.</t>
+  </si>
+  <si>
+    <t>Existência de recursos operacionais mínimos.</t>
+  </si>
+  <si>
+    <t>Análise da realidade local.</t>
+  </si>
+  <si>
+    <t>Autorização direta do Comandante da UEOp sem ciência da UDI/DOp.</t>
+  </si>
+  <si>
+    <t>A ativação de serviços eletivos exige trâmite via canal de comando e ciência da DOp, sob responsabilidade da UDI.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA sobre a equipe policial-militar multimissão.</t>
+  </si>
+  <si>
+    <t>Fundamenta-se no princípio da universalidade.</t>
+  </si>
+  <si>
+    <t>Permite executar múltiplas atividades de forma integrada.</t>
+  </si>
+  <si>
+    <t>Não se confunde com o princípio da universalidade.</t>
+  </si>
+  <si>
+    <t>Depende de planejamento operacional e priorização de demandas.</t>
+  </si>
+  <si>
+    <t>A Diretriz diferencia explicitamente equipe multimissão do princípio da universalidade.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao emprego do Policiamento Aéreo.</t>
+  </si>
+  <si>
+    <t>Atua em apoio aos demais tipos de policiamento.</t>
+  </si>
+  <si>
+    <t>Restringe-se ao 3º e 4º esforço da malha protetora.</t>
+  </si>
+  <si>
+    <t>Pode empregar aeronaves de asas fixas e rotativas.</t>
+  </si>
+  <si>
+    <t>É executado exclusivamente pelo Comando de Aviação.</t>
+  </si>
+  <si>
+    <t>O Policiamento Aéreo percorre todos os níveis da malha protetora.</t>
+  </si>
+  <si>
+    <t>Sobre os serviços exclusivos, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t>Podem ser executados por qualquer UEOp em apoio.</t>
+  </si>
+  <si>
+    <t>Dependem apenas de planejamento local.</t>
+  </si>
+  <si>
+    <t>São vinculados a Unidades/Frações específicas, vedada execução por outras estruturas.</t>
+  </si>
+  <si>
+    <t>São sempre serviços eletivos.</t>
+  </si>
+  <si>
+    <t>Serviços exclusivos são restritos às Unidades específicas previstas no Portfólio.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa que constitui ERRO quanto às restrições de empenho.</t>
+  </si>
+  <si>
+    <t>Podem ser previstas em cartão programa.</t>
+  </si>
+  <si>
+    <t>Podem ser suspensas mediante análise do CTO.</t>
+  </si>
+  <si>
+    <t>Impedem qualquer empenho em ocorrências.</t>
+  </si>
+  <si>
+    <t>Devem considerar necessidade superveniente.</t>
+  </si>
+  <si>
+    <t>A restrição não é absoluta; o CTO pode suspendê-la diante de necessidade operacional.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto à composição das equipes.</t>
+  </si>
+  <si>
+    <t>O Tático Móvel pode empregar viaturas 2 rodas.</t>
+  </si>
+  <si>
+    <t>O GEPAR possui composição fixa e imutável.</t>
+  </si>
+  <si>
+    <t>O GER pode empregar viatura 2 rodas com 3 policiais.</t>
+  </si>
+  <si>
+    <t>O ROTAM pode atuar com viaturas 2 rodas.</t>
+  </si>
+  <si>
+    <t>O efetivo do GEPAR pode variar conforme características da missão e recursos disponíveis.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto à supervisão e controle dos serviços.</t>
+  </si>
+  <si>
+    <t>Deve basear-se em sistemas informatizados.</t>
+  </si>
+  <si>
+    <t>Independe da fidedignidade dos lançamentos operacionais.</t>
+  </si>
+  <si>
+    <t>Pode ser exercida por diversos níveis da PMMG.</t>
+  </si>
+  <si>
+    <t>Visa economicidade, celeridade e eficiência.</t>
+  </si>
+  <si>
+    <t>A Diretriz exige lançamentos fidedignos para que a supervisão seja eficaz.</t>
+  </si>
+  <si>
+    <t>PORTFÓLIO DE SERVIÇOS</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto ao conceito de malha protetora.</t>
+  </si>
+  <si>
+    <t>Baseia-se na ocupação de espaços vazios.</t>
+  </si>
+  <si>
+    <t>Observa o princípio da responsabilidade territorial.</t>
+  </si>
+  <si>
+    <t>Limita-se ao policiamento preventivo ostensivo.</t>
+  </si>
+  <si>
+    <t>Permite o emprego de Unidades em recobrimento.</t>
+  </si>
+  <si>
+    <t>A malha protetora envolve ações preventivas e repressivas, incluindo recobrimento e emprego escalonado, não se limitando ao policiamento preventivo.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao Sistema de Emprego Operacional (SisEOp).</t>
+  </si>
+  <si>
+    <t>Opera dentro dos limites da competência institucional.</t>
+  </si>
+  <si>
+    <t>Tem como entradas a análise criminal e a inteligência.</t>
+  </si>
+  <si>
+    <t>Tem como saída exclusiva a repressão penal.</t>
+  </si>
+  <si>
+    <t>Visa prevenção, repressão e redução do medo do crime.</t>
+  </si>
+  <si>
+    <t>O SisEOp possui múltiplas saídas: prevenção, repressão e redução do medo do crime, não apenas repressão.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre o princípio da universalidade.</t>
+  </si>
+  <si>
+    <t>Autoriza atuação irrestrita fora da competência institucional.</t>
+  </si>
+  <si>
+    <t>Aplica-se apenas ao Policiamento Ostensivo Geral.</t>
+  </si>
+  <si>
+    <t>Exige preparo para adoção de medidas preliminares em qualquer ocorrência.</t>
+  </si>
+  <si>
+    <t>Substitui a necessidade de planejamento operacional.</t>
+  </si>
+  <si>
+    <t>A universalidade impõe preparo mínimo para atuação preliminar, por solicitação ou iniciativa, respeitando limites institucionais.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto aos Serviços Auxiliares.</t>
+  </si>
+  <si>
+    <t>São comuns a todos os tipos de policiamento.</t>
+  </si>
+  <si>
+    <t>Incluem guarda de aquartelamento e intendência.</t>
+  </si>
+  <si>
+    <t>Ampliam diretamente o poder de polícia ostensiva nas ruas.</t>
+  </si>
+  <si>
+    <t>Envolvem atividades internas e de supervisão.</t>
+  </si>
+  <si>
+    <t>Serviços auxiliares não ampliam diretamente o poder ostensivo nas ruas; dão suporte interno e operacional.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao teleatendimento remoto.</t>
+  </si>
+  <si>
+    <t>Destina-se a situações não emergenciais.</t>
+  </si>
+  <si>
+    <t>Exige triagem preliminar.</t>
+  </si>
+  <si>
+    <t>Dispensa registro no REDS.</t>
+  </si>
+  <si>
+    <t>Subsidia ações policiais posteriores.</t>
+  </si>
+  <si>
+    <t>A Diretriz prevê que a coleta de informações é essencial, inclusive para registro no REDS.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre o Policiamento Velado.</t>
+  </si>
+  <si>
+    <t>É modalidade de policiamento ostensivo.</t>
+  </si>
+  <si>
+    <t>Atua exclusivamente na repressão imediata.</t>
+  </si>
+  <si>
+    <t>É regulado por protocolos do SIPOM.</t>
+  </si>
+  <si>
+    <t>Independe de assessoramento aos demais serviços.</t>
+  </si>
+  <si>
+    <t>O Policiamento Velado é serviço de apoio, regulado por protocolos do SIPOM, com função de assessoramento.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto ao Policiamento de Eventos.</t>
+  </si>
+  <si>
+    <t>Pode ser executado por Unidade específica.</t>
+  </si>
+  <si>
+    <t>Pode ser executado por outras Unidades em caráter especial.</t>
+  </si>
+  <si>
+    <t>A Patrulha de Eventos possui composição mínima definida.</t>
+  </si>
+  <si>
+    <t>É classificado como serviço essencial.</t>
+  </si>
+  <si>
+    <t>O Policiamento de Eventos é serviço de apoio, não essencial.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto à desativação de Base de Segurança Comunitária existente.</t>
+  </si>
+  <si>
+    <t>Depende de autorização do CHEM.</t>
+  </si>
+  <si>
+    <t>Exige Estudo de Situação da UEOp.</t>
+  </si>
+  <si>
+    <t>Independe de parecer do Comandante da UDI.</t>
+  </si>
+  <si>
+    <t>Deve ser encaminhada à PM3.</t>
+  </si>
+  <si>
+    <t>A desativação exige parecer favorável do Comandante da UDI, além de CHEM e PM3.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre patrulha unitária.</t>
+  </si>
+  <si>
+    <t>É prevista como formato padrão no Portfólio.</t>
+  </si>
+  <si>
+    <t>É admitida para execução regular de serviços.</t>
+  </si>
+  <si>
+    <t>Não é prevista para execução de serviços policiais-militares.</t>
+  </si>
+  <si>
+    <t>É obrigatória em deslocamentos administrativos.</t>
+  </si>
+  <si>
+    <t>A Diretriz veda patrulha unitária como formato de serviço policial-militar.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto à atuação de policiais com dispensa médica.</t>
+  </si>
+  <si>
+    <t>Podem executar serviços auxiliares.</t>
+  </si>
+  <si>
+    <t>Devem atuar exclusivamente fora das instalações policiais.</t>
+  </si>
+  <si>
+    <t>Atuam conforme capacidade laborativa residual.</t>
+  </si>
+  <si>
+    <t>Têm atuação restrita ao interior das instalações.</t>
+  </si>
+  <si>
+    <t>A atuação é restrita ao interior das instalações policiais, não fora delas.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa INCORRETA quanto à composição mínima dos serviços do Policiamento Ostensivo Geral.</t>
+  </si>
+  <si>
+    <t>A Radiopatrulha é composta por 2 policiais militares.</t>
+  </si>
+  <si>
+    <t>O GEPAR atua com equipe de 3 policiais militares.</t>
+  </si>
+  <si>
+    <t>A Patrulha Comunitária pode ser executada por policial militar isolado.</t>
+  </si>
+  <si>
+    <t>A Patrulha Rural exige, no mínimo, 2 policiais militares.</t>
+  </si>
+  <si>
+    <t>Não há previsão de patrulha unitária para execução de serviços policiais-militares; a Patrulha Comunitária exige 2 policiais.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto às condicionantes para ativação de serviços eletivos.</t>
+  </si>
+  <si>
+    <t>Exigir que os serviços essenciais estejam ativados.</t>
+  </si>
+  <si>
+    <t>Considerar recursos operacionais disponíveis.</t>
+  </si>
+  <si>
+    <t>Avaliar a realidade social e criminal local.</t>
+  </si>
+  <si>
+    <t>Dispensar diagnóstico de recursos operacionais quando houver demanda emergencial.</t>
+  </si>
+  <si>
+    <t>A ativação de serviços eletivos exige, obrigatoriamente, diagnóstico de recursos operacionais, independentemente da urgência.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre serviços com recursos logísticos oriundos de convênios ou programas governamentais.</t>
+  </si>
+  <si>
+    <t>Não podem ser desativados sem autorização prévia do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Podem ser desativados pela UEOp após término do convênio.</t>
+  </si>
+  <si>
+    <t>Dependem apenas de decisão da UDI.</t>
+  </si>
+  <si>
+    <t>Podem ser suspensos temporariamente pelo CTO.</t>
+  </si>
+  <si>
+    <t>Serviços ativados com recursos oriundos de convênios ou programas não podem ser desativados sem autorização do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao processo de criação de novo serviço não previsto no Portfólio.</t>
+  </si>
+  <si>
+    <t>Deve tramitar via canal de comando.</t>
+  </si>
+  <si>
+    <t>Pode ser implementado diretamente após estudo de situação.</t>
+  </si>
+  <si>
+    <t>Exige análise do CHEM.</t>
+  </si>
+  <si>
+    <t>Depende de projeto-piloto autorizado.</t>
+  </si>
+  <si>
+    <t>A implementação não é direta: depende de parecer do CHEM, projeto-piloto e decisão do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre o projeto-piloto para criação de novo serviço.</t>
+  </si>
+  <si>
+    <t>Dispensa definição de indicadores de avaliação.</t>
+  </si>
+  <si>
+    <t>Possui prazo indeterminado.</t>
+  </si>
+  <si>
+    <t>Deve prever recursos, objetivos e mecanismos de controle.</t>
+  </si>
+  <si>
+    <t>É autorizado pelo Comandante da UEOp.</t>
+  </si>
+  <si>
+    <t>O projeto-piloto deve conter prazo, finalidade, recursos, indicadores e mecanismos de controle, com autorização superior.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto à relação entre serviços eletivos e o PLEMOp.</t>
+  </si>
+  <si>
+    <t>Serviços eletivos adotados devem constar no PLEMOp.</t>
+  </si>
+  <si>
+    <t>A relação deve ser atualizada anualmente.</t>
+  </si>
+  <si>
+    <t>A mudança de Comandante exige atualização do PLEMOp.</t>
+  </si>
+  <si>
+    <t>Serviços eletivos podem ser omitidos do PLEMOp se já consolidados.</t>
+  </si>
+  <si>
+    <t>A Diretriz exige que todos os serviços eletivos adotados constem no PLEMOp, sem exceção.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta quanto ao serviço ROCCA.</t>
+  </si>
+  <si>
+    <t>O uso eventual de cão por outro serviço caracteriza ROCCA.</t>
+  </si>
+  <si>
+    <t>O ROCCA pode ser executado por qualquer Unidade.</t>
+  </si>
+  <si>
+    <t>O ROCCA é exclusivo das Unidades de Missões Especiais.</t>
+  </si>
+  <si>
+    <t>O emprego do cão define automaticamente o tipo de serviço.</t>
+  </si>
+  <si>
+    <t>A Diretriz é expressa ao afirmar que o ROCCA é exclusivo das Unidades de Missões Especiais.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao serviço Patrulha de Trânsito (PaTran).</t>
+  </si>
+  <si>
+    <t>Integra o Policiamento Ostensivo Geral.</t>
+  </si>
+  <si>
+    <t>Pode ser classificado como serviço exclusivo sem exceções.</t>
+  </si>
+  <si>
+    <t>Atua no trânsito urbano.</t>
+  </si>
+  <si>
+    <t>Possui atividades atreladas específicas.</t>
+  </si>
+  <si>
+    <t>A PaTran é classificada como exclusiva, mas admite execução como atividade GU RP, conforme Apêndice I.</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta sobre exceções à composição padrão dos serviços.</t>
+  </si>
+  <si>
+    <t>Apenas o Tático Móvel admite variação de efetivo.</t>
+  </si>
+  <si>
+    <t>Nenhum serviço admite variação de efetivo.</t>
+  </si>
+  <si>
+    <t>Tático Móvel e GEPAR podem ter efetivo ampliado conforme missão.</t>
+  </si>
+  <si>
+    <t>A ampliação de efetivo é automática.</t>
+  </si>
+  <si>
+    <t>Os itens 7.4 e 7.5 preveem exceções expressas para TM e GEPAR, conforme características da missão.</t>
+  </si>
+  <si>
+    <t>Constitui ERRO quanto ao emprego ordinário de serviço com efetivo diverso do conceito operacional.</t>
+  </si>
+  <si>
+    <t>Exige autorização do CHEM.</t>
+  </si>
+  <si>
+    <t>Deve ser devidamente motivado.</t>
+  </si>
+  <si>
+    <t>Deve tramitar via PM3.</t>
+  </si>
+  <si>
+    <t>Pode ser decidido diretamente pelo CTO em qualquer situação.</t>
+  </si>
+  <si>
+    <t>Fora das exceções expressas, a alteração de efetivo exige autorização do CHEM, via PM3.</t>
+  </si>
+  <si>
+    <t>Durante o turno, uma UEOp decide empregar uma equipe de Radiopatrulha para executar Patrulha Escolar e Policiamento Turístico no mesmo turno, conforme planejamento. À luz da Diretriz, a conduta é:</t>
+  </si>
+  <si>
+    <t>Correta, pois decorre do conceito de equipe policial-militar multimissão aplicado à Radiopatrulha.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois a Radiopatrulha só pode executar atendimento de ocorrências.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois Patrulha Escolar é serviço exclusivo.</t>
+  </si>
+  <si>
+    <t>Correta apenas se houver autorização do CHEM.</t>
+  </si>
+  <si>
+    <t>A Diretriz permite que a Radiopatrulha execute diferentes atividades no turno, conforme planejamento, pelo conceito de equipe multimissão.</t>
+  </si>
+  <si>
+    <t>Em uma cidade com aumento repentino de crimes violentos, o Comandante da UEOp decide empregar ROTAM para recobrimento territorial permanente. Segundo o Portfólio, a decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, pois ROTAM integra o 1º esforço da malha protetora.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois ROTAM atua exclusivamente em recobrimento, integrando o 3º e 4º esforços.</t>
+  </si>
+  <si>
+    <t>Correta, pois qualquer Unidade pode executar ROTAM.</t>
+  </si>
+  <si>
+    <t>Incorreta apenas se não houver viatura 2 rodas disponível.</t>
+  </si>
+  <si>
+    <t>A ROTAM é serviço de Missões Especiais, exclusivo, de recobrimento, integrante do 3º e 4º esforços da malha protetora.</t>
+  </si>
+  <si>
+    <t>Em uma Fração PM sem Grupamento de Cães, o CTO decide empregar o cão policial junto ao Tático Móvel. À luz da Diretriz, a decisão é:</t>
+  </si>
+  <si>
+    <t>Incorreta, pois cão policial é exclusivo do ROCCA.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois o Tático Móvel não admite apoio especializado.</t>
+  </si>
+  <si>
+    <t>Correta, desde que haja previsão de estrutura para Grupamento de Cães.</t>
+  </si>
+  <si>
+    <t>Correta independentemente de previsão estrutural.</t>
+  </si>
+  <si>
+    <t>A Diretriz autoriza o emprego do cão junto ao TM somente nas Frações onde houver previsão de estrutura de Grupamento de Cães.</t>
+  </si>
+  <si>
+    <t>Uma UEOp pretende ativar um serviço eletivo antes de garantir a ativação do Tático Móvel. Segundo o Portfólio, essa ativação é:</t>
+  </si>
+  <si>
+    <t>Permitida, se houver demanda social relevante.</t>
+  </si>
+  <si>
+    <t>Permitida, desde que haja recursos logísticos.</t>
+  </si>
+  <si>
+    <t>Permitida, se constar no PLEMOp.</t>
+  </si>
+  <si>
+    <t>Vedada, pois serviços essenciais devem estar previamente ativados.</t>
+  </si>
+  <si>
+    <t>A Diretriz condiciona a ativação de serviços eletivos à prévia ativação dos serviços essenciais.</t>
+  </si>
+  <si>
+    <t>Durante um evento de grande porte, a Unidade decide empregar uma Patrulha de Eventos com 4 policiais militares. Segundo o Portfólio, essa atuação é:</t>
+  </si>
+  <si>
+    <t>Correta, pois a Patrulha de Eventos é aplicação específica do Policiamento de Eventos.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois a composição mínima é de 2 policiais.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois Policiamento de Eventos é serviço essencial.</t>
+  </si>
+  <si>
+    <t>Correta apenas se executada pela Unidade de Missões Especiais.</t>
+  </si>
+  <si>
+    <t>A Diretriz define a Patrulha de Eventos como aplicação específica do PEv, com composição mínima de 4 policiais.</t>
+  </si>
+  <si>
+    <t>Em um atendimento não emergencial recebido via 190, o operador decide direcionar a demanda para teleatendimento remoto. Segundo a Diretriz, é obrigatório:</t>
+  </si>
+  <si>
+    <t>Encerrar o chamado sem registro.</t>
+  </si>
+  <si>
+    <t>Realizar triagem preliminar e coletar informações para registro no REDS.</t>
+  </si>
+  <si>
+    <t>Acionar imediatamente Radiopatrulha.</t>
+  </si>
+  <si>
+    <t>Solicitar autorização do CTO.</t>
+  </si>
+  <si>
+    <t>O teleatendimento remoto exige triagem preliminar e coleta de informações para subsidiar ações e registro no REDS.</t>
+  </si>
+  <si>
+    <t>Uma equipe utiliza cão farejador em apoio eventual a uma Radiopatrulha. Segundo o Portfólio, essa atuação:</t>
+  </si>
+  <si>
+    <t>Caracteriza automaticamente o serviço ROCCA.</t>
+  </si>
+  <si>
+    <t>É vedada em qualquer hipótese.</t>
+  </si>
+  <si>
+    <t>Não caracteriza o serviço ROCCA.</t>
+  </si>
+  <si>
+    <t>Exige autorização prévia do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>O uso eventual do cão por outro serviço não caracteriza ROCCA, conforme previsão expressa da Diretriz.</t>
+  </si>
+  <si>
+    <t>Uma UEOp decide reduzir o efetivo do serviço Radiopatrulha para empregar mais equipes em serviço eletivo. À luz da Diretriz, a conduta é:</t>
+  </si>
+  <si>
+    <t>Permitida por decisão local.</t>
+  </si>
+  <si>
+    <t>Permitida se houver análise criminal favorável.</t>
+  </si>
+  <si>
+    <t>Permitida em caráter temporário.</t>
+  </si>
+  <si>
+    <t>Vedada por comprometer serviço essencial.</t>
+  </si>
+  <si>
+    <t>Serviços essenciais não podem ser reduzidos a ponto de comprometer a capacidade de atendimento.</t>
+  </si>
+  <si>
+    <t>Durante o turno, surge uma ocorrência grave, e há restrição de empenho prevista em cartão programa. Segundo o Portfólio, o CTO deve:</t>
+  </si>
+  <si>
+    <t>Analisar e, se necessário, suspender a restrição para atendimento da ocorrência.</t>
+  </si>
+  <si>
+    <t>Manter a restrição em qualquer hipótese.</t>
+  </si>
+  <si>
+    <t>Solicitar autorização do CHEM antes do empenho.</t>
+  </si>
+  <si>
+    <t>Encaminhar exclusivamente ao Policiamento Velado.</t>
+  </si>
+  <si>
+    <t>A Diretriz atribui ao CTO a análise e eventual suspensão da restrição diante da necessidade operacional.</t>
+  </si>
+  <si>
+    <t>Um policial com dispensa médica é escalado para patrulhamento externo a pé. Segundo o Portfólio, a decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, se houver efetivo reduzido.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois a atuação deve ser restrita ao interior das instalações.</t>
+  </si>
+  <si>
+    <t>Correta, se houver autorização do CTO.</t>
+  </si>
+  <si>
+    <t>Correta apenas em serviços eletivos.</t>
+  </si>
+  <si>
+    <t>Policiais com dispensa médica só podem atuar em serviços auxiliares, restritos ao interior das instalações policiais.</t>
+  </si>
+  <si>
+    <t>Em uma UEOp, o Comandante decide empregar apenas 1 policial em viatura para executar Radiopatrulha em área urbana de baixo índice criminal. À luz da Diretriz, a decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, por se tratar de área de baixo risco.</t>
+  </si>
+  <si>
+    <t>Correta, se houver justificativa operacional.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois não há previsão de patrulha unitária.</t>
+  </si>
+  <si>
+    <t>Correta, desde que temporária.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma é expressa: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Não há previsão de emprego de patrulhas unitárias na execução de serviços policiais-militares previstos neste Portfólio”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 7.8).</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante planejamento operacional, uma UEOp decide ativar Patrulha Comunitária sem manter o Tático Móvel ativo. Segundo a Diretriz, a conduta é:</t>
+  </si>
+  <si>
+    <t>Permitida, pois ambos são do 1º esforço.</t>
+  </si>
+  <si>
+    <t>Permitida, se houver efetivo suficiente.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois serviços essenciais devem estar ativados.</t>
+  </si>
+  <si>
+    <t>Permitida apenas com autorização do CHEM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma condiciona: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Para implementação dos serviços eletivos é necessário que os serviços essenciais estejam ativados”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Seção 3).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em razão de evento climático, a UEOp decide suspender temporariamente o serviço Radiopatrulha. À luz da Diretriz, a decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, por motivo excepcional.</t>
+  </si>
+  <si>
+    <t>Correta, se comunicada à DOp.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois serviços essenciais não podem ser desativados.</t>
+  </si>
+  <si>
+    <t>Correta, se substituída por serviço eletivo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz determina: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Os serviços essenciais possuem caráter imprescindível e não poderão ser desativados nem reduzidos a ponto de comprometer a capacidade de atendimento”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Seção 5).</t>
+    </r>
+  </si>
+  <si>
+    <t>Uma UEOp cria novo serviço operacional não previsto no Portfólio e inicia sua execução em caráter experimental. Segundo a Diretriz, essa conduta é:</t>
+  </si>
+  <si>
+    <t>Correta, se experimental.</t>
+  </si>
+  <si>
+    <t>Correta, se constar no PLEMOp.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois depende de autorização do CHEM e do Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Correta, se houver demanda local comprovada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma dispõe: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“As propostas de criação de novos serviços […] deverão tramitar via canal de comando […] e somente poderão ser implementadas com autorização do Chefe do Estado-Maior”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Seção 5).</t>
+    </r>
+  </si>
+  <si>
+    <t>Uma equipe do Tático Móvel é empregada com 5 policiais devido à complexidade da missão. À luz da Diretriz, o emprego é:</t>
+  </si>
+  <si>
+    <t>Incorreto, pois extrapola o conceito operacional.</t>
+  </si>
+  <si>
+    <t>Correto, conforme exceção prevista.</t>
+  </si>
+  <si>
+    <t>Incorreto, pois exige projeto-piloto.</t>
+  </si>
+  <si>
+    <t>Correto apenas com autorização do CTO.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma prevê: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Os serviços Tático Móvel e GEPAR poderão, eventualmente, ser empregados com um número maior de integrantes”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 7.4).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em uma ocorrência grave, há restrição de empenho prevista em planejamento. O CTO decide empenhar a equipe. Segundo a Diretriz, o procedimento é:</t>
+  </si>
+  <si>
+    <t>Incorreto, pois a restrição é absoluta.</t>
+  </si>
+  <si>
+    <t>Correto, desde que o CTO analise e suspenda a restrição.</t>
+  </si>
+  <si>
+    <t>Incorreto, pois depende do CHEM.</t>
+  </si>
+  <si>
+    <t>Correto apenas se constar no PLEMOp.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma estabelece: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“O Coordenador do Turno Operacional deverá realizar a análise quanto à suspensão da restrição de empenho”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 7.7).</t>
+    </r>
+  </si>
+  <si>
+    <t>Uma equipe utiliza cão policial em apoio pontual à Radiopatrulha. Segundo a Diretriz, essa atuação:</t>
+  </si>
+  <si>
+    <t>Caracteriza ROCCA.</t>
+  </si>
+  <si>
+    <t>É vedada.</t>
+  </si>
+  <si>
+    <t>Exige ativação formal do serviço.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz é clara: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“A eventual utilização do recurso cão por qualquer outro serviço não consiste no serviço ROCCA”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 4.3, alínea e).</t>
+    </r>
+  </si>
+  <si>
+    <t>Um policial com dispensa médica parcial é escalado para guarda de aquartelamento. À luz da Diretriz, a escala é:</t>
+  </si>
+  <si>
+    <t>Incorreta, pois dispensa médica impede qualquer serviço.</t>
+  </si>
+  <si>
+    <t>Correta, conforme capacidade laborativa residual.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois guarda não é serviço auxiliar.</t>
+  </si>
+  <si>
+    <t>Correta apenas com autorização do CHEM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma dispõe: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Os policiais militares com dispensa médica poderão realizar serviços auxiliares, conforme sua capacidade laborativa residual”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 7.9).</t>
+    </r>
+  </si>
+  <si>
+    <t>Uma UEOp decide desativar uma Base de Segurança Comunitária existente antes da publicação da Diretriz. Segundo a norma, é necessário:</t>
+  </si>
+  <si>
+    <t>Apenas decisão do Comandante da UEOp.</t>
+  </si>
+  <si>
+    <t>Autorização do Comandante da UDI.</t>
+  </si>
+  <si>
+    <t>Autorização do CHEM, com Estudo de Situação e parecer da UDI.</t>
+  </si>
+  <si>
+    <t>Comunicação simples à PM3.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz prevê: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“A desativação de qualquer Base de Segurança Comunitária […] fica condicionada à autorização do Chefe do Estado-Maior”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (item 7.2).</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante supervisão, constata-se divergência entre o serviço executado e o lançado no sistema. Segundo a Diretriz, tal falha compromete:</t>
+  </si>
+  <si>
+    <t>Apenas o planejamento futuro.</t>
+  </si>
+  <si>
+    <t>Apenas a estatística criminal.</t>
+  </si>
+  <si>
+    <t>A eficiência da supervisão e controle.</t>
+  </si>
+  <si>
+    <t>Somente a prestação de contas administrativa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A norma estabelece: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Para que a supervisão seja eficiente, o lançamento das informações […] deve ser fidedigno à execução”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Seção 6).</t>
+    </r>
+  </si>
+  <si>
+    <t>DGEOP</t>
+  </si>
+  <si>
+    <t>Em uma UEOp, o comandante determinou que o 3º esforço da malha protetora seria cumprido pelo efetivo ordinário das Companhias e Pelotões (1º esforço), mantendo as Unidades Especializadas apenas como apoio eventual. À luz da DGEOp, isso constitui ERRO porque o 3º esforço é, por definição:</t>
+  </si>
+  <si>
+    <t>recobrimento por efetivo ordinário da UE territorial.</t>
+  </si>
+  <si>
+    <t>recobrimento por Subunidades Táticas da própria UEOp.</t>
+  </si>
+  <si>
+    <t>recobrimento por Unidades Especializadas em apoio à Unidade com responsabilidade territorial.</t>
+  </si>
+  <si>
+    <t>força-tarefa estratégica subordinada ao Comando-Geral.</t>
+  </si>
+  <si>
+    <t>A DGEOp define o 3º esforço como “recobrimento da malha protetora, pela atuação de unidades especializadas em apoio à Unidade com responsabilidade territorial”.</t>
+  </si>
+  <si>
+    <t>Em evento de grande repercussão, foi proposta a ativação de força-tarefa com comando próprio, subordinada diretamente ao Comandante-Geral. Assinale a alternativa que indica a condição normativa correta para esse emprego.</t>
+  </si>
+  <si>
+    <t>Pode ser acionada pelo Comandante Regional.</t>
+  </si>
+  <si>
+    <t>Somente pode ser acionada pelo Comando-Geral.</t>
+  </si>
+  <si>
+    <t>É automaticamente ativada quando há integração de UEOp distintas.</t>
+  </si>
+  <si>
+    <t>Independe de comando próprio.</t>
+  </si>
+  <si>
+    <t>A DGEOp estabelece o 5º esforço como “força tarefa estratégica, somente acionada pelo Comando-Geral”.</t>
+  </si>
+  <si>
+    <t>No diagnóstico para o PLEMOP, um gestor desconsiderou demandas de CONSEP e redes de proteção, utilizando apenas dados internos. Segundo a DGEOp, assinale a alternativa INCORRETA.</t>
+  </si>
+  <si>
+    <t>Utilizar análise criminal.</t>
+  </si>
+  <si>
+    <t>Utilizar geoprocessamento.</t>
+  </si>
+  <si>
+    <t>Dispensar demandas comunitárias levantadas via CONSEP.</t>
+  </si>
+  <si>
+    <t>Considerar SIPOM e disque-denúncia.</t>
+  </si>
+  <si>
+    <t>A DGEOp exige que o diagnóstico utilize, entre outras fontes, “as demandas comunitárias levantadas via redes de proteção, CONSEP”.</t>
+  </si>
+  <si>
+    <t>Um oficial afirmou que “coordenação” é acompanhamento do cumprimento de decisões e “controle” é harmonização de atividades. À luz da DGEOp, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t>A afirmação está correta.</t>
+  </si>
+  <si>
+    <t>A DGEOp não define coordenação e controle.</t>
+  </si>
+  <si>
+    <t>A afirmação está invertida.</t>
+  </si>
+  <si>
+    <t>Coordenação e controle são conceitos equivalentes.</t>
+  </si>
+  <si>
+    <t>A DGEOp define coordenação como “harmonizar as atividades” e controle como “acompanhamento (…) para assegurar (…) o cumprimento das decisões”.</t>
+  </si>
+  <si>
+    <t>Um PLEMOP foi elaborado sem definição de limites de atuação e prazos intermediários, sob argumento de flexibilidade. Segundo a DGEOp, isso é:</t>
+  </si>
+  <si>
+    <t>aceitável, pois o PLEMOP é orientativo.</t>
+  </si>
+  <si>
+    <t>aceitável se houver ordens de serviço complementares.</t>
+  </si>
+  <si>
+    <t>incorreto, pois o PLEMOP deve ser detalhado e completo.</t>
+  </si>
+  <si>
+    <t>incorreto apenas se houver auditoria.</t>
+  </si>
+  <si>
+    <t>A DGEOp determina que o PLEMOP “deve ser suficientemente detalhado e completo”, com limites de atuação e prazos.</t>
+  </si>
+  <si>
+    <t>Em determinado dia, uma UEOp escalou 5% do efetivo em Patrulha a Pé e 10% em Radiopatrulha com restrição de empenho. Segundo as condicionantes do PLEMOP, assinale a alternativa correta.</t>
+  </si>
+  <si>
+    <t>Está correto, pois os percentuais são flexíveis.</t>
+  </si>
+  <si>
+    <t>Está incorreto, pois o mínimo é 10% em PA e 30% em RP com restrição.</t>
+  </si>
+  <si>
+    <t>Está incorreto apenas quanto à Patrulha a Pé.</t>
+  </si>
+  <si>
+    <t>Está incorreto apenas quanto à Radiopatrulha.</t>
+  </si>
+  <si>
+    <t>A DGEOp fixa mínimo diário de “10% em Patrulha a Pé” e “30% em Radiopatrulha com restrição de empenho”.</t>
+  </si>
+  <si>
+    <t>Um comandante afirmou que o 2º esforço da malha protetora corresponde ao emprego do CPE em ocorrências complexas. Segundo a DGEOp, o 2º esforço é:</t>
+  </si>
+  <si>
+    <t>atuação do efetivo ordinário territorial.</t>
+  </si>
+  <si>
+    <t>recobrimento tático pelas Subunidades Táticas da própria UEOp.</t>
+  </si>
+  <si>
+    <t>emprego extraordinário do CPE.</t>
+  </si>
+  <si>
+    <t>força-tarefa estratégica.</t>
+  </si>
+  <si>
+    <t>A DGEOp define o 2º esforço como “recobrimento tático no âmbito da UEOp”, executado pelas Subunidades Táticas.</t>
+  </si>
+  <si>
+    <t>Em Região sem Unidades Especializadas, foi solicitado apoio para execução do 3º esforço. Segundo a DGEOp, o apoio deve ocorrer:</t>
+  </si>
+  <si>
+    <t>obrigatoriamente pelo CPE.</t>
+  </si>
+  <si>
+    <t>a critério do Comando-Geral, por Unidades Especializadas das Regiões próximas e/ou pelo CPE.</t>
+  </si>
+  <si>
+    <t>automaticamente pela UEOp territorial mais próxima.</t>
+  </si>
+  <si>
+    <t>apenas mediante força-tarefa.</t>
+  </si>
+  <si>
+    <t>A DGEOp prevê que, inexistindo Unidades Especializadas na Região, o apoio ocorrerá “a critério do Comando-Geral”.</t>
+  </si>
+  <si>
+    <t>Acerca do 4º esforço da malha protetora, assinale a alternativa INCORRETA.</t>
+  </si>
+  <si>
+    <t>É resposta a ocorrências complexas ou de grande repercussão.</t>
+  </si>
+  <si>
+    <t>Pode integrar CPE com Unidades Especializadas das RPM.</t>
+  </si>
+  <si>
+    <t>Corresponde ao emprego extraordinário do CPE.</t>
+  </si>
+  <si>
+    <t>É executado exclusivamente pelas Subunidades Táticas da UEOp.</t>
+  </si>
+  <si>
+    <t>A DGEOp define o 4º esforço como emprego extraordinário do CPE, não das Subunidades Táticas da UEOp.</t>
+  </si>
+  <si>
+    <t>Sobre o gerenciamento do emprego operacional, assinale a alternativa correta segundo a DGEOp.</t>
+  </si>
+  <si>
+    <t>É processo eventual e interrompido.</t>
+  </si>
+  <si>
+    <t>É estático e centralizado.</t>
+  </si>
+  <si>
+    <t>É dinâmico, cíclico e ininterrupto, gerenciado em diversos níveis.</t>
+  </si>
+  <si>
+    <t>É restrito ao nível estratégico.</t>
+  </si>
+  <si>
+    <t>A DGEOp afirma que o emprego operacional é “processo dinâmico, cíclico e ininterrupto”, gerenciado pelos comandantes operacionais em diversos níveis.</t>
+  </si>
+  <si>
+    <t>Segundo a DGEOP, a Cadeia de Comando caracteriza-se corretamente como:</t>
+  </si>
+  <si>
+    <t>canal informal de comunicação entre Unidades.</t>
+  </si>
+  <si>
+    <t>conjunto de escalões e canais de comando exercidos verticalmente, com responsabilidades sucessivas.</t>
+  </si>
+  <si>
+    <t>instrumento exclusivo de coordenação horizontal.</t>
+  </si>
+  <si>
+    <t>mecanismo de apoio sem relação hierárquica.</t>
+  </si>
+  <si>
+    <t>A Diretriz define Cadeia de Comando como “o conjunto de escalões e canais de comando, exercidos verticalmente, com escalões sucessivos de responsabilidade”. (DGEOP, item Cadeia de Comando).</t>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta quanto ao conceito de Canal de Comando.</t>
+  </si>
+  <si>
+    <t>Fluxo apenas descendente de ordens.</t>
+  </si>
+  <si>
+    <t>Fluxo apenas ascendente de informações.</t>
+  </si>
+  <si>
+    <t>Caminho por onde fluem ordens/orientações e respostas/informações.</t>
+  </si>
+  <si>
+    <t>Documento de planejamento operacional.</t>
+  </si>
+  <si>
+    <t>A DGEOP conceitua Canal de Comando como o caminho por onde fluem ordens e orientações (descendente) e respostas e informações (ascendente).</t>
+  </si>
+  <si>
+    <t>O Cartão Programa, conforme a DGEOP, tem por finalidade principal:</t>
+  </si>
+  <si>
+    <t>definir prioridades estratégicas anuais.</t>
+  </si>
+  <si>
+    <t>registrar ocorrências policiais.</t>
+  </si>
+  <si>
+    <t>indicar postos de policiamento, itinerário e horários do policiamento preventivo.</t>
+  </si>
+  <si>
+    <t>substituir o PLEMOP.</t>
+  </si>
+  <si>
+    <t>A norma dispõe que o Cartão Programa indica “postos de policiamento, itinerário e horários do policiamento preventivo”.</t>
+  </si>
+  <si>
+    <t>A Carta de Situação Diária de Operações é corretamente definida como:</t>
+  </si>
+  <si>
+    <t>relatório estatístico mensal.</t>
+  </si>
+  <si>
+    <t>documento diário de planejamento operacional com informações para coordenação e controle.</t>
+  </si>
+  <si>
+    <t>instrumento de gestão administrativa.</t>
+  </si>
+  <si>
+    <t>relatório exclusivo do CPE.</t>
+  </si>
+  <si>
+    <t>A DGEOP define a Carta de Situação Diária como documento diário que apresenta o planejamento das operações, subsidiando coordenação e controle.</t>
+  </si>
+  <si>
+    <t>A estrutura organizacional da PMMG, segundo a DGEOP, está dividida em quais níveis decisórios?</t>
+  </si>
+  <si>
+    <t>Estratégico, tático e operacional.</t>
+  </si>
+  <si>
+    <t>Direção Geral, Direção Intermediária e Execução.</t>
+  </si>
+  <si>
+    <t>Comando, coordenação e controle.</t>
+  </si>
+  <si>
+    <t>Planejamento, execução e avaliação.</t>
+  </si>
+  <si>
+    <t>A Diretriz estabelece três níveis decisórios: Direção Geral, Direção Intermediária e Execução.</t>
+  </si>
+  <si>
+    <t>Para que seja criada mais de uma Unidade de Batalhão na sede de um município, a DGEOP exige população superior a:</t>
+  </si>
+  <si>
+    <t>100 mil habitantes.</t>
+  </si>
+  <si>
+    <t>250 mil habitantes.</t>
+  </si>
+  <si>
+    <t>400 mil habitantes.</t>
+  </si>
+  <si>
+    <t>1 milhão de habitantes.</t>
+  </si>
+  <si>
+    <t>A DGEOP fixa como critério populacional mínimo para mais de um Batalhão o quantitativo superior a 400.000 habitantes.</t>
+  </si>
+  <si>
+    <t>Segundo a DGEOP, o efetivo mínimo necessário para criação de um Batalhão de Policiamento Especializado (BPE) é de:</t>
+  </si>
+  <si>
+    <t>100 policiais militares.</t>
+  </si>
+  <si>
+    <t>150 policiais militares.</t>
+  </si>
+  <si>
+    <t>200 policiais militares.</t>
+  </si>
+  <si>
+    <t>250 policiais militares.</t>
+  </si>
+  <si>
+    <t>A Diretriz estabelece mínimo de 250 policiais militares para criação de um BPE.</t>
+  </si>
+  <si>
+    <t>A Malha Protetora, conforme descrita na DGEOP, consiste em:</t>
+  </si>
+  <si>
+    <t>ações exclusivamente preventivas.</t>
+  </si>
+  <si>
+    <t>ocupação de espaços vazios com escalonamento intercalado, gradativo e sucessivo.</t>
+  </si>
+  <si>
+    <t>recobrimento apenas por Unidades Especializadas.</t>
+  </si>
+  <si>
+    <t>emprego tecnológico isolado.</t>
+  </si>
+  <si>
+    <t>A DGEOP define Malha Protetora como ações preventivas e repressivas, com ocupação de espaços vazios e escalonamento progressivo.</t>
+  </si>
+  <si>
+    <t>A Zona Quente de Criminalidade (ZQC) é corretamente caracterizada como:</t>
+  </si>
+  <si>
+    <t>área sem histórico criminal.</t>
+  </si>
+  <si>
+    <t>local com grande probabilidade de reincidência, exigindo emprego direcionado e dedicado.</t>
+  </si>
+  <si>
+    <t>região rural de difícil acesso.</t>
+  </si>
+  <si>
+    <t>área definida apenas por densidade populacional.</t>
+  </si>
+  <si>
+    <t>A norma define ZQC como local com histórico e alta probabilidade de reincidência criminal, demandando atuação específica.</t>
+  </si>
+  <si>
+    <t>O Primeiro Interventor, segundo a DGEOP, é o profissional que:</t>
+  </si>
+  <si>
+    <t>assume o comando regional da ocorrência.</t>
+  </si>
+  <si>
+    <t>realiza a negociação em incidentes críticos.</t>
+  </si>
+  <si>
+    <t>se depara inicialmente com o incidente crítico e identifica o tipo de incidente e o perpetrador.</t>
+  </si>
+  <si>
+    <t>registra a ocorrência no sistema.</t>
+  </si>
+  <si>
+    <t>A DGEOP conceitua Primeiro Interventor como aquele que se depara inicialmente com o incidente crítico, devendo identificar o tipo e o perpetrador.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa INCORRETA quanto ao conceito de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emprego operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> segundo a DGEOP.</t>
+    </r>
+  </si>
+  <si>
+    <t>É orientado por planejamento formal.</t>
+  </si>
+  <si>
+    <t>Visa prevenção e repressão qualificadas.</t>
+  </si>
+  <si>
+    <t>É processo dinâmico e contínuo.</t>
+  </si>
+  <si>
+    <t>Depende exclusivamente de sistemas informatizados.</t>
+  </si>
+  <si>
+    <t>A DGEOP define o emprego operacional como processo “dinâmico, cíclico e ininterrupto”, gerenciado por comandantes em diversos níveis, não dependendo exclusivamente de sistemas. (DGEOP, item Emprego Operacional).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segundo a DGEOP, constitui ERRO quanto ao papel do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comandante Operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gerenciar o emprego operacional.</t>
+  </si>
+  <si>
+    <t>Exercer coordenação e controle.</t>
+  </si>
+  <si>
+    <t>Delegar totalmente decisões ao sistema.</t>
+  </si>
+  <si>
+    <t>Atuar nos diversos níveis decisórios.</t>
+  </si>
+  <si>
+    <t>A norma estabelece que o gerenciamento do emprego operacional é atribuição do comandante, não podendo ser substituído por sistemas automatizados. (DGEOP, item Gerenciamento do Emprego Operacional).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coordenação horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, segundo a DGEOP, caracteriza-se por:</t>
+    </r>
+  </si>
+  <si>
+    <t>Subordinação direta entre Unidades.</t>
+  </si>
+  <si>
+    <t>Harmonização de esforços entre órgãos ou Unidades sem relação de subordinação.</t>
+  </si>
+  <si>
+    <t>Execução exclusiva pelo Comando-Geral.</t>
+  </si>
+  <si>
+    <t>Atuação apenas administrativa.</t>
+  </si>
+  <si>
+    <t>A DGEOP admite coordenação horizontal para harmonização de esforços entre órgãos/Unidades, sem subordinação hierárquica. (DGEOP, item Coordenação).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa correta quanto ao </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controle operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>É atividade meramente estatística.</t>
+  </si>
+  <si>
+    <t>Ocorre apenas após a operação.</t>
+  </si>
+  <si>
+    <t>Visa assegurar cumprimento das decisões do escalão superior.</t>
+  </si>
+  <si>
+    <t>É exclusivo do nível estratégico.</t>
+  </si>
+  <si>
+    <t>Controle é definido como acompanhamento para assegurar o cumprimento das decisões do escalão superior. (DGEOP, item Controle).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segundo a DGEOP, o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>planejamento operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve ser:</t>
+    </r>
+  </si>
+  <si>
+    <t>Eventual e reativo.</t>
+  </si>
+  <si>
+    <t>Restrito ao nível estratégico.</t>
+  </si>
+  <si>
+    <t>Formal, sistemático e contínuo.</t>
+  </si>
+  <si>
+    <t>Exclusivamente intuitivo.</t>
+  </si>
+  <si>
+    <t>A Diretriz afasta planejamento intuitivo, exigindo formalidade, método e continuidade. (DGEOP, item Planejamento Operacional).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui ERRO quanto à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsabilidade territorial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na DGEOP.</t>
+    </r>
+  </si>
+  <si>
+    <t>A UEOp é responsável primária pela área.</t>
+  </si>
+  <si>
+    <t>O recobrimento especializado elimina a responsabilidade da UEOp.</t>
+  </si>
+  <si>
+    <t>O apoio não transfere comando territorial.</t>
+  </si>
+  <si>
+    <t>A UEOp mantém responsabilidade mesmo com apoio.</t>
+  </si>
+  <si>
+    <t>A DGEOP é clara ao afirmar que o apoio especializado não retira a responsabilidade territorial da UEOp. (DGEOP, item Responsabilidade Territorial).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa correta sobre o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emprego escalonado da força</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na DGEOP.</t>
+    </r>
+  </si>
+  <si>
+    <t>Inicia-se sempre pelo emprego do CPE.</t>
+  </si>
+  <si>
+    <t>Independe da análise da situação.</t>
+  </si>
+  <si>
+    <t>Ocorre de forma gradativa conforme complexidade.</t>
+  </si>
+  <si>
+    <t>É automático em ZQC.</t>
+  </si>
+  <si>
+    <t>A malha protetora prevê escalonamento gradativo e sucessivo, conforme a complexidade do cenário. (DGEOP, item Malha Protetora).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segundo a DGEOP, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avaliação operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tem como finalidade principal:</t>
+    </r>
+  </si>
+  <si>
+    <t>Punir desvios individuais.</t>
+  </si>
+  <si>
+    <t>Produzir dados estatísticos isolados.</t>
+  </si>
+  <si>
+    <t>Retroalimentar o planejamento e o emprego operacional.</t>
+  </si>
+  <si>
+    <t>Substituir o planejamento.</t>
+  </si>
+  <si>
+    <t>A Diretriz estabelece a avaliação como instrumento de retroalimentação do planejamento e do emprego operacional. (DGEOP, item Avaliação).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui ERRO quanto à atuação em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zonas Quentes de Criminalidade (ZQC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exige emprego direcionado.</t>
+  </si>
+  <si>
+    <t>Pode demandar recobrimento especializado.</t>
+  </si>
+  <si>
+    <t>Deve ser ignorada no planejamento.</t>
+  </si>
+  <si>
+    <t>Baseia-se em análise criminal.</t>
+  </si>
+  <si>
+    <t>A DGEOP determina que ZQC deve orientar o planejamento e o emprego operacional, não podendo ser ignorada. (DGEOP, item ZQC).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segundo a DGEOP, o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fluxo decisório operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve respeitar prioritariamente:</t>
+    </r>
+  </si>
+  <si>
+    <t>A cadeia e o canal de comando.</t>
+  </si>
+  <si>
+    <t>A conveniência pessoal do gestor.</t>
+  </si>
+  <si>
+    <t>A autonomia isolada da fração.</t>
+  </si>
+  <si>
+    <t>A informalidade decisória.</t>
+  </si>
+  <si>
+    <t>A Diretriz reforça que decisões devem respeitar a cadeia e o canal de comando, garantindo unidade e legalidade. (DGEOP, itens Cadeia e Canal de Comando).</t>
+  </si>
+  <si>
+    <t>Em um município com elevação abrupta de crimes violentos em ZQC, o comandante da UEOp decide empregar apenas o efetivo ordinário (1º esforço) e acionar, informalmente, apoio especializado sem planejamento formal. À luz da DGEOP, a conduta correta seria:</t>
+  </si>
+  <si>
+    <t>Empregar recobrimento escalonado, com planejamento, acionando o 2º ou 3º esforço conforme complexidade.</t>
+  </si>
+  <si>
+    <t>Manter apenas o 1º esforço, pois a responsabilidade territorial é exclusiva da UEOp.</t>
+  </si>
+  <si>
+    <t>Acionar diretamente o 5º esforço por se tratar de ZQC.</t>
+  </si>
+  <si>
+    <t>Aguardar ordem do Comando-Geral para qualquer recobrimento.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A DGEOP prevê emprego </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escalonado e gradativo da malha protetora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, partindo do 1º esforço e avançando conforme análise e planejamento, com acionamento formal dos esforços subsequentes. (DGEOP, item Malha Protetora).</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante uma operação integrada entre duas UEOp vizinhas, sem relação de subordinação, surgiu conflito quanto ao emprego do efetivo. Segundo a DGEOP, o instrumento adequado para harmonizar a atuação é:</t>
+  </si>
+  <si>
+    <t>Cadeia de comando.</t>
+  </si>
+  <si>
+    <t>Coordenação horizontal.</t>
+  </si>
+  <si>
+    <t>Controle vertical.</t>
+  </si>
+  <si>
+    <t>Força-tarefa estratégica.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A DGEOP admite </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coordenação horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para harmonização de esforços entre Unidades sem subordinação hierárquica. (DGEOP, item Coordenação).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em resposta a ocorrência complexa e de grande repercussão regional, foi empregado o CPE de forma extraordinária. No mesmo cenário, o comandante regional manteve Subunidades Táticas locais atuando. Segundo a DGEOP, essa combinação caracteriza:</t>
+  </si>
+  <si>
+    <t>Desvio de cadeia de comando.</t>
+  </si>
+  <si>
+    <t>Emprego indevido do 2º esforço.</t>
+  </si>
+  <si>
+    <t>Correta integração do 4º esforço com apoio local.</t>
+  </si>
+  <si>
+    <t>Força-tarefa estratégica (5º esforço).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O 4º esforço admite </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emprego extraordinário do CPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, podendo integrar-se com Unidades Especializadas e estruturas locais, conforme a complexidade. (DGEOP, item 4º esforço).</t>
+    </r>
+  </si>
+  <si>
+    <t>Um gestor operacional decide alterar o emprego diário sem atualizar o PLEMOP, alegando tratar-se de ajuste tático pontual. Segundo a DGEOP, tal prática é:</t>
+  </si>
+  <si>
+    <t>Permitida, pois o PLEMOP é documento estratégico.</t>
+  </si>
+  <si>
+    <t>Permitida se houver coordenação regional.</t>
+  </si>
+  <si>
+    <t>Permitida apenas em ZQC.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois o PLEMOP deve refletir o planejamento formal e atualizado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A DGEOP estabelece o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLEMOP como instrumento obrigatório</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, devendo ser revisto e atualizado para refletir o planejamento operacional. (DGEOP, item PLEMOP).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em um turno crítico, o comandante determina o emprego do efetivo sem observar cadeia e canal de comando, comunicando decisões diretamente à fração executora. Segundo a DGEOP, o erro consiste em:</t>
+  </si>
+  <si>
+    <t>Violação da cadeia e do canal de comando.</t>
+  </si>
+  <si>
+    <t>Ausência de coordenação horizontal.</t>
+  </si>
+  <si>
+    <t>Falta de força-tarefa estratégica.</t>
+  </si>
+  <si>
+    <t>Inexistência de controle estatístico.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz reforça que decisões devem respeitar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cadeia e canal de comando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, garantindo unidade e legalidade do emprego operacional. (DGEOP, itens Cadeia e Canal de Comando).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em uma ZQC persistente, o gestor decide manter emprego estático do efetivo por vários ciclos, sem avaliação dos resultados. À luz da DGEOP, a falha principal é:</t>
+  </si>
+  <si>
+    <t>Ausência de controle vertical.</t>
+  </si>
+  <si>
+    <t>Falta de avaliação para retroalimentar o planejamento.</t>
+  </si>
+  <si>
+    <t>Emprego indevido do 1º esforço.</t>
+  </si>
+  <si>
+    <t>Desrespeito ao canal de comando.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A DGEOP prevê </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avaliação operacional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para retroalimentar o planejamento e ajustar o emprego, evitando ações estáticas ineficazes. (DGEOP, item Avaliação).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em uma operação noturna, o primeiro policial a chegar a um incidente crítico inicia ações sem identificar o tipo de incidente e o perpetrador. Segundo a DGEOP, o erro decorre da inobservância do papel de:</t>
+  </si>
+  <si>
+    <t>Coordenador Operacional.</t>
+  </si>
+  <si>
+    <t>Controlador da operação.</t>
+  </si>
+  <si>
+    <t>Primeiro Interventor.</t>
+  </si>
+  <si>
+    <t>Comandante Regional.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz define o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primeiro Interventor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> como aquele que deve identificar o tipo de incidente e o perpetrador ao se deparar inicialmente com a situação. (DGEOP, item Primeiro Interventor).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em planejamento regional, o comandante decide empregar diretamente o CPE em todas as ocorrências relevantes, suprimindo os esforços intermediários. Segundo a DGEOP, essa decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, por garantir resposta qualificada.</t>
+  </si>
+  <si>
+    <t>Correta apenas em ZQC.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois viola o princípio do emprego escalonado.</t>
+  </si>
+  <si>
+    <t>Incorreta apenas se não houver autorização formal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A DGEOP estabelece </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emprego escalonado e gradativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, sendo inadequado suprimir esforços intermediários sem análise da complexidade. (DGEOP, item Malha Protetora).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em município com duas UEOp, o comandante regional assume diretamente o controle das frações locais, sem coordenação prévia. Segundo a DGEOP, tal conduta caracteriza:</t>
+  </si>
+  <si>
+    <t>Exercício legítimo de coordenação horizontal.</t>
+  </si>
+  <si>
+    <t>Controle operacional adequado.</t>
+  </si>
+  <si>
+    <t>Ruptura do canal de comando.</t>
+  </si>
+  <si>
+    <t>Emprego do 2º esforço.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A coordenação horizontal é admitida </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem subordinação direta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; assumir controle direto sem observância do canal configura ruptura. (DGEOP, item Coordenação).</t>
+    </r>
+  </si>
+  <si>
+    <t>Após operação complexa, o comandante deixa de consolidar lições aprendidas e não ajusta o planejamento subsequente. Segundo a DGEOP, isso compromete:</t>
+  </si>
+  <si>
+    <t>Apenas o controle estatístico.</t>
+  </si>
+  <si>
+    <t>A retroalimentação do ciclo de emprego operacional.</t>
+  </si>
+  <si>
+    <t>O canal de comando.</t>
+  </si>
+  <si>
+    <t>A responsabilidade territorial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Diretriz trata o emprego operacional como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>processo cíclico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, exigindo avaliação e retroalimentação para ajustes futuros. (DGEOP, item Emprego Operacional).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,6 +3751,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1495,16 +3817,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1841,15 +4163,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -4111,6 +6433,3156 @@
         <v>374</v>
       </c>
     </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D1979F-3818-4C8F-81E3-E24187F9A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB17E7D1-C4F4-4710-8B15-CEA4E2E56A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1441">
   <si>
     <t>ID</t>
   </si>
@@ -3732,13 +3732,4582 @@
       </rPr>
       <t>, exigindo avaliação e retroalimentação para ajustes futuros. (DGEOP, item Emprego Operacional).</t>
     </r>
+  </si>
+  <si>
+    <t>LEGISLAÇÃO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>MAPPA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quanto aos princípios aplicáveis ao processo disciplinar no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>A legalidade objetiva exige previsão normativa para instauração e sanção.</t>
+  </si>
+  <si>
+    <t>A motivação é requisito de validade dos atos decisórios.</t>
+  </si>
+  <si>
+    <t>A verdade material autoriza punição mesmo sem base normativa expressa.</t>
+  </si>
+  <si>
+    <t>A publicidade admite exceções por interesse público ou previsão legal.</t>
+  </si>
+  <si>
+    <t>O MAPPA adota legalidade objetiva. A busca da verdade material não supre ausência de norma. Sanção sem base legal é inválida.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> acerca da fase de instauração do processo disciplinar.</t>
+    </r>
+  </si>
+  <si>
+    <t>A instauração delimita o objeto da apuração.</t>
+  </si>
+  <si>
+    <t>A portaria pode prescindir da descrição dos fatos.</t>
+  </si>
+  <si>
+    <t>A competência da autoridade é requisito do ato inicial.</t>
+  </si>
+  <si>
+    <t>A justa causa deve estar minimamente indicada.</t>
+  </si>
+  <si>
+    <t>A peça inicial deve descrever os fatos para delimitar o objeto e caracterizar justa causa. Prescindir dessa descrição viola o MAPPA.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em procedimentos classificados como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESERVADOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a publicação da portaria ocorre, como regra:</t>
+    </r>
+  </si>
+  <si>
+    <t>No início, para garantir contraditório imediato.</t>
+  </si>
+  <si>
+    <t>Em todas as fases, com teor idêntico.</t>
+  </si>
+  <si>
+    <t>Apenas se houver requerimento do comunicado.</t>
+  </si>
+  <si>
+    <t>Ao final, juntamente com a solução, salvo previsão legal diversa.</t>
+  </si>
+  <si>
+    <t>O MAPPA fixa a publicação ao final nos feitos reservados, ressalvadas hipóteses legais específicas.</t>
+  </si>
+  <si>
+    <r>
+      <t>NÃO autoriza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> juntada direta aos autos disciplinares, segundo o MAPPA:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ofício subscrito por autoridade competente.</t>
+  </si>
+  <si>
+    <t>Documento administrativo pertinente e lícito.</t>
+  </si>
+  <si>
+    <t>Relato de conjuntura formalizado pela autoridade.</t>
+  </si>
+  <si>
+    <t>Relatório de inteligência, pedido de busca e memória típicos de inteligência.</t>
+  </si>
+  <si>
+    <t>Documentos de inteligência não são juntáveis. Devem ser convertidos em peças administrativas adequadas, com sigilo compatível.</t>
+  </si>
+  <si>
+    <t>No Processo de Comunicação Disciplinar (PCD), o prazo para elaboração do relatório pelo encarregado é de:</t>
+  </si>
+  <si>
+    <t>15 dias corridos, prorrogáveis por 10 dias corridos, excluídos os prazos de defesa.</t>
+  </si>
+  <si>
+    <t>15 dias úteis, prorrogáveis por igual período, incluídos os prazos de defesa.</t>
+  </si>
+  <si>
+    <t>10 dias corridos, improrrogáveis.</t>
+  </si>
+  <si>
+    <t>30 dias corridos, por se tratar de rito sumário.</t>
+  </si>
+  <si>
+    <t>O MAPPA define 15 dias corridos, prorrogáveis por 10 dias corridos, não se computando os prazos destinados à defesa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recebido PCD com relatório propondo arquivamento por causa de justificação/absolvição, a autoridade, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concordando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, deve:</t>
+    </r>
+  </si>
+  <si>
+    <t>Remeter obrigatoriamente ao CEDMU antes do arquivamento.</t>
+  </si>
+  <si>
+    <t>Arquivar por despacho motivado e publicado, sem remessa prévia ao CEDMU.</t>
+  </si>
+  <si>
+    <t>Converter, de ofício, em SAD.</t>
+  </si>
+  <si>
+    <t>Determinar nova instrução obrigatória.</t>
+  </si>
+  <si>
+    <t>O MAPPA autoriza o arquivamento direto, por despacho motivado e publicado, sem remessa prévia ao CEDMU nessa hipótese.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre a Comunicação Disciplinar (CD).</t>
+    </r>
+  </si>
+  <si>
+    <t>A CD deve descrever a conduta antiética.</t>
+  </si>
+  <si>
+    <t>Não é obrigatória a indicação precisa de artigos e incisos.</t>
+  </si>
+  <si>
+    <t>A tipificação equivocada invalida a apuração.</t>
+  </si>
+  <si>
+    <t>A Administração deve observar as diretrizes do MAPPA ao receber a CD.</t>
+  </si>
+  <si>
+    <t>O MAPPA expressamente afasta a nulidade por tipificação equivocada; a apuração prossegue.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre a Queixa Disciplinar (QD).</t>
+    </r>
+  </si>
+  <si>
+    <t>A QD é personalíssima.</t>
+  </si>
+  <si>
+    <t>A QD extemporânea deve ser indeferida se não houver justo motivo.</t>
+  </si>
+  <si>
+    <t>Havendo notícia de crime ou maior gravidade, a QD deve ser recebida para apuração adequada.</t>
+  </si>
+  <si>
+    <t>A QD extemporânea deve ser arquivada mesmo quando noticia crime ou improbidade.</t>
+  </si>
+  <si>
+    <t>O MAPPA ressalva que notícia de crime, improbidade ou maior gravidade impõe instauração do procedimento cabível.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre o Relatório Reservado (RR), assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>O RR pode subsidiar decisão administrativa.</t>
+  </si>
+  <si>
+    <t>O RR deve observar o grau de sigilo adequado.</t>
+  </si>
+  <si>
+    <t>O RR substitui integralmente a instrução formal do processo disciplinar.</t>
+  </si>
+  <si>
+    <t>O RR não se confunde com relatório de inteligência juntado aos autos.</t>
+  </si>
+  <si>
+    <t>O RR não substitui a instrução formal quando esta é exigida. Serve como subsídio, não como sucedâneo do devido processo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No MAPPA, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somente se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> justifica a conversão de procedimento em rito mais gravoso quando:</t>
+    </r>
+  </si>
+  <si>
+    <t>Houver mera conveniência administrativa.</t>
+  </si>
+  <si>
+    <t>Os fatos apurados indicarem gravidade incompatível com o rito inicial.</t>
+  </si>
+  <si>
+    <t>O comunicado requerer expressamente.</t>
+  </si>
+  <si>
+    <t>O prazo do rito inicial estiver próximo do término.</t>
+  </si>
+  <si>
+    <t>A conversão depende de elementos objetivos que indiquem maior gravidade dos fatos, não de conveniência, pedido da parte ou gestão de prazo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quanto à competência para instauração de processo disciplinar no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>A competência decorre de previsão normativa expressa.</t>
+  </si>
+  <si>
+    <t>A autoridade incompetente pode instaurar processo se houver urgência.</t>
+  </si>
+  <si>
+    <t>A incompetência pode gerar nulidade do ato.</t>
+  </si>
+  <si>
+    <t>A delegação de competência deve respeitar limites legais.</t>
+  </si>
+  <si>
+    <t>O MAPPA não admite instauração por autoridade incompetente, ainda que sob alegação de urgência.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No MAPPA, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defesa técnica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no processo disciplinar:</t>
+    </r>
+  </si>
+  <si>
+    <t>É facultativa em qualquer hipótese.</t>
+  </si>
+  <si>
+    <t>É obrigatória apenas em SAD.</t>
+  </si>
+  <si>
+    <t>Pode ser exercida por advogado ou defensor constituído, quando exigido.</t>
+  </si>
+  <si>
+    <t>É vedada em procedimentos preliminares.</t>
+  </si>
+  <si>
+    <t>O MAPPA prevê defesa técnica quando exigida pelo rito, podendo ser exercida por advogado ou defensor constituído.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre nulidades no processo disciplinar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nulidade depende de prejuízo demonstrado.</t>
+  </si>
+  <si>
+    <t>Nulidades absolutas independem de arguição da parte.</t>
+  </si>
+  <si>
+    <t>Qualquer vício formal gera nulidade automática.</t>
+  </si>
+  <si>
+    <t>A autoridade pode reconhecer nulidade de ofício.</t>
+  </si>
+  <si>
+    <t>O MAPPA adota o princípio do prejuízo; vício formal sem prejuízo não gera nulidade automática.</t>
+  </si>
+  <si>
+    <r>
+      <t>NÃO autoriza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reabertura de processo disciplinar já concluído:</t>
+    </r>
+  </si>
+  <si>
+    <t>Surgimento de fato novo relevante.</t>
+  </si>
+  <si>
+    <t>Comprovação de vício insanável.</t>
+  </si>
+  <si>
+    <t>Discordância subjetiva da autoridade revisora.</t>
+  </si>
+  <si>
+    <t>Determinação judicial.</t>
+  </si>
+  <si>
+    <t>Discordância subjetiva não autoriza reabertura; exige-se fato novo, vício ou ordem judicial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contraditório e ampla defesa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, assinale a alternativa correta.</t>
+    </r>
+  </si>
+  <si>
+    <t>São garantidos apenas após o relatório final.</t>
+  </si>
+  <si>
+    <t>Podem ser restringidos por conveniência administrativa.</t>
+  </si>
+  <si>
+    <t>Devem ser assegurados conforme o rito aplicável.</t>
+  </si>
+  <si>
+    <t>Não se aplicam a processos disciplinares.</t>
+  </si>
+  <si>
+    <t>O MAPPA assegura contraditório e ampla defesa conforme o rito, vedada supressão arbitrária.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quanto à produção de provas no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>A autoridade pode indeferir prova impertinente.</t>
+  </si>
+  <si>
+    <t>A prova ilícita pode ser aproveitada se confirmar a verdade material.</t>
+  </si>
+  <si>
+    <t>A prova deve guardar relação com os fatos apurados.</t>
+  </si>
+  <si>
+    <t>O indeferimento deve ser motivado.</t>
+  </si>
+  <si>
+    <t>Prova ilícita é inadmissível, ainda que confirme a verdade material.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A aplicação de sanção disciplinar no MAPPA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depende de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Presunção de veracidade do relatório.</t>
+  </si>
+  <si>
+    <t>Convicção subjetiva da autoridade.</t>
+  </si>
+  <si>
+    <t>Prova suficiente e decisão motivada.</t>
+  </si>
+  <si>
+    <t>Recomendação obrigatória do encarregado.</t>
+  </si>
+  <si>
+    <t>A sanção exige prova suficiente e decisão fundamentada, não bastando presunção ou convicção subjetiva.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre prescrição no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>A prescrição limita o poder sancionador.</t>
+  </si>
+  <si>
+    <t>O prazo prescricional é definido em norma específica.</t>
+  </si>
+  <si>
+    <t>A instauração suspende automaticamente a prescrição em qualquer hipótese.</t>
+  </si>
+  <si>
+    <t>A prescrição pode ser reconhecida de ofício.</t>
+  </si>
+  <si>
+    <t>O MAPPA não prevê suspensão automática em qualquer hipótese; depende de previsão normativa.</t>
+  </si>
+  <si>
+    <r>
+      <t>Somente se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> admite avocação de processo disciplinar quando:</t>
+    </r>
+  </si>
+  <si>
+    <t>Houver interesse pessoal da autoridade superior.</t>
+  </si>
+  <si>
+    <t>Existir previsão normativa e motivo justificado.</t>
+  </si>
+  <si>
+    <t>O processo estiver em fase final.</t>
+  </si>
+  <si>
+    <t>A avocação exige previsão normativa e motivação, vedado uso discricionário.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO clássico de prova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre o MAPPA afirmar que:</t>
+    </r>
+  </si>
+  <si>
+    <t>O processo disciplinar possui rito definido.</t>
+  </si>
+  <si>
+    <t>A motivação é elemento essencial do ato decisório.</t>
+  </si>
+  <si>
+    <t>A hierarquia autoriza flexibilizar garantias processuais.</t>
+  </si>
+  <si>
+    <t>A legalidade orienta toda a persecução disciplinar.</t>
+  </si>
+  <si>
+    <t>Hierarquia não autoriza supressão de garantias processuais; este é erro recorrente explorado em prova.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No MAPPA, o prazo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para elaboração do Processo de Comunicação Disciplinar (PCD) pelo encarregado é de:</t>
+    </r>
+  </si>
+  <si>
+    <t>10 dias úteis, improrrogáveis.</t>
+  </si>
+  <si>
+    <t>15 dias corridos, prorrogáveis por 10 dias corridos.</t>
+  </si>
+  <si>
+    <t>20 dias corridos, prorrogáveis por igual período.</t>
+  </si>
+  <si>
+    <t>30 dias corridos, sem prorrogação.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA fixa o prazo de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15 dias corridos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, com possibilidade de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prorrogação por mais 10 dias corridos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, excluídos os prazos destinados à defesa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 36)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quanto à contagem dos prazos no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>Os prazos são contados em dias corridos, salvo disposição expressa.</t>
+  </si>
+  <si>
+    <t>O prazo de defesa não integra o prazo de elaboração do relatório.</t>
+  </si>
+  <si>
+    <t>Os prazos são sempre contados em dias úteis.</t>
+  </si>
+  <si>
+    <t>A prorrogação deve ser expressamente motivada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA adota, como regra, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dias corridos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, e não dias úteis, salvo previsão expressa em sentido contrário. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 34)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O prazo para apresentação de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defesa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pelo comunicado, no âmbito do PCD, é de:</t>
+    </r>
+  </si>
+  <si>
+    <t>5 dias corridos.</t>
+  </si>
+  <si>
+    <t>10 dias corridos.</t>
+  </si>
+  <si>
+    <t>15 dias corridos.</t>
+  </si>
+  <si>
+    <t>10 dias úteis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA estabelece prazo de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 dias corridos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para defesa no PCD, contado da ciência válida do comunicado. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 35)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Somente se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> admite prorrogação de prazo no MAPPA quando:</t>
+    </r>
+  </si>
+  <si>
+    <t>Houver conveniência administrativa.</t>
+  </si>
+  <si>
+    <t>O encarregado solicitar de forma genérica.</t>
+  </si>
+  <si>
+    <t>Existir justificativa formal e autorização da autoridade competente.</t>
+  </si>
+  <si>
+    <t>O prazo estiver próximo do vencimento.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A prorrogação exige </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>justificativa formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>autorização da autoridade competente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, não sendo automática nem discricionária. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 36, § único)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre prazos destinados à defesa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Integram o prazo total do procedimento.</t>
+  </si>
+  <si>
+    <t>São contados separadamente.</t>
+  </si>
+  <si>
+    <t>Devem ser respeitados integralmente.</t>
+  </si>
+  <si>
+    <t>Sua inobservância gera nulidade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os prazos de defesa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não integram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o prazo de elaboração do procedimento, sendo contados separadamente. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 36)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No MAPPA, o descumprimento de prazo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impróprio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pelo encarregado:</t>
+    </r>
+  </si>
+  <si>
+    <t>Gera nulidade automática do procedimento.</t>
+  </si>
+  <si>
+    <t>Impede a continuidade do processo.</t>
+  </si>
+  <si>
+    <t>Pode gerar responsabilização administrativa, sem nulidade automática.</t>
+  </si>
+  <si>
+    <t>Extingue o processo por prescrição.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prazos do encarregado são </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impróprios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; seu descumprimento pode gerar responsabilização funcional, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não nulidade automática</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 34, § 2º)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO clássico de prova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre prazos no MAPPA afirmar que:</t>
+    </r>
+  </si>
+  <si>
+    <t>Todo prazo vencido gera nulidade absoluta.</t>
+  </si>
+  <si>
+    <t>A prorrogação depende de autorização.</t>
+  </si>
+  <si>
+    <t>O prazo de defesa é direito indisponível.</t>
+  </si>
+  <si>
+    <t>A contagem segue regra normativa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA não adota nulidade automática por vencimento de prazo, aplicando o princípio do prejuízo. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 34)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>O prazo para manifestação da autoridade após recebimento do relatório final é:</t>
+  </si>
+  <si>
+    <t>Peremptório, sob pena de nulidade.</t>
+  </si>
+  <si>
+    <t>Impróprio, sem sanção processual automática.</t>
+  </si>
+  <si>
+    <t>Fatal, extinguindo o processo se ultrapassado.</t>
+  </si>
+  <si>
+    <t>Vinculado à defesa do comunicado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O prazo da autoridade é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impróprio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, não gerando nulidade automática, embora sujeite a controle e responsabilização. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 38)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NÃO autoriza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a suspensão de prazos no MAPPA:</t>
+    </r>
+  </si>
+  <si>
+    <t>Força maior devidamente comprovada.</t>
+  </si>
+  <si>
+    <t>Pedido da defesa sem fundamento legal.</t>
+  </si>
+  <si>
+    <t>Situação excepcional reconhecida pela autoridade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pedido da defesa, isoladamente, não suspende prazos sem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>previsão normativa ou decisão fundamentada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 34)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Assinale a alternativa correta quanto à natureza dos prazos no MAPPA.</t>
+  </si>
+  <si>
+    <t>Todos os prazos são peremptórios.</t>
+  </si>
+  <si>
+    <t>Todos os prazos são impróprios.</t>
+  </si>
+  <si>
+    <t>Os prazos de defesa são peremptórios; os administrativos, em regra, impróprios.</t>
+  </si>
+  <si>
+    <t>A distinção entre prazos não é relevante.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA distingue prazos: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defesa (peremptórios)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>administrativos/instrutórios (impróprios)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, com efeitos distintos. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, arts. 34 a 36)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quanto à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instauração ex officio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>A Administração pode instaurar procedimento de ofício quando tomar ciência de irregularidade.</t>
+  </si>
+  <si>
+    <t>A instauração de ofício independe de provocação formal.</t>
+  </si>
+  <si>
+    <t>A instauração de ofício dispensa motivação expressa.</t>
+  </si>
+  <si>
+    <t>A instauração de ofício deve observar competência legal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A instauração </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex officio não dispensa motivação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Todo ato administrativo deve ser motivado. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 30 c/c art. 33)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> afirmar que o arquivamento no MAPPA ocorre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automaticamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quando:</t>
+    </r>
+  </si>
+  <si>
+    <t>Inexistirem indícios mínimos de autoria ou materialidade.</t>
+  </si>
+  <si>
+    <t>Estiver configurada causa de justificação.</t>
+  </si>
+  <si>
+    <t>Houver manifestação favorável do encarregado.</t>
+  </si>
+  <si>
+    <t>For formalmente decidido pela autoridade competente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arquivamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nunca é automático</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Exige decisão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expressa e motivada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da autoridade competente. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 37)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No MAPPA, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>autoridade julgadora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obrigatoriamente vinculada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>À conclusão do relatório final.</t>
+  </si>
+  <si>
+    <t>À capitulação sugerida pelo encarregado.</t>
+  </si>
+  <si>
+    <t>À prova constante dos autos e à motivação da decisão.</t>
+  </si>
+  <si>
+    <t>À manifestação da defesa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A autoridade </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não está vinculada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ao relatório, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sim à prova dos autos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, devendo motivar sua decisão. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 38)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre o princípio da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oficialidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>O impulso oficial independe de provocação da parte.</t>
+  </si>
+  <si>
+    <t>O processo avança por iniciativa da Administração.</t>
+  </si>
+  <si>
+    <t>A inércia da defesa paralisa o processo.</t>
+  </si>
+  <si>
+    <t>A autoridade deve garantir andamento regular.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A inércia da defesa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não paralisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o processo, em razão do impulso oficial. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 31)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NÃO autoriza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, em nenhuma hipótese, a mitigação do contraditório no MAPPA:</t>
+    </r>
+  </si>
+  <si>
+    <t>Situação de urgência devidamente fundamentada.</t>
+  </si>
+  <si>
+    <t>Risco concreto à eficácia da apuração.</t>
+  </si>
+  <si>
+    <t>Determinação judicial expressa.</t>
+  </si>
+  <si>
+    <t>Conveniência administrativa genérica.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conveniência administrativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>genérica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jamais autoriza restrição ao contraditório. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 32)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO clássico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verdade material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no MAPPA afirmar que ela:</t>
+    </r>
+  </si>
+  <si>
+    <t>Permite atuação ativa da Administração na busca da verdade.</t>
+  </si>
+  <si>
+    <t>Autoriza produção probatória de ofício.</t>
+  </si>
+  <si>
+    <t>Justifica utilização de prova ilícita.</t>
+  </si>
+  <si>
+    <t>Deve respeitar limites legais.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A verdade material </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não autoriza prova ilícita</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, sob qualquer argumento. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 32, § único)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa correta quanto à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>É exigida apenas em decisões sancionatórias.</t>
+  </si>
+  <si>
+    <t>Pode ser suprida por relatório anterior.</t>
+  </si>
+  <si>
+    <t>Deve ser clara, explícita e congruente com os fatos.</t>
+  </si>
+  <si>
+    <t>É dispensável quando há confissão.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A motivação deve ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clara, explícita e congruente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, mesmo havendo confissão. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 33)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Somente se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> admite decisão por autoridade diversa da instauradora quando:</t>
+    </r>
+  </si>
+  <si>
+    <t>A autoridade instauradora assim desejar.</t>
+  </si>
+  <si>
+    <t>Existir previsão normativa ou impedimento legal.</t>
+  </si>
+  <si>
+    <t>O processo for de menor complexidade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A atuação por autoridade diversa exige </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>previsão normativa ou impedimento legal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, nunca mera conveniência. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 29)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assinale a alternativa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre o princípio da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>razoabilidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no MAPPA.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deve orientar a escolha do rito.</t>
+  </si>
+  <si>
+    <t>Incide sobre prazos e medidas adotadas.</t>
+  </si>
+  <si>
+    <t>Autoriza flexibilizar garantias processuais.</t>
+  </si>
+  <si>
+    <t>Deve ser observada em toda atuação administrativa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A razoabilidade </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não autoriza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flexibilização de garantias processuais. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 31)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Constitui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> afirmar que a decisão final no MAPPA:</t>
+    </r>
+  </si>
+  <si>
+    <t>Deve ser fundamentada.</t>
+  </si>
+  <si>
+    <t>Pode divergir do relatório.</t>
+  </si>
+  <si>
+    <t>Produz efeitos automaticamente sem publicação.</t>
+  </si>
+  <si>
+    <t>Deve observar o devido processo legal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A decisão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não produz efeitos sem publicação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quando exigida, especialmente em atos sancionatórios. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 38)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durante serviço ordinário, a autoridade policial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> toma conhecimento informal de possível transgressão funcional praticada por servidor subordinado, sem haver comunicação formal ou queixa apresentada. À luz do MAPPA, a conduta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>correta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da autoridade é:</t>
+    </r>
+  </si>
+  <si>
+    <t>Aguardar provocação formal para agir.</t>
+  </si>
+  <si>
+    <t>Determinar apuração apenas se houver representação escrita.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instaurar procedimento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex officio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mediante ato motivado e observada a competência.</t>
+    </r>
+  </si>
+  <si>
+    <t>Encaminhar o fato diretamente para arquivamento preliminar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA autoriza a instauração </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex officio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quando a Administração toma ciência de irregularidade, exigindo ato </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e competência legal. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, arts. 30 e 33)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em um PCD, o encarregado ultrapassou o prazo de 15 dias corridos sem solicitar prorrogação, concluindo o relatório após o vencimento. O comunicado alega nulidade absoluta do procedimento. Segundo o MAPPA, tal alegação é:</t>
+  </si>
+  <si>
+    <t>Correta, pois o prazo é peremptório.</t>
+  </si>
+  <si>
+    <t>Correta, pois todo prazo gera nulidade automática.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois se trata de prazo impróprio, sem nulidade automática.</t>
+  </si>
+  <si>
+    <t>Correta, pois houve violação ao contraditório.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O prazo do encarregado é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impróprio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; seu descumprimento não gera nulidade automática, embora possa ensejar responsabilização funcional. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 34, §2º)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No curso de procedimento disciplinar reservado, a portaria de instauração </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não foi publicada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no início. A defesa sustenta nulidade por ausência de publicidade. À luz do MAPPA, a alegação é:</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedente, pois a publicidade é regra absoluta.</t>
+  </si>
+  <si>
+    <t>Procedente apenas se houver prejuízo presumido.</t>
+  </si>
+  <si>
+    <t>Improcedente, pois a publicação ocorre, como regra, ao final nos feitos reservados.</t>
+  </si>
+  <si>
+    <t>Procedente somente se requerida expressamente pela defesa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em procedimentos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a publicação da portaria ocorre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, com a solução, salvo previsão legal diversa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 27)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em determinado processo, a autoridade julgadora decidiu aplicar sanção diversa da sugerida no relatório final, fundamentando-se nas provas constantes dos autos. A defesa alega nulidade por violação ao relatório. Segundo o MAPPA, a decisão é:</t>
+  </si>
+  <si>
+    <t>Nula, pois a autoridade está vinculada ao relatório.</t>
+  </si>
+  <si>
+    <t>Nula, pois houve reformatio in pejus.</t>
+  </si>
+  <si>
+    <t>Válida, pois a autoridade não está vinculada ao relatório, desde que motive a decisão.</t>
+  </si>
+  <si>
+    <t>Válida apenas se houver confissão do comunicado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A autoridade </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não está vinculada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ao relatório do encarregado, mas sim às provas dos autos, devendo motivar a decisão. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 38)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante a instrução, a defesa requereu produção de prova manifestamente impertinente e protelatória. O encarregado indeferiu o pedido, de forma fundamentada. À luz do MAPPA, o indeferimento é:</t>
+  </si>
+  <si>
+    <t>Ilegal, pois toda prova requerida deve ser produzida.</t>
+  </si>
+  <si>
+    <t>Legal, pois a autoridade pode indeferir provas impertinentes, desde que motive.</t>
+  </si>
+  <si>
+    <t>Ilegal, pois viola a ampla defesa.</t>
+  </si>
+  <si>
+    <t>Ilegal, pois somente o julgador pode indeferir provas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA autoriza o indeferimento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de provas impertinentes, irrelevantes ou protelatórias, sem violar a ampla defesa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 32)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em uma Queixa Disciplinar extemporânea, o querelante noticia possível prática de crime funcional. A autoridade indefere liminarmente a QD por intempestividade. Segundo o MAPPA, a decisão é:</t>
+  </si>
+  <si>
+    <t>Correta, pois a QD é personalíssima e extemporânea.</t>
+  </si>
+  <si>
+    <t>Correta, pois a Administração não atua de ofício.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois a notícia de crime impõe instauração do procedimento cabível.</t>
+  </si>
+  <si>
+    <t>Correta, salvo se houver pedido judicial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ainda que extemporânea, a QD que contenha </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notícia de crime ou maior gravidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve ensejar instauração do procedimento adequado. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 27, § único)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>No curso da apuração, o encarregado pretende juntar relatório típico de inteligência diretamente aos autos disciplinares. À luz do MAPPA, tal providência é:</t>
+  </si>
+  <si>
+    <t>Permitida, desde que classificada como reservada.</t>
+  </si>
+  <si>
+    <t>Permitida se houver autorização superior.</t>
+  </si>
+  <si>
+    <t>Vedada, devendo o conteúdo ser convertido em peça administrativa adequada.</t>
+  </si>
+  <si>
+    <t>Permitida se não houver oposição da defesa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MAPPA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>veda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a juntada direta de documentos de inteligência, exigindo conversão em peças administrativas compatíveis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 26)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em determinado processo, a autoridade decide arquivar os autos sem despacho formal, apenas certificando nos autos a ausência de infração. Segundo o MAPPA, o arquivamento é:</t>
+  </si>
+  <si>
+    <t>Válido, pois não houve infração.</t>
+  </si>
+  <si>
+    <t>Válido se não houver prejuízo.</t>
+  </si>
+  <si>
+    <t>Nulo, pois o arquivamento exige decisão expressa e motivada.</t>
+  </si>
+  <si>
+    <t>Válido se houver concordância do encarregado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O arquivamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não é automático</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; exige decisão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expressa e motivada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da autoridade competente. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 37)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em processo disciplinar, a autoridade deixa de motivar a decisão final, limitando-se a concordar com o relatório. À luz do MAPPA, tal decisão é:</t>
+  </si>
+  <si>
+    <t>Válida, pois o relatório supre a motivação.</t>
+  </si>
+  <si>
+    <t>Válida se a sanção for leve.</t>
+  </si>
+  <si>
+    <t>Nula, por ausência de motivação própria da autoridade.</t>
+  </si>
+  <si>
+    <t>Válida se houver prova robusta.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A autoridade deve apresentar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivação própria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, clara e congruente, não sendo suprida por mera remissão ao relatório. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 33)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Após o encerramento regular do processo disciplinar, a autoridade revisora pretende reabrir os autos apenas por discordar da conclusão absolutória. Segundo o MAPPA, tal reabertura é:</t>
+  </si>
+  <si>
+    <t>Admitida, por poder hierárquico.</t>
+  </si>
+  <si>
+    <t>Admitida, por autotutela.</t>
+  </si>
+  <si>
+    <t>Vedada, pois exige fato novo, vício ou determinação judicial.</t>
+  </si>
+  <si>
+    <t>Admitida se motivada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A reabertura </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não se admite por discordância subjetiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, exigindo fato novo, vício insanável ou ordem judicial. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MAPPA, art. 39)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CRIANÇA/ADOLESCENTE VITIMA</t>
+  </si>
+  <si>
+    <t>Conforme o POP nº 1.7.0.050, anexo ao Memorando nº 30.079.3/2024, no que tange aos procedimentos básicos de atendimento inicial à criança e ao adolescente vítima ou testemunha de violência, especificamente quanto ao uso da Câmera Operacional Portátil (COP), o policial militar deve:</t>
+  </si>
+  <si>
+    <t>Gravar ininterruptamente todo o atendimento, visando a preservação da prova e a garantia da cadeia de custódia, independentemente da exposição da vítima.</t>
+  </si>
+  <si>
+    <t>Evitar a gravação de imagens da criança ou adolescente; contudo, para interromper a gravação, o policial deve registrar a própria fala no dispositivo explicando o motivo da interrupção de uso.</t>
+  </si>
+  <si>
+    <t>Desligar o equipamento imediatamente ao identificar que a vítima é menor de idade, sendo vedado qualquer registro de áudio ou vídeo a partir desse momento para evitar revitimização.</t>
+  </si>
+  <si>
+    <t>Manter a gravação apenas de áudio, cobrindo a lente do equipamento, sem necessidade de justificativa formal no dispositivo, visto que a prioridade é o atendimento médico.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta conforme a literalidade do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.1.3 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>: "Quando estiver portando a Câmera Operacional Portátil (COP), o policial militar deve evitar a gravação de imagens da criança ou adolescente vítima ou testemunha de violência. Para tanto, antes da interrupção da gravação, o policial deve registrar a própria fala no dispositivo explicando o motivo da interrupção de uso."</t>
+    </r>
+  </si>
+  <si>
+    <t>Nos casos que envolvam violência doméstica e familiar, o Memorando estabelece competências específicas para o afastamento do agressor do lar. O policial militar poderá adotar providências quanto ao afastamento do agressor do lar quando:</t>
+  </si>
+  <si>
+    <t>O Município não for sede de comarca e não houver delegado disponível no momento da denúncia.</t>
+  </si>
+  <si>
+    <t>O risco à vida da criança for iminente, independentemente de haver delegado disponível ou do município ser sede de comarca.</t>
+  </si>
+  <si>
+    <t>Houver autorização expressa do Conselho Tutelar presente no local da ocorrência.</t>
+  </si>
+  <si>
+    <t>O Município for sede de comarca, mas o delegado de plantão autorizar a medida via canais de comunicação oficiais.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa reproduz fielmente a condicionante do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.3.5 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>: "Nos casos que envolvam violência doméstica e familiar, o policial militar, quando o Município não for sede de comarca e não houver delegado disponível no momento da denúncia, poderá adotar providências quanto ao afastamento do agressor do lar."</t>
+    </r>
+  </si>
+  <si>
+    <t>Considerando o fluxo de encaminhamento e a necessidade de comunicação judiciária prevista no protocolo, caso o policial militar tenha adotado as providências quanto ao afastamento do agressor do lar, deve comunicar o juiz no prazo máximo de:</t>
+  </si>
+  <si>
+    <t>12 (doze) horas, o qual decidirá sobre a manutenção da medida.</t>
+  </si>
+  <si>
+    <t>24 (vinte e quatro) horas, o qual decidirá, em igual prazo, sobre a manutenção ou a revogação da medida aplicada.</t>
+  </si>
+  <si>
+    <t>48 (quarenta e oito) horas, devendo encaminhar cópia do REDS ao Ministério Público.</t>
+  </si>
+  <si>
+    <t>Imediatamente, via plantão judiciário, não havendo prazo em horas estabelecido devido à urgência da medida.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.3.6 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>: "Caso o policial militar tenha adotado as providências quanto ao afastamento do agressor do lar [...] deve comunicar o juiz no prazo máximo de 24 (vinte e quatro) horas, o qual decidirá, em igual prazo, sobre a manutenção ou a revogação da medida aplicada..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre o registro da ocorrência (REDS) e a oitiva da criança ou adolescente, o protocolo estabelece, nos itens de "Ações Corretivas" e "Erros a serem evitados", que o policial militar deve:</t>
+  </si>
+  <si>
+    <t>Realizar a escuta especializada no local dos fatos para adiantar o inquérito policial e evitar que a criança esqueça detalhes do ocorrido.</t>
+  </si>
+  <si>
+    <t>Transcrever a fala da vítima ou testemunha da mesma forma que lhe foi dito, no caso de relato espontâneo, ouvindo atenta e calmamente sem qualquer intervenção e interrupção.</t>
+  </si>
+  <si>
+    <t>Fazer perguntas diretas e investigativas para esclarecer contradições no depoimento da criança antes do encaminhamento à delegacia.</t>
+  </si>
+  <si>
+    <t>Coletar informações das testemunhas dos fatos diante da criança ou do adolescente para confrontar versões e buscar a verdade real.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta baseada no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.2.4 e item 7.3 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>. O item 5.2.4 dita: "No caso de relato espontâneo, apenas ouvir atenta e calmamente [...] devendo transcrever a fala da vítima ou testemunha da mesma forma que lhe foi dito." As demais opções são citadas expressamente como "Erros a serem evitados" nos itens 8.1, 7.2 e 8.2.</t>
+    </r>
+  </si>
+  <si>
+    <t>Em relação ao transporte e condução das partes envolvidas em ocorrência de violência contra criança ou adolescente, o Procedimento Operacional Padrão determina que:</t>
+  </si>
+  <si>
+    <t>A condução da vítima e do autor deve ser realizada na mesma viatura, desde que no compartimento de segurança (xadrez) para garantir a integridade de ambos.</t>
+  </si>
+  <si>
+    <t>É permitido o transporte conjunto desde que haja uma barreira física na viatura e um policial permaneça entre as partes.</t>
+  </si>
+  <si>
+    <t>A condução das crianças ou adolescentes vítima ou testemunha de violência deverá ser realizada em veículo distinto da viatura que conduzirá o autor(a) da violência.</t>
+  </si>
+  <si>
+    <t>A vítima deve ser transportada obrigatoriamente por familiares ou pelo Conselho Tutelar, sendo vedado o transporte em viatura policial sob qualquer hipótese.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa respeita a literalidade do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.2.1 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>: "Durante a realização das diligências relativas ao registro do REDS, a condução das crianças ou adolescentes vítima ou testemunha de violência deverá ser realizada em veículo distinto da viatura que conduzirá o autor (a) da violência."</t>
+    </r>
+  </si>
+  <si>
+    <t>No tocante ao atendimento médico de criança ou adolescente vítima ou testemunha de violência, caso no município não haja hospital de referência, o policial militar deve encaminhar o menor para:</t>
+  </si>
+  <si>
+    <t>A sede da comarca mais próxima, independentemente da distância.</t>
+  </si>
+  <si>
+    <t>O Conselho Tutelar, para que este providencie o transporte sanitário.</t>
+  </si>
+  <si>
+    <t>O Instituto Médico Legal (IML) imediatamente, priorizando o exame de corpo de delito.</t>
+  </si>
+  <si>
+    <t>O pronto-atendimento de Unidade Básica de Saúde disponível.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>item 5.1.10 e 5.1.11 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>: "Caso no município não haja tal estabelecimento de referência, deve-se encaminhar o menor para o pronto-atendimento de Unidade Básica de Saúde disponível."</t>
+    </r>
+  </si>
+  <si>
+    <t>No atendimento inicial à criança e ao adolescente, o policial militar deve adotar posturas específicas para garantir a comunicação efetiva. Conforme os Procedimentos Básicos do POP, o militar deve:</t>
+  </si>
+  <si>
+    <t>Exigir que a criança narre os fatos detalhadamente para compor o histórico, independentemente de sua vontade.</t>
+  </si>
+  <si>
+    <t>Utilizar linguagem técnica e jurídica para garantir a precisão do registro no REDS.</t>
+  </si>
+  <si>
+    <t>Permitir que a criança ou o adolescente expresse livremente seus desejos e opiniões, inclusive a vontade de permanecer em silêncio.</t>
+  </si>
+  <si>
+    <t>Interromper a criança sempre que o relato fugir da materialidade do crime, focando apenas nos dados objetivos.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa é a cópia literal do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1.7 do POP nº 1.7.0.050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Permitir que a criança ou o adolescente expresse livremente seus desejos e opiniões, inclusive a vontade de permanecer em silêncio."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em ocorrências que envolvam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>violência sexual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, o POP nº 1.7.0.050 define uma preferência específica para a composição da equipe de atendimento. O procedimento correto é:</t>
+    </r>
+  </si>
+  <si>
+    <t>O atendimento policial-militar será realizado, obrigatoriamente, por policial militar feminina.</t>
+  </si>
+  <si>
+    <t>O atendimento policial-militar será realizado, preferencialmente, por policial militar feminina.</t>
+  </si>
+  <si>
+    <t>O atendimento deve ser feito exclusivamente por equipe do Conselho Tutelar, sendo vedada a aproximação da PM.</t>
+  </si>
+  <si>
+    <t>A equipe deve ser composta mistamente, com um oficial e uma praça, independentemente do gênero.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A questão explora a diferença entre obrigação e preferência. O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1.5 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estabelece: "Nos casos que envolvam violência sexual, o atendimento policial-militar será realizado, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preferencialmente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, por policial militar feminina."</t>
+    </r>
+  </si>
+  <si>
+    <t>Considere que uma criança, desacompanhada de responsáveis, solicite ajuda a uma guarnição policial para relatar uma violência. Conforme o POP, qual a conduta correta?</t>
+  </si>
+  <si>
+    <t>A criança tem assegurado o direito ao registro da ocorrência policial, devendo o militar comunicar ao Conselho Tutelar por meio do registro do REDS.</t>
+  </si>
+  <si>
+    <t>O policial não pode registrar a ocorrência sem a presença de um responsável legal, devendo aguardar a chegada dos pais.</t>
+  </si>
+  <si>
+    <t>O policial deve encaminhar a criança verbalmente ao Conselho Tutelar, sem registrar o REDS para não expor o menor.</t>
+  </si>
+  <si>
+    <t>O registro só pode ser feito se a criança estiver acompanhada de advogado ou defensor público.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.2.7 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "A criança ou adolescente, mesmo que desacompanhados, tem assegurado o direito ao registro da ocorrência policial [...] Nessa situação, o policial militar fará a comunicação ao Conselho Tutelar, por meio do registro do REDS..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Quanto à oitiva de criança ou adolescente no momento de encaminhamento à rede pública de saúde (SUS) ou ao IML, o policial deve:</t>
+  </si>
+  <si>
+    <t>Aproveitar o deslocamento para realizar uma inquirição detalhada sobre a autoria do delito.</t>
+  </si>
+  <si>
+    <t>Perguntar o mínimo necessário, de maneira consciente e respeitosa, priorizando a busca de informações com a pessoa responsável pela criança ou adolescente.</t>
+  </si>
+  <si>
+    <t>Gravar toda a conversa com a câmera COP para substituir o depoimento formal na delegacia.</t>
+  </si>
+  <si>
+    <t>Isolar a criança do responsável para garantir que a versão apresentada seja isenta de influência familiar.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Baseado no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1.12 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "No caso de encaminhamento [...] perguntar o mínimo necessário, de maneira consciente e respeitosa [...] priorizando a busca de informações com a pessoa responsável pela criança ou o adolescente."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nas hipóteses de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flagrante delito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> envolvendo criança ou adolescente vítima, caso não seja possível identificar um responsável no local para o acompanhamento, o policial deve:</t>
+    </r>
+  </si>
+  <si>
+    <t>Conduzir o menor imediatamente para a delegacia de plantão, onde ficará sob custódia da Polícia Civil.</t>
+  </si>
+  <si>
+    <t>Liberar o menor no local dos fatos para que busque seus familiares.</t>
+  </si>
+  <si>
+    <t>Acionar o Conselho Tutelar ou a Assistência Social do município.</t>
+  </si>
+  <si>
+    <t>Manter o menor dentro da viatura até o término do turno de serviço.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1.9 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Nas hipóteses de flagrante delito [...] Caso não seja possível [identificar um responsável], deve ser acionado o Conselho Tutelar ou a Assistência Social do município."</t>
+    </r>
+  </si>
+  <si>
+    <t>No contexto da gestão operacional, as Unidades de Execução Operacional (UEOp) possuem uma atribuição específica em relação à rede de proteção, conforme o Memorando nº 30.079.3/2024. Trata-se de:</t>
+  </si>
+  <si>
+    <t>Realizar auditorias mensais nos Conselhos Tutelares.</t>
+  </si>
+  <si>
+    <t>Subordinar administrativamente os órgãos da rede de proteção ao comando da unidade PM.</t>
+  </si>
+  <si>
+    <t>Manter atualizada a relação dos órgãos que integram a rede de proteção no respectivo município onde atuam.</t>
+  </si>
+  <si>
+    <t>Criar novos órgãos de proteção onde houver deficiência estatal.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.4 do Memorando (pág. 9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Manter atualizada, por meio das UEOp subordinadas, a relação dos órgãos que integram a rede de proteção à criança e ao adolescente no respectivo município onde atuam..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Um dos erros a serem evitados, listado no item 8 do POP, refere-se à tentativa do policial de realizar procedimentos que não são de sua competência. É INCORRETO que o policial realize:</t>
+  </si>
+  <si>
+    <t>O registro do relato espontâneo no histórico do REDS.</t>
+  </si>
+  <si>
+    <t>A escuta especializada ou o depoimento especial quando do primeiro atendimento.</t>
+  </si>
+  <si>
+    <t>A identificação de testemunhas no local do crime.</t>
+  </si>
+  <si>
+    <t>O isolamento do local para perícia.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 8.1 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> classifica como "Erro a ser evitado": "Realizar, quando do primeiro atendimento à criança ou adolescente, a escuta especializada ou o depoimento especial."</t>
+    </r>
+  </si>
+  <si>
+    <t>Em relação ao confronto entre o acusado e a vítima durante a ocorrência, o procedimento operacional padrão determina:</t>
+  </si>
+  <si>
+    <t>Permitir o confronto visual apenas se for estritamente necessário para o reconhecimento da autoria.</t>
+  </si>
+  <si>
+    <t>Proibir que o(a) acusado(a) confronte a vítima, diligenciando para que esta não fique exposta à possibilidade de intimidação.</t>
+  </si>
+  <si>
+    <t>Colocar ambos na mesma sala de espera da delegacia, desde que haja um policial armado presente.</t>
+  </si>
+  <si>
+    <t>Realizar uma acareação preliminar no local dos fatos para dirimir dúvidas sobre a dinâmica do evento.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.2.6 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Proibir que o (a) acusado (a) confronte a vítima, diligenciando para que esta não fique exposta à possibilidade de intimidação por parte do autor da violência."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No caso específico de lesões sofridas no contexto de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>violência sexual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, se o município </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possuir hospital de referência, o encaminhamento da vítima deve ser feito para:</t>
+    </r>
+  </si>
+  <si>
+    <t>O Instituto Médico Legal (IML) da capital, via transporte aéreo.</t>
+  </si>
+  <si>
+    <t>A sede da Companhia PM mais próxima para aguardar transporte sanitário.</t>
+  </si>
+  <si>
+    <t>A residência da vítima, orientando a família a procurar médico particular.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1.11 do POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Caso não haja tal estabelecimento [hospital de referência] no município, deve-se encaminhar o menor para o pronto-atendimento de unidade básica de saúde disponível."</t>
+    </r>
+  </si>
+  <si>
+    <t>CRIANÇA/ADOLESCENTE VÍTIMA</t>
+  </si>
+  <si>
+    <t>Conforme o item 5.1.3 do POP nº 1.7.0.050, quando o policial militar estiver portando a Câmera Operacional Portátil (COP), qual conduta deverá ser adotada nas ocorrências que envolvam criança ou adolescente vítima ou testemunha de violência?</t>
+  </si>
+  <si>
+    <t>Manter a gravação contínua para fins probatórios</t>
+  </si>
+  <si>
+    <t>Evitar a gravação de imagens, registrando previamente a própria fala no dispositivo explicando o motivo da interrupção</t>
+  </si>
+  <si>
+    <t>Gravar apenas o áudio da ocorrência</t>
+  </si>
+  <si>
+    <t>Encaminhar a gravação integral ao COPOM</t>
+  </si>
+  <si>
+    <t>O item 5.1.3 determina que o policial militar deve evitar a gravação de imagens da criança ou adolescente vítima ou testemunha de violência. Para tanto, antes da interrupção da gravação, o policial deve registrar a própria fala no dispositivo explicando o motivo da interrupção de uso.</t>
+  </si>
+  <si>
+    <t>Nos casos que envolvam violência sexual, segundo o item 5.1.5 do POP nº 1.7.0.050, o atendimento policial-militar será realizado, preferencialmente, por:</t>
+  </si>
+  <si>
+    <t>Oficial CPU</t>
+  </si>
+  <si>
+    <t>Policial militar mais antigo</t>
+  </si>
+  <si>
+    <t>Policial militar feminina</t>
+  </si>
+  <si>
+    <t>Equipe especializada do CREAS</t>
+  </si>
+  <si>
+    <t>O item 5.1.5 dispõe que, nos casos que envolvam violência sexual, o atendimento policial-militar será realizado, preferencialmente, por policial militar feminina.</t>
+  </si>
+  <si>
+    <t>De acordo com o item 5.1.9 do POP nº 1.7.0.050, nas hipóteses de flagrante delito, qual providência deve ser adotada em relação à criança ou adolescente para o devido acompanhamento do registro e encaminhamento da ocorrência policial?</t>
+  </si>
+  <si>
+    <t>Identificar um responsável pela criança ou adolescente</t>
+  </si>
+  <si>
+    <t>Encaminhar a criança desacompanhada à Delegacia de Plantão</t>
+  </si>
+  <si>
+    <t>Aguardar a chegada do Conselho Tutelar antes de registrar o REDS</t>
+  </si>
+  <si>
+    <t>Realizar o depoimento especial no local da ocorrência</t>
+  </si>
+  <si>
+    <t>O item 5.1.9 estabelece que, nas hipóteses de flagrante delito, deve-se identificar um responsável pela criança ou adolescente para o devido acompanhamento do registro e encaminhamento da ocorrência policial; caso não seja possível, deve ser acionado o Conselho Tutelar ou a Assistência Social do município.</t>
+  </si>
+  <si>
+    <t>Conforme o item 5.2.1 do POP nº 1.7.0.050, durante a realização das diligências relativas ao registro do REDS, a condução das crianças ou adolescentes vítima ou testemunha de violência deverá ser realizada em:</t>
+  </si>
+  <si>
+    <t>Viatura policial junto com o autor (a) da violência</t>
+  </si>
+  <si>
+    <t>Veículo distinto da viatura que conduzirá o autor (a) da violência</t>
+  </si>
+  <si>
+    <t>Veículo de terceiros, desde que discreto</t>
+  </si>
+  <si>
+    <t>Viatura descaracterizada, obrigatoriamente</t>
+  </si>
+  <si>
+    <t>O item 5.2.1 determina que a condução das crianças ou adolescentes vítima ou testemunha de violência deverá ser realizada em veículo distinto da viatura que conduzirá o autor (a) da violência.</t>
+  </si>
+  <si>
+    <t>Segundo o item 5.2.2 do POP nº 1.7.0.050, o registro da ocorrência deve ser procedido:</t>
+  </si>
+  <si>
+    <t>Em local público para facilitar a coleta de testemunhas</t>
+  </si>
+  <si>
+    <t>Em lugar discreto, que não ofereça exposição da identidade da criança ou do adolescente</t>
+  </si>
+  <si>
+    <t>Na SOU, obrigatoriamente</t>
+  </si>
+  <si>
+    <t>No COPOM, obrigatoriamente</t>
+  </si>
+  <si>
+    <t>O item 5.2.2 dispõe que o registro deve ser procedido em lugar discreto, que não ofereça exposição da identidade da criança ou do adolescente vítima ou testemunha de violência.</t>
+  </si>
+  <si>
+    <t>No caso de relato espontâneo, conforme o item 5.2.4 do POP nº 1.7.0.050, o policial militar deve:</t>
+  </si>
+  <si>
+    <t>Intervir para direcionar a narrativa</t>
+  </si>
+  <si>
+    <t>Interromper para esclarecer contradições</t>
+  </si>
+  <si>
+    <t>Apenas ouvir atenta e calmamente o que expressar a criança ou adolescente, sem qualquer intervenção e interrupção, devendo transcrever a fala da vítima ou testemunha da mesma forma que lhe foi dito</t>
+  </si>
+  <si>
+    <t>Realizar perguntas diretas e objetivas para complementar o REDS</t>
+  </si>
+  <si>
+    <t>O item 5.2.4 determina que, no caso de relato espontâneo, apenas ouvir atenta e calmamente, sem qualquer intervenção e interrupção, devendo transcrever a fala da vítima ou testemunha da mesma forma que lhe foi dito.</t>
+  </si>
+  <si>
+    <t>De acordo com o item 5.2.7 do POP nº 1.7.0.050, a criança ou adolescente, mesmo que desacompanhados, tem assegurado o direito ao registro da ocorrência policial, que deve se ater:</t>
+  </si>
+  <si>
+    <t>Ao relato formal perante autoridade judiciária</t>
+  </si>
+  <si>
+    <t>Tão somente ao relato espontâneo</t>
+  </si>
+  <si>
+    <t>Ao depoimento especial com técnicas específicas</t>
+  </si>
+  <si>
+    <t>À escuta especializada perante órgão da rede de proteção</t>
+  </si>
+  <si>
+    <t>O item 5.2.7 estabelece que a criança ou adolescente, mesmo que desacompanhados, tem assegurado o direito ao registro da ocorrência policial, que deve se ater tão somente ao relato espontâneo; nessa situação, o policial militar fará a comunicação ao Conselho Tutelar, por meio do registro do REDS.</t>
+  </si>
+  <si>
+    <t>Segundo o item 5.3.6 do POP nº 1.7.0.050, caso o policial militar tenha adotado as providências quanto ao afastamento do agressor do lar, deve comunicar o juiz no prazo máximo de:</t>
+  </si>
+  <si>
+    <t>12 (doze) horas</t>
+  </si>
+  <si>
+    <t>24 (vinte e quatro) horas</t>
+  </si>
+  <si>
+    <t>48 (quarenta e oito) horas</t>
+  </si>
+  <si>
+    <t>72 (setenta e duas) horas</t>
+  </si>
+  <si>
+    <t>O item 5.3.6 dispõe que deve comunicar o juiz no prazo máximo de 24 (vinte e quatro) horas, o qual decidirá, em igual prazo, sobre a manutenção ou a revogação da medida aplicada, bem como dará ciência ao Ministério Público concomitantemente.</t>
+  </si>
+  <si>
+    <t>Conforme o item 7.2 do POP nº 1.7.0.050, constitui ação corretiva:</t>
+  </si>
+  <si>
+    <t>Realizar perguntas diretas para a criança ou adolescente sobre o fato</t>
+  </si>
+  <si>
+    <t>Não realizar perguntas diretas para a criança ou adolescente vítima ou testemunha de violência</t>
+  </si>
+  <si>
+    <t>Solicitar depoimento especial ainda no local do fato</t>
+  </si>
+  <si>
+    <t>Coletar informações das testemunhas diante da criança</t>
+  </si>
+  <si>
+    <t>O item 7.2 determina: Não realizar perguntas diretas para a criança ou adolescente vítima ou testemunha de violência sobre o fato.</t>
+  </si>
+  <si>
+    <t>De acordo com o item 8.1 do POP nº 1.7.0.050, constitui erro a ser evitado, quando do primeiro atendimento à criança ou adolescente:</t>
+  </si>
+  <si>
+    <t>Proceder o registro em lugar discreto</t>
+  </si>
+  <si>
+    <t>Resguardar a criança e o adolescente de qualquer contato, ainda que visual, com o suposto autor</t>
+  </si>
+  <si>
+    <t>Realizar a escuta especializada ou o depoimento especial</t>
+  </si>
+  <si>
+    <t>Diligenciar para que a narração do fato não seja feita diante da criança ou do adolescente</t>
+  </si>
+  <si>
+    <t>O item 8.1 define como erro a ser evitado realizar, quando do primeiro atendimento à criança ou adolescente, a escuta especializada ou o depoimento especial.</t>
+  </si>
+  <si>
+    <t>Durante atendimento a ocorrência de agressão doméstica, a equipe policial percebe que a criança vítima começa a relatar espontaneamente os fatos enquanto o REDS está sendo confeccionado. Segundo o POP nº 1.7.0.050, qual deve ser a conduta do policial militar diante desse relato?</t>
+  </si>
+  <si>
+    <t>Interromper o relato para preservar a instrução futura</t>
+  </si>
+  <si>
+    <t>Ouv ir o relato e formular perguntas complementares</t>
+  </si>
+  <si>
+    <t>Ouvir atenta e calmamente, sem qualquer intervenção ou interrupção, transcrevendo a fala da mesma forma que lhe foi dita</t>
+  </si>
+  <si>
+    <t>Encaminhar imediatamente a criança ao Conselho Tutelar</t>
+  </si>
+  <si>
+    <t>O item 5.2.4 determina que, no caso de relato espontâneo, o policial militar deve apenas ouvir atenta e calmamente o que expressar a criança ou adolescente, sem qualquer intervenção ou interrupção, devendo transcrever a fala da mesma forma que lhe foi dito.</t>
+  </si>
+  <si>
+    <t>Em uma ocorrência envolvendo possível abuso, a equipe policial avalia a necessidade de atendimento médico à criança vítima. Conforme o POP nº 1.7.0.050, qual providência deve ser adotada?</t>
+  </si>
+  <si>
+    <t>Aguardar decisão judicial para encaminhamento</t>
+  </si>
+  <si>
+    <t>Encaminhar somente ao IML</t>
+  </si>
+  <si>
+    <t>Verificar a necessidade de atendimento médico e acompanhar a criança a hospital da rede pública ou unidade básica de saúde disponível</t>
+  </si>
+  <si>
+    <t>Encaminhar apenas mediante solicitação do Conselho Tutelar</t>
+  </si>
+  <si>
+    <t>O item 5.1.10 estabelece que o policial militar deve verificar a necessidade de atendimento médico à criança ou adolescente vítima ou testemunha de violência, acompanhando-o a hospital da rede pública ou, na ausência, à unidade básica de saúde disponível.</t>
+  </si>
+  <si>
+    <t>Durante o registro de ocorrência, o autor da violência insiste em permanecer no mesmo ambiente da criança vítima. Segundo o POP nº 1.7.0.050, qual deve ser a atuação da equipe policial?</t>
+  </si>
+  <si>
+    <t>Permitir contato visual para identificação</t>
+  </si>
+  <si>
+    <t>Manter o autor sob escolta no mesmo local</t>
+  </si>
+  <si>
+    <t>Resguardar a criança de qualquer contato, ainda que visual, com o suposto autor ou acusado</t>
+  </si>
+  <si>
+    <t>Aguardar a chegada da autoridade judiciária</t>
+  </si>
+  <si>
+    <t>O item 5.2.5 determina resguardar a criança e o adolescente de qualquer contato, ainda que visual, com o suposto autor ou acusado ou com outra pessoa que represente ameaça, coação ou constrangimento.</t>
+  </si>
+  <si>
+    <t>Em situação de flagrante envolvendo criança vítima, não foi possível localizar responsável legal no local. De acordo com o POP nº 1.7.0.050, qual providência deve ser adotada?</t>
+  </si>
+  <si>
+    <t>Registrar o REDS sem acompanhamento</t>
+  </si>
+  <si>
+    <t>Encaminhar a criança à Delegacia desacompanhada</t>
+  </si>
+  <si>
+    <t>Acionar o Conselho Tutelar ou a Assistência Social do município</t>
+  </si>
+  <si>
+    <t>Manter a criança sob custódia policial</t>
+  </si>
+  <si>
+    <t>O item 5.1.9 dispõe que, caso não seja possível identificar responsável pela criança ou adolescente, deve ser acionado o Conselho Tutelar ou a Assistência Social do município.</t>
+  </si>
+  <si>
+    <t>Em município que não é sede de comarca, o policial militar afasta o agressor do lar diante de risco à criança. Conforme o POP nº 1.7.0.050, qual providência subsequente é obrigatória?</t>
+  </si>
+  <si>
+    <t>Comunicar apenas o Conselho Tutelar</t>
+  </si>
+  <si>
+    <t>Comunicar o juiz no prazo máximo de 24 horas</t>
+  </si>
+  <si>
+    <t>Encaminhar relatório mensal ao Ministério Público</t>
+  </si>
+  <si>
+    <t>Aguardar decisão judicial sem comunicação prévia</t>
+  </si>
+  <si>
+    <t>O item 5.3.6 estabelece que, adotadas providências quanto ao afastamento do agressor do lar, o policial militar deve comunicar o juiz no prazo máximo de 24 (vinte e quatro) horas.</t>
+  </si>
+  <si>
+    <t>Durante diligência, a equipe avalia registrar imagens da criança vítima utilizando a COP. À luz do POP nº 1.7.0.050, qual conduta está correta?</t>
+  </si>
+  <si>
+    <t>Gravar normalmente por se tratar de prova</t>
+  </si>
+  <si>
+    <t>Evitar a gravação de imagens da criança ou adolescente</t>
+  </si>
+  <si>
+    <t>Gravar apenas se houver autorização do responsável</t>
+  </si>
+  <si>
+    <t>Gravar somente o rosto da vítima</t>
+  </si>
+  <si>
+    <t>O item 5.1.3 determina que o policial militar deve evitar a gravação de imagens da criança ou adolescente vítima ou testemunha de violência.</t>
+  </si>
+  <si>
+    <t>No momento do registro da ocorrência, os envolvidos pretendem narrar os fatos na presença da criança vítima. Segundo o POP nº 1.7.0.050, qual providência deve ser adotada?</t>
+  </si>
+  <si>
+    <t>Permitir para agilizar o registro</t>
+  </si>
+  <si>
+    <t>Autorizar apenas a vítima a permanecer no local</t>
+  </si>
+  <si>
+    <t>Diligenciar para que a narração não seja feita diante da criança ou adolescente</t>
+  </si>
+  <si>
+    <t>Suspender o registro da ocorrência</t>
+  </si>
+  <si>
+    <t>O item 5.2.3 determina diligenciar para que a narração do fato realizada pelos envolvidos não seja feita diante da criança ou adolescente, nem em local público.</t>
+  </si>
+  <si>
+    <t>Em atendimento envolvendo violência sexual, a criança apresenta lesões aparentes. Conforme o POP nº 1.7.0.050, qual encaminhamento é correto?</t>
+  </si>
+  <si>
+    <t>Encaminhar somente ao Conselho Tutelar</t>
+  </si>
+  <si>
+    <t>Encaminhar para atendimento médico em hospital de referência ou, na ausência, unidade básica de saúde</t>
+  </si>
+  <si>
+    <t>Registrar o REDS e liberar a vítima</t>
+  </si>
+  <si>
+    <t>Aguardar perícia judicial</t>
+  </si>
+  <si>
+    <t>O item 5.1.11 estabelece que, no caso de lesões sofridas no contexto de violência sexual, a criança ou adolescente deverá ser encaminhada para atendimento médico em hospital de referência.</t>
+  </si>
+  <si>
+    <t>Durante a ocorrência, o policial militar passa a fazer perguntas diretas à criança sobre os fatos. À luz do POP nº 1.7.0.050, essa conduta caracteriza:</t>
+  </si>
+  <si>
+    <t>Procedimento padrão</t>
+  </si>
+  <si>
+    <t>Ação corretiva</t>
+  </si>
+  <si>
+    <t>Erro a ser evitado</t>
+  </si>
+  <si>
+    <t>Escuta especializada</t>
+  </si>
+  <si>
+    <t>O item 7.2 dispõe que não se deve realizar perguntas diretas para a criança ou adolescente vítima ou testemunha de violência.</t>
+  </si>
+  <si>
+    <t>No primeiro atendimento à criança vítima, o policial decide realizar a escuta especializada no local. Segundo o POP nº 1.7.0.050, essa conduta é classificada como:</t>
+  </si>
+  <si>
+    <t>Procedimento obrigatório</t>
+  </si>
+  <si>
+    <t>Medida protetiva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3768,13 +8337,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
+      <name val="Google Sans Text"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
+      <name val="Google Sans Text"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3815,19 +8401,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4163,13 +8756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A153"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -4187,7 +8780,7 @@
     <col min="14" max="16384" width="32.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +8821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4264,7 +8857,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4300,7 +8893,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4336,7 +8929,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4372,7 +8965,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4408,7 +9001,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4444,7 +9037,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4480,7 +9073,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4516,7 +9109,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4552,7 +9145,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4588,7 +9181,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4624,7 +9217,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4660,7 +9253,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4696,7 +9289,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4732,7 +9325,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4768,7 +9361,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4804,7 +9397,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4840,7 +9433,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4876,7 +9469,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4912,7 +9505,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4948,7 +9541,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4984,7 +9577,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5020,7 +9613,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5056,7 +9649,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5092,7 +9685,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5128,7 +9721,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5164,7 +9757,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5200,7 +9793,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5236,7 +9829,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5272,7 +9865,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5308,7 +9901,7 @@
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5344,7 +9937,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5380,7 +9973,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5416,7 +10009,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5452,7 +10045,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5488,7 +10081,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5523,7 +10116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5558,7 +10151,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5593,7 +10186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5628,7 +10221,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5663,7 +10256,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5698,7 +10291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5733,7 +10326,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5768,7 +10361,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5803,7 +10396,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5838,7 +10431,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5873,7 +10466,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5908,7 +10501,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5943,7 +10536,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5978,7 +10571,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6013,7 +10606,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6048,7 +10641,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6083,7 +10676,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6118,7 +10711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6153,7 +10746,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6188,7 +10781,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6223,7 +10816,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6258,7 +10851,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6293,7 +10886,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6328,7 +10921,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6363,7 +10956,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6398,7 +10991,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6433,7 +11026,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6468,7 +11061,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6503,7 +11096,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6538,7 +11131,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6573,7 +11166,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6608,7 +11201,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6643,7 +11236,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6678,7 +11271,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6713,7 +11306,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6748,7 +11341,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6783,7 +11376,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6818,7 +11411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6853,7 +11446,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6888,7 +11481,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6923,7 +11516,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6958,7 +11551,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6993,7 +11586,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7028,7 +11621,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7063,7 +11656,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7098,7 +11691,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -7133,7 +11726,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -7168,7 +11761,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -7203,7 +11796,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -7238,7 +11831,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -7273,7 +11866,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -7308,7 +11901,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -7343,7 +11936,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -7378,7 +11971,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -7413,7 +12006,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -7448,7 +12041,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -7483,7 +12076,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -7518,7 +12111,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -7553,7 +12146,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -7588,7 +12181,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -7623,7 +12216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -7658,7 +12251,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -7693,7 +12286,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7728,7 +12321,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -7763,7 +12356,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7798,7 +12391,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -7833,7 +12426,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7868,7 +12461,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -7903,7 +12496,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -7938,7 +12531,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -7973,7 +12566,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -8008,7 +12601,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -8043,7 +12636,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -8078,7 +12671,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -8113,7 +12706,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -8148,7 +12741,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -8183,7 +12776,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -8218,7 +12811,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -8253,7 +12846,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -8288,7 +12881,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -8323,7 +12916,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -8358,7 +12951,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -8393,7 +12986,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -8428,7 +13021,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -8463,7 +13056,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -8498,7 +13091,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -8533,7 +13126,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -8568,7 +13161,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -8603,7 +13196,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -8638,7 +13231,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -8673,7 +13266,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -8708,7 +13301,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -8743,7 +13336,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -8778,7 +13371,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -8813,7 +13406,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -8848,7 +13441,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -8883,7 +13476,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -8918,7 +13511,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -8953,7 +13546,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -8988,7 +13581,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -9023,7 +13616,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -9058,7 +13651,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -9093,7 +13686,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -9128,7 +13721,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -9163,7 +13756,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -9198,7 +13791,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -9233,7 +13826,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -9268,7 +13861,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -9303,7 +13896,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -9338,7 +13931,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -9373,7 +13966,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -9408,7 +14001,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -9443,7 +14036,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -9478,7 +14071,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -9513,7 +14106,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -9548,7 +14141,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -9583,7 +14176,2793 @@
         <v>933</v>
       </c>
     </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="6"/>
+      <c r="B204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="6"/>
+      <c r="B205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="6"/>
+      <c r="B206" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="6"/>
+      <c r="B207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="6"/>
+      <c r="B208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="6"/>
+      <c r="B209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K213" s="5" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K215" s="5" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="B219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="B220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="B221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="B222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="B223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="B224" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11">
+      <c r="B225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11">
+      <c r="B226" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11">
+      <c r="B227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11">
+      <c r="B228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11">
+      <c r="B229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11">
+      <c r="B230" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11">
+      <c r="B231" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11">
+      <c r="B232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11">
+      <c r="B233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11">
+      <c r="B234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11">
+      <c r="B235" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11">
+      <c r="B236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11">
+      <c r="B237" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11">
+      <c r="B238" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D5857-BF11-4951-87BC-CDADC500EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9651E5D-9B6D-4113-881A-3494559FA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1622">
   <si>
     <t>ID</t>
   </si>
@@ -8301,6 +8301,2172 @@
   </si>
   <si>
     <t>Medida protetiva</t>
+  </si>
+  <si>
+    <t>De acordo com os conceitos aplicáveis à área de abordagem a veículos definidos no MTP 04, a "Área de Aproximação" é tecnicamente descrita como:</t>
+  </si>
+  <si>
+    <t>O espaço situado dentro da área de risco onde o policial militar estará vulnerável à agressão física, compreendendo aproximadamente o raio de abertura das portas do veículo.</t>
+  </si>
+  <si>
+    <t>A área na qual a Polícia Militar tem o domínio da situação, havendo, presumidamente, menores riscos à integridade física e à segurança dos policiais militares.</t>
+  </si>
+  <si>
+    <t>O espaço que corresponde a uma faixa de aproximadamente a largura de um corpo humano, dentro da área de risco, que se inicia na altura do para-choque traseiro e termina antes do raio de abertura da porta do motorista.</t>
+  </si>
+  <si>
+    <t>O espaço destinado à realização de busca pessoal, definido após análise do local e avaliação de riscos, garantindo segurança tanto para os policiais quanto para os abordados.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa reproduz fielmente a definição contida no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 2.2, alínea 'd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Área de aproximação: é o espaço que corresponde a uma faixa de aproximadamente a largura de um corpo humano, dentro da área de risco, que se inicia na altura do para-choque traseiro [...] e termina antes do raio de abertura da porta do motorista...". As demais opções referem-se, respectivamente, à Área de Alcance, Área de Segurança e Área de Busca.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na Tática de Posicionamento Diagonal com o emprego de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 (duas) viaturas e 4 (quatro) policiais militares em cada viatura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (totalizando 8 militares), o MTP 04 estabelece um posicionamento específico para o motorista da segunda viatura e o patrulheiro que ocupava inicialmente a posição 3. Esses militares devem:</t>
+    </r>
+  </si>
+  <si>
+    <t>Permanecer no interior da segunda viatura para garantir a segurança das comunicações via rádio e consulta de dados.</t>
+  </si>
+  <si>
+    <t>Deslocar-se imediatamente para a retaguarda da segunda viatura, reforçando a segurança do perímetro juntamente com os demais patrulheiros.</t>
+  </si>
+  <si>
+    <t>Posicionar-se entre a primeira e a segunda viatura, com a arma na posição de guarda baixa e a silhueta reduzida, servindo de apoio aos policiais que ocupam as posições 1 e 2.</t>
+  </si>
+  <si>
+    <t>Ocupar a posição 4 da primeira viatura, dando cobertura direta ao Comandante da operação durante a verbalização.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.3.2.1, alínea 'h'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O motorista da segunda viatura e o patrulheiro que ocupava inicialmente a posição 3 posicionar-se-ão entre a primeira e a segunda viatura, com a arma na posição de guarda baixa e a silhueta reduzida, servindo de apoio aos policiais militares que ocupam as posições 1 e 2..."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No tocante à abordagem a caminhões de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nível 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (operações educativas ou assistenciais), o procedimento tático padrão para o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM Verbalizador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> determina que ele deve:</t>
+    </r>
+  </si>
+  <si>
+    <t>Deslocar-se pela frente do caminhão no sentido anti-horário, mantendo contato visual constante com o motorista pela para-brisa.</t>
+  </si>
+  <si>
+    <t>Permanecer na posição 1 da viatura e utilizar o megafone para determinar que o motorista desça do veículo antes de qualquer aproximação.</t>
+  </si>
+  <si>
+    <t>Deslocar pela retaguarda do caminhão no sentido horário e realizar aproximação até aproximadamente 3 (três) a 5 (cinco) metros da cabine.</t>
+  </si>
+  <si>
+    <t>Subir no estribo do caminhão pelo lado do passageiro para garantir que não há outras pessoas na cabine antes de iniciar a verbalização.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O PM Verbalizador deslocará pela retaguarda do caminhão no sentido horário e realizará aproximação até aproximadamente 3 (três) a 5 (cinco) metros da cabine, conforme Figura 38."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durante a abordagem a um ônibus com </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 (duas) ou mais portas de acesso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> em uma operação de Nível 2, o PM Comandante deve adotar um procedimento específico quanto ao controle das portas. Segundo o manual, o procedimento CORRETO é:</t>
+    </r>
+  </si>
+  <si>
+    <t>Solicitar ao motorista que abra todas as portas simultaneamente para permitir a rápida evacuação e visualização de todos os passageiros.</t>
+  </si>
+  <si>
+    <t>Solicitar ao motorista que mantenha todas as portas fechadas até que a equipe de segurança externa esteja posicionada.</t>
+  </si>
+  <si>
+    <t>Solicitar ao motorista que abra apenas as portas dianteira e traseira e que mantenha fechada(s) a(s) porta(s) central(is), quando houver.</t>
+  </si>
+  <si>
+    <t>Determinar a abertura apenas da porta dianteira para que o PM Verbalizador entre, mantendo as demais travadas para evitar fugas.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.2.1, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.2.2, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Após a parada do veículo, o PM Comandante [...] solicitará ao motorista que abra apenas as portas dianteira e traseira e que mantenha fechada(s) a(s) porta(s) central(is), quando houver."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em uma abordagem a motocicletas utilizando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 (três) motocicletas policiais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, o posicionamento do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM Segurança 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é detalhado de forma precisa. Ele deve posicionar sua motocicleta:</t>
+    </r>
+  </si>
+  <si>
+    <t>Alinhada ao PM Comandante, do lado esquerdo, para bloquear a via de trânsito em sentido contrário.</t>
+  </si>
+  <si>
+    <t>A uma distância aproximada de 1,5 (um e meio) metros à retaguarda da motocicleta do PM Comandante, na diagonal (45°), obstruindo a faixa de trânsito atrás do veículo abordado.</t>
+  </si>
+  <si>
+    <t>À frente da motocicleta abordada, a uma distância de 3 a 5 metros, impedindo a fuga do suspeito.</t>
+  </si>
+  <si>
+    <t>No passeio ou acostamento, paralelamente à motocicleta do PM Segurança 1, para realizar a segurança periférica.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa respeita a literalidade do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O PM Segurança 2 posicionará a motocicleta a uma distância aproximada de 1,5 (um e meio) metros à retaguarda da motocicleta do PM Comandante, na diagonal (45°) obstruindo a faixa de trânsito atrás do veículo abordado."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na montagem do dispositivo de bloqueio na via (Operação Cerco e Bloqueio), o MTP 04 estabelece a criação de três barreiras distintas. A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>terceira barreira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é caracterizada:</t>
+    </r>
+  </si>
+  <si>
+    <t>Pela disposição de cones distribuídos ao longo da pista para canalizar o trânsito.</t>
+  </si>
+  <si>
+    <t>Pela colocação de cavaletes com a indicação de bloqueio da pista.</t>
+  </si>
+  <si>
+    <t>Pela disposição das viaturas na via, posicionadas num ângulo de 45° com a frente voltada para o sentido da via.</t>
+  </si>
+  <si>
+    <t>Pelo posicionamento dos policiais militares com armas longas e escudos balísticos.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subitem 5.5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "3ª barreira: concretizada pela disposição das viaturas na via [...] a viatura ficará posicionada num ângulo de 45°, com a frente voltada para o sentido da via...". A 1ª barreira são cavaletes e a 2ª são cones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quanto ao emprego de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limitadores de fuga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (como a "cama de faquir") em uma operação de bloqueio, o manual determina que o equipamento deve ser instalado em uma posição específica relativa às barreiras montadas. A posição correta é:</t>
+    </r>
+  </si>
+  <si>
+    <t>Imediatamente antes da primeira barreira, para surpreender o condutor antes que ele visualize o bloqueio.</t>
+  </si>
+  <si>
+    <t>Entre a primeira e a segunda barreira, a uma distância de 10 metros da primeira.</t>
+  </si>
+  <si>
+    <t>Exatamente na linha da terceira barreira, protegido pelas viaturas policiais.</t>
+  </si>
+  <si>
+    <t>Entre a segunda e a terceira barreira de contenção, a 5 (cinco) metros de distância da segunda barreira.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa está correta baseada no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subitem 6.2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "...o limitador de fuga deve ser instalado entre a segunda e a terceira barreira de contenção, a 5 (cinco) metros de distância da segunda barreira."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durante a realização de uma perseguição policial (intervenção de nível III), o MTP 04 lista medidas que o policial militar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve executar devido aos riscos envolvidos. Dentre essas vedações expressas, encontra-se:</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilizar sinais luminosos e sirene para sinalizar a situação de emergência.</t>
+  </si>
+  <si>
+    <t>Manter a distância mínima de segurança da viatura em relação ao veículo em fuga.</t>
+  </si>
+  <si>
+    <t>Ultrapassar ou emparelhar a viatura com o veículo em fuga, efetuando manobras perigosas ("fechadas").</t>
+  </si>
+  <si>
+    <t>Repassar ao COPOM dados do veículo em fuga, como tipo, marca, modelo e placa.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (página 80), recomenda-se ao policial militar que não execute: "ultrapassar ou emparelhar a viatura com o veículo em fuga, efetuando manobras perigosas ('fechadas')". As demais opções são procedimentos recomendados nas alíneas 'b', 'c' e 'e'.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre a busca em ônibus, o MTP 04 identifica diversos locais utilizados para ocultação de ilícitos. Sobre a conferência de bagagens no bagageiro externo de ônibus interestaduais e intermunicipais, o procedimento descrito é:</t>
+  </si>
+  <si>
+    <t>A busca deve ser feita exclusivamente pelos passageiros proprietários das malas, sob supervisão visual do policial, sendo vedado o toque do militar na bagagem.</t>
+  </si>
+  <si>
+    <t>O Auxiliar de viagem ou motorista do ônibus poderá ser acionado para a conferência da etiqueta de identificação da bagagem e será arrolado como testemunha da ação policial.</t>
+  </si>
+  <si>
+    <t>As malas devem ser retiradas e colocadas na pista de rolamento para que cães farejadores realizem a inspeção inicial, dispensando a presença do motorista.</t>
+  </si>
+  <si>
+    <t>O policial deve abrir todas as malas imediatamente, independentemente da identificação do proprietário, para garantir a rapidez da operação (princípio da celeridade).</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.2.1, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (final do tópico) e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.4, alínea 'i'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O Auxiliar de viagem ou motorista do ônibus poderá ser acionado para a conferência da etiqueta de identificação da bagagem e será arrolado como testemunha da ação policial."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tática de Posicionamento Diagonal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para abordagem a veículos de passeio (nível 2 ou 3), o MTP 04 estabelece que, ao iniciarem a verbalização para desembarque, os policiais devem determinar que o motorista abra a porta traseira do veículo. O procedimento correto descrito é:</t>
+    </r>
+  </si>
+  <si>
+    <t>O motorista deve abrir a porta traseira utilizando a mão direita, mantendo a esquerda no volante.</t>
+  </si>
+  <si>
+    <t>O motorista deve descer do veículo, abrir a porta traseira por fora e retornar ao volante.</t>
+  </si>
+  <si>
+    <t>O motorista deve abrir a porta traseira do seu veículo com a mão esquerda (as portas permanecem abertas).</t>
+  </si>
+  <si>
+    <t>O motorista não deve abrir a porta traseira; esta ação deve ser realizada exclusivamente pelo PM Vistoriador após a contenção dos ocupantes.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme a verbalização sugerida no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Com a mão esquerda, abra a porta traseira do seu veículo! (as portas permanecem abertas)."</t>
+    </r>
+  </si>
+  <si>
+    <t>MTP - 04</t>
+  </si>
+  <si>
+    <t>Conforme as Considerações Iniciais do MTP 04, acerca da necessidade de mandado judicial para a realização de busca em veículos, é CORRETO afirmar que:</t>
+  </si>
+  <si>
+    <t>A busca veicular sempre dependerá de mandado judicial, exceto quando o veículo estiver em movimento, situação que configura flagrante ficto.</t>
+  </si>
+  <si>
+    <t>A busca veicular independerá de mandado, visto que o Art. 244 do CPP descreve que a busca pessoal independe de mandado e o veículo, quando não utilizado como moradia, não goza da proteção de inviolabilidade domiciliar.</t>
+  </si>
+  <si>
+    <t>A busca veicular exige mandado judicial apenas para a vistoria de compartimentos fechados, como porta-malas e porta-luvas, sendo dispensada para a área de passageiros.</t>
+  </si>
+  <si>
+    <t>A busca veicular independe de mandado judicial apenas se o condutor autorizar expressamente a medida, devendo tal consentimento ser registrado em vídeo ou por escrito.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 2 (Considerações Iniciais)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (pág. 14): "O art. 244 do CPP descreve que a busca pessoal independerá de mandado, e o art. 245 condiciona a necessidade de mandado apenas para a busca domiciliar. Portanto, nos veículos em que o proprietário/condutor não utiliza como moradia, a busca pessoal e a vistoria veicular independem da necessidade de mandado."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MTP 04 estabelece uma distinção técnica precisa entre os conceitos de "Busca Veicular" e "Vistoria". Assinale a alternativa que define corretamente a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vistoria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, segundo a literalidade do manual:</t>
+    </r>
+  </si>
+  <si>
+    <t>Consiste na verificação interna e externa do veículo abordado, por meio de revista nos compartimentos suscetíveis a serem utilizados para esconder objetos ilícitos.</t>
+  </si>
+  <si>
+    <t>É o procedimento de identificação criminal dos ocupantes do veículo através de consulta aos sistemas informatizados de segurança pública.</t>
+  </si>
+  <si>
+    <t>Consiste no processo de conferência do chassi, número do motor, carrocerias, placas e outros sinais veiculares, verificando se estão dentro das especificações exigidas pelas normas de trânsito.</t>
+  </si>
+  <si>
+    <t>É a varredura visual realizada pelo policial militar da posição 1 (Verbalizador) antes de autorizar o desembarque dos ocupantes do veículo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa reproduz fielmente o conceito do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.3.2.2, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Vistoria: consiste no processo de conferência do chassi, número do motor, carrocerias, placas e outros sinais veiculares, verificando se estão dentro das especificações exigidas pelas normas de trânsito." A opção A define "Busca Veicular".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durante a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abordagem a Ônibus Nível 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (preventiva) em um veículo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem roleta e com uma porta de acesso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, o MTP 04 determina um posicionamento específico para o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM Revistador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (terceiro policial). Este deve posicionar-se:</t>
+    </r>
+  </si>
+  <si>
+    <t>Próximo à parte central do ônibus sobre o passeio/acostamento com as atenções voltadas para o interior do coletivo.</t>
+  </si>
+  <si>
+    <t>Sobre a calçada/acostamento, próximo a parte traseira do coletivo, assumindo a função de segurança externa.</t>
+  </si>
+  <si>
+    <t>No interior do ônibus, deslocando-se imediatamente para o fundo do corredor para realizar a varredura visual.</t>
+  </si>
+  <si>
+    <t>Junto à porta dianteira, ao lado do PM Comandante, para auxiliar na verbalização com o motorista.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.2.1, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O terceiro policial militar que assumirá a função de PM Revistador posicionar-se-á próximo à parte central do ônibus sobre o passeio/acostamento com as atenções voltadas para o interior do coletivo."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nas abordagens a caminhões de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Níveis 2 e 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (preventiva com suspeita ou repressiva), os procedimentos táticos seguem a Tática de Posicionamento Diagonal, porém com uma adaptação específica para o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM Comandante/Segurança</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Segundo o manual, este policial deve posicionar-se:</t>
+    </r>
+  </si>
+  <si>
+    <t>À frente da cabine do caminhão, utilizando a viatura como abrigo para monitorar o motorista.</t>
+  </si>
+  <si>
+    <t>Alinhado e junto à extremidade traseira direita do caminhão.</t>
+  </si>
+  <si>
+    <t>Na posição 4, dando cobertura ao PM Verbalizador, que se encontra na escada de acesso à cabine.</t>
+  </si>
+  <si>
+    <t>Sobre o estribo do lado do passageiro para garantir a visualização interna da cabine.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Os procedimentos táticos devem seguir o descrito na subseção 3.3.2 (Tática de posicionamento Diagonal), devendo adaptar o posicionamento do PM Comandante/Segurança que se posicionará alinhado e junto à extremidade traseira direita do caminhão."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na montagem do dispositivo de cerco da via, o MTP 04 descreve o tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Afunilamento Diagonal"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Nesta configuração, os cones devem ser dispostos:</t>
+    </r>
+  </si>
+  <si>
+    <t>Formando um "zigue-zague" na via, obrigando o veículo a reduzir a velocidade drasticamente.</t>
+  </si>
+  <si>
+    <t>Longitudinalmente na mesma faixa em que a viatura estiver posicionada (paralelo ao fluxo).</t>
+  </si>
+  <si>
+    <t>Na mesma faixa em que a viatura estiver posicionada, formando um fluxo diagonal.</t>
+  </si>
+  <si>
+    <t>Transversalmente à via, bloqueando totalmente todas as faixas de rolamento.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.4.1, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Afunilamento Diagonal: [...] Os cones serão dispostos na mesma faixa em que a viatura estiver posicionada, formando um fluxo diagonal, conforme a Figura 42."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MTP 04 lista diversos locais utilizados para ocultação de ilícitos em ônibus. Sobre a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caixa de fusíveis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, o manual especifica que este compartimento situa-se, costumeiramente:</t>
+    </r>
+  </si>
+  <si>
+    <t>No compartimento do motor, acessível apenas pela parte externa.</t>
+  </si>
+  <si>
+    <t>Ao lado esquerdo do assento do motorista, na parte superior.</t>
+  </si>
+  <si>
+    <t>Abaixo do painel principal, próximo aos pedais de comando.</t>
+  </si>
+  <si>
+    <t>No teto do veículo, junto ao letreiro luminoso.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.4, alínea 'f'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "caixa de fusíveis: situada, costumeiramente, ao lado esquerdo do assento do motorista, na parte superior. Também permite o esconderijo de objetos de diversos tamanhos."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segundo a fundamentação legal apresentada no MTP 04 sobre a perseguição policial, o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flagrante Impróprio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ou quase flagrância), previsto no inciso III do art. 302 do CPP, ocorre quando o agente:</t>
+    </r>
+  </si>
+  <si>
+    <t>É encontrado, logo depois, com instrumentos, armas, objetos ou papéis que façam presumir ser ele autor da infração.</t>
+  </si>
+  <si>
+    <t>Está cometendo a infração penal ou acaba de cometê-la.</t>
+  </si>
+  <si>
+    <t>É perseguido, logo após, pela autoridade, pelo ofendido ou por qualquer pessoa, em situação que faça presumir ser autor da infração.</t>
+  </si>
+  <si>
+    <t>Confessa a autoria do delito espontaneamente ao ser abordado pela autoridade policial.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04, que cita o Art. 302 do CPP: "III - é perseguido, logo após, pela autoridade, pelo ofendido ou por qualquer pessoa, em situação que faça presumir ser autor da infração." (A opção A refere-se ao flagrante presumido/ficto, inciso IV).</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre as limitações no uso dos limitadores de fuga (ex: "cama de faquir"), o MTP 04 alerta que o esvaziamento dos pneus pode não ocorrer tão rápido quanto se espera em virtude de:</t>
+  </si>
+  <si>
+    <t>O pneu do veículo conter fluídos que blindam sua "banda de rodagem".</t>
+  </si>
+  <si>
+    <t>A temperatura do asfalto dilatar a borracha do pneu, vedando os furos instantaneamente.</t>
+  </si>
+  <si>
+    <t>O peso do veículo ser insuficiente para pressionar as agulhas da base pantográfica.</t>
+  </si>
+  <si>
+    <t>As agulhas serem projetadas apenas para pneus de veículos de carga, não sendo eficazes em veículos de passeio.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 6.5, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "no emprego do limitador de fuga, tipo 'cama de faquir', em virtude do pneu do veículo conter fluídos que blindam sua 'banda de rodagem', o esvaziamento pode não ocorrer tão rápido quanto se espera."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O MTP 04 descreve um tipo de limitador de fuga conhecido como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"bollards"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou "cabeços". Sobre este equipamento, o manual afirma que são:</t>
+    </r>
+  </si>
+  <si>
+    <t>Dispositivos móveis constituídos de agulhas de aço distribuídos numa base pantográfica.</t>
+  </si>
+  <si>
+    <t>Postes de amarração que podem ser colocados com a finalidade de evitar a passagem de veículos em todos os momentos ou somente em determinados horários.</t>
+  </si>
+  <si>
+    <t>Barras de ferro com pontas, lançadas manualmente sob as rodas do veículo em movimento.</t>
+  </si>
+  <si>
+    <t>Redes de contenção utilizadas para envolver o veículo e travar o eixo motriz.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 6.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Existem limitadores que são postes/pilares móveis, também conhecidos como 'bollards', ou 'cabeços', ou ainda, 'postes de amarração que podem ser colocados com a finalidade de evitar a passagem de veículos em todos os momentos ou somente em determinados horários..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante a abordagem a ônibus, no tocante aos pertences pessoais, o MTP 04 orienta que, caso o policial militar se depare com objetos relativos à intimidade do abordado que, se expostos, causarão constrangimentos, e não havendo nada de ilegal, deve-se:</t>
+  </si>
+  <si>
+    <t>Apreender os objetos preventivamente para evitar reclamações futuras na Corregedoria.</t>
+  </si>
+  <si>
+    <t>Devolver a bolsa e agir com profissionalismo e discrição, atentando para o fato de que o abordado seguirá no coletivo.</t>
+  </si>
+  <si>
+    <t>Mostrar os objetos ao motorista do ônibus para que este sirva de testemunha da lisura da ação policial.</t>
+  </si>
+  <si>
+    <t>Solicitar que o abordado desça do ônibus com seus pertences e aguarde a próxima condução, para evitar o contato com os demais passageiros.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.2.1 (verbalização)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (pág. 57): "Pode ser que o policial militar se depare com alguns objetos relativos à intimidade do abordado que, se expostos, causarão constrangimentos. [...] caso não encontre objeto ilícito, devolva a bolsa. [...] Por isso, aja com profissionalismo e discrição."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durante o patrulhamento, a Guarnição do Sgt Lopes recebe uma denúncia anônima de que há um veículo parado em frente a um estabelecimento comercial há muito tempo, causando suspeição aos comerciantes locais, embora não haja visualização de armas. Com base na classificação de risco apresentada no MTP 04, qual é o nível de abordagem, o risco e o estado de prontidão coerente que a equipe deve adotar?</t>
+    </r>
+  </si>
+  <si>
+    <t>Nível 1; Risco I (Educativo); Estado de Prontidão Atenção (Amarelo).</t>
+  </si>
+  <si>
+    <t>Nível 2; Risco II (Preventiva/Fundada Suspeita); Estado de Prontidão Alerta (Laranja).</t>
+  </si>
+  <si>
+    <t>Nível 3; Risco III (Repressiva); Estado de Prontidão Alarme (Vermelho).</t>
+  </si>
+  <si>
+    <t>Nível 2; Risco III (Repressiva); Estado de Prontidão Alarme (Vermelho), devido à denúncia.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 2.1, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Abordagem a veículo - nível 2: Será empregada nas ações e operações de verificação preventiva (risco nível II) [...] É o caso das [...] denúncia de veículos em locais ermos ou parados em frente a estabelecimentos comerciais, causando suspeição de comerciantes [...] O estado de prontidão coerente é o alerta (laranja)."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A equipe do Cabo Valente realiza uma abordagem diagonal a um veículo com vidros escuros. Após o desembarque de todos os ocupantes visíveis, o Cb Valente (PM Verbalizador), ao realizar a varredura visual aproximando-se pelo lado esquerdo, identifica um passageiro escondido deitado no banco traseiro.Diante dessa situação, qual a conduta imediata preconizada pelo manual?</t>
+    </r>
+  </si>
+  <si>
+    <t>O policial deve quebrar o vidro lateral com o bastão para garantir a entrada dinâmica e render o suspeito imediatamente.</t>
+  </si>
+  <si>
+    <t>O policial deve abrir a porta bruscamente e ordenar que o passageiro saia, mantendo a arma em posição de tiro.</t>
+  </si>
+  <si>
+    <t>A equipe deverá executar o recuo tático e iniciar um novo processo de verbalização na área de segurança.</t>
+  </si>
+  <si>
+    <t>O PM Segurança deve disparar um tiro de advertência para compelir o passageiro a se entregar.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (pág. 32): "Caso identifiquem a presença de passageiro escondido no interior do veículo, deverão executar o recuo tático e iniciar um novo processo de verbalização na área de segurança."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uma guarnição Tático Móvel depara-se com um ônibus onde passageiros sinalizam que está ocorrendo um assalto à mão armada (Nível 3). A viatura realiza a parada do coletivo.Considerando as dimensões do veículo e a necessidade de segurança, qual a distância e o posicionamento correto da viatura em relação ao ônibus?</t>
+    </r>
+  </si>
+  <si>
+    <t>A viatura deve posicionar-se à frente do ônibus para bloquear o deslocamento, a uma distância de 2 metros.</t>
+  </si>
+  <si>
+    <t>A viatura deve emparelhar com a porta dianteira para permitir a entrada rápida da equipe de assalto.</t>
+  </si>
+  <si>
+    <t>A guarnição posicionará sua viatura atrás do ônibus, a uma distância de 5 (cinco) a 10 (dez) metros, na diagonal em relação à via.</t>
+  </si>
+  <si>
+    <t>A guarnição deve posicionar a viatura a 20 metros de distância, totalmente alinhada (paralela) à traseira do ônibus para usar o motor como blindagem.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa reproduz o procedimento do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Nesse sentido, após a parada efetiva do ônibus, a guarnição policial posicionará sua viatura atrás dele, a uma distância de 5 (cinco) a 10 (dez) metros, na diagonal em relação à via."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O Sargento P. Silva comanda uma operação de Blitz e decide abordar um caminhão baú para fiscalização de rotina (Nível 1). Ao determinar as posições, ele ordena que o PM Segurança monitore a cabine.Segundo o MTP 04, qual o posicionamento específico do PM Segurança nesta modalidade (Nível 1)?</t>
+    </r>
+  </si>
+  <si>
+    <t>Deve posicionar-se próximo à viatura policial ou outro abrigo existente no ambiente à frente do caminhão.</t>
+  </si>
+  <si>
+    <t>Deve subir no estribo do lado do motorista para garantir que ele desligue o veículo.</t>
+  </si>
+  <si>
+    <t>Deve posicionar-se na retaguarda do caminhão, garantindo a segurança do perímetro traseiro.</t>
+  </si>
+  <si>
+    <t>Deve ficar alinhado à porta do passageiro para realizar a varredura visual simultânea.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "O PM Segurança posicionará próximo à viatura policial ou outro abrigo existente no ambiente à frente do caminhão, de forma a monitorar o interior da cabine até o PM Verbalizador ter condições de verbalizar com o motorista."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durante uma busca minuciosa em um ônibus intermunicipal suspeito de tráfico, o Sd Novato encontra um compartimento falso próximo ao motorista, especificamente na "mesa do trocador/caixa". O motorista alega que a polícia não pode revistar ali por ser responsabilidade da empresa.Com base no MTP 04, a suspeita do policial é tecnicamente fundamentada pois:</t>
+    </r>
+  </si>
+  <si>
+    <t>O manual descreve que os infratores costumam obrigar o funcionário a esconder ilícitos na mesa do trocador, acreditando que não será alvo de fiscalização.</t>
+  </si>
+  <si>
+    <t>O manual proíbe a revista na mesa do trocador, salvo com mandado judicial específico para a empresa de transporte.</t>
+  </si>
+  <si>
+    <t>A mesa do trocador é o único local onde não se pode esconder armas longas, apenas drogas.</t>
+  </si>
+  <si>
+    <t>O manual orienta que a revista nesse local deve ser feita apenas pela Polícia Rodoviária Federal.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 4.2.4, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "mesa do trocador/caixa: [...] Os infratores costumam [...] obrigar o funcionário a esconder armas, drogas e outros objetos, acreditando que, por ser o local de responsabilidade dos profissionais do transporte, não será alvo da fiscalização policial."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O Tenente R. Alves está coordenando uma perseguição policial via rádio. Ele insiste rigorosamente na disciplina de comunicações, impedindo conversas paralelas.Segundo o MTP 04, além de fazer as ordens alcançarem todos os envolvidos, quais são as outras DUAS razões essenciais listadas para essa disciplina de rádio?</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantir a gravação para fins judiciais e permitir que a imprensa acompanhe a ocorrência em tempo real.</t>
+  </si>
+  <si>
+    <t>Auxiliar no controle do nível de estresse da ocorrência e impedir que mensagens confusas alterem o estado de prontidão dos policiais militares.</t>
+  </si>
+  <si>
+    <t>Evitar o congestionamento da rede para outras ocorrências e permitir que o Comandante Geral ouça a operação.</t>
+  </si>
+  <si>
+    <t>Garantir que o infrator não ouça a estratégia policial (caso tenha rádio na frequência) e economizar bateria dos HTs.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.3 (Lembre-se)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04: "Três razões essenciais para a disciplina das comunicações na rede-rádio: a) fazer com que as ordens [...] alcancem todos os envolvidos; b) auxiliar no controle do nível de estresse da ocorrência; c) impedir que mensagens confusas alterem o estado de prontidão dos policiais militares."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Um veículo em alta velocidade fura o bloqueio policial montado pela equipe do Sgt Peixoto, sem autorização, colocando em risco a guarnição.À luz da fundamentação legal citada no MTP 04 (Art. 210 do CTB), essa conduta de "transpor, sem autorização, bloqueio viário policial" classifica-se como:</t>
+    </r>
+  </si>
+  <si>
+    <t>Infração Grave.</t>
+  </si>
+  <si>
+    <t>Infração Média, sujeita a multa.</t>
+  </si>
+  <si>
+    <t>Infração Gravíssima.</t>
+  </si>
+  <si>
+    <t>Crime de Trânsito inafiançável.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04, que cita o CTB: "Art. 210. Transpor, sem autorização, bloqueio viário policial; Infração - gravíssima". (Diferente do Art. 209 que é transpor bloqueio sem sinalização policial, que é Grave).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A guarnição realiza uma abordagem a um veículo suspeito em uma estrada rural com </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baixa luminosidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Qual recurso o MTP 04 recomenda utilizar especificamente nessa condição para obter vantagem tática sobre o abordado?</t>
+    </r>
+  </si>
+  <si>
+    <t>O farol alto da viatura ligado intermitentemente.</t>
+  </si>
+  <si>
+    <t>A utilização da lanterna como recurso para ofuscamento da visão do abordado.</t>
+  </si>
+  <si>
+    <t>O uso de granadas de efeito moral para atordoamento prévio.</t>
+  </si>
+  <si>
+    <t>O uso de visão noturna acoplada ao armamento.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 3.3.2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (pág. 43): "Em casos de abordagens com baixa luminosidade, recomenda-se a utilização da lanterna como recurso para ofuscamento da visão do abordado."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A equipe do Cb Mendes está posicionada em um bloqueio. De repente, um veículo suspeito (que não está sendo perseguido por nenhuma viatura) entra na área do bloqueio e para diante dos obstáculos.Qual o procedimento correto a ser adotado pela equipe do bloqueio segundo o MTP 04?</t>
+    </r>
+  </si>
+  <si>
+    <t>Aguardar a chegada de uma viatura de perseguição para realizar a abordagem.</t>
+  </si>
+  <si>
+    <t>Ordenar que o motorista jogue a chave pela janela e aguardar 10 minutos.</t>
+  </si>
+  <si>
+    <t>Realizar a interceptação dentro das condições existentes, realizando a progressão tática e seguindo as orientações com relação a abordagem a veículos.</t>
+  </si>
+  <si>
+    <t>Disparar nos pneus para garantir a imobilização total antes de qualquer aproximação.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04 (pág. 86): "Caso o veículo em fuga adentre ao bloqueio e não esteja sendo perseguido, os policiais empregados no bloqueio devem realizar a interceptação dentro das condições existentes, realizando a progressão tática e seguindo as orientações com relação a abordagem a veículos descritas neste manual."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO HIPOTÉTICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uma guarnição da PMMG inicia uma perseguição a um infrator em Belo Horizonte. A perseguição é contínua e ininterrupta, e o infrator é alcançado e preso apenas na cidade de Contagem (outra comarca).Baseado no Art. 290 do CPP citado no manual, qual o procedimento legal correto quanto à apresentação do preso?</t>
+    </r>
+  </si>
+  <si>
+    <t>O executor deve retornar a Belo Horizonte e apresentar o preso à autoridade do local onde o crime se originou.</t>
+  </si>
+  <si>
+    <t>O executor deve efetuar a prisão no lugar onde o alcançar, apresentando-o imediatamente à autoridade local (Contagem).</t>
+  </si>
+  <si>
+    <t>A prisão é ilegal, pois a guarnição perdeu a jurisdição ao cruzar o limite do município.</t>
+  </si>
+  <si>
+    <t>O executor deve aguardar a chegada da Polícia Militar de Contagem para que esta efetue a prisão formalmente.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item 5.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do MTP 04, citando o Art. 290 do CPP: "Se o réu, sendo perseguido, passar ao território de outro município ou comarca, o executor poderá efetuar-lhe a prisão no lugar onde o alcançar, apresentando-o imediatamente à autoridade local..."</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8401,7 +10567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8420,6 +10586,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8755,10 +10927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:A238"/>
+    <sheetView tabSelected="1" topLeftCell="H254" workbookViewId="0">
+      <selection activeCell="J269" sqref="J269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -17149,6 +19321,1056 @@
         <v>1383</v>
       </c>
     </row>
+    <row r="239" spans="1:11" ht="45">
+      <c r="A239" s="3">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I239" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="45">
+      <c r="A240" s="3">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K240" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="30">
+      <c r="A241" s="3">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I241" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K241" s="8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="30">
+      <c r="A242" s="3">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I242" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J242" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K242" s="8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="30">
+      <c r="A243" s="3">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I243" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J243" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="30">
+      <c r="A244" s="3">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I244" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J244" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K244" s="8" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="30">
+      <c r="A245" s="3">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I245" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="30">
+      <c r="A246" s="3">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I246" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J246" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K246" s="8" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="30">
+      <c r="A247" s="3">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I247" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J247" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K247" s="8" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="30">
+      <c r="A248" s="3">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I248" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J248" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K248" s="8" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="45">
+      <c r="A249" s="3">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="30">
+      <c r="A250" s="3">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J250" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="30">
+      <c r="A251" s="3">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="45">
+      <c r="A252" s="3">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I252" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K252" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="30">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="30">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="30">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="30">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I256" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J256" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K256" s="8" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="30">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I257" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J257" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="30">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K258" s="8" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="60">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I259" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J259" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K259" s="8" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="45">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H260" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I260" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J260" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K260" s="8" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="45">
+      <c r="A261" s="3">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I261" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J261" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="45">
+      <c r="A262" s="3">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I262" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J262" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K262" s="8" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="45">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I263" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="45">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G264" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I264" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K264" s="8" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="45">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I265" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J265" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="30">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I266" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K266" s="8" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="45">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I267" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J267" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K267" s="8" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="45">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I268" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J268" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K268" s="8" t="s">
+        <v>1621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B820C3-FAC0-4170-9550-A54DA8B7DB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D25707-D8CA-4473-8649-3B6BE6EA255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9036" uniqueCount="5092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9036" uniqueCount="5091">
   <si>
     <t>ID</t>
   </si>
@@ -22594,48 +22594,18 @@
     </r>
   </si>
   <si>
-    <t>2.6 - PROTEÇÃO A MULHER</t>
-  </si>
-  <si>
-    <t>2.3 - GDO - 6ª EDIÇÃO</t>
-  </si>
-  <si>
-    <t>2.2 - PORTFÓLIO DE SERVIÇOS</t>
-  </si>
-  <si>
-    <t>2.1 - DGEOP</t>
-  </si>
-  <si>
-    <t>2.5 - CYBERPM</t>
-  </si>
-  <si>
     <t>2.12 - MAUS-TRATOS A ANIMAIS</t>
   </si>
   <si>
     <t>2.15 - DIRETRIZ DE SEGURANÇA</t>
   </si>
   <si>
-    <t>3.3 - MAPPA</t>
-  </si>
-  <si>
     <t>2.14 - MENOR VITIMA</t>
   </si>
   <si>
     <t>2.10 - MTP 04</t>
   </si>
   <si>
-    <t>3.1 - ESTATUTO DOS MILITARES</t>
-  </si>
-  <si>
-    <t>2.7 - MTP 01</t>
-  </si>
-  <si>
-    <t>2.8 - MTP 02</t>
-  </si>
-  <si>
-    <t>2.9 - MTP 03</t>
-  </si>
-  <si>
     <t>2.11 - MTP 05</t>
   </si>
   <si>
@@ -24078,12 +24048,6 @@
     </r>
   </si>
   <si>
-    <t>2.4 - PREVENÇÃO HOMICIDIOS</t>
-  </si>
-  <si>
-    <t>2.4 - PREVENÇÃO DE HOMICÍDIOS</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A Instrução elenca abordagens teóricas ambientais que explicam a eclosão do delito. Dentre as teorias baseadas na </t>
     </r>
@@ -25496,6 +25460,39 @@
       </rPr>
       <t>: "c) 2 tipos de Instrumentos de Menor Potencial Ofensivo (IMPO) de uso individual para cada integrante da PPH".</t>
     </r>
+  </si>
+  <si>
+    <t>2.05 - CYBERPM</t>
+  </si>
+  <si>
+    <t>2.02 - PORTFÓLIO DE SERVIÇOS</t>
+  </si>
+  <si>
+    <t>2.01 - DGEOP</t>
+  </si>
+  <si>
+    <t>3.03 - MAPPA</t>
+  </si>
+  <si>
+    <t>3.01 - ESTATUTO DOS MILITARES</t>
+  </si>
+  <si>
+    <t>2.07 - MTP 01</t>
+  </si>
+  <si>
+    <t>2.08 - MTP 02</t>
+  </si>
+  <si>
+    <t>2.09 - MTP 03</t>
+  </si>
+  <si>
+    <t>2.03 - GDO - 6ª EDIÇÃO</t>
+  </si>
+  <si>
+    <t>2.06 - PROTEÇÃO A MULHER</t>
+  </si>
+  <si>
+    <t>2.04 - PREVENÇÃO DE HOMICÍDIOS</t>
   </si>
 </sst>
 </file>
@@ -25958,8 +25955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
   <dimension ref="A1:M904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
-      <selection activeCell="C907" sqref="C907"/>
+    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
+      <selection activeCell="C906" sqref="C906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -26028,7 +26025,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -26064,7 +26061,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -26100,7 +26097,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -26136,7 +26133,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -26172,7 +26169,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -26208,7 +26205,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -26244,7 +26241,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -26280,7 +26277,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -26316,7 +26313,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -26352,7 +26349,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -26388,7 +26385,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -26424,7 +26421,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -26460,7 +26457,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -26496,7 +26493,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -26532,7 +26529,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -26568,7 +26565,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -26604,7 +26601,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -26640,7 +26637,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -26676,7 +26673,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -26712,7 +26709,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4843</v>
+        <v>5080</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -26748,7 +26745,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -26784,7 +26781,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -26820,7 +26817,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -26856,7 +26853,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -26892,7 +26889,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
@@ -26928,7 +26925,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -26964,7 +26961,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -27000,7 +26997,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -27036,7 +27033,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>17</v>
@@ -27072,7 +27069,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -27108,7 +27105,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -27144,7 +27141,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>17</v>
@@ -27180,7 +27177,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
@@ -27216,7 +27213,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
@@ -27252,7 +27249,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>17</v>
@@ -27288,7 +27285,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -27323,7 +27320,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>17</v>
@@ -27358,7 +27355,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>17</v>
@@ -27393,7 +27390,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -27428,7 +27425,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>17</v>
@@ -27463,7 +27460,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>17</v>
@@ -27498,7 +27495,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>4844</v>
+        <v>4839</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>17</v>
@@ -27533,7 +27530,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
@@ -27568,7 +27565,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>17</v>
@@ -27603,7 +27600,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>17</v>
@@ -27638,7 +27635,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>17</v>
@@ -27673,7 +27670,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>17</v>
@@ -27708,7 +27705,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>17</v>
@@ -27743,7 +27740,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>17</v>
@@ -27778,7 +27775,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>17</v>
@@ -27813,7 +27810,7 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>17</v>
@@ -27848,7 +27845,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>17</v>
@@ -27883,7 +27880,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>17</v>
@@ -27918,7 +27915,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>17</v>
@@ -27953,7 +27950,7 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>17</v>
@@ -27988,7 +27985,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>17</v>
@@ -28023,7 +28020,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
@@ -28058,7 +28055,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>17</v>
@@ -28093,7 +28090,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>17</v>
@@ -28128,7 +28125,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>17</v>
@@ -28163,7 +28160,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>17</v>
@@ -28198,7 +28195,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4845</v>
+        <v>4840</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>17</v>
@@ -28233,7 +28230,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>17</v>
@@ -28268,7 +28265,7 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>17</v>
@@ -28303,7 +28300,7 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>17</v>
@@ -28338,7 +28335,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>17</v>
@@ -28373,7 +28370,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>17</v>
@@ -28408,7 +28405,7 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>17</v>
@@ -28443,7 +28440,7 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>17</v>
@@ -28478,7 +28475,7 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>17</v>
@@ -28513,7 +28510,7 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>17</v>
@@ -28548,7 +28545,7 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>17</v>
@@ -28583,7 +28580,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>17</v>
@@ -28618,7 +28615,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>17</v>
@@ -28653,7 +28650,7 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>17</v>
@@ -28688,7 +28685,7 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>17</v>
@@ -28723,7 +28720,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>17</v>
@@ -28758,7 +28755,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>17</v>
@@ -28793,7 +28790,7 @@
         <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>17</v>
@@ -28828,7 +28825,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>17</v>
@@ -28863,7 +28860,7 @@
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>17</v>
@@ -28898,7 +28895,7 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>17</v>
@@ -28933,7 +28930,7 @@
         <v>12</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>17</v>
@@ -28968,7 +28965,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>17</v>
@@ -29003,7 +29000,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>17</v>
@@ -29038,7 +29035,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>17</v>
@@ -29073,7 +29070,7 @@
         <v>12</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>17</v>
@@ -29108,7 +29105,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>17</v>
@@ -29143,7 +29140,7 @@
         <v>12</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>17</v>
@@ -29178,7 +29175,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>17</v>
@@ -29213,7 +29210,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>17</v>
@@ -29248,7 +29245,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>17</v>
@@ -29283,7 +29280,7 @@
         <v>12</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>17</v>
@@ -29318,7 +29315,7 @@
         <v>12</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>17</v>
@@ -29353,7 +29350,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>17</v>
@@ -29388,7 +29385,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>17</v>
@@ -29423,7 +29420,7 @@
         <v>12</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>17</v>
@@ -29458,7 +29455,7 @@
         <v>12</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>17</v>
@@ -29493,7 +29490,7 @@
         <v>12</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>17</v>
@@ -29528,7 +29525,7 @@
         <v>12</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>17</v>
@@ -29563,7 +29560,7 @@
         <v>12</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>17</v>
@@ -29598,7 +29595,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>17</v>
@@ -29633,7 +29630,7 @@
         <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>17</v>
@@ -29668,7 +29665,7 @@
         <v>12</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>17</v>
@@ -29703,7 +29700,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>17</v>
@@ -29738,7 +29735,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>17</v>
@@ -29773,7 +29770,7 @@
         <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>17</v>
@@ -29808,7 +29805,7 @@
         <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>17</v>
@@ -29843,7 +29840,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>17</v>
@@ -29878,7 +29875,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>17</v>
@@ -29913,7 +29910,7 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>17</v>
@@ -29948,7 +29945,7 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>17</v>
@@ -29983,7 +29980,7 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>17</v>
@@ -30018,7 +30015,7 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>17</v>
@@ -30053,7 +30050,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>17</v>
@@ -30088,7 +30085,7 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>17</v>
@@ -30123,7 +30120,7 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>17</v>
@@ -30158,7 +30155,7 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>17</v>
@@ -30193,7 +30190,7 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>17</v>
@@ -30228,7 +30225,7 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>17</v>
@@ -30263,7 +30260,7 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>17</v>
@@ -30298,7 +30295,7 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>17</v>
@@ -30333,7 +30330,7 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>17</v>
@@ -30368,7 +30365,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>17</v>
@@ -30403,7 +30400,7 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>17</v>
@@ -30438,7 +30435,7 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>17</v>
@@ -30473,7 +30470,7 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>17</v>
@@ -30508,7 +30505,7 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>17</v>
@@ -30543,7 +30540,7 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>17</v>
@@ -30578,7 +30575,7 @@
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>17</v>
@@ -30613,7 +30610,7 @@
         <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>17</v>
@@ -30648,7 +30645,7 @@
         <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>17</v>
@@ -30683,7 +30680,7 @@
         <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>17</v>
@@ -30718,7 +30715,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>17</v>
@@ -30753,7 +30750,7 @@
         <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>17</v>
@@ -30788,7 +30785,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>17</v>
@@ -30823,7 +30820,7 @@
         <v>12</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>17</v>
@@ -30858,7 +30855,7 @@
         <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>17</v>
@@ -30893,7 +30890,7 @@
         <v>12</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>17</v>
@@ -30928,7 +30925,7 @@
         <v>12</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>17</v>
@@ -30963,7 +30960,7 @@
         <v>12</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>17</v>
@@ -30998,7 +30995,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>17</v>
@@ -31033,7 +31030,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>17</v>
@@ -31068,7 +31065,7 @@
         <v>12</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>17</v>
@@ -31103,7 +31100,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>17</v>
@@ -31138,7 +31135,7 @@
         <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>17</v>
@@ -31173,7 +31170,7 @@
         <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>17</v>
@@ -31208,7 +31205,7 @@
         <v>12</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>17</v>
@@ -31243,7 +31240,7 @@
         <v>12</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>17</v>
@@ -31278,7 +31275,7 @@
         <v>12</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>17</v>
@@ -31313,7 +31310,7 @@
         <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>17</v>
@@ -31348,7 +31345,7 @@
         <v>12</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>4842</v>
+        <v>5082</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>17</v>
@@ -31383,7 +31380,7 @@
         <v>929</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>17</v>
@@ -31418,7 +31415,7 @@
         <v>929</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>17</v>
@@ -31453,7 +31450,7 @@
         <v>929</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>17</v>
@@ -31488,7 +31485,7 @@
         <v>929</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>17</v>
@@ -31523,7 +31520,7 @@
         <v>929</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>17</v>
@@ -31558,7 +31555,7 @@
         <v>929</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>17</v>
@@ -31593,7 +31590,7 @@
         <v>929</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>17</v>
@@ -31628,7 +31625,7 @@
         <v>929</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>17</v>
@@ -31663,7 +31660,7 @@
         <v>929</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>17</v>
@@ -31698,7 +31695,7 @@
         <v>929</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>17</v>
@@ -31733,7 +31730,7 @@
         <v>929</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>17</v>
@@ -31768,7 +31765,7 @@
         <v>929</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>17</v>
@@ -31803,7 +31800,7 @@
         <v>929</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>17</v>
@@ -31838,7 +31835,7 @@
         <v>929</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>17</v>
@@ -31873,7 +31870,7 @@
         <v>929</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>17</v>
@@ -31908,7 +31905,7 @@
         <v>929</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>17</v>
@@ -31943,7 +31940,7 @@
         <v>929</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>17</v>
@@ -31978,7 +31975,7 @@
         <v>929</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>17</v>
@@ -32013,7 +32010,7 @@
         <v>929</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>17</v>
@@ -32048,7 +32045,7 @@
         <v>929</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>17</v>
@@ -32083,7 +32080,7 @@
         <v>929</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>17</v>
@@ -32118,7 +32115,7 @@
         <v>929</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>17</v>
@@ -32153,7 +32150,7 @@
         <v>929</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>17</v>
@@ -32188,7 +32185,7 @@
         <v>929</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>17</v>
@@ -32223,7 +32220,7 @@
         <v>929</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>17</v>
@@ -32258,7 +32255,7 @@
         <v>929</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>17</v>
@@ -32293,7 +32290,7 @@
         <v>929</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>17</v>
@@ -32328,7 +32325,7 @@
         <v>929</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>17</v>
@@ -32363,7 +32360,7 @@
         <v>929</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>17</v>
@@ -32398,7 +32395,7 @@
         <v>929</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>17</v>
@@ -32433,7 +32430,7 @@
         <v>929</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>17</v>
@@ -32468,7 +32465,7 @@
         <v>929</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>17</v>
@@ -32503,7 +32500,7 @@
         <v>929</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>17</v>
@@ -32538,7 +32535,7 @@
         <v>929</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>17</v>
@@ -32573,7 +32570,7 @@
         <v>929</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>17</v>
@@ -32608,7 +32605,7 @@
         <v>929</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>17</v>
@@ -32643,7 +32640,7 @@
         <v>929</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>17</v>
@@ -32678,7 +32675,7 @@
         <v>929</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>17</v>
@@ -32713,7 +32710,7 @@
         <v>929</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>17</v>
@@ -32748,7 +32745,7 @@
         <v>929</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>17</v>
@@ -32783,7 +32780,7 @@
         <v>929</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>17</v>
@@ -32818,7 +32815,7 @@
         <v>929</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>17</v>
@@ -32853,7 +32850,7 @@
         <v>929</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>17</v>
@@ -32888,7 +32885,7 @@
         <v>929</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>17</v>
@@ -32923,7 +32920,7 @@
         <v>929</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>17</v>
@@ -32958,7 +32955,7 @@
         <v>929</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>17</v>
@@ -32993,7 +32990,7 @@
         <v>929</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>17</v>
@@ -33028,7 +33025,7 @@
         <v>929</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>17</v>
@@ -33063,7 +33060,7 @@
         <v>929</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>17</v>
@@ -33098,7 +33095,7 @@
         <v>929</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>4846</v>
+        <v>5083</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>17</v>
@@ -33133,7 +33130,7 @@
         <v>12</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>17</v>
@@ -33168,7 +33165,7 @@
         <v>12</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>17</v>
@@ -33203,7 +33200,7 @@
         <v>12</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>17</v>
@@ -33238,7 +33235,7 @@
         <v>12</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>17</v>
@@ -33273,7 +33270,7 @@
         <v>12</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>17</v>
@@ -33308,7 +33305,7 @@
         <v>12</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>17</v>
@@ -33343,7 +33340,7 @@
         <v>12</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>17</v>
@@ -33378,7 +33375,7 @@
         <v>12</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>17</v>
@@ -33413,7 +33410,7 @@
         <v>12</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>17</v>
@@ -33448,7 +33445,7 @@
         <v>12</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>17</v>
@@ -33483,7 +33480,7 @@
         <v>12</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>17</v>
@@ -33518,7 +33515,7 @@
         <v>12</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>17</v>
@@ -33553,7 +33550,7 @@
         <v>12</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>17</v>
@@ -33588,7 +33585,7 @@
         <v>12</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>17</v>
@@ -33623,7 +33620,7 @@
         <v>12</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>17</v>
@@ -33658,7 +33655,7 @@
         <v>12</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D219" t="s">
         <v>17</v>
@@ -33693,7 +33690,7 @@
         <v>12</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D220" t="s">
         <v>17</v>
@@ -33728,7 +33725,7 @@
         <v>12</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D221" t="s">
         <v>17</v>
@@ -33763,7 +33760,7 @@
         <v>12</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D222" t="s">
         <v>17</v>
@@ -33798,7 +33795,7 @@
         <v>12</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D223" t="s">
         <v>17</v>
@@ -33833,7 +33830,7 @@
         <v>12</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D224" t="s">
         <v>17</v>
@@ -33868,7 +33865,7 @@
         <v>12</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D225" t="s">
         <v>17</v>
@@ -33903,7 +33900,7 @@
         <v>12</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D226" t="s">
         <v>17</v>
@@ -33938,7 +33935,7 @@
         <v>12</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -33973,7 +33970,7 @@
         <v>12</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D228" t="s">
         <v>17</v>
@@ -34008,7 +34005,7 @@
         <v>12</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D229" t="s">
         <v>17</v>
@@ -34043,7 +34040,7 @@
         <v>12</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -34078,7 +34075,7 @@
         <v>12</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D231" t="s">
         <v>17</v>
@@ -34113,7 +34110,7 @@
         <v>12</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D232" t="s">
         <v>17</v>
@@ -34148,7 +34145,7 @@
         <v>12</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D233" t="s">
         <v>17</v>
@@ -34183,7 +34180,7 @@
         <v>12</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D234" t="s">
         <v>17</v>
@@ -34218,7 +34215,7 @@
         <v>12</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -34253,7 +34250,7 @@
         <v>12</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D236" t="s">
         <v>17</v>
@@ -34288,7 +34285,7 @@
         <v>12</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
@@ -34323,7 +34320,7 @@
         <v>12</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="D238" t="s">
         <v>17</v>
@@ -34358,7 +34355,7 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>17</v>
@@ -34393,7 +34390,7 @@
         <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>17</v>
@@ -34428,7 +34425,7 @@
         <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>17</v>
@@ -34463,7 +34460,7 @@
         <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>17</v>
@@ -34498,7 +34495,7 @@
         <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>17</v>
@@ -34533,7 +34530,7 @@
         <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>17</v>
@@ -34568,7 +34565,7 @@
         <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>17</v>
@@ -34603,7 +34600,7 @@
         <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>17</v>
@@ -34638,7 +34635,7 @@
         <v>12</v>
       </c>
       <c r="C247" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>17</v>
@@ -34673,7 +34670,7 @@
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>17</v>
@@ -34708,7 +34705,7 @@
         <v>12</v>
       </c>
       <c r="C249" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>17</v>
@@ -34743,7 +34740,7 @@
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>17</v>
@@ -34778,7 +34775,7 @@
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>17</v>
@@ -34813,7 +34810,7 @@
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>17</v>
@@ -34848,7 +34845,7 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>17</v>
@@ -34883,7 +34880,7 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>17</v>
@@ -34918,7 +34915,7 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>17</v>
@@ -34953,7 +34950,7 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>17</v>
@@ -34988,7 +34985,7 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>17</v>
@@ -35023,7 +35020,7 @@
         <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>17</v>
@@ -35058,7 +35055,7 @@
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>17</v>
@@ -35093,7 +35090,7 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>17</v>
@@ -35128,7 +35125,7 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>17</v>
@@ -35163,7 +35160,7 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>17</v>
@@ -35198,7 +35195,7 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>17</v>
@@ -35233,7 +35230,7 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>17</v>
@@ -35268,7 +35265,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>17</v>
@@ -35303,7 +35300,7 @@
         <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>17</v>
@@ -35338,7 +35335,7 @@
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>17</v>
@@ -35373,7 +35370,7 @@
         <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>17</v>
@@ -38873,7 +38870,7 @@
         <v>929</v>
       </c>
       <c r="C368" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D368" t="s">
         <v>17</v>
@@ -38908,7 +38905,7 @@
         <v>929</v>
       </c>
       <c r="C369" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D369" t="s">
         <v>17</v>
@@ -38943,7 +38940,7 @@
         <v>929</v>
       </c>
       <c r="C370" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D370" t="s">
         <v>17</v>
@@ -38978,7 +38975,7 @@
         <v>929</v>
       </c>
       <c r="C371" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D371" t="s">
         <v>17</v>
@@ -39013,7 +39010,7 @@
         <v>929</v>
       </c>
       <c r="C372" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D372" t="s">
         <v>17</v>
@@ -39048,7 +39045,7 @@
         <v>929</v>
       </c>
       <c r="C373" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D373" t="s">
         <v>17</v>
@@ -39083,7 +39080,7 @@
         <v>929</v>
       </c>
       <c r="C374" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D374" t="s">
         <v>17</v>
@@ -39118,7 +39115,7 @@
         <v>929</v>
       </c>
       <c r="C375" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D375" t="s">
         <v>17</v>
@@ -39153,7 +39150,7 @@
         <v>929</v>
       </c>
       <c r="C376" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D376" t="s">
         <v>17</v>
@@ -39188,7 +39185,7 @@
         <v>929</v>
       </c>
       <c r="C377" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
@@ -39223,7 +39220,7 @@
         <v>929</v>
       </c>
       <c r="C378" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D378" t="s">
         <v>17</v>
@@ -39258,7 +39255,7 @@
         <v>929</v>
       </c>
       <c r="C379" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D379" t="s">
         <v>17</v>
@@ -39293,7 +39290,7 @@
         <v>929</v>
       </c>
       <c r="C380" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D380" t="s">
         <v>17</v>
@@ -39328,7 +39325,7 @@
         <v>929</v>
       </c>
       <c r="C381" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D381" t="s">
         <v>17</v>
@@ -39363,7 +39360,7 @@
         <v>929</v>
       </c>
       <c r="C382" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D382" t="s">
         <v>17</v>
@@ -39398,7 +39395,7 @@
         <v>929</v>
       </c>
       <c r="C383" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D383" t="s">
         <v>17</v>
@@ -39433,7 +39430,7 @@
         <v>929</v>
       </c>
       <c r="C384" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D384" t="s">
         <v>17</v>
@@ -39468,7 +39465,7 @@
         <v>929</v>
       </c>
       <c r="C385" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D385" t="s">
         <v>17</v>
@@ -39503,7 +39500,7 @@
         <v>929</v>
       </c>
       <c r="C386" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D386" t="s">
         <v>17</v>
@@ -39538,7 +39535,7 @@
         <v>929</v>
       </c>
       <c r="C387" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D387" t="s">
         <v>17</v>
@@ -39573,7 +39570,7 @@
         <v>929</v>
       </c>
       <c r="C388" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D388" t="s">
         <v>17</v>
@@ -39608,7 +39605,7 @@
         <v>929</v>
       </c>
       <c r="C389" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D389" t="s">
         <v>17</v>
@@ -39643,7 +39640,7 @@
         <v>929</v>
       </c>
       <c r="C390" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D390" t="s">
         <v>17</v>
@@ -39678,7 +39675,7 @@
         <v>929</v>
       </c>
       <c r="C391" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D391" t="s">
         <v>17</v>
@@ -39713,7 +39710,7 @@
         <v>929</v>
       </c>
       <c r="C392" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D392" t="s">
         <v>17</v>
@@ -39748,7 +39745,7 @@
         <v>929</v>
       </c>
       <c r="C393" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D393" t="s">
         <v>17</v>
@@ -39783,7 +39780,7 @@
         <v>929</v>
       </c>
       <c r="C394" t="s">
-        <v>4849</v>
+        <v>5084</v>
       </c>
       <c r="D394" t="s">
         <v>17</v>
@@ -42443,7 +42440,7 @@
         <v>12</v>
       </c>
       <c r="C470" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D470" t="s">
         <v>17</v>
@@ -42478,7 +42475,7 @@
         <v>12</v>
       </c>
       <c r="C471" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D471" t="s">
         <v>17</v>
@@ -42513,7 +42510,7 @@
         <v>12</v>
       </c>
       <c r="C472" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D472" t="s">
         <v>17</v>
@@ -42548,7 +42545,7 @@
         <v>12</v>
       </c>
       <c r="C473" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D473" t="s">
         <v>17</v>
@@ -42583,7 +42580,7 @@
         <v>12</v>
       </c>
       <c r="C474" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D474" t="s">
         <v>17</v>
@@ -42618,7 +42615,7 @@
         <v>12</v>
       </c>
       <c r="C475" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D475" t="s">
         <v>17</v>
@@ -42653,7 +42650,7 @@
         <v>12</v>
       </c>
       <c r="C476" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D476" t="s">
         <v>17</v>
@@ -42688,7 +42685,7 @@
         <v>12</v>
       </c>
       <c r="C477" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D477" t="s">
         <v>17</v>
@@ -42723,7 +42720,7 @@
         <v>12</v>
       </c>
       <c r="C478" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D478" t="s">
         <v>17</v>
@@ -42758,7 +42755,7 @@
         <v>12</v>
       </c>
       <c r="C479" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D479" t="s">
         <v>17</v>
@@ -42793,7 +42790,7 @@
         <v>12</v>
       </c>
       <c r="C480" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D480" t="s">
         <v>17</v>
@@ -42828,7 +42825,7 @@
         <v>12</v>
       </c>
       <c r="C481" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D481" t="s">
         <v>17</v>
@@ -42863,7 +42860,7 @@
         <v>12</v>
       </c>
       <c r="C482" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D482" t="s">
         <v>17</v>
@@ -42898,7 +42895,7 @@
         <v>12</v>
       </c>
       <c r="C483" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D483" t="s">
         <v>17</v>
@@ -42933,7 +42930,7 @@
         <v>12</v>
       </c>
       <c r="C484" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D484" t="s">
         <v>17</v>
@@ -42968,7 +42965,7 @@
         <v>12</v>
       </c>
       <c r="C485" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D485" t="s">
         <v>17</v>
@@ -43003,7 +43000,7 @@
         <v>12</v>
       </c>
       <c r="C486" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D486" t="s">
         <v>17</v>
@@ -43038,7 +43035,7 @@
         <v>12</v>
       </c>
       <c r="C487" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D487" t="s">
         <v>17</v>
@@ -43073,7 +43070,7 @@
         <v>12</v>
       </c>
       <c r="C488" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D488" t="s">
         <v>17</v>
@@ -43108,7 +43105,7 @@
         <v>12</v>
       </c>
       <c r="C489" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D489" t="s">
         <v>17</v>
@@ -43143,7 +43140,7 @@
         <v>12</v>
       </c>
       <c r="C490" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D490" t="s">
         <v>17</v>
@@ -43178,7 +43175,7 @@
         <v>12</v>
       </c>
       <c r="C491" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D491" t="s">
         <v>17</v>
@@ -43213,7 +43210,7 @@
         <v>12</v>
       </c>
       <c r="C492" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D492" t="s">
         <v>17</v>
@@ -43248,7 +43245,7 @@
         <v>12</v>
       </c>
       <c r="C493" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D493" t="s">
         <v>17</v>
@@ -43283,7 +43280,7 @@
         <v>12</v>
       </c>
       <c r="C494" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D494" t="s">
         <v>17</v>
@@ -43318,7 +43315,7 @@
         <v>12</v>
       </c>
       <c r="C495" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D495" t="s">
         <v>17</v>
@@ -43353,7 +43350,7 @@
         <v>12</v>
       </c>
       <c r="C496" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D496" t="s">
         <v>17</v>
@@ -43388,7 +43385,7 @@
         <v>12</v>
       </c>
       <c r="C497" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D497" t="s">
         <v>17</v>
@@ -43423,7 +43420,7 @@
         <v>12</v>
       </c>
       <c r="C498" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D498" t="s">
         <v>17</v>
@@ -43458,7 +43455,7 @@
         <v>12</v>
       </c>
       <c r="C499" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D499" t="s">
         <v>17</v>
@@ -43493,7 +43490,7 @@
         <v>12</v>
       </c>
       <c r="C500" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D500" t="s">
         <v>17</v>
@@ -43528,7 +43525,7 @@
         <v>12</v>
       </c>
       <c r="C501" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D501" t="s">
         <v>17</v>
@@ -43563,7 +43560,7 @@
         <v>12</v>
       </c>
       <c r="C502" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D502" t="s">
         <v>17</v>
@@ -43598,7 +43595,7 @@
         <v>12</v>
       </c>
       <c r="C503" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D503" t="s">
         <v>17</v>
@@ -43633,7 +43630,7 @@
         <v>12</v>
       </c>
       <c r="C504" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D504" t="s">
         <v>17</v>
@@ -43668,7 +43665,7 @@
         <v>12</v>
       </c>
       <c r="C505" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D505" t="s">
         <v>17</v>
@@ -43703,7 +43700,7 @@
         <v>12</v>
       </c>
       <c r="C506" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D506" t="s">
         <v>17</v>
@@ -43738,7 +43735,7 @@
         <v>12</v>
       </c>
       <c r="C507" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D507" t="s">
         <v>17</v>
@@ -43773,7 +43770,7 @@
         <v>12</v>
       </c>
       <c r="C508" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D508" t="s">
         <v>17</v>
@@ -43808,7 +43805,7 @@
         <v>12</v>
       </c>
       <c r="C509" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D509" t="s">
         <v>17</v>
@@ -43843,7 +43840,7 @@
         <v>12</v>
       </c>
       <c r="C510" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D510" t="s">
         <v>17</v>
@@ -43878,7 +43875,7 @@
         <v>12</v>
       </c>
       <c r="C511" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D511" t="s">
         <v>17</v>
@@ -43913,7 +43910,7 @@
         <v>12</v>
       </c>
       <c r="C512" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D512" t="s">
         <v>17</v>
@@ -43948,7 +43945,7 @@
         <v>12</v>
       </c>
       <c r="C513" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D513" t="s">
         <v>17</v>
@@ -43983,7 +43980,7 @@
         <v>12</v>
       </c>
       <c r="C514" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D514" t="s">
         <v>17</v>
@@ -44018,7 +44015,7 @@
         <v>12</v>
       </c>
       <c r="C515" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D515" t="s">
         <v>17</v>
@@ -44053,7 +44050,7 @@
         <v>12</v>
       </c>
       <c r="C516" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D516" t="s">
         <v>17</v>
@@ -44088,7 +44085,7 @@
         <v>12</v>
       </c>
       <c r="C517" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D517" t="s">
         <v>17</v>
@@ -44123,7 +44120,7 @@
         <v>12</v>
       </c>
       <c r="C518" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D518" t="s">
         <v>17</v>
@@ -44158,7 +44155,7 @@
         <v>12</v>
       </c>
       <c r="C519" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D519" t="s">
         <v>17</v>
@@ -44193,7 +44190,7 @@
         <v>12</v>
       </c>
       <c r="C520" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D520" t="s">
         <v>17</v>
@@ -44228,7 +44225,7 @@
         <v>12</v>
       </c>
       <c r="C521" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D521" t="s">
         <v>17</v>
@@ -44263,7 +44260,7 @@
         <v>12</v>
       </c>
       <c r="C522" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D522" t="s">
         <v>17</v>
@@ -44298,7 +44295,7 @@
         <v>12</v>
       </c>
       <c r="C523" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D523" t="s">
         <v>17</v>
@@ -44333,7 +44330,7 @@
         <v>12</v>
       </c>
       <c r="C524" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D524" t="s">
         <v>17</v>
@@ -44368,7 +44365,7 @@
         <v>12</v>
       </c>
       <c r="C525" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D525" t="s">
         <v>17</v>
@@ -44403,7 +44400,7 @@
         <v>12</v>
       </c>
       <c r="C526" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D526" t="s">
         <v>17</v>
@@ -44438,7 +44435,7 @@
         <v>12</v>
       </c>
       <c r="C527" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D527" t="s">
         <v>17</v>
@@ -44473,7 +44470,7 @@
         <v>12</v>
       </c>
       <c r="C528" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D528" t="s">
         <v>17</v>
@@ -44508,7 +44505,7 @@
         <v>12</v>
       </c>
       <c r="C529" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D529" t="s">
         <v>17</v>
@@ -44543,7 +44540,7 @@
         <v>12</v>
       </c>
       <c r="C530" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D530" t="s">
         <v>17</v>
@@ -44578,7 +44575,7 @@
         <v>12</v>
       </c>
       <c r="C531" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D531" t="s">
         <v>17</v>
@@ -44613,7 +44610,7 @@
         <v>12</v>
       </c>
       <c r="C532" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D532" t="s">
         <v>17</v>
@@ -44648,7 +44645,7 @@
         <v>12</v>
       </c>
       <c r="C533" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D533" t="s">
         <v>17</v>
@@ -44683,7 +44680,7 @@
         <v>12</v>
       </c>
       <c r="C534" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D534" t="s">
         <v>17</v>
@@ -44718,7 +44715,7 @@
         <v>12</v>
       </c>
       <c r="C535" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D535" t="s">
         <v>17</v>
@@ -44753,7 +44750,7 @@
         <v>12</v>
       </c>
       <c r="C536" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D536" t="s">
         <v>17</v>
@@ -44788,7 +44785,7 @@
         <v>12</v>
       </c>
       <c r="C537" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D537" t="s">
         <v>17</v>
@@ -44823,7 +44820,7 @@
         <v>12</v>
       </c>
       <c r="C538" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D538" t="s">
         <v>17</v>
@@ -44858,7 +44855,7 @@
         <v>12</v>
       </c>
       <c r="C539" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D539" t="s">
         <v>17</v>
@@ -44893,7 +44890,7 @@
         <v>12</v>
       </c>
       <c r="C540" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D540" t="s">
         <v>17</v>
@@ -44928,7 +44925,7 @@
         <v>12</v>
       </c>
       <c r="C541" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D541" t="s">
         <v>17</v>
@@ -44963,7 +44960,7 @@
         <v>12</v>
       </c>
       <c r="C542" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D542" t="s">
         <v>17</v>
@@ -44998,7 +44995,7 @@
         <v>12</v>
       </c>
       <c r="C543" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D543" t="s">
         <v>17</v>
@@ -45033,7 +45030,7 @@
         <v>12</v>
       </c>
       <c r="C544" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D544" t="s">
         <v>17</v>
@@ -45068,7 +45065,7 @@
         <v>12</v>
       </c>
       <c r="C545" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D545" t="s">
         <v>17</v>
@@ -45103,7 +45100,7 @@
         <v>12</v>
       </c>
       <c r="C546" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D546" t="s">
         <v>17</v>
@@ -45138,7 +45135,7 @@
         <v>12</v>
       </c>
       <c r="C547" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D547" t="s">
         <v>17</v>
@@ -45173,7 +45170,7 @@
         <v>12</v>
       </c>
       <c r="C548" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D548" t="s">
         <v>17</v>
@@ -45208,7 +45205,7 @@
         <v>12</v>
       </c>
       <c r="C549" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D549" t="s">
         <v>17</v>
@@ -45243,7 +45240,7 @@
         <v>12</v>
       </c>
       <c r="C550" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D550" t="s">
         <v>17</v>
@@ -45278,7 +45275,7 @@
         <v>12</v>
       </c>
       <c r="C551" t="s">
-        <v>4850</v>
+        <v>5085</v>
       </c>
       <c r="D551" t="s">
         <v>17</v>
@@ -45313,7 +45310,7 @@
         <v>12</v>
       </c>
       <c r="C552" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D552" t="s">
         <v>17</v>
@@ -45348,7 +45345,7 @@
         <v>12</v>
       </c>
       <c r="C553" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D553" t="s">
         <v>17</v>
@@ -45383,7 +45380,7 @@
         <v>12</v>
       </c>
       <c r="C554" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D554" t="s">
         <v>17</v>
@@ -45418,7 +45415,7 @@
         <v>12</v>
       </c>
       <c r="C555" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D555" t="s">
         <v>17</v>
@@ -45453,7 +45450,7 @@
         <v>12</v>
       </c>
       <c r="C556" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D556" t="s">
         <v>17</v>
@@ -45488,7 +45485,7 @@
         <v>12</v>
       </c>
       <c r="C557" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D557" t="s">
         <v>17</v>
@@ -45523,7 +45520,7 @@
         <v>12</v>
       </c>
       <c r="C558" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D558" t="s">
         <v>17</v>
@@ -45558,7 +45555,7 @@
         <v>12</v>
       </c>
       <c r="C559" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D559" t="s">
         <v>17</v>
@@ -45593,7 +45590,7 @@
         <v>12</v>
       </c>
       <c r="C560" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D560" t="s">
         <v>17</v>
@@ -45628,7 +45625,7 @@
         <v>12</v>
       </c>
       <c r="C561" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D561" t="s">
         <v>17</v>
@@ -45663,7 +45660,7 @@
         <v>12</v>
       </c>
       <c r="C562" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D562" t="s">
         <v>17</v>
@@ -45698,7 +45695,7 @@
         <v>12</v>
       </c>
       <c r="C563" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D563" t="s">
         <v>17</v>
@@ -45733,7 +45730,7 @@
         <v>12</v>
       </c>
       <c r="C564" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D564" t="s">
         <v>17</v>
@@ -45768,7 +45765,7 @@
         <v>12</v>
       </c>
       <c r="C565" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D565" t="s">
         <v>17</v>
@@ -45803,7 +45800,7 @@
         <v>12</v>
       </c>
       <c r="C566" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D566" t="s">
         <v>17</v>
@@ -45838,7 +45835,7 @@
         <v>12</v>
       </c>
       <c r="C567" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D567" t="s">
         <v>17</v>
@@ -45873,7 +45870,7 @@
         <v>12</v>
       </c>
       <c r="C568" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D568" t="s">
         <v>17</v>
@@ -45908,7 +45905,7 @@
         <v>12</v>
       </c>
       <c r="C569" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D569" t="s">
         <v>17</v>
@@ -45943,7 +45940,7 @@
         <v>12</v>
       </c>
       <c r="C570" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D570" t="s">
         <v>17</v>
@@ -45978,7 +45975,7 @@
         <v>12</v>
       </c>
       <c r="C571" t="s">
-        <v>4851</v>
+        <v>5086</v>
       </c>
       <c r="D571" t="s">
         <v>17</v>
@@ -46013,7 +46010,7 @@
         <v>12</v>
       </c>
       <c r="C572" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D572" t="s">
         <v>17</v>
@@ -46048,7 +46045,7 @@
         <v>12</v>
       </c>
       <c r="C573" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D573" t="s">
         <v>17</v>
@@ -46083,7 +46080,7 @@
         <v>12</v>
       </c>
       <c r="C574" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D574" t="s">
         <v>17</v>
@@ -46118,7 +46115,7 @@
         <v>12</v>
       </c>
       <c r="C575" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D575" t="s">
         <v>17</v>
@@ -46153,7 +46150,7 @@
         <v>12</v>
       </c>
       <c r="C576" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D576" t="s">
         <v>17</v>
@@ -46188,7 +46185,7 @@
         <v>12</v>
       </c>
       <c r="C577" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D577" t="s">
         <v>17</v>
@@ -46223,7 +46220,7 @@
         <v>12</v>
       </c>
       <c r="C578" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D578" t="s">
         <v>17</v>
@@ -46258,7 +46255,7 @@
         <v>12</v>
       </c>
       <c r="C579" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D579" t="s">
         <v>17</v>
@@ -46293,7 +46290,7 @@
         <v>12</v>
       </c>
       <c r="C580" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D580" t="s">
         <v>17</v>
@@ -46328,7 +46325,7 @@
         <v>12</v>
       </c>
       <c r="C581" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D581" t="s">
         <v>17</v>
@@ -46363,7 +46360,7 @@
         <v>12</v>
       </c>
       <c r="C582" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D582" t="s">
         <v>17</v>
@@ -46398,7 +46395,7 @@
         <v>12</v>
       </c>
       <c r="C583" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D583" t="s">
         <v>17</v>
@@ -46433,7 +46430,7 @@
         <v>12</v>
       </c>
       <c r="C584" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D584" t="s">
         <v>17</v>
@@ -46468,7 +46465,7 @@
         <v>12</v>
       </c>
       <c r="C585" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D585" t="s">
         <v>17</v>
@@ -46503,7 +46500,7 @@
         <v>12</v>
       </c>
       <c r="C586" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D586" t="s">
         <v>17</v>
@@ -46538,7 +46535,7 @@
         <v>12</v>
       </c>
       <c r="C587" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D587" t="s">
         <v>17</v>
@@ -46573,7 +46570,7 @@
         <v>12</v>
       </c>
       <c r="C588" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D588" t="s">
         <v>17</v>
@@ -46608,7 +46605,7 @@
         <v>12</v>
       </c>
       <c r="C589" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D589" t="s">
         <v>17</v>
@@ -46643,7 +46640,7 @@
         <v>12</v>
       </c>
       <c r="C590" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D590" t="s">
         <v>17</v>
@@ -46678,7 +46675,7 @@
         <v>12</v>
       </c>
       <c r="C591" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D591" t="s">
         <v>17</v>
@@ -46713,7 +46710,7 @@
         <v>12</v>
       </c>
       <c r="C592" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D592" t="s">
         <v>17</v>
@@ -46748,7 +46745,7 @@
         <v>12</v>
       </c>
       <c r="C593" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D593" t="s">
         <v>17</v>
@@ -46783,7 +46780,7 @@
         <v>12</v>
       </c>
       <c r="C594" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D594" t="s">
         <v>17</v>
@@ -46818,7 +46815,7 @@
         <v>12</v>
       </c>
       <c r="C595" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D595" t="s">
         <v>17</v>
@@ -46853,7 +46850,7 @@
         <v>12</v>
       </c>
       <c r="C596" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D596" t="s">
         <v>17</v>
@@ -46888,7 +46885,7 @@
         <v>12</v>
       </c>
       <c r="C597" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D597" t="s">
         <v>17</v>
@@ -46923,7 +46920,7 @@
         <v>12</v>
       </c>
       <c r="C598" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D598" t="s">
         <v>17</v>
@@ -46958,7 +46955,7 @@
         <v>12</v>
       </c>
       <c r="C599" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D599" t="s">
         <v>17</v>
@@ -46993,7 +46990,7 @@
         <v>12</v>
       </c>
       <c r="C600" t="s">
-        <v>4852</v>
+        <v>5087</v>
       </c>
       <c r="D600" t="s">
         <v>17</v>
@@ -47028,7 +47025,7 @@
         <v>12</v>
       </c>
       <c r="C601" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D601" t="s">
         <v>17</v>
@@ -47063,7 +47060,7 @@
         <v>12</v>
       </c>
       <c r="C602" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D602" t="s">
         <v>17</v>
@@ -47098,7 +47095,7 @@
         <v>12</v>
       </c>
       <c r="C603" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D603" t="s">
         <v>17</v>
@@ -47133,7 +47130,7 @@
         <v>12</v>
       </c>
       <c r="C604" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D604" t="s">
         <v>17</v>
@@ -47168,7 +47165,7 @@
         <v>12</v>
       </c>
       <c r="C605" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D605" t="s">
         <v>17</v>
@@ -47203,7 +47200,7 @@
         <v>12</v>
       </c>
       <c r="C606" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D606" t="s">
         <v>17</v>
@@ -47238,7 +47235,7 @@
         <v>12</v>
       </c>
       <c r="C607" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D607" t="s">
         <v>17</v>
@@ -47273,7 +47270,7 @@
         <v>12</v>
       </c>
       <c r="C608" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D608" t="s">
         <v>17</v>
@@ -47308,7 +47305,7 @@
         <v>12</v>
       </c>
       <c r="C609" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D609" t="s">
         <v>17</v>
@@ -47343,7 +47340,7 @@
         <v>12</v>
       </c>
       <c r="C610" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D610" t="s">
         <v>17</v>
@@ -47378,7 +47375,7 @@
         <v>12</v>
       </c>
       <c r="C611" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D611" t="s">
         <v>17</v>
@@ -47413,7 +47410,7 @@
         <v>12</v>
       </c>
       <c r="C612" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D612" t="s">
         <v>17</v>
@@ -47448,7 +47445,7 @@
         <v>12</v>
       </c>
       <c r="C613" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D613" t="s">
         <v>17</v>
@@ -47483,7 +47480,7 @@
         <v>12</v>
       </c>
       <c r="C614" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D614" t="s">
         <v>17</v>
@@ -47518,7 +47515,7 @@
         <v>12</v>
       </c>
       <c r="C615" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D615" t="s">
         <v>17</v>
@@ -47553,7 +47550,7 @@
         <v>12</v>
       </c>
       <c r="C616" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D616" t="s">
         <v>17</v>
@@ -47588,7 +47585,7 @@
         <v>12</v>
       </c>
       <c r="C617" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D617" t="s">
         <v>17</v>
@@ -47623,7 +47620,7 @@
         <v>12</v>
       </c>
       <c r="C618" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D618" t="s">
         <v>17</v>
@@ -47658,7 +47655,7 @@
         <v>12</v>
       </c>
       <c r="C619" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D619" t="s">
         <v>17</v>
@@ -47693,7 +47690,7 @@
         <v>12</v>
       </c>
       <c r="C620" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D620" t="s">
         <v>17</v>
@@ -47728,7 +47725,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D621" t="s">
         <v>17</v>
@@ -47763,7 +47760,7 @@
         <v>12</v>
       </c>
       <c r="C622" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D622" t="s">
         <v>17</v>
@@ -47798,7 +47795,7 @@
         <v>12</v>
       </c>
       <c r="C623" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D623" t="s">
         <v>17</v>
@@ -47833,7 +47830,7 @@
         <v>12</v>
       </c>
       <c r="C624" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D624" t="s">
         <v>17</v>
@@ -47868,7 +47865,7 @@
         <v>12</v>
       </c>
       <c r="C625" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D625" t="s">
         <v>17</v>
@@ -47903,7 +47900,7 @@
         <v>12</v>
       </c>
       <c r="C626" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D626" t="s">
         <v>17</v>
@@ -47938,7 +47935,7 @@
         <v>12</v>
       </c>
       <c r="C627" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D627" t="s">
         <v>17</v>
@@ -47973,7 +47970,7 @@
         <v>12</v>
       </c>
       <c r="C628" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D628" t="s">
         <v>17</v>
@@ -48008,7 +48005,7 @@
         <v>12</v>
       </c>
       <c r="C629" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D629" t="s">
         <v>17</v>
@@ -48043,7 +48040,7 @@
         <v>12</v>
       </c>
       <c r="C630" t="s">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="D630" t="s">
         <v>17</v>
@@ -48078,7 +48075,7 @@
         <v>12</v>
       </c>
       <c r="C631" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D631" t="s">
         <v>17</v>
@@ -48113,7 +48110,7 @@
         <v>12</v>
       </c>
       <c r="C632" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D632" t="s">
         <v>17</v>
@@ -48148,7 +48145,7 @@
         <v>12</v>
       </c>
       <c r="C633" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D633" t="s">
         <v>17</v>
@@ -48183,7 +48180,7 @@
         <v>12</v>
       </c>
       <c r="C634" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D634" t="s">
         <v>17</v>
@@ -48218,7 +48215,7 @@
         <v>12</v>
       </c>
       <c r="C635" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D635" t="s">
         <v>17</v>
@@ -48253,7 +48250,7 @@
         <v>12</v>
       </c>
       <c r="C636" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D636" t="s">
         <v>17</v>
@@ -48288,7 +48285,7 @@
         <v>12</v>
       </c>
       <c r="C637" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D637" t="s">
         <v>17</v>
@@ -48323,7 +48320,7 @@
         <v>12</v>
       </c>
       <c r="C638" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D638" t="s">
         <v>17</v>
@@ -48358,7 +48355,7 @@
         <v>12</v>
       </c>
       <c r="C639" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D639" t="s">
         <v>17</v>
@@ -48393,7 +48390,7 @@
         <v>12</v>
       </c>
       <c r="C640" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D640" t="s">
         <v>17</v>
@@ -48428,7 +48425,7 @@
         <v>12</v>
       </c>
       <c r="C641" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D641" t="s">
         <v>17</v>
@@ -48463,7 +48460,7 @@
         <v>12</v>
       </c>
       <c r="C642" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D642" t="s">
         <v>17</v>
@@ -48498,7 +48495,7 @@
         <v>12</v>
       </c>
       <c r="C643" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D643" t="s">
         <v>17</v>
@@ -48533,7 +48530,7 @@
         <v>12</v>
       </c>
       <c r="C644" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D644" t="s">
         <v>17</v>
@@ -48568,7 +48565,7 @@
         <v>12</v>
       </c>
       <c r="C645" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D645" t="s">
         <v>17</v>
@@ -48603,7 +48600,7 @@
         <v>12</v>
       </c>
       <c r="C646" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D646" t="s">
         <v>17</v>
@@ -48638,7 +48635,7 @@
         <v>12</v>
       </c>
       <c r="C647" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D647" t="s">
         <v>17</v>
@@ -48673,7 +48670,7 @@
         <v>12</v>
       </c>
       <c r="C648" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D648" t="s">
         <v>17</v>
@@ -48708,7 +48705,7 @@
         <v>12</v>
       </c>
       <c r="C649" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D649" t="s">
         <v>17</v>
@@ -48743,7 +48740,7 @@
         <v>12</v>
       </c>
       <c r="C650" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D650" t="s">
         <v>17</v>
@@ -48778,7 +48775,7 @@
         <v>12</v>
       </c>
       <c r="C651" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D651" t="s">
         <v>17</v>
@@ -48813,7 +48810,7 @@
         <v>12</v>
       </c>
       <c r="C652" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D652" t="s">
         <v>17</v>
@@ -48848,7 +48845,7 @@
         <v>12</v>
       </c>
       <c r="C653" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D653" t="s">
         <v>17</v>
@@ -48883,7 +48880,7 @@
         <v>12</v>
       </c>
       <c r="C654" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D654" t="s">
         <v>17</v>
@@ -48918,7 +48915,7 @@
         <v>12</v>
       </c>
       <c r="C655" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D655" t="s">
         <v>17</v>
@@ -48953,7 +48950,7 @@
         <v>12</v>
       </c>
       <c r="C656" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D656" t="s">
         <v>17</v>
@@ -48988,7 +48985,7 @@
         <v>12</v>
       </c>
       <c r="C657" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D657" t="s">
         <v>17</v>
@@ -49023,7 +49020,7 @@
         <v>12</v>
       </c>
       <c r="C658" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D658" t="s">
         <v>17</v>
@@ -49058,7 +49055,7 @@
         <v>12</v>
       </c>
       <c r="C659" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D659" t="s">
         <v>17</v>
@@ -49093,7 +49090,7 @@
         <v>12</v>
       </c>
       <c r="C660" t="s">
-        <v>4853</v>
+        <v>4843</v>
       </c>
       <c r="D660" t="s">
         <v>17</v>
@@ -54518,7 +54515,7 @@
         <v>12</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D815" s="7" t="s">
         <v>17</v>
@@ -54553,7 +54550,7 @@
         <v>12</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D816" s="7" t="s">
         <v>17</v>
@@ -54588,7 +54585,7 @@
         <v>12</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D817" s="7" t="s">
         <v>17</v>
@@ -54623,7 +54620,7 @@
         <v>12</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D818" s="7" t="s">
         <v>17</v>
@@ -54658,7 +54655,7 @@
         <v>12</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D819" s="7" t="s">
         <v>17</v>
@@ -54693,7 +54690,7 @@
         <v>12</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D820" s="7" t="s">
         <v>17</v>
@@ -54728,7 +54725,7 @@
         <v>12</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D821" s="7" t="s">
         <v>17</v>
@@ -54763,7 +54760,7 @@
         <v>12</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D822" s="7" t="s">
         <v>17</v>
@@ -54798,7 +54795,7 @@
         <v>12</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D823" s="7" t="s">
         <v>17</v>
@@ -54833,7 +54830,7 @@
         <v>12</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D824" s="7" t="s">
         <v>17</v>
@@ -54868,7 +54865,7 @@
         <v>12</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D825" s="7" t="s">
         <v>17</v>
@@ -54903,7 +54900,7 @@
         <v>12</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D826" s="7" t="s">
         <v>17</v>
@@ -54938,7 +54935,7 @@
         <v>12</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D827" s="7" t="s">
         <v>17</v>
@@ -54973,7 +54970,7 @@
         <v>12</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D828" s="7" t="s">
         <v>17</v>
@@ -55008,7 +55005,7 @@
         <v>12</v>
       </c>
       <c r="C829" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D829" s="7" t="s">
         <v>17</v>
@@ -55043,7 +55040,7 @@
         <v>12</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D830" s="7" t="s">
         <v>17</v>
@@ -55078,7 +55075,7 @@
         <v>12</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D831" s="7" t="s">
         <v>17</v>
@@ -55113,7 +55110,7 @@
         <v>12</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D832" s="7" t="s">
         <v>17</v>
@@ -55148,7 +55145,7 @@
         <v>12</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D833" s="7" t="s">
         <v>17</v>
@@ -55183,7 +55180,7 @@
         <v>12</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>4841</v>
+        <v>5081</v>
       </c>
       <c r="D834" s="7" t="s">
         <v>17</v>
@@ -55218,7 +55215,7 @@
         <v>12</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D835" s="7" t="s">
         <v>17</v>
@@ -55253,7 +55250,7 @@
         <v>12</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D836" s="7" t="s">
         <v>17</v>
@@ -55288,7 +55285,7 @@
         <v>12</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D837" s="7" t="s">
         <v>17</v>
@@ -55323,7 +55320,7 @@
         <v>12</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D838" s="7" t="s">
         <v>17</v>
@@ -55358,7 +55355,7 @@
         <v>12</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D839" s="7" t="s">
         <v>17</v>
@@ -55393,7 +55390,7 @@
         <v>12</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D840" s="7" t="s">
         <v>17</v>
@@ -55428,7 +55425,7 @@
         <v>12</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D841" s="7" t="s">
         <v>17</v>
@@ -55463,7 +55460,7 @@
         <v>12</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D842" s="7" t="s">
         <v>17</v>
@@ -55498,7 +55495,7 @@
         <v>12</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D843" s="7" t="s">
         <v>17</v>
@@ -55533,7 +55530,7 @@
         <v>12</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D844" s="7" t="s">
         <v>17</v>
@@ -55568,7 +55565,7 @@
         <v>12</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D845" s="7" t="s">
         <v>17</v>
@@ -55603,7 +55600,7 @@
         <v>12</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D846" s="7" t="s">
         <v>17</v>
@@ -55638,7 +55635,7 @@
         <v>12</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D847" s="7" t="s">
         <v>17</v>
@@ -55673,7 +55670,7 @@
         <v>12</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D848" s="7" t="s">
         <v>17</v>
@@ -55708,7 +55705,7 @@
         <v>12</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D849" s="7" t="s">
         <v>17</v>
@@ -55743,7 +55740,7 @@
         <v>12</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D850" s="7" t="s">
         <v>17</v>
@@ -55778,7 +55775,7 @@
         <v>12</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D851" s="7" t="s">
         <v>17</v>
@@ -55813,7 +55810,7 @@
         <v>12</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D852" s="7" t="s">
         <v>17</v>
@@ -55848,7 +55845,7 @@
         <v>12</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D853" s="7" t="s">
         <v>17</v>
@@ -55883,7 +55880,7 @@
         <v>12</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>4840</v>
+        <v>5088</v>
       </c>
       <c r="D854" s="7" t="s">
         <v>17</v>
@@ -55918,7 +55915,7 @@
         <v>12</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D855" s="7" t="s">
         <v>17</v>
@@ -55953,7 +55950,7 @@
         <v>12</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D856" s="7" t="s">
         <v>17</v>
@@ -55988,7 +55985,7 @@
         <v>12</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D857" s="7" t="s">
         <v>17</v>
@@ -56023,7 +56020,7 @@
         <v>12</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D858" s="7" t="s">
         <v>17</v>
@@ -56058,7 +56055,7 @@
         <v>12</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D859" s="7" t="s">
         <v>17</v>
@@ -56093,7 +56090,7 @@
         <v>12</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D860" s="7" t="s">
         <v>17</v>
@@ -56128,7 +56125,7 @@
         <v>12</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D861" s="7" t="s">
         <v>17</v>
@@ -56163,7 +56160,7 @@
         <v>12</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D862" s="7" t="s">
         <v>17</v>
@@ -56198,7 +56195,7 @@
         <v>12</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D863" s="7" t="s">
         <v>17</v>
@@ -56233,7 +56230,7 @@
         <v>12</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D864" s="7" t="s">
         <v>17</v>
@@ -56268,31 +56265,31 @@
         <v>12</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D865" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E865" s="7" t="s">
-        <v>4854</v>
+        <v>4844</v>
       </c>
       <c r="F865" s="7" t="s">
-        <v>4855</v>
+        <v>4845</v>
       </c>
       <c r="G865" s="7" t="s">
-        <v>4856</v>
+        <v>4846</v>
       </c>
       <c r="H865" s="7" t="s">
-        <v>4857</v>
+        <v>4847</v>
       </c>
       <c r="I865" s="7" t="s">
-        <v>4858</v>
+        <v>4848</v>
       </c>
       <c r="J865" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K865" s="8" t="s">
-        <v>4859</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="866" spans="1:11" ht="30">
@@ -56303,31 +56300,31 @@
         <v>12</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D866" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E866" s="7" t="s">
-        <v>4860</v>
+        <v>4850</v>
       </c>
       <c r="F866" s="7" t="s">
-        <v>4861</v>
+        <v>4851</v>
       </c>
       <c r="G866" s="7" t="s">
-        <v>4862</v>
+        <v>4852</v>
       </c>
       <c r="H866" s="7" t="s">
-        <v>4863</v>
+        <v>4853</v>
       </c>
       <c r="I866" s="7" t="s">
-        <v>4864</v>
+        <v>4854</v>
       </c>
       <c r="J866" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K866" s="8" t="s">
-        <v>4865</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="867" spans="1:11" ht="30">
@@ -56338,31 +56335,31 @@
         <v>12</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D867" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E867" s="7" t="s">
-        <v>4866</v>
+        <v>4856</v>
       </c>
       <c r="F867" s="7" t="s">
-        <v>4867</v>
+        <v>4857</v>
       </c>
       <c r="G867" s="7" t="s">
-        <v>4868</v>
+        <v>4858</v>
       </c>
       <c r="H867" s="7" t="s">
-        <v>4869</v>
+        <v>4859</v>
       </c>
       <c r="I867" s="7" t="s">
-        <v>4870</v>
+        <v>4860</v>
       </c>
       <c r="J867" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K867" s="8" t="s">
-        <v>4871</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="868" spans="1:11" ht="30">
@@ -56373,31 +56370,31 @@
         <v>12</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D868" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E868" s="7" t="s">
-        <v>4872</v>
+        <v>4862</v>
       </c>
       <c r="F868" s="7" t="s">
-        <v>4873</v>
+        <v>4863</v>
       </c>
       <c r="G868" s="7" t="s">
-        <v>4874</v>
+        <v>4864</v>
       </c>
       <c r="H868" s="7" t="s">
-        <v>4875</v>
+        <v>4865</v>
       </c>
       <c r="I868" s="7" t="s">
-        <v>4876</v>
+        <v>4866</v>
       </c>
       <c r="J868" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K868" s="8" t="s">
-        <v>4877</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="869" spans="1:11" ht="30">
@@ -56408,31 +56405,31 @@
         <v>12</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D869" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E869" s="7" t="s">
-        <v>4878</v>
+        <v>4868</v>
       </c>
       <c r="F869" s="7" t="s">
-        <v>4879</v>
+        <v>4869</v>
       </c>
       <c r="G869" s="7" t="s">
-        <v>4880</v>
+        <v>4870</v>
       </c>
       <c r="H869" s="7" t="s">
-        <v>4881</v>
+        <v>4871</v>
       </c>
       <c r="I869" s="7" t="s">
-        <v>4882</v>
+        <v>4872</v>
       </c>
       <c r="J869" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K869" s="8" t="s">
-        <v>4883</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="870" spans="1:11" ht="30">
@@ -56443,31 +56440,31 @@
         <v>12</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D870" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E870" s="7" t="s">
-        <v>4884</v>
+        <v>4874</v>
       </c>
       <c r="F870" s="7" t="s">
-        <v>4885</v>
+        <v>4875</v>
       </c>
       <c r="G870" s="7" t="s">
-        <v>4886</v>
+        <v>4876</v>
       </c>
       <c r="H870" s="7" t="s">
-        <v>4887</v>
+        <v>4877</v>
       </c>
       <c r="I870" s="7" t="s">
-        <v>4888</v>
+        <v>4878</v>
       </c>
       <c r="J870" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K870" s="8" t="s">
-        <v>4889</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="871" spans="1:11" ht="30">
@@ -56478,31 +56475,31 @@
         <v>12</v>
       </c>
       <c r="C871" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D871" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E871" s="7" t="s">
-        <v>4890</v>
+        <v>4880</v>
       </c>
       <c r="F871" s="7" t="s">
-        <v>4891</v>
+        <v>4881</v>
       </c>
       <c r="G871" s="7" t="s">
-        <v>4892</v>
+        <v>4882</v>
       </c>
       <c r="H871" s="7" t="s">
-        <v>4893</v>
+        <v>4883</v>
       </c>
       <c r="I871" s="7" t="s">
-        <v>4894</v>
+        <v>4884</v>
       </c>
       <c r="J871" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K871" s="8" t="s">
-        <v>4895</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="872" spans="1:11" ht="30">
@@ -56513,31 +56510,31 @@
         <v>12</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D872" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E872" s="7" t="s">
-        <v>4896</v>
+        <v>4886</v>
       </c>
       <c r="F872" s="7" t="s">
-        <v>4897</v>
+        <v>4887</v>
       </c>
       <c r="G872" s="7" t="s">
-        <v>4898</v>
+        <v>4888</v>
       </c>
       <c r="H872" s="7" t="s">
-        <v>4899</v>
+        <v>4889</v>
       </c>
       <c r="I872" s="7" t="s">
-        <v>4900</v>
+        <v>4890</v>
       </c>
       <c r="J872" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K872" s="8" t="s">
-        <v>4901</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="873" spans="1:11" ht="30">
@@ -56548,31 +56545,31 @@
         <v>12</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D873" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E873" s="7" t="s">
-        <v>4902</v>
+        <v>4892</v>
       </c>
       <c r="F873" s="7" t="s">
-        <v>4903</v>
+        <v>4893</v>
       </c>
       <c r="G873" s="7" t="s">
-        <v>4904</v>
+        <v>4894</v>
       </c>
       <c r="H873" s="7" t="s">
-        <v>4905</v>
+        <v>4895</v>
       </c>
       <c r="I873" s="7" t="s">
-        <v>4906</v>
+        <v>4896</v>
       </c>
       <c r="J873" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K873" s="8" t="s">
-        <v>4907</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="874" spans="1:11" ht="30">
@@ -56583,31 +56580,31 @@
         <v>12</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>4839</v>
+        <v>5089</v>
       </c>
       <c r="D874" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E874" s="7" t="s">
-        <v>4908</v>
+        <v>4898</v>
       </c>
       <c r="F874" s="7" t="s">
-        <v>4909</v>
+        <v>4899</v>
       </c>
       <c r="G874" s="7" t="s">
-        <v>4910</v>
+        <v>4900</v>
       </c>
       <c r="H874" s="7" t="s">
-        <v>4911</v>
+        <v>4901</v>
       </c>
       <c r="I874" s="7" t="s">
-        <v>4912</v>
+        <v>4902</v>
       </c>
       <c r="J874" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K874" s="8" t="s">
-        <v>4913</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="875" spans="1:11" ht="30">
@@ -56618,31 +56615,31 @@
         <v>12</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>4974</v>
+        <v>5090</v>
       </c>
       <c r="D875" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E875" s="7" t="s">
-        <v>4914</v>
+        <v>4904</v>
       </c>
       <c r="F875" s="7" t="s">
-        <v>4915</v>
+        <v>4905</v>
       </c>
       <c r="G875" s="7" t="s">
-        <v>4916</v>
+        <v>4906</v>
       </c>
       <c r="H875" s="7" t="s">
-        <v>4917</v>
+        <v>4907</v>
       </c>
       <c r="I875" s="7" t="s">
-        <v>4918</v>
+        <v>4908</v>
       </c>
       <c r="J875" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K875" s="8" t="s">
-        <v>4919</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="876" spans="1:11" ht="30">
@@ -56653,31 +56650,31 @@
         <v>12</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D876" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E876" s="7" t="s">
-        <v>4920</v>
+        <v>4910</v>
       </c>
       <c r="F876" s="7" t="s">
-        <v>4921</v>
+        <v>4911</v>
       </c>
       <c r="G876" s="7" t="s">
-        <v>4922</v>
+        <v>4912</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>4923</v>
+        <v>4913</v>
       </c>
       <c r="I876" s="7" t="s">
-        <v>4924</v>
+        <v>4914</v>
       </c>
       <c r="J876" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K876" s="8" t="s">
-        <v>4925</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="877" spans="1:11" ht="30">
@@ -56688,31 +56685,31 @@
         <v>12</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D877" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E877" s="7" t="s">
-        <v>4926</v>
+        <v>4916</v>
       </c>
       <c r="F877" s="7" t="s">
-        <v>4927</v>
+        <v>4917</v>
       </c>
       <c r="G877" s="7" t="s">
-        <v>4928</v>
+        <v>4918</v>
       </c>
       <c r="H877" s="7" t="s">
-        <v>4929</v>
+        <v>4919</v>
       </c>
       <c r="I877" s="7" t="s">
-        <v>4930</v>
+        <v>4920</v>
       </c>
       <c r="J877" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K877" s="8" t="s">
-        <v>4931</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="878" spans="1:11" ht="30">
@@ -56723,31 +56720,31 @@
         <v>12</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D878" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E878" s="7" t="s">
-        <v>4932</v>
+        <v>4922</v>
       </c>
       <c r="F878" s="7" t="s">
-        <v>4933</v>
+        <v>4923</v>
       </c>
       <c r="G878" s="7" t="s">
-        <v>4934</v>
+        <v>4924</v>
       </c>
       <c r="H878" s="7" t="s">
-        <v>4935</v>
+        <v>4925</v>
       </c>
       <c r="I878" s="7" t="s">
-        <v>4936</v>
+        <v>4926</v>
       </c>
       <c r="J878" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K878" s="8" t="s">
-        <v>4937</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="879" spans="1:11" ht="45">
@@ -56758,31 +56755,31 @@
         <v>12</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D879" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E879" s="7" t="s">
-        <v>4938</v>
+        <v>4928</v>
       </c>
       <c r="F879" s="7" t="s">
-        <v>4939</v>
+        <v>4929</v>
       </c>
       <c r="G879" s="7" t="s">
-        <v>4940</v>
+        <v>4930</v>
       </c>
       <c r="H879" s="7" t="s">
-        <v>4941</v>
+        <v>4931</v>
       </c>
       <c r="I879" s="7" t="s">
-        <v>4942</v>
+        <v>4932</v>
       </c>
       <c r="J879" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K879" s="8" t="s">
-        <v>4943</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="880" spans="1:11" ht="30">
@@ -56793,31 +56790,31 @@
         <v>12</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D880" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E880" s="7" t="s">
-        <v>4944</v>
+        <v>4934</v>
       </c>
       <c r="F880" s="7" t="s">
-        <v>4945</v>
+        <v>4935</v>
       </c>
       <c r="G880" s="7" t="s">
-        <v>4946</v>
+        <v>4936</v>
       </c>
       <c r="H880" s="7" t="s">
-        <v>4947</v>
+        <v>4937</v>
       </c>
       <c r="I880" s="7" t="s">
-        <v>4948</v>
+        <v>4938</v>
       </c>
       <c r="J880" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K880" s="8" t="s">
-        <v>4949</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="881" spans="1:11" ht="30">
@@ -56828,31 +56825,31 @@
         <v>12</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D881" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E881" s="7" t="s">
-        <v>4950</v>
+        <v>4940</v>
       </c>
       <c r="F881" s="7" t="s">
-        <v>4951</v>
+        <v>4941</v>
       </c>
       <c r="G881" s="7" t="s">
-        <v>4952</v>
+        <v>4942</v>
       </c>
       <c r="H881" s="7" t="s">
-        <v>4953</v>
+        <v>4943</v>
       </c>
       <c r="I881" s="7" t="s">
-        <v>4954</v>
+        <v>4944</v>
       </c>
       <c r="J881" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K881" s="8" t="s">
-        <v>4955</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="882" spans="1:11" ht="45">
@@ -56863,31 +56860,31 @@
         <v>12</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D882" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E882" s="7" t="s">
-        <v>4956</v>
+        <v>4946</v>
       </c>
       <c r="F882" s="7" t="s">
-        <v>4957</v>
+        <v>4947</v>
       </c>
       <c r="G882" s="7" t="s">
-        <v>4958</v>
+        <v>4948</v>
       </c>
       <c r="H882" s="7" t="s">
-        <v>4959</v>
+        <v>4949</v>
       </c>
       <c r="I882" s="7" t="s">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="J882" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K882" s="8" t="s">
-        <v>4961</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="883" spans="1:11" ht="30">
@@ -56898,31 +56895,31 @@
         <v>12</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D883" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E883" s="7" t="s">
-        <v>4962</v>
+        <v>4952</v>
       </c>
       <c r="F883" s="7" t="s">
-        <v>4963</v>
+        <v>4953</v>
       </c>
       <c r="G883" s="7" t="s">
-        <v>4964</v>
+        <v>4954</v>
       </c>
       <c r="H883" s="7" t="s">
-        <v>4965</v>
+        <v>4955</v>
       </c>
       <c r="I883" s="7" t="s">
-        <v>4966</v>
+        <v>4956</v>
       </c>
       <c r="J883" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K883" s="8" t="s">
-        <v>4967</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="884" spans="1:11" ht="30">
@@ -56933,31 +56930,31 @@
         <v>12</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D884" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E884" s="7" t="s">
-        <v>4968</v>
+        <v>4958</v>
       </c>
       <c r="F884" s="7" t="s">
-        <v>4969</v>
+        <v>4959</v>
       </c>
       <c r="G884" s="7" t="s">
-        <v>4970</v>
+        <v>4960</v>
       </c>
       <c r="H884" s="7" t="s">
-        <v>4971</v>
+        <v>4961</v>
       </c>
       <c r="I884" s="7" t="s">
-        <v>4972</v>
+        <v>4962</v>
       </c>
       <c r="J884" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K884" s="8" t="s">
-        <v>4973</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="885" spans="1:11" ht="30">
@@ -56968,31 +56965,31 @@
         <v>12</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D885" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E885" s="7" t="s">
-        <v>4976</v>
+        <v>4964</v>
       </c>
       <c r="F885" s="7" t="s">
-        <v>4977</v>
+        <v>4965</v>
       </c>
       <c r="G885" s="7" t="s">
-        <v>4978</v>
+        <v>4966</v>
       </c>
       <c r="H885" s="7" t="s">
-        <v>4979</v>
+        <v>4967</v>
       </c>
       <c r="I885" s="7" t="s">
-        <v>4980</v>
+        <v>4968</v>
       </c>
       <c r="J885" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K885" s="8" t="s">
-        <v>4981</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="886" spans="1:11" ht="30">
@@ -57003,31 +57000,31 @@
         <v>12</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D886" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E886" s="7" t="s">
-        <v>4982</v>
+        <v>4970</v>
       </c>
       <c r="F886" s="7" t="s">
-        <v>4983</v>
+        <v>4971</v>
       </c>
       <c r="G886" s="7" t="s">
-        <v>4984</v>
+        <v>4972</v>
       </c>
       <c r="H886" s="7" t="s">
-        <v>4985</v>
+        <v>4973</v>
       </c>
       <c r="I886" s="7" t="s">
-        <v>4986</v>
+        <v>4974</v>
       </c>
       <c r="J886" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K886" s="8" t="s">
-        <v>4987</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="887" spans="1:11" ht="30">
@@ -57038,31 +57035,31 @@
         <v>12</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D887" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E887" s="7" t="s">
-        <v>4988</v>
+        <v>4976</v>
       </c>
       <c r="F887" s="7" t="s">
-        <v>4934</v>
+        <v>4924</v>
       </c>
       <c r="G887" s="7" t="s">
-        <v>4989</v>
+        <v>4977</v>
       </c>
       <c r="H887" s="7" t="s">
-        <v>4990</v>
+        <v>4978</v>
       </c>
       <c r="I887" s="7" t="s">
-        <v>4991</v>
+        <v>4979</v>
       </c>
       <c r="J887" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K887" s="8" t="s">
-        <v>4992</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="888" spans="1:11" ht="30">
@@ -57073,31 +57070,31 @@
         <v>12</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D888" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E888" s="7" t="s">
-        <v>4993</v>
+        <v>4981</v>
       </c>
       <c r="F888" s="7" t="s">
-        <v>4994</v>
+        <v>4982</v>
       </c>
       <c r="G888" s="7" t="s">
-        <v>4995</v>
+        <v>4983</v>
       </c>
       <c r="H888" s="7" t="s">
-        <v>4996</v>
+        <v>4984</v>
       </c>
       <c r="I888" s="7" t="s">
-        <v>4997</v>
+        <v>4985</v>
       </c>
       <c r="J888" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K888" s="8" t="s">
-        <v>4998</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="889" spans="1:11" ht="30">
@@ -57108,31 +57105,31 @@
         <v>12</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D889" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E889" s="7" t="s">
-        <v>4999</v>
+        <v>4987</v>
       </c>
       <c r="F889" s="7" t="s">
-        <v>5000</v>
+        <v>4988</v>
       </c>
       <c r="G889" s="7" t="s">
-        <v>5001</v>
+        <v>4989</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>5002</v>
+        <v>4990</v>
       </c>
       <c r="I889" s="7" t="s">
-        <v>5003</v>
+        <v>4991</v>
       </c>
       <c r="J889" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K889" s="8" t="s">
-        <v>5004</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="890" spans="1:11" ht="30">
@@ -57143,31 +57140,31 @@
         <v>12</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D890" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E890" s="7" t="s">
-        <v>5005</v>
+        <v>4993</v>
       </c>
       <c r="F890" s="7" t="s">
-        <v>5006</v>
+        <v>4994</v>
       </c>
       <c r="G890" s="7" t="s">
-        <v>5007</v>
+        <v>4995</v>
       </c>
       <c r="H890" s="7" t="s">
-        <v>5008</v>
+        <v>4996</v>
       </c>
       <c r="I890" s="7" t="s">
-        <v>5009</v>
+        <v>4997</v>
       </c>
       <c r="J890" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K890" s="8" t="s">
-        <v>5010</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="891" spans="1:11" ht="30">
@@ -57178,31 +57175,31 @@
         <v>12</v>
       </c>
       <c r="C891" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D891" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E891" s="7" t="s">
-        <v>5011</v>
+        <v>4999</v>
       </c>
       <c r="F891" s="7" t="s">
-        <v>5012</v>
+        <v>5000</v>
       </c>
       <c r="G891" s="7" t="s">
-        <v>5013</v>
+        <v>5001</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>5014</v>
+        <v>5002</v>
       </c>
       <c r="I891" s="7" t="s">
-        <v>5015</v>
+        <v>5003</v>
       </c>
       <c r="J891" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K891" s="8" t="s">
-        <v>5016</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="892" spans="1:11" ht="30">
@@ -57213,31 +57210,31 @@
         <v>12</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D892" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E892" s="7" t="s">
-        <v>5017</v>
+        <v>5005</v>
       </c>
       <c r="F892" s="7" t="s">
-        <v>5018</v>
+        <v>5006</v>
       </c>
       <c r="G892" s="7" t="s">
-        <v>5019</v>
+        <v>5007</v>
       </c>
       <c r="H892" s="7" t="s">
-        <v>5020</v>
+        <v>5008</v>
       </c>
       <c r="I892" s="7" t="s">
-        <v>5021</v>
+        <v>5009</v>
       </c>
       <c r="J892" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K892" s="8" t="s">
-        <v>5022</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="893" spans="1:11" ht="30">
@@ -57248,31 +57245,31 @@
         <v>12</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D893" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E893" s="7" t="s">
-        <v>5023</v>
+        <v>5011</v>
       </c>
       <c r="F893" s="7" t="s">
-        <v>5024</v>
+        <v>5012</v>
       </c>
       <c r="G893" s="7" t="s">
-        <v>5025</v>
+        <v>5013</v>
       </c>
       <c r="H893" s="7" t="s">
-        <v>5026</v>
+        <v>5014</v>
       </c>
       <c r="I893" s="7" t="s">
-        <v>5027</v>
+        <v>5015</v>
       </c>
       <c r="J893" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K893" s="8" t="s">
-        <v>5028</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="894" spans="1:11" ht="30">
@@ -57283,31 +57280,31 @@
         <v>12</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D894" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E894" s="7" t="s">
-        <v>5029</v>
+        <v>5017</v>
       </c>
       <c r="F894" s="7" t="s">
-        <v>5030</v>
+        <v>5018</v>
       </c>
       <c r="G894" s="7" t="s">
-        <v>5031</v>
+        <v>5019</v>
       </c>
       <c r="H894" s="7" t="s">
-        <v>5032</v>
+        <v>5020</v>
       </c>
       <c r="I894" s="7" t="s">
-        <v>5033</v>
+        <v>5021</v>
       </c>
       <c r="J894" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K894" s="8" t="s">
-        <v>5034</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="895" spans="1:11" ht="45">
@@ -57318,31 +57315,31 @@
         <v>12</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D895" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E895" s="7" t="s">
-        <v>5035</v>
+        <v>5023</v>
       </c>
       <c r="F895" s="7" t="s">
-        <v>5036</v>
+        <v>5024</v>
       </c>
       <c r="G895" s="7" t="s">
-        <v>5037</v>
+        <v>5025</v>
       </c>
       <c r="H895" s="7" t="s">
-        <v>5038</v>
+        <v>5026</v>
       </c>
       <c r="I895" s="7" t="s">
-        <v>5039</v>
+        <v>5027</v>
       </c>
       <c r="J895" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K895" s="8" t="s">
-        <v>5040</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="896" spans="1:11" ht="45">
@@ -57353,31 +57350,31 @@
         <v>12</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D896" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E896" s="7" t="s">
-        <v>5041</v>
+        <v>5029</v>
       </c>
       <c r="F896" s="7" t="s">
-        <v>5042</v>
+        <v>5030</v>
       </c>
       <c r="G896" s="7" t="s">
-        <v>5043</v>
+        <v>5031</v>
       </c>
       <c r="H896" s="7" t="s">
-        <v>5044</v>
+        <v>5032</v>
       </c>
       <c r="I896" s="7" t="s">
-        <v>5045</v>
+        <v>5033</v>
       </c>
       <c r="J896" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K896" s="8" t="s">
-        <v>5046</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="897" spans="1:11" ht="30">
@@ -57388,31 +57385,31 @@
         <v>12</v>
       </c>
       <c r="C897" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D897" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E897" s="7" t="s">
-        <v>5047</v>
+        <v>5035</v>
       </c>
       <c r="F897" s="7" t="s">
-        <v>5048</v>
+        <v>5036</v>
       </c>
       <c r="G897" s="7" t="s">
-        <v>5049</v>
+        <v>5037</v>
       </c>
       <c r="H897" s="7" t="s">
-        <v>5050</v>
+        <v>5038</v>
       </c>
       <c r="I897" s="7" t="s">
-        <v>5051</v>
+        <v>5039</v>
       </c>
       <c r="J897" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K897" s="8" t="s">
-        <v>5052</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="898" spans="1:11" ht="30">
@@ -57423,31 +57420,31 @@
         <v>12</v>
       </c>
       <c r="C898" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D898" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E898" s="7" t="s">
-        <v>5053</v>
+        <v>5041</v>
       </c>
       <c r="F898" s="7" t="s">
-        <v>5054</v>
+        <v>5042</v>
       </c>
       <c r="G898" s="7" t="s">
-        <v>5055</v>
+        <v>5043</v>
       </c>
       <c r="H898" s="7" t="s">
-        <v>5056</v>
+        <v>5044</v>
       </c>
       <c r="I898" s="7" t="s">
-        <v>5057</v>
+        <v>5045</v>
       </c>
       <c r="J898" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K898" s="8" t="s">
-        <v>5058</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="899" spans="1:11" ht="30">
@@ -57458,31 +57455,31 @@
         <v>12</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D899" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E899" s="7" t="s">
-        <v>5059</v>
+        <v>5047</v>
       </c>
       <c r="F899" s="7" t="s">
-        <v>5060</v>
+        <v>5048</v>
       </c>
       <c r="G899" s="7" t="s">
-        <v>5061</v>
+        <v>5049</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>5062</v>
+        <v>5050</v>
       </c>
       <c r="I899" s="7" t="s">
-        <v>5063</v>
+        <v>5051</v>
       </c>
       <c r="J899" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K899" s="8" t="s">
-        <v>5064</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="900" spans="1:11" ht="30">
@@ -57493,31 +57490,31 @@
         <v>12</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D900" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E900" s="7" t="s">
-        <v>5065</v>
+        <v>5053</v>
       </c>
       <c r="F900" s="7" t="s">
-        <v>5024</v>
+        <v>5012</v>
       </c>
       <c r="G900" s="7" t="s">
-        <v>5026</v>
+        <v>5014</v>
       </c>
       <c r="H900" s="7" t="s">
-        <v>5027</v>
+        <v>5015</v>
       </c>
       <c r="I900" s="7" t="s">
-        <v>5066</v>
+        <v>5054</v>
       </c>
       <c r="J900" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K900" s="8" t="s">
-        <v>5067</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="901" spans="1:11" ht="30">
@@ -57528,31 +57525,31 @@
         <v>12</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D901" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E901" s="7" t="s">
-        <v>5068</v>
+        <v>5056</v>
       </c>
       <c r="F901" s="7" t="s">
-        <v>5069</v>
+        <v>5057</v>
       </c>
       <c r="G901" s="7" t="s">
-        <v>5070</v>
+        <v>5058</v>
       </c>
       <c r="H901" s="7" t="s">
-        <v>5071</v>
+        <v>5059</v>
       </c>
       <c r="I901" s="7" t="s">
-        <v>5072</v>
+        <v>5060</v>
       </c>
       <c r="J901" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K901" s="8" t="s">
-        <v>5073</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="902" spans="1:11" ht="30">
@@ -57563,31 +57560,31 @@
         <v>12</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D902" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E902" s="7" t="s">
-        <v>5074</v>
+        <v>5062</v>
       </c>
       <c r="F902" s="7" t="s">
-        <v>5075</v>
+        <v>5063</v>
       </c>
       <c r="G902" s="7" t="s">
-        <v>5076</v>
+        <v>5064</v>
       </c>
       <c r="H902" s="7" t="s">
-        <v>5077</v>
+        <v>5065</v>
       </c>
       <c r="I902" s="7" t="s">
-        <v>5078</v>
+        <v>5066</v>
       </c>
       <c r="J902" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K902" s="8" t="s">
-        <v>5079</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="903" spans="1:11" ht="30">
@@ -57598,31 +57595,31 @@
         <v>12</v>
       </c>
       <c r="C903" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D903" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E903" s="7" t="s">
-        <v>5080</v>
+        <v>5068</v>
       </c>
       <c r="F903" s="7" t="s">
-        <v>5081</v>
+        <v>5069</v>
       </c>
       <c r="G903" s="7" t="s">
-        <v>5082</v>
+        <v>5070</v>
       </c>
       <c r="H903" s="7" t="s">
-        <v>5083</v>
+        <v>5071</v>
       </c>
       <c r="I903" s="7" t="s">
-        <v>5084</v>
+        <v>5072</v>
       </c>
       <c r="J903" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K903" s="8" t="s">
-        <v>5085</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="904" spans="1:11" ht="30">
@@ -57633,31 +57630,31 @@
         <v>12</v>
       </c>
       <c r="C904" s="7" t="s">
-        <v>4975</v>
+        <v>5090</v>
       </c>
       <c r="D904" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E904" s="7" t="s">
-        <v>5086</v>
+        <v>5074</v>
       </c>
       <c r="F904" s="7" t="s">
-        <v>5087</v>
+        <v>5075</v>
       </c>
       <c r="G904" s="7" t="s">
-        <v>5088</v>
+        <v>5076</v>
       </c>
       <c r="H904" s="7" t="s">
-        <v>5089</v>
+        <v>5077</v>
       </c>
       <c r="I904" s="7" t="s">
-        <v>5090</v>
+        <v>5078</v>
       </c>
       <c r="J904" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K904" s="8" t="s">
-        <v>5091</v>
+        <v>5079</v>
       </c>
     </row>
   </sheetData>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D25707-D8CA-4473-8649-3B6BE6EA255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05868453-EE39-44D0-9160-DFDC7B4545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9036" uniqueCount="5091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9236" uniqueCount="5212">
   <si>
     <t>ID</t>
   </si>
@@ -25493,6 +25493,1163 @@
   </si>
   <si>
     <t>2.04 - PREVENÇÃO DE HOMICÍDIOS</t>
+  </si>
+  <si>
+    <t>Considerando a distribuição de competências prevista no Art. 3º e no Art. 21 da Resolução nº 5.380/2024, assinale a alternativa que define corretamente a responsabilidade pela gestão de acesso e sigilo dos dados do GeoPM.</t>
+  </si>
+  <si>
+    <t>A Diretoria de Tecnologia e Sistemas (DTS) é a responsável pelo sigilo e controle dos dados, cabendo à Diretoria de Operações (DOP) apenas a gestão operacional dos recursos em campo.</t>
+  </si>
+  <si>
+    <t>A gestão de acesso e o sigilo dos dados são de responsabilidade exclusiva do Centro de Gerenciamento e Análise de Dados (CGA/DOP), sem ingerência da Diretoria de Operações.</t>
+  </si>
+  <si>
+    <t>A Diretoria de Operações (DOP) é a Unidade responsável pela coordenação, controle, gestão de acesso, utilização, sigilo e controle dos dados e informações provenientes do GeoPM.</t>
+  </si>
+  <si>
+    <t>A gestão de acesso é descentralizada, cabendo a cada Comandante de Região (RPM) definir os níveis de sigilo e acesso de suas respectivas Unidades subordinadas.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 3º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "A Diretoria de Operações – DOP – é a Unidade de Direção Intermediária responsável pela coordenação, controle, gestão de acesso, utilização, sigilo e controle dos dados e informações provenientes do GeoPM." O Art. 21 reforça que a DTS cuida da parte técnica (telecomunicações/TI), mas o sigilo e controle dos dados do AVL/GPS permanecem com a DOP.</t>
+    </r>
+  </si>
+  <si>
+    <t>O Art. 6º classifica os perfis de acesso ao GeoPM GPS. Sobre o perfil "Consulta viaturas da Polícia Militar – COVPPM", a norma estabelece que:</t>
+  </si>
+  <si>
+    <t>É um perfil universal concedido a todos os oficiais da ativa, permitindo a visualização irrestrita de qualquer viatura do estado.</t>
+  </si>
+  <si>
+    <t>É destinado à consulta de todos os recursos da PMMG cadastrados, sendo restrito aos oficiais na função de coordenação e controle que necessitam de acesso amplo, como Comandantes de Unidade e Chefes do EM de UDI.</t>
+  </si>
+  <si>
+    <t>É um perfil técnico destinado aos analistas do CGA/DOP para a gestão de usuários e manutenção do sistema, não permitindo visualização de histórico.</t>
+  </si>
+  <si>
+    <t>É o perfil padrão para Comandantes de Pelotão e Coordenadores de Policiamento da Unidade (CPU), limitando a visualização aos recursos da própria unidade.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 6º, inciso II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Consulta viaturas da Polícia Militar – COVPPM: Perfil destinado à consulta de todos os recursos da PMMG [...] restrito aos oficiais na função de coordenação e controle que necessitam de acesso amplo, tais como militares na função de Comandante de Unidade/Centro, Chefe do EM de UDI..."</t>
+    </r>
+  </si>
+  <si>
+    <t>O § 2º do Art. 6º trata da sensibilidade das operações de inteligência. De acordo com o texto normativo, como são exibidas no sistema as viaturas das agências de inteligência equipadas com GPS?</t>
+  </si>
+  <si>
+    <t>Elas não aparecem no sistema GeoPM sob nenhuma hipótese, para garantir a segurança dos agentes.</t>
+  </si>
+  <si>
+    <t>Serão exibidas normalmente para os perfis de coordenação (COVU e COVPPM), porém com o prefixo da viatura oculto.</t>
+  </si>
+  <si>
+    <t>Serão exibidas apenas para usuários com perfil de Administrador e autorizados pelos respectivos Chefes, Diretores e Corregedor.</t>
+  </si>
+  <si>
+    <t>Serão exibidas para todos os oficiais do Estado-Maior, independentemente de autorização específica, devido à hierarquia.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 6º, § 2º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "As viaturas das agências de inteligência [...] serão exibidas apenas para usuários com perfil de Administrador e autorizados pelos respectivos Chefes, Diretores e Corregedor."</t>
+    </r>
+  </si>
+  <si>
+    <t>A Unidade com responsabilidade territorial possui obrigações específicas quanto à manutenção do módulo GeoPM MUB. Segundo o Art. 9º, inciso I, qual é o procedimento correto para atualização de "feições não editáveis"?</t>
+  </si>
+  <si>
+    <t>A Unidade deve editar diretamente as feições no sistema, utilizando o perfil de Administrador Local.</t>
+  </si>
+  <si>
+    <t>A Unidade deve solicitar a atualização por meio de mensagem ao CGA/DOp, através da caixa administrativa GeoPM/CGA.</t>
+  </si>
+  <si>
+    <t>A Unidade deve aguardar a atualização anual automática realizada pela Diretoria de Tecnologia e Sistemas (DTS).</t>
+  </si>
+  <si>
+    <t>A Unidade deve oficiar a Prefeitura Municipal para que esta realize a atualização na base cartográfica do estado.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 9º, inciso I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "solicitar a atualização da área urbana e rural de sua competência, em relação às feições não editáveis, por meio de mensagem ao CGA/DOp, por meio da caixa administrativa GeoPM/CGA".</t>
+    </r>
+  </si>
+  <si>
+    <t>Os Artigos 11 e 12 diferenciam os módulos "GeoPM Gestor" e "GeoPM Gestor GPS". Sobre as permissões de acesso a esses módulos, é correto afirmar:</t>
+  </si>
+  <si>
+    <t>O acesso ao sistema GeoPM Gestor é exclusivo aos servidores do CGA/DOp, não se estendendo a outras frações.</t>
+  </si>
+  <si>
+    <t>O acesso ao sistema GeoPM Gestor é liberado para as Seções de Inteligência (P2) para análise criminal.</t>
+  </si>
+  <si>
+    <t>O acesso ao sistema GeoPM Gestor GPS é vedado aos militares das Seções de Tecnologia (STIC) das UEOp.</t>
+  </si>
+  <si>
+    <t>Ambos os módulos possuem acesso livre para qualquer oficial superior da PMMG.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 11, Parágrafo único</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "O acesso ao sistema GeoPM Gestor é exclusivo aos servidores do CGA/DOp." Já o Gestor GPS (Art. 12) permite acesso a militares da STIC para manutenção.</t>
+    </r>
+  </si>
+  <si>
+    <t>O fornecimento de relatórios de deslocamento de viaturas para fins de processos (Art. 14) é restritivo. Assinale a alternativa que apresenta uma condição válida para o fornecimento desses dados.</t>
+  </si>
+  <si>
+    <t>Solicitação verbal do Encarregado de Inquérito Policial Militar (IPM) ao chefe do CGA.</t>
+  </si>
+  <si>
+    <t>Requerimento de encarregados em processos e procedimentos administrativos ou investigativos devidamente designados por meio de portaria ou despacho.</t>
+  </si>
+  <si>
+    <t>Solicitação de advogado de defesa, desde que munido de procuração.</t>
+  </si>
+  <si>
+    <t>Pedido de qualquer cidadão envolvido em ocorrência policial, via Lei de Acesso à Informação, diretamente na Unidade.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 14, inciso III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "requerimento de encarregados em processos e procedimentos administrativos ou investigativos devidamente designados por meio de portaria ou despacho". As demais opções não constam no rol taxativo ("somente em atendimento a").</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Art. 16 elenca situações que impedem a concessão ou geram a revogação do acesso ao GeoPM. Qual das situações abaixo está </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expressamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prevista no inciso V deste artigo como causa de revogação?</t>
+    </r>
+  </si>
+  <si>
+    <t>Licença para tratamento de saúde por motivo de fratura ou lesão física em serviço.</t>
+  </si>
+  <si>
+    <t>Licença à gestante ou licença paternidade.</t>
+  </si>
+  <si>
+    <t>Licenciado por transtorno mental incapacitante para o serviço, em decorrência de inspeção de saúde.</t>
+  </si>
+  <si>
+    <t>Férias regulamentares acumuladas por mais de dois períodos.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 16, inciso V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "licenciado por transtorno mental incapacitante para o serviço, em decorrência de inspeção de saúde". As outras opções (saúde física, gestante, férias) não são listadas como causas de revogação neste artigo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Quando um militar se enquadra em uma situação de impedimento (ex: prisão, licença interesse particular), qual é o prazo e a responsabilidade da Unidade para providenciar a revogação do acesso, conforme o Art. 16, Parágrafo único?</t>
+  </si>
+  <si>
+    <t>A revogação é automática e imediata pelo sistema de RH, sem necessidade de intervenção da Unidade.</t>
+  </si>
+  <si>
+    <t>A Unidade deve solicitar a revogação no prazo de 48 horas úteis.</t>
+  </si>
+  <si>
+    <t>A Unidade deve solicitar a revogação no prazo de 10 dias a contar da data em que se inserir na situação ou do início do impedimento.</t>
+  </si>
+  <si>
+    <t>A Unidade tem até 30 dias para comunicar a alteração ao CGA/DOP.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 16, Parágrafo único</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "A Unidade em que o usuário estiver cadastrado será responsável por solicitar a revogação do acesso ao Geo PM no prazo de 10 dias a contar da data em que se inserir em alguma das situações...".</t>
+    </r>
+  </si>
+  <si>
+    <t>O Art. 18 disciplina a revogação de acesso por inatividade. Qual é o período de tempo sem acesso que enseja a revogação e qual o procedimento para retorno?</t>
+  </si>
+  <si>
+    <t>Superior a 60 dias; retorno automático no próximo login.</t>
+  </si>
+  <si>
+    <t>Superior a 90 dias; o próprio usuário poderá solicitar a reativação ao CGA/DOP, via Portal de Serviços da IntranetPM.</t>
+  </si>
+  <si>
+    <t>Superior a 30 dias; o Comandante da Unidade deve oficiar a reativação.</t>
+  </si>
+  <si>
+    <t>Superior a 120 dias; é necessário realizar novo curso de capacitação.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: "período superior a 90 (noventa dias) dias poderão ter o acesso revogado por inatividade." E o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parágrafo único</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "...o próprio usuário poderá solicitar a reativação do acesso através de solicitação ao CGA/DOP, via Portal de Serviços da IntranetPM."</t>
+    </r>
+  </si>
+  <si>
+    <t>O Art. 4º estabelece a propriedade e o caráter das informações no GeoPM. Segundo este dispositivo, é correto afirmar que:</t>
+  </si>
+  <si>
+    <t>Os dados pertencem ao militar que os inseriu no sistema, sendo vedado o uso por terceiros sem autorização.</t>
+  </si>
+  <si>
+    <t>Os dados e informações existentes no GeoPM são de propriedade da Polícia Militar de Minas Gerais, independentemente da fonte de onde foram obtidos.</t>
+  </si>
+  <si>
+    <t>As informações do GeoPM são públicas e de livre acesso, salvo aquelas classificadas como ultrassecretas.</t>
+  </si>
+  <si>
+    <t>A propriedade dos dados cartográficos é do Instituto Brasileiro de Geografia e Estatística (IBGE), sendo a PMMG apenas usuária.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 4º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Os dados e informações existentes no GeoPM, independentemente da fonte de onde foram obtidos e de quem os produziu, são de propriedade da Polícia Militar de Minas Gerais."</t>
+    </r>
+  </si>
+  <si>
+    <t>3.13 - GEOPM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Art. 2º da Resolução define os componentes do sistema. Assinale a alternativa que apresenta a definição </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de GeoPM MUB (Inciso III), diferenciando-a corretamente do GeoPM GPS.</t>
+    </r>
+  </si>
+  <si>
+    <t>É o sistema de geolocalização de ativos institucionais da PMMG destinado à coordenação e controle dos recursos que possuem dispositivos GPS.</t>
+  </si>
+  <si>
+    <t>Refere-se ao mapeamento urbano e rural básico, contendo a base cartográfica do estado de Minas Gerais com os respectivos cadastros de bairros, logradouros e endereços organizados de acordo com a articulação operacional.</t>
+  </si>
+  <si>
+    <t>É um módulo específico cuja finalidade é a gestão da responsabilidade territorial das unidades com fins de alimentação da base cartográfica refletindo a integração com o REDS.</t>
+  </si>
+  <si>
+    <t>É o sistema que fornece coordenadas geográficas de um objeto na superfície terrestre, independentemente da fonte de onde foram obtidos.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 2º, Inciso III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "GeoPM MUB: o Módulo do Sistema de Informações Geográficas refere-se ao mapeamento urbano e rural básico, contendo a base cartográfica do estado de Minas Gerais com os respectivos cadastros de bairros, logradouros e endereços...". A opção A define o GeoPM GPS (Inciso IV). A opção C mistura conceitos do GeoPM Gestor (Art. 11).</t>
+    </r>
+  </si>
+  <si>
+    <t>O perfil "Administrador – ADM" (Art. 6º, III) concede poderes amplos de gestão e visualização. Além dos militares do CGA/DOP, a norma cita expressamente que este perfil é restrito a militares indicados por quais órgãos/seções?</t>
+  </si>
+  <si>
+    <t>Apenas pela Diretoria de Inteligência (DInt) e Corregedoria (CPM), vedado o acesso a seções do Estado-Maior.</t>
+  </si>
+  <si>
+    <t>Segunda Seção do Estado-Maior (PM2), Terceira Seção do Estado-Maior (PM3), Diretoria de Inteligência (DInt) e Corregedoria da Polícia Militar (CPM).</t>
+  </si>
+  <si>
+    <t>Comandantes Regionais (RPM), Chefes de Estado-Maior de UDI e Chefes de Seções de Inteligência de Unidade (P/2).</t>
+  </si>
+  <si>
+    <t>Diretoria de Tecnologia e Sistemas (DTS) e Centro de Tecnologia e Telecomunicações (CTT), para fins de manutenção.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 6º, Inciso III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Perfil restrito aos militares do CGA/DOP [...] e militares indicados pela Segunda Seção do Estado-Maior – PM2, Terceira-Seção do Estado-Maior – PM3, Diretoria de Inteligência – DInt – e Corregedoria da Polícia Militar – CPM...".</t>
+    </r>
+  </si>
+  <si>
+    <t>O Art. 8º, Parágrafo único, detalha a finalidade do módulo GeoPM MUB no contexto da segurança pública. Segundo este dispositivo, o módulo é utilizado para os recursos informacionais do Sistema Integrado de Segurança Pública (SISP) para identificação do posicionamento georreferenciado de:</t>
+  </si>
+  <si>
+    <t>Apenas dos recursos institucionais geolocalizados (viaturas), excluindo-se a análise criminal.</t>
+  </si>
+  <si>
+    <t>Exclusivamente dos fatos registrados pela PMMG (REDS), servindo como base estatística.</t>
+  </si>
+  <si>
+    <t>Seja dos fatos registrados pela PMMG, seja dos recursos institucionais geolocalizados, dentre eles os dispositivos GPS/AVL, seja da divisão territorial de atuação.</t>
+  </si>
+  <si>
+    <t>Somente da base de endereços urbanos para fins de despacho de viaturas pelo CAD, sem relação com a divisão territorial.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 8º, Parágrafo único</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "...seja dos fatos registrados pela PMMG, seja dos recursos institucionais geolocalizados [...] seja da divisão territorial de atuação nos diversos níveis...". A norma integra fatos, recursos e território.</t>
+    </r>
+  </si>
+  <si>
+    <t>Uma Unidade Operacional necessita alterar os limites de seus setores e subsetores no mapa. Conforme o Art. 10, qual é o fluxo obrigatório de validação antes que essas alterações sejam encaminhadas ao CGA?</t>
+  </si>
+  <si>
+    <t>As alterações devem ser validadas previamente pela Região de Polícia Militar (RPM) a qual a Unidade requisitante estiver vinculada.</t>
+  </si>
+  <si>
+    <t>As alterações podem ser feitas diretamente pela Unidade no GeoPM Gestor, sendo auditadas posteriormente pelo CGA.</t>
+  </si>
+  <si>
+    <t>As alterações devem ser aprovadas pelo Conselho Comunitário de Segurança Pública (CONSEP) e homologadas pelo Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>As alterações devem ser enviadas diretamente à Diretoria de Operações (DOP), sem passar pela Região, para agilizar a atualização do CAD.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "As alterações de limites de setores e subsetores devem ser previamente validadas pela Região de Polícia Militar, a qual a Unidade requisitante estiver vinculada, antes de serem encaminhadas ao CGA."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Resolução faz uma distinção clara entre a extração técnica de dados (Art. 13) e a extração de relatórios para processos (Art. 14). Para a extração de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bases cartográficas e shapes com a articulação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, qual é o procedimento exigido?</t>
+    </r>
+  </si>
+  <si>
+    <t>Deve haver ordem judicial ou requisição ministerial, devido ao sigilo da malha viária.</t>
+  </si>
+  <si>
+    <t>Dá-se-á mediante solicitação formal ao CGA/DOP, via Painel Administrativo ou Portal de Serviços da IntranetPM.</t>
+  </si>
+  <si>
+    <t>É livre para download direto por qualquer usuário com perfil COVU, através da ferramenta de exportação.</t>
+  </si>
+  <si>
+    <t>Depende de autorização expressa do Chefe do Estado-Maior da PMMG, via ofício impresso.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "A extração de bases cartográficas, shapes com a articulação [...] dar-se-á mediante a solicitação formal ao CGA/DOP, via Painel Administrativo ou Portal de Serviços da IntranetPM." Diferente do Art. 14, que exige ordem judicial/investigação para relatórios de viaturas em processos.</t>
+    </r>
+  </si>
+  <si>
+    <t>O Art. 16, Inciso IV, estabelece uma causa específica de impedimento de acesso ao sistema ligada à atividade política do militar. O acesso será revogado quando o militar for:</t>
+  </si>
+  <si>
+    <t>Filiado a partido político, ainda que na ativa.</t>
+  </si>
+  <si>
+    <t>Licenciado para acompanhar cônjuge em mandato eletivo.</t>
+  </si>
+  <si>
+    <t>Agregado por motivo de candidatura a cargo eletivo.</t>
+  </si>
+  <si>
+    <t>Transferido para a reserva remunerada para assumir cargo de confiança no governo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 16, Inciso IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "agregado por motivo de candidatura a cargo eletivo". As demais opções não constam no rol taxativo do artigo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Art. 17 define as consequências do uso indevido e seu parágrafo único lista o que caracteriza tal uso pela divulgação de dados. Dentre os incisos abaixo, qual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está literalmente listado no parágrafo único do Art. 17 como "uso indevido"?</t>
+    </r>
+  </si>
+  <si>
+    <t>Divulgação de dados que tenham finalidade particular ou comercial.</t>
+  </si>
+  <si>
+    <t>Divulgação de dados que ocasionam prejuízos à PMMG ou a terceiros.</t>
+  </si>
+  <si>
+    <t>Divulgação de dados que atentem contra a ética.</t>
+  </si>
+  <si>
+    <t>Divulgação de dados contendo erros de grafia ou imprecisões cartográficas não intencionais.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 17, Parágrafo único</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, lista: ética (I), segurança (II), sigilo (III), hierarquia (IV), honra/decoro (V), finalidade particular/comercial (VI), diversa do interesse institucional (VII), prejuízos (VIII). "Erros de grafia" não é tipificado como uso indevido na norma.</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante a operação do sistema GeoPM, surge uma situação técnica ou administrativa não prevista na Resolução nº 5.380/2024. Segundo o Art. 19, quem possui a competência para dirimir os casos omissos?</t>
+  </si>
+  <si>
+    <t>O Chefe do Centro de Gerenciamento e Análise de Dados (CGA).</t>
+  </si>
+  <si>
+    <t>O Comandante-Geral da PMMG.</t>
+  </si>
+  <si>
+    <t>O Diretor de Tecnologia e Sistemas (DTS).</t>
+  </si>
+  <si>
+    <t>O Diretor de Operações.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Os casos omissos serão dirimidos pelo Diretor de Operações."</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre a segurança da informação e as credenciais de acesso (login/senha), o Art. 15 estabelece um dever específico para o usuário em caso de suspeita de violação. Qual é esse dever?</t>
+  </si>
+  <si>
+    <t>Comunicar imediatamente ao seu Comandante, que abrirá sindicância.</t>
+  </si>
+  <si>
+    <t>Providenciar sua substituição (da credencial).</t>
+  </si>
+  <si>
+    <t>Solicitar o bloqueio do perfil via mensagem administrativa ao CGA.</t>
+  </si>
+  <si>
+    <t>Aguardar o contato da equipe de TI para redefinição segura.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: "As credenciais de acesso [...] são pessoais e intransferíveis, sendo dever do usuário mantê-las em sigilo e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>providenciar sua substituição</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> em caso de suspeita de violação."</t>
+    </r>
+  </si>
+  <si>
+    <t>Dentre as obrigações da Unidade com responsabilidade territorial (Art. 9º), existe uma ação específica voltada à qualificação dos dados nos Registros de Eventos de Defesa Social (REDS). Trata-se da obrigação de:</t>
+  </si>
+  <si>
+    <t>Realizar a atualização de coordenadas e unidades de área nos REDS que não estão georreferenciados.</t>
+  </si>
+  <si>
+    <t>Excluir os REDS que possuam inconsistência de endereço.</t>
+  </si>
+  <si>
+    <t>Encaminhar os REDS sem coordenada para o CGA/DOP realizar o georreferenciamento manual.</t>
+  </si>
+  <si>
+    <t>Validar as coordenadas inseridas automaticamente pelo GPS da viatura no momento do empenho.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 9º, Inciso IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "realizar a atualização de coordenadas e unidades de área nos Registros de Eventos de Defesa Social (REDS) que não estão georreferenciados."</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -25953,10 +27110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M904"/>
+  <dimension ref="A1:M924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
-      <selection activeCell="C906" sqref="C906"/>
+    <sheetView tabSelected="1" topLeftCell="A899" workbookViewId="0">
+      <selection activeCell="C929" sqref="C929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -57657,6 +58814,666 @@
         <v>5079</v>
       </c>
     </row>
+    <row r="905" spans="1:11" ht="45">
+      <c r="A905" s="7"/>
+      <c r="B905" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C905" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D905" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E905" s="7" t="s">
+        <v>5091</v>
+      </c>
+      <c r="F905" s="7" t="s">
+        <v>5092</v>
+      </c>
+      <c r="G905" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="H905" s="7" t="s">
+        <v>5094</v>
+      </c>
+      <c r="I905" s="7" t="s">
+        <v>5095</v>
+      </c>
+      <c r="J905" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K905" s="8" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="906" spans="1:11" ht="45">
+      <c r="A906" s="7"/>
+      <c r="B906" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C906" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D906" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E906" s="7" t="s">
+        <v>5097</v>
+      </c>
+      <c r="F906" s="7" t="s">
+        <v>5098</v>
+      </c>
+      <c r="G906" s="7" t="s">
+        <v>5099</v>
+      </c>
+      <c r="H906" s="7" t="s">
+        <v>5100</v>
+      </c>
+      <c r="I906" s="7" t="s">
+        <v>5101</v>
+      </c>
+      <c r="J906" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K906" s="8" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="907" spans="1:11" ht="30">
+      <c r="A907" s="7"/>
+      <c r="B907" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C907" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D907" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E907" s="7" t="s">
+        <v>5103</v>
+      </c>
+      <c r="F907" s="7" t="s">
+        <v>5104</v>
+      </c>
+      <c r="G907" s="7" t="s">
+        <v>5105</v>
+      </c>
+      <c r="H907" s="7" t="s">
+        <v>5106</v>
+      </c>
+      <c r="I907" s="7" t="s">
+        <v>5107</v>
+      </c>
+      <c r="J907" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K907" s="8" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="908" spans="1:11" ht="30">
+      <c r="A908" s="7"/>
+      <c r="B908" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C908" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D908" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E908" s="7" t="s">
+        <v>5109</v>
+      </c>
+      <c r="F908" s="7" t="s">
+        <v>5110</v>
+      </c>
+      <c r="G908" s="7" t="s">
+        <v>5111</v>
+      </c>
+      <c r="H908" s="7" t="s">
+        <v>5112</v>
+      </c>
+      <c r="I908" s="7" t="s">
+        <v>5113</v>
+      </c>
+      <c r="J908" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K908" s="8" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="909" spans="1:11" ht="30">
+      <c r="A909" s="7"/>
+      <c r="B909" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C909" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D909" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E909" s="7" t="s">
+        <v>5115</v>
+      </c>
+      <c r="F909" s="7" t="s">
+        <v>5116</v>
+      </c>
+      <c r="G909" s="7" t="s">
+        <v>5117</v>
+      </c>
+      <c r="H909" s="7" t="s">
+        <v>5118</v>
+      </c>
+      <c r="I909" s="7" t="s">
+        <v>5119</v>
+      </c>
+      <c r="J909" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K909" s="8" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="910" spans="1:11" ht="30">
+      <c r="A910" s="7"/>
+      <c r="B910" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C910" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D910" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E910" s="7" t="s">
+        <v>5121</v>
+      </c>
+      <c r="F910" s="7" t="s">
+        <v>5122</v>
+      </c>
+      <c r="G910" s="7" t="s">
+        <v>5123</v>
+      </c>
+      <c r="H910" s="7" t="s">
+        <v>5124</v>
+      </c>
+      <c r="I910" s="7" t="s">
+        <v>5125</v>
+      </c>
+      <c r="J910" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K910" s="8" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="911" spans="1:11" ht="30">
+      <c r="A911" s="7"/>
+      <c r="B911" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C911" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D911" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E911" s="7" t="s">
+        <v>5127</v>
+      </c>
+      <c r="F911" s="7" t="s">
+        <v>5128</v>
+      </c>
+      <c r="G911" s="7" t="s">
+        <v>5129</v>
+      </c>
+      <c r="H911" s="7" t="s">
+        <v>5130</v>
+      </c>
+      <c r="I911" s="7" t="s">
+        <v>5131</v>
+      </c>
+      <c r="J911" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K911" s="8" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="912" spans="1:11" ht="30">
+      <c r="A912" s="7"/>
+      <c r="B912" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C912" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D912" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E912" s="7" t="s">
+        <v>5133</v>
+      </c>
+      <c r="F912" s="7" t="s">
+        <v>5134</v>
+      </c>
+      <c r="G912" s="7" t="s">
+        <v>5135</v>
+      </c>
+      <c r="H912" s="7" t="s">
+        <v>5136</v>
+      </c>
+      <c r="I912" s="7" t="s">
+        <v>5137</v>
+      </c>
+      <c r="J912" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K912" s="8" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="913" spans="1:11" ht="30">
+      <c r="A913" s="7"/>
+      <c r="B913" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C913" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D913" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E913" s="7" t="s">
+        <v>5139</v>
+      </c>
+      <c r="F913" s="7" t="s">
+        <v>5140</v>
+      </c>
+      <c r="G913" s="7" t="s">
+        <v>5141</v>
+      </c>
+      <c r="H913" s="7" t="s">
+        <v>5142</v>
+      </c>
+      <c r="I913" s="7" t="s">
+        <v>5143</v>
+      </c>
+      <c r="J913" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K913" s="8" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="914" spans="1:11" ht="30">
+      <c r="A914" s="7"/>
+      <c r="B914" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C914" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D914" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E914" s="7" t="s">
+        <v>5145</v>
+      </c>
+      <c r="F914" s="7" t="s">
+        <v>5146</v>
+      </c>
+      <c r="G914" s="7" t="s">
+        <v>5147</v>
+      </c>
+      <c r="H914" s="7" t="s">
+        <v>5148</v>
+      </c>
+      <c r="I914" s="7" t="s">
+        <v>5149</v>
+      </c>
+      <c r="J914" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K914" s="8" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="915" spans="1:11" ht="45">
+      <c r="A915" s="7"/>
+      <c r="B915" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C915" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D915" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E915" s="7" t="s">
+        <v>5152</v>
+      </c>
+      <c r="F915" s="7" t="s">
+        <v>5153</v>
+      </c>
+      <c r="G915" s="7" t="s">
+        <v>5154</v>
+      </c>
+      <c r="H915" s="7" t="s">
+        <v>5155</v>
+      </c>
+      <c r="I915" s="7" t="s">
+        <v>5156</v>
+      </c>
+      <c r="J915" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K915" s="8" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="916" spans="1:11" ht="30">
+      <c r="A916" s="7"/>
+      <c r="B916" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C916" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D916" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E916" s="7" t="s">
+        <v>5158</v>
+      </c>
+      <c r="F916" s="7" t="s">
+        <v>5159</v>
+      </c>
+      <c r="G916" s="7" t="s">
+        <v>5160</v>
+      </c>
+      <c r="H916" s="7" t="s">
+        <v>5161</v>
+      </c>
+      <c r="I916" s="7" t="s">
+        <v>5162</v>
+      </c>
+      <c r="J916" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K916" s="8" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="917" spans="1:11" ht="45">
+      <c r="A917" s="7"/>
+      <c r="B917" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C917" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D917" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E917" s="7" t="s">
+        <v>5164</v>
+      </c>
+      <c r="F917" s="7" t="s">
+        <v>5165</v>
+      </c>
+      <c r="G917" s="7" t="s">
+        <v>5166</v>
+      </c>
+      <c r="H917" s="7" t="s">
+        <v>5167</v>
+      </c>
+      <c r="I917" s="7" t="s">
+        <v>5168</v>
+      </c>
+      <c r="J917" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K917" s="8" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="918" spans="1:11" ht="30">
+      <c r="A918" s="7"/>
+      <c r="B918" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C918" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D918" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E918" s="7" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F918" s="7" t="s">
+        <v>5171</v>
+      </c>
+      <c r="G918" s="7" t="s">
+        <v>5172</v>
+      </c>
+      <c r="H918" s="7" t="s">
+        <v>5173</v>
+      </c>
+      <c r="I918" s="7" t="s">
+        <v>5174</v>
+      </c>
+      <c r="J918" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K918" s="8" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="919" spans="1:11" ht="30">
+      <c r="A919" s="7"/>
+      <c r="B919" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C919" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D919" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E919" s="7" t="s">
+        <v>5176</v>
+      </c>
+      <c r="F919" s="7" t="s">
+        <v>5177</v>
+      </c>
+      <c r="G919" s="7" t="s">
+        <v>5178</v>
+      </c>
+      <c r="H919" s="7" t="s">
+        <v>5179</v>
+      </c>
+      <c r="I919" s="7" t="s">
+        <v>5180</v>
+      </c>
+      <c r="J919" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K919" s="8" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="920" spans="1:11" ht="30">
+      <c r="A920" s="7"/>
+      <c r="B920" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C920" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D920" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E920" s="7" t="s">
+        <v>5182</v>
+      </c>
+      <c r="F920" s="7" t="s">
+        <v>5183</v>
+      </c>
+      <c r="G920" s="7" t="s">
+        <v>5184</v>
+      </c>
+      <c r="H920" s="7" t="s">
+        <v>5185</v>
+      </c>
+      <c r="I920" s="7" t="s">
+        <v>5186</v>
+      </c>
+      <c r="J920" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K920" s="8" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="921" spans="1:11" ht="30">
+      <c r="A921" s="7"/>
+      <c r="B921" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C921" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D921" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E921" s="7" t="s">
+        <v>5188</v>
+      </c>
+      <c r="F921" s="7" t="s">
+        <v>5189</v>
+      </c>
+      <c r="G921" s="7" t="s">
+        <v>5190</v>
+      </c>
+      <c r="H921" s="7" t="s">
+        <v>5191</v>
+      </c>
+      <c r="I921" s="7" t="s">
+        <v>5192</v>
+      </c>
+      <c r="J921" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K921" s="8" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="922" spans="1:11" ht="30">
+      <c r="A922" s="7"/>
+      <c r="B922" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D922" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E922" s="7" t="s">
+        <v>5194</v>
+      </c>
+      <c r="F922" s="7" t="s">
+        <v>5195</v>
+      </c>
+      <c r="G922" s="7" t="s">
+        <v>5196</v>
+      </c>
+      <c r="H922" s="7" t="s">
+        <v>5197</v>
+      </c>
+      <c r="I922" s="7" t="s">
+        <v>5198</v>
+      </c>
+      <c r="J922" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K922" s="8" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="923" spans="1:11" ht="30">
+      <c r="A923" s="7"/>
+      <c r="B923" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C923" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D923" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E923" s="7" t="s">
+        <v>5200</v>
+      </c>
+      <c r="F923" s="7" t="s">
+        <v>5201</v>
+      </c>
+      <c r="G923" s="7" t="s">
+        <v>5202</v>
+      </c>
+      <c r="H923" s="7" t="s">
+        <v>5203</v>
+      </c>
+      <c r="I923" s="7" t="s">
+        <v>5204</v>
+      </c>
+      <c r="J923" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K923" s="8" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="924" spans="1:11" ht="30">
+      <c r="A924" s="7"/>
+      <c r="B924" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C924" s="7" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D924" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E924" s="7" t="s">
+        <v>5206</v>
+      </c>
+      <c r="F924" s="7" t="s">
+        <v>5207</v>
+      </c>
+      <c r="G924" s="7" t="s">
+        <v>5208</v>
+      </c>
+      <c r="H924" s="7" t="s">
+        <v>5209</v>
+      </c>
+      <c r="I924" s="7" t="s">
+        <v>5210</v>
+      </c>
+      <c r="J924" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K924" s="8" t="s">
+        <v>5211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05868453-EE39-44D0-9160-DFDC7B4545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5C4E3-EBD0-4902-8984-D8E1F2B61352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9236" uniqueCount="5212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9286" uniqueCount="5243">
   <si>
     <t>ID</t>
   </si>
@@ -26650,6 +26650,329 @@
       </rPr>
       <t>: "realizar a atualização de coordenadas e unidades de área nos Registros de Eventos de Defesa Social (REDS) que não estão georreferenciados."</t>
     </r>
+  </si>
+  <si>
+    <t>Considerando os "Considerandos" e o Art. 1º da Instrução Conjunta nº 05/2014, por que a conduta do militar que falta ao serviço decorrente de sanção disciplinar não encontra "amoldamento perfeito" na transgressão do art. 13, XX do CEDM (Faltar ao serviço)?</t>
+  </si>
+  <si>
+    <t>Porque a escala de sanção disciplinar não possui natureza de serviço público, sendo apenas uma medida educativa interna.</t>
+  </si>
+  <si>
+    <t>Porque o art. 13, XX exige que o militar tenha agido com dolo específico de abandonar a função, o que não ocorre na sanção.</t>
+  </si>
+  <si>
+    <t>Porque a incidência do art. 13, XX inviabilizaria a aplicação do Art. 25, § 1º do CEDM, que prevê a perda dos vencimentos correspondentes ao dia de ausência.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Porque a sanção disciplinar de prestação de serviço já é uma punição, e punir a falta a ela configuraria </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bis in idem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> automático.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Considerando IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "...verifica-se que a conduta do militar que faltar ao serviço decorrente do cumprimento de sanção disciplinar [...] não encontra amoldamento perfeito no tipo, por inviabilizar o desconto em vencimento correspondente ao dia de ausência". O Art. 13, XX está ligado ao Art. 25, § 1º (perda de salário), o que é impossível em um dia que já seria de folga/sem remuneração extra.</t>
+    </r>
+  </si>
+  <si>
+    <t>Segundo o Art. 1º da Instrução Conjunta nº 05/2014, a conduta do militar que faltar ao serviço cuja escala advenha do cumprimento de sanção disciplinar de prestação de serviço (Art. 24, III do CEDM) ou de decisão judicial, enquadra-se especificamente em qual transgressão?</t>
+  </si>
+  <si>
+    <t>Faltar ao serviço (Art. 13, XX do CEDM).</t>
+  </si>
+  <si>
+    <t>Descumprir ordem legal ou atribuir a outrem, fora dos casos previstos em lei, o desempenho de atividade que lhe competir (Art. 14, III do CEDM).</t>
+  </si>
+  <si>
+    <t>Deixar de assumir, na forma regulamentar, a responsabilidade de seus atos ou dos atos de seus subordinados (Art. 14, IV do CEDM).</t>
+  </si>
+  <si>
+    <t>Simular doença para esquivar-se ao cumprimento de obrigação (Art. 13, XIX do CEDM).</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 1º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "A conduta do militar que faltar ao serviço [...] enquadra-se na transgressão disciplinar capitulada no art. 14, III, do CEDM, in verbis: III – deixar de cumprir ordem legal ou atribuir a outrem...".</t>
+    </r>
+  </si>
+  <si>
+    <t>A Instrução Conjunta nº 05/2014, em seus considerandos (Item V), estabelece uma distinção sobre a natureza da escala de serviço decorrente de sanção. Segundo o texto normativo, tal escala provém de uma ordem superior motivada por:</t>
+  </si>
+  <si>
+    <t>Necessidade premente do serviço operacional e cobertura de claros em grandes eventos.</t>
+  </si>
+  <si>
+    <t>Aspectos legais e, não necessariamente, por necessidade do serviço ou pelo cumprimento de jornada de trabalho.</t>
+  </si>
+  <si>
+    <t>Exclusivamente pelo cumprimento de jornada de trabalho prevista na Lei Orgânica da Polícia Militar.</t>
+  </si>
+  <si>
+    <t>Interesse administrativo do Comandante da Unidade em reforçar o policiamento ostensivo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Considerando V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "...nesta situação, a escala de serviço provém de uma ordem superior motivada por aspectos legais e, não necessariamente, por necessidade do serviço ou pelo cumprimento de jornada de trabalho."</t>
+    </r>
+  </si>
+  <si>
+    <t>A Instrução Conjunta de Corregedorias nº 05/2014 altera o entendimento sobre faltas a serviços específicos. Além da "sanção disciplinar de prestação de serviço" (Art. 24, III do CEDM), qual outra hipótese de falta ao serviço é expressamente abrangida pelo novo enquadramento no Art. 14, III do CEDM?</t>
+  </si>
+  <si>
+    <t>Falta a serviço decorrente de convênio com prefeituras municipais.</t>
+  </si>
+  <si>
+    <t>Falta a serviço decorrente de escala extraordinária para treinamento físico militar.</t>
+  </si>
+  <si>
+    <t>Falta ao serviço decorrente de cumprimento de decisão judicial ou transação penal.</t>
+  </si>
+  <si>
+    <t>Falta ao serviço voluntário remunerado (bico oficial).</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 1º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e o título da norma: "...escala advenha do cumprimento de sanção disciplinar de prestação de serviço [...] ou de decisão judicial...". O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Considerando IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> também cita "transação penal".</t>
+    </r>
+  </si>
+  <si>
+    <t>A Instrução Conjunta nº 01/2014, expedida em 03 de fevereiro de 2014, previa em seu Art. 5º, § 20, que a falta à prestação de serviço seria enquadrada no Art. 13, XX (Faltar ao serviço). Com a publicação da Instrução Conjunta nº 05 em dezembro do mesmo ano, qual é o status desse entendimento anterior?</t>
+  </si>
+  <si>
+    <t>O entendimento anterior permanece válido subsidiariamente para casos de reincidência.</t>
+  </si>
+  <si>
+    <t>A Instrução nº 05 ratificou o entendimento da Instrução nº 01, mantendo o enquadramento no Art. 13, XX.</t>
+  </si>
+  <si>
+    <t>A Instrução nº 05 estabeleceu novo entendimento, revogando tacitamente a orientação contrária ao definir o enquadramento no Art. 14, III do CEDM a partir de sua publicação.</t>
+  </si>
+  <si>
+    <t>Ambas as instruções coexistem, cabendo ao Comandante da Unidade escolher o enquadramento mais adequado ao caso concreto.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A Instrução nº 05 foi editada especificamente para corrigir o entendimento da nº 01 (citada nos considerandos I e II). Ao estabelecer um "novo entendimento" no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 1º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e determinar a vigência na data da publicação (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Art. 2º</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), ela supera a regra anterior de fevereiro de 2014.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.09 - ICCPM 05 - FALTA AO SERVIÇO</t>
   </si>
 </sst>
 </file>
@@ -27110,10 +27433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M924"/>
+  <dimension ref="A1:M929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A899" workbookViewId="0">
-      <selection activeCell="C929" sqref="C929"/>
+    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
+      <selection activeCell="C931" sqref="C931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -58815,7 +59138,9 @@
       </c>
     </row>
     <row r="905" spans="1:11" ht="45">
-      <c r="A905" s="7"/>
+      <c r="A905" s="3">
+        <v>904</v>
+      </c>
       <c r="B905" s="7" t="s">
         <v>929</v>
       </c>
@@ -58848,7 +59173,9 @@
       </c>
     </row>
     <row r="906" spans="1:11" ht="45">
-      <c r="A906" s="7"/>
+      <c r="A906" s="3">
+        <v>905</v>
+      </c>
       <c r="B906" s="7" t="s">
         <v>929</v>
       </c>
@@ -58881,7 +59208,9 @@
       </c>
     </row>
     <row r="907" spans="1:11" ht="30">
-      <c r="A907" s="7"/>
+      <c r="A907" s="3">
+        <v>906</v>
+      </c>
       <c r="B907" s="7" t="s">
         <v>929</v>
       </c>
@@ -58914,7 +59243,9 @@
       </c>
     </row>
     <row r="908" spans="1:11" ht="30">
-      <c r="A908" s="7"/>
+      <c r="A908" s="3">
+        <v>907</v>
+      </c>
       <c r="B908" s="7" t="s">
         <v>929</v>
       </c>
@@ -58947,7 +59278,9 @@
       </c>
     </row>
     <row r="909" spans="1:11" ht="30">
-      <c r="A909" s="7"/>
+      <c r="A909" s="3">
+        <v>908</v>
+      </c>
       <c r="B909" s="7" t="s">
         <v>929</v>
       </c>
@@ -58980,7 +59313,9 @@
       </c>
     </row>
     <row r="910" spans="1:11" ht="30">
-      <c r="A910" s="7"/>
+      <c r="A910" s="3">
+        <v>909</v>
+      </c>
       <c r="B910" s="7" t="s">
         <v>929</v>
       </c>
@@ -59013,7 +59348,9 @@
       </c>
     </row>
     <row r="911" spans="1:11" ht="30">
-      <c r="A911" s="7"/>
+      <c r="A911" s="3">
+        <v>910</v>
+      </c>
       <c r="B911" s="7" t="s">
         <v>929</v>
       </c>
@@ -59046,7 +59383,9 @@
       </c>
     </row>
     <row r="912" spans="1:11" ht="30">
-      <c r="A912" s="7"/>
+      <c r="A912" s="3">
+        <v>911</v>
+      </c>
       <c r="B912" s="7" t="s">
         <v>929</v>
       </c>
@@ -59079,7 +59418,9 @@
       </c>
     </row>
     <row r="913" spans="1:11" ht="30">
-      <c r="A913" s="7"/>
+      <c r="A913" s="3">
+        <v>912</v>
+      </c>
       <c r="B913" s="7" t="s">
         <v>929</v>
       </c>
@@ -59112,7 +59453,9 @@
       </c>
     </row>
     <row r="914" spans="1:11" ht="30">
-      <c r="A914" s="7"/>
+      <c r="A914" s="3">
+        <v>913</v>
+      </c>
       <c r="B914" s="7" t="s">
         <v>929</v>
       </c>
@@ -59145,7 +59488,9 @@
       </c>
     </row>
     <row r="915" spans="1:11" ht="45">
-      <c r="A915" s="7"/>
+      <c r="A915" s="3">
+        <v>914</v>
+      </c>
       <c r="B915" s="7" t="s">
         <v>929</v>
       </c>
@@ -59178,7 +59523,9 @@
       </c>
     </row>
     <row r="916" spans="1:11" ht="30">
-      <c r="A916" s="7"/>
+      <c r="A916" s="3">
+        <v>915</v>
+      </c>
       <c r="B916" s="7" t="s">
         <v>929</v>
       </c>
@@ -59211,7 +59558,9 @@
       </c>
     </row>
     <row r="917" spans="1:11" ht="45">
-      <c r="A917" s="7"/>
+      <c r="A917" s="3">
+        <v>916</v>
+      </c>
       <c r="B917" s="7" t="s">
         <v>929</v>
       </c>
@@ -59244,7 +59593,9 @@
       </c>
     </row>
     <row r="918" spans="1:11" ht="30">
-      <c r="A918" s="7"/>
+      <c r="A918" s="3">
+        <v>917</v>
+      </c>
       <c r="B918" s="7" t="s">
         <v>929</v>
       </c>
@@ -59277,7 +59628,9 @@
       </c>
     </row>
     <row r="919" spans="1:11" ht="30">
-      <c r="A919" s="7"/>
+      <c r="A919" s="3">
+        <v>918</v>
+      </c>
       <c r="B919" s="7" t="s">
         <v>929</v>
       </c>
@@ -59310,7 +59663,9 @@
       </c>
     </row>
     <row r="920" spans="1:11" ht="30">
-      <c r="A920" s="7"/>
+      <c r="A920" s="3">
+        <v>919</v>
+      </c>
       <c r="B920" s="7" t="s">
         <v>929</v>
       </c>
@@ -59343,7 +59698,9 @@
       </c>
     </row>
     <row r="921" spans="1:11" ht="30">
-      <c r="A921" s="7"/>
+      <c r="A921" s="3">
+        <v>920</v>
+      </c>
       <c r="B921" s="7" t="s">
         <v>929</v>
       </c>
@@ -59376,7 +59733,9 @@
       </c>
     </row>
     <row r="922" spans="1:11" ht="30">
-      <c r="A922" s="7"/>
+      <c r="A922" s="3">
+        <v>921</v>
+      </c>
       <c r="B922" s="7" t="s">
         <v>929</v>
       </c>
@@ -59409,7 +59768,9 @@
       </c>
     </row>
     <row r="923" spans="1:11" ht="30">
-      <c r="A923" s="7"/>
+      <c r="A923" s="3">
+        <v>922</v>
+      </c>
       <c r="B923" s="7" t="s">
         <v>929</v>
       </c>
@@ -59442,7 +59803,9 @@
       </c>
     </row>
     <row r="924" spans="1:11" ht="30">
-      <c r="A924" s="7"/>
+      <c r="A924" s="3">
+        <v>923</v>
+      </c>
       <c r="B924" s="7" t="s">
         <v>929</v>
       </c>
@@ -59472,6 +59835,181 @@
       </c>
       <c r="K924" s="8" t="s">
         <v>5211</v>
+      </c>
+    </row>
+    <row r="925" spans="1:11" ht="45">
+      <c r="A925" s="3">
+        <v>924</v>
+      </c>
+      <c r="B925" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C925" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D925" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E925" s="7" t="s">
+        <v>5212</v>
+      </c>
+      <c r="F925" s="7" t="s">
+        <v>5213</v>
+      </c>
+      <c r="G925" s="7" t="s">
+        <v>5214</v>
+      </c>
+      <c r="H925" s="7" t="s">
+        <v>5215</v>
+      </c>
+      <c r="I925" s="7" t="s">
+        <v>5216</v>
+      </c>
+      <c r="J925" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K925" s="8" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="926" spans="1:11" ht="30">
+      <c r="A926" s="3">
+        <v>925</v>
+      </c>
+      <c r="B926" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C926" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D926" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E926" s="7" t="s">
+        <v>5218</v>
+      </c>
+      <c r="F926" s="7" t="s">
+        <v>5219</v>
+      </c>
+      <c r="G926" s="7" t="s">
+        <v>5220</v>
+      </c>
+      <c r="H926" s="7" t="s">
+        <v>5221</v>
+      </c>
+      <c r="I926" s="7" t="s">
+        <v>5222</v>
+      </c>
+      <c r="J926" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K926" s="8" t="s">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="927" spans="1:11" ht="30">
+      <c r="A927" s="3">
+        <v>926</v>
+      </c>
+      <c r="B927" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C927" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D927" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E927" s="7" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F927" s="7" t="s">
+        <v>5225</v>
+      </c>
+      <c r="G927" s="7" t="s">
+        <v>5226</v>
+      </c>
+      <c r="H927" s="7" t="s">
+        <v>5227</v>
+      </c>
+      <c r="I927" s="7" t="s">
+        <v>5228</v>
+      </c>
+      <c r="J927" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K927" s="8" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="928" spans="1:11" ht="45">
+      <c r="A928" s="3">
+        <v>927</v>
+      </c>
+      <c r="B928" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C928" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D928" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E928" s="7" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F928" s="7" t="s">
+        <v>5231</v>
+      </c>
+      <c r="G928" s="7" t="s">
+        <v>5232</v>
+      </c>
+      <c r="H928" s="7" t="s">
+        <v>5233</v>
+      </c>
+      <c r="I928" s="7" t="s">
+        <v>5234</v>
+      </c>
+      <c r="J928" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K928" s="8" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="929" spans="1:11" ht="45">
+      <c r="A929" s="3">
+        <v>928</v>
+      </c>
+      <c r="B929" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C929" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D929" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E929" s="7" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F929" s="7" t="s">
+        <v>5237</v>
+      </c>
+      <c r="G929" s="7" t="s">
+        <v>5238</v>
+      </c>
+      <c r="H929" s="7" t="s">
+        <v>5239</v>
+      </c>
+      <c r="I929" s="7" t="s">
+        <v>5240</v>
+      </c>
+      <c r="J929" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K929" s="8" t="s">
+        <v>5241</v>
       </c>
     </row>
   </sheetData>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizardo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julião\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5C4E3-EBD0-4902-8984-D8E1F2B61352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1550621-3EE9-410D-A747-94331793F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9286" uniqueCount="5243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10286" uniqueCount="5843">
   <si>
     <t>ID</t>
   </si>
@@ -26973,6 +26973,3870 @@
   </si>
   <si>
     <t>3.09 - ICCPM 05 - FALTA AO SERVIÇO</t>
+  </si>
+  <si>
+    <t>De acordo com a classificação dos estados de prontidão apresentada no MTP 01, o "Estado de Alerta" (cor laranja) caracteriza-se especificamente quando:</t>
+  </si>
+  <si>
+    <t>O policial militar detecta um problema e está ciente de que um confronto é provável, mantendo-se vigilante e identificando prováveis riscos que exijam uso da força.</t>
+  </si>
+  <si>
+    <t>O risco é real e uma resposta do policial militar é necessária, sendo importante focalizar a ameaça com atenção concentrada no problema.</t>
+  </si>
+  <si>
+    <t>O policial apresenta calma, porém mantém constante vigilância das pessoas e lugares por meio de uma observação multidirecional e atenção difusa em 360 graus.</t>
+  </si>
+  <si>
+    <t>O policial militar encontra-se despreparado para um eventual confronto, com pensamento disperso e relaxamento psíquico, ocasionado por percepção errônea da ausência de perigo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>2.1.1, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 16): "Neste estado de prontidão [Alerta], o policial militar detecta um problema e está ciente de que um confronto é provável. [...] É representado pela cor laranja." (As opções B, C e D referem-se, respectivamente, aos estados de Alarme, Atenção e Relaxado).</t>
+    </r>
+  </si>
+  <si>
+    <t>Na Metodologia de Avaliação de Riscos, a "Etapa 4 - Análise das Vulnerabilidades" consiste em analisar os recursos existentes para responder à ameaça. Dentre os elementos constitutivos desta etapa, o manual lista expressamente:</t>
+  </si>
+  <si>
+    <t>A identificação de qual direito ou garantia está exposto ao risco e o comportamento das possíveis vítimas envolvidas.</t>
+  </si>
+  <si>
+    <t>A obtenção de informações do infrator em potencial, como trajetória criminal, registro anterior de agressão e motivação para o ato.</t>
+  </si>
+  <si>
+    <t>A estimativa de quais serão os resultados das ações e seus reflexos na defesa da vida, na paz social e na imagem da PMMG.</t>
+  </si>
+  <si>
+    <t>O efetivo policial-militar suficiente para atuar com supremacia de força e as competências profissionais para agir no cenário.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>3.1, alínea 'd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 22): "Etapa 4 - análise das vulnerabilidades: consiste em analisar os recursos que existem [...] dentre eles: [...] Efetivo policial-militar suficiente para atuar com supremacia de força...". As demais opções referem-se às etapas 1, 2 e 5, respectivamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>No contexto do Quarteto do Pensamento Tático, o conceito de "Ponto de Foco" é definido como:</t>
+  </si>
+  <si>
+    <t>Um espaço físico delimitado, no teatro de operações, onde há maior probabilidade de existir ameaças, potenciais ou reais, que ponham em perigo a integridade física.</t>
+  </si>
+  <si>
+    <t>Partes dentro da área de risco que requerem monitoramento específico e demandam imediata atenção, uma vez que deles podem surgir ameaças que representem risco à segurança.</t>
+  </si>
+  <si>
+    <t>Partes que possuem um maior potencial de se tornarem fontes reais de agressão e que, por isso, devem ser cautelosamente monitorados (ex: as mãos de um suspeito).</t>
+  </si>
+  <si>
+    <t>A área na qual a Polícia Militar tem o domínio da situação, não havendo, presumidamente, riscos à integridade física e à segurança dos envolvidos.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>4.1, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 26): "Os pontos de foco são partes dentro da área de risco que requerem monitoramento específico e demandam imediata atenção do policial militar...". A opção A refere-se à Área de Risco; C ao Ponto Quente; D à Área de Segurança.</t>
+    </r>
+  </si>
+  <si>
+    <t>Considerando o processo mental da agressão, o MTP 01 estabelece que o policial militar, para responder à ameaça, deve perpassar por quatro fases. A fase adicional que diferencia o processo do policial em relação ao do agressor é:</t>
+  </si>
+  <si>
+    <t>Ocultar.</t>
+  </si>
+  <si>
+    <t>Verbalizar.</t>
+  </si>
+  <si>
+    <t>Decidir.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 30): "...enquanto o agressor passa por TRÊS fases para executar o ataque, o policial militar passa por QUATRO fases [...] IDENTIFICAR - CERTIFICAR - DECIDIR - AGIR".</t>
+    </r>
+  </si>
+  <si>
+    <t>Dentre os fundamentos da abordagem policial a pessoa em atitude suspeita (SSRAU), o fundamento "Rapidez" é descrito no manual como:</t>
+  </si>
+  <si>
+    <t>A atitude firme e resoluta do policial militar na ação, por meio de uma postura imperativa, com ordens claras e precisas.</t>
+  </si>
+  <si>
+    <t>O conjunto de medidas adotadas para controlar e mitigar os riscos da intervenção, agindo com supremacia de força.</t>
+  </si>
+  <si>
+    <t>A velocidade com que a ação policial-militar é processada, contribuindo para a efetivação da surpresa, sem se confundir com afobamento.</t>
+  </si>
+  <si>
+    <t>A coordenação centralizada da intervenção que garante o melhor planejamento, fiscalização e controle da equipe.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>5.3.1, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 37): "Rapidez: é a velocidade com que a ação policial-militar é processada, o que contribui substancialmente para a efetivação da 'surpresa'. Não se pode confundir rapidez com afobamento...".</t>
+    </r>
+  </si>
+  <si>
+    <t>O princípio da Legalidade deve ser compreendido sob dois aspectos. O aspecto "Processo" considera que:</t>
+  </si>
+  <si>
+    <t>A motivação ou a justificativa para a intervenção deve ser dirigida a alcançar o objetivo legal.</t>
+  </si>
+  <si>
+    <t>Os meios e os métodos utilizados pelo policial militar devem estar em conformidade com as normas (leis, regulamentos, diretrizes).</t>
+  </si>
+  <si>
+    <t>O uso da força deve ser compatível com a gravidade da ameaça e com o objetivo legal pretendido.</t>
+  </si>
+  <si>
+    <t>O uso da força será empregado quando, devido às circunstâncias, for impossível de se evitar.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>7.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 54): "Processo: considera que os meios e os métodos utilizados pelo policial militar devem ser legais, ou seja, em conformidade com as normas...". A opção A refere-se à Legalidade de Resultado.</t>
+    </r>
+  </si>
+  <si>
+    <t>No modelo de uso diferenciado da força, o "Uso Dissuasivo de Arma de Fogo" (opções de posicionamento da arma sem dispará-la) está classificado no:</t>
+  </si>
+  <si>
+    <t>Nível primário.</t>
+  </si>
+  <si>
+    <t>Nível secundário (Técnicas de menor potencial ofensivo).</t>
+  </si>
+  <si>
+    <t>Nível terciário (Força potencialmente letal).</t>
+  </si>
+  <si>
+    <t>Nível de controle físico.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>7.1.2, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 60): "b) Nível secundário (Técnicas de menor potencial ofensivo) [...] • Uso dissuasivo de armas de fogo...".</t>
+    </r>
+  </si>
+  <si>
+    <t>A "Posição 3 (arma em guarda-alta)" é descrita tecnicamente no MTP 01 como a posição em que a arma, já empunhada e fora do coldre, encontra-se:</t>
+  </si>
+  <si>
+    <t>Posicionada na altura do abdome e num ângulo de 45°, cano voltado para o solo.</t>
+  </si>
+  <si>
+    <t>Apontada diretamente para o abordado, posicionada na linha dos olhos do policial.</t>
+  </si>
+  <si>
+    <t>Posicionada entre o peito e o queixo, com o cano dirigido para o alvo de forma que seja possível manter contato visual total com o alvo.</t>
+  </si>
+  <si>
+    <t>Ainda no coldre, com a mão sobre o punho ou cabo, pronta para o saque.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>7.2.3.1, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 67): "Posição 3 (arma em guarda-alta): com a arma [...] posicionada entre o peito e o queixo, com o cano dirigido para o alvo de forma que seja possível manter contato visual total com o alvo...".</t>
+    </r>
+  </si>
+  <si>
+    <t>Em relação às "Circunstâncias especiais para o disparo de arma de fogo", o manual estabelece expressamente sobre o "disparo de advertência" que:</t>
+  </si>
+  <si>
+    <t>Este procedimento não é previsto como procedimento policial-militar, pois o policial não atira para advertir ou assustar, mas para interromper agressão.</t>
+  </si>
+  <si>
+    <t>É permitido apenas em áreas rurais ou desabitadas, onde não haja risco de ricochete ou de atingir terceiros.</t>
+  </si>
+  <si>
+    <t>Pode ser utilizado como último recurso de verbalização antes do uso da força potencialmente letal contra o corpo do agressor.</t>
+  </si>
+  <si>
+    <t>Deve ser realizado sempre para o alto, garantindo que o projétil não retorne com força suficiente para provocar lesões.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>7.2.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 77): "O disparo de advertência não é previsto como procedimento policial-militar, pois quando o policial militar atira com sua arma, não o faz para advertir ou assustar...".</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre os "Disparos de dentro da viatura policial-militar em movimento", a regra geral é não atirar. Contudo, o MTP 01 faz uma ressalva específica sobre disparos contra veículos que desrespeitem bloqueio. Tais disparos só são admissíveis se:</t>
+  </si>
+  <si>
+    <t>O veículo estiver em alta velocidade e houver certeza visual de que os ocupantes estão armados.</t>
+  </si>
+  <si>
+    <t>O veículo representar um risco imediato à vida ou à integridade dos policiais ou terceiros, por meio de atropelamentos ou acidentes intencionais (veículo como "arma").</t>
+  </si>
+  <si>
+    <t>O condutor do veículo em fuga tiver efetuado disparos anteriores contra a guarnição policial.</t>
+  </si>
+  <si>
+    <t>O local for desabitado e houver ordem expressa do Comandante da operação para cessar a fuga a qualquer custo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o quadro "ATENÇÃO!" no item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303030"/>
+        <rFont val="Google Sans Text"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 76): "...a não ser que ele represente um risco imediato à vida ou à integridade dos policiais militares ou de terceiros, por meio de atropelamentos ou acidentes intencionais (o motorista utiliza o veículo como 'arma')."</t>
+    </r>
+  </si>
+  <si>
+    <t>No contexto do processo de comunicação, o MTP 01 destaca que a maior dificuldade de interpretação reside na escolha de palavras, gestos e postura. Para que a comunicação atinja seu objetivo, o manual afirma textualmente que o melhor caminho é a "simplicidade". O conceito de "simplicidade" é definido no documento como:</t>
+  </si>
+  <si>
+    <t>A utilização de gírias e expressões populares que aproximem o policial militar da realidade cultural do abordado.</t>
+  </si>
+  <si>
+    <t>O ato de o emissor transmitir uma mensagem para o receptor de forma clara, fácil e possível de ser entendida.</t>
+  </si>
+  <si>
+    <t>A brevidade na fala, evitando explicações longas que possam confundir o receptor em situações de estresse.</t>
+  </si>
+  <si>
+    <t>A capacidade de ouvir mais do que falar, permitindo que o interlocutor exponha seus sentimentos antes da intervenção.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seção 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 42): "ATENÇÃO: Para que a comunicação atinja o seu objetivo, o melhor caminho é a simplicidade. Simplicidade quer dizer que o emissor transmite uma mensagem para o receptor de forma clara, fácil e possível de ser entendida."</t>
+    </r>
+  </si>
+  <si>
+    <t>Na Avaliação de Riscos (Etapa 4), caso o policial conclua que não possui condições suficientes (efetivo, armamento, treinamento) para agir imediatamente, o manual recomenda ações de "primeiro interventor". Dentre as ações listadas, encontra-se:</t>
+  </si>
+  <si>
+    <t>Adentrar a área de risco cautelosamente para confirmar a natureza do incidente.</t>
+  </si>
+  <si>
+    <t>Realizar disparos táticos para diminuir a luminosidade do ambiente e obter vantagem.</t>
+  </si>
+  <si>
+    <t>Não adentrar a área de risco e conter a crise, impedindo que outras pessoas ou áreas sejam envolvidas.</t>
+  </si>
+  <si>
+    <t>Negociar diretamente com o causador da crise, oferecendo concessões táticas para ganhar tempo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 30): "Nesse caso, recomenda-se ao policial militar algumas ações de primeiro interventor: a) não adentrar a área de risco; b) conter a crise, ou seja, impedir que outras pessoas ou áreas sejam envolvidas...".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre o transporte de armas portáteis no interior de viaturas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possuem suportes ou cabides adaptados, a norma de segurança descrita no MTP 01 determina que as armas devem ser acondicionadas:</t>
+    </r>
+  </si>
+  <si>
+    <t>No colo do patrulheiro, com o cano voltado para fora da janela, prontas para resposta imediata.</t>
+  </si>
+  <si>
+    <t>Sobre o banco traseiro, travadas e cobertas por material que impeça a visualização externa.</t>
+  </si>
+  <si>
+    <t>Entre as pernas do policial militar, com o cano voltado para o assoalho da viatura.</t>
+  </si>
+  <si>
+    <t>Entre o banco do Comandante da guarnição e o console de marcha, travadas, com o cano voltado para baixo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 66): "Caso estes não existam na viatura, as armas devem ser acondicionadas entre o banco do Comandante da guarnição e o console de marcha, travadas, com o cano voltado para baixo conforme Figura 4".</t>
+    </r>
+  </si>
+  <si>
+    <t>Diante de um abordado classificado como "Resistente Passivo", que demora a responder ou a acatar determinações, mas não esboça agressão, o MTP 01 orienta um procedimento específico de verbalização para reforçar a autoridade profissional. Esse procedimento consiste em:</t>
+  </si>
+  <si>
+    <t>Elevar imediatamente o nível de força para controle físico, dispensando novas verbalizações.</t>
+  </si>
+  <si>
+    <t>Repetir a mesma ordem por duas ou três vezes, de forma pausada, sistemática e firme.</t>
+  </si>
+  <si>
+    <t>Utilizar gírias ou linguagem informal para tentar criar empatia e "quebrar o gelo".</t>
+  </si>
+  <si>
+    <t>Ameaçar o uso de arma de fogo para acelerar o cumprimento da ordem legal.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1.1, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 49): "...o policial militar deverá insistir na recomendação dada, repetindo a mesma ordem por duas ou três vezes. Esse procedimento de repetição literal da ordem, de forma pausada, sistemática e firme, reforça a autoridade profissional...".</t>
+    </r>
+  </si>
+  <si>
+    <t>Em relação aos disparos com munições de menor potencial ofensivo (elastômero/projétil de látex), o MTP 01 estabelece diretrizes específicas de segurança e eficácia. Para evitar lesões graves e considerando a pouca precisão desse tipo de munição, os disparos devem ser dirigidos preferencialmente para:</t>
+  </si>
+  <si>
+    <t>A região do tronco (grande massa), visando maior probabilidade de impacto.</t>
+  </si>
+  <si>
+    <t>A musculatura dos membros inferiores, mais precisamente a região da coxa.</t>
+  </si>
+  <si>
+    <t>Os membros superiores, para impedir que o agressor utilize as mãos para arremessar objetos.</t>
+  </si>
+  <si>
+    <t>O solo, à frente do agressor, para que o ricochete dissipe a energia cinética antes do impacto.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 77): "Os disparos devem ser dirigidos para a musculatura dos membros inferiores (direcionar disparos com elastômero para as pernas, mais precisamente região da coxa)".</t>
+    </r>
+  </si>
+  <si>
+    <t>O MTP 01 prevê o uso de recursos tecnológicos (celulares, câmeras) pelo policial para comprovar sua atuação legítima e a resistência do abordado. Contudo, impõe uma vedação expressa quanto à destinação do material registrado, fundamentada na proteção ao direito à imagem. Segundo o texto, é VEDADO:</t>
+  </si>
+  <si>
+    <t>Utilizar o registro para instrução de Inquérito Policial Militar.</t>
+  </si>
+  <si>
+    <t>Alertar formalmente ao interlocutor que a intervenção está sendo registrada.</t>
+  </si>
+  <si>
+    <t>A divulgação ou a distribuição à imprensa ou a outros órgãos, sendo o uso restrito a fins oficiais.</t>
+  </si>
+  <si>
+    <t>O registro de imagens quando o abordado for menor de idade, mesmo em flagrante ato infracional.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o quadro "ATENÇÃO!" no item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1.1, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 51): "Esses registros eletrônicos só poderão ser utilizados de maneira oficial, sendo vedada a divulgação ou a distribuição à imprensa ou a outros órgãos."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A responsabilidade pelo uso da força não se restringe ao autor do ato. Em relação à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Equipe de policiais militares"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, o manual estabelece que qualquer policial que suspeite que outro esteja fazendo uso de violência deve:</t>
+    </r>
+  </si>
+  <si>
+    <t>Aguardar o término da ocorrência para relatar o fato em relatório reservado, sem intervir no momento para não quebrar a hierarquia.</t>
+  </si>
+  <si>
+    <t>Adotar todas as providências ao seu alcance para prevenir ou opor-se, rigorosamente, a tal ato e informar o fato aos superiores na primeira oportunidade.</t>
+  </si>
+  <si>
+    <t>Apenas afastar-se do local para não ser conivente, deixando a responsabilidade recair exclusivamente sobre o autor.</t>
+  </si>
+  <si>
+    <t>Assumir o comando da ocorrência imediatamente, dando voz de prisão ao colega de farda na frente do abordado.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.1.4, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 65): "...deve adotar todas as providências ao seu alcance, para prevenir ou opor-se, rigorosamente, a tal ato. Na primeira oportunidade que tenha, deve informar o fato aos seus superiores...".</t>
+    </r>
+  </si>
+  <si>
+    <t>Dentre os requisitos básicos para intervenção policial-militar, o "Comportamento na ocorrência" exige que a atuação seja revestida de quatro características fundamentais. São elas:</t>
+  </si>
+  <si>
+    <t>Urbanidade, Energia serena, Brevidade compatível e Isenção.</t>
+  </si>
+  <si>
+    <t>Rapidez, Surpresa, Segurança e Ação Vigorosa.</t>
+  </si>
+  <si>
+    <t>Legalidade, Necessidade, Proporcionalidade e Ética.</t>
+  </si>
+  <si>
+    <t>Firmeza, Justiça, Cortesia e Imparcialidade.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.4, alínea 'e'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 41): "...requer que seja revestida de urbanidade, energia serena, brevidade compatível e, sobretudo, isenção." (Opção B refere-se ao SSRAU; C aos princípios da força).</t>
+    </r>
+  </si>
+  <si>
+    <t>Para uma correta leitura do ambiente, que leva à identificação dos riscos presentes, o MTP 01 estabelece três questões chaves que o policial deve responder. Assinale a alternativa que contém EXATAMENTE uma dessas perguntas:</t>
+  </si>
+  <si>
+    <t>O indivíduo possui antecedentes criminais conhecidos?</t>
+  </si>
+  <si>
+    <t>Onde estão os riscos potenciais nesta situação?</t>
+  </si>
+  <si>
+    <t>Qual o nível de força necessário para conter a ameaça?</t>
+  </si>
+  <si>
+    <t>Há testemunhas idôneas no local da intervenção?</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 28-29), as três perguntas são: "Onde estão os riscos potenciais nesta situação?"; "Esses riscos estão controlados?"; "Se esses riscos não estão controlados, como fazer para controlá-los?".</t>
+    </r>
+  </si>
+  <si>
+    <t>O manual destaca que toda pessoa tem uma área física em seu entorno considerada psicologicamente reservada (espaço pessoal). Ao aproximar-se demasiadamente e invadir esse espaço, o policial pode provocar no abordado o desejo inconsciente de afastar, fugir ou defender-se. Para evitar isso e criar um vínculo de confiança, o policial deve:</t>
+  </si>
+  <si>
+    <t>Tocar no ombro do abordado imediatamente para demonstrar controle de contato.</t>
+  </si>
+  <si>
+    <t>Iniciar a verbalização com comandos de voz em alto volume para subjugar psicologicamente o abordado.</t>
+  </si>
+  <si>
+    <t>Estabelecer o contato inicial a uma distância segura, podendo "quebrar o gelo" com uma saudação verbal e contato visual (olhar nos olhos).</t>
+  </si>
+  <si>
+    <t>Manter-se em silêncio absoluto até estar a uma distância de toque, garantindo o fator surpresa.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 44): "Assim sendo, o policial militar deverá estabelecer o contato inicial com o abordado, a uma distância segura [...] pode 'quebrar o gelo' com uma saudação verbal, demonstrando interesse ao também olhar diretamente nos olhos do interlocutor sorrindo."</t>
+    </r>
+  </si>
+  <si>
+    <t>Na apresentação do MTP 01, afirma-se que os fundamentos aplicados estão em conformidade com documentos oriundos da ONU aplicáveis à função policial. Dentre os documentos citados taxativamente no texto, encontra-se o "CCEAL", que significa:</t>
+  </si>
+  <si>
+    <t>Convenção de Controle de Armas Letais e não Letais.</t>
+  </si>
+  <si>
+    <t>Código de Conduta para os Encarregados pela Aplicação da Lei.</t>
+  </si>
+  <si>
+    <t>Conselho Consultivo de Estratégias de Aplicação da Lei.</t>
+  </si>
+  <si>
+    <t>Carta de Compromisso Ético para Agentes da Lei.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 12): "...quais sejam: Princípios Básicos sobre a Utilização da Força e de Armas de Fogo pelos Funcionários Responsáveis pela Aplicação da Lei (PBUFAF), Código de Conduta para os Encarregados pela Aplicação da Lei (CCEAL)..."</t>
+    </r>
+  </si>
+  <si>
+    <t>O conceito de "Preparo Mental" envolve antecipar respostas para diferentes situações. Segundo o texto, essa antecipação desencadeia um processo específico no policial, definido como:</t>
+  </si>
+  <si>
+    <t>Um aumento da adrenalina que elimina totalmente o medo e a hesitação.</t>
+  </si>
+  <si>
+    <t>A entrada imediata no Estado de Alarme (Vermelho) antes mesmo do início do turno.</t>
+  </si>
+  <si>
+    <t>Um conjunto de alterações fisiológicas e psicológicas, colocando o policial militar num estado de prontidão que ampliará sua capacidade de resposta.</t>
+  </si>
+  <si>
+    <t>Uma visualização mística do cenário que permite prever o futuro da ocorrência com exatidão.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 15): "Essa antecipação desencadeia um conjunto de alterações fisiológicas e psicológicas, colocando o policial militar num estado de prontidão que ampliará sua capacidade de resposta a cada situação."</t>
+    </r>
+  </si>
+  <si>
+    <t>Para compensar a desvantagem do processo mental (policial possui uma etapa a mais que o agressor), utilizam-se cinco fatores. O fator "Autocontrole" é descrito no manual como a capacidade de evitar um erro tático comum, que é:</t>
+  </si>
+  <si>
+    <t>Disparar a arma de fogo precipitadamente antes da identificação do alvo.</t>
+  </si>
+  <si>
+    <t>Abreviar boas táticas ou lançar-se dentro da área de risco na presença de um suspeito potencialmente hostil, na ânsia de ver o êxito da atuação.</t>
+  </si>
+  <si>
+    <t>Perder a paciência durante a verbalização e utilizar palavras de baixo calão.</t>
+  </si>
+  <si>
+    <t>Congelar diante do perigo (Estado de Pânico) por falta de respiração adequada.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2, alínea 'd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 33): "d) autocontrole: na ânsia de ver o êxito de suas atuações, os policiais militares, frequentemente, abreviam boas táticas ou se lançam dentro da área de risco na presença de um suspeito potencialmente hostil."</t>
+    </r>
+  </si>
+  <si>
+    <t>As intervenções policiais são classificadas em níveis. Sobre a "Intervenção Nível I" (preventivo/educativo), o manual faz uma ressalva importante sobre o estado de prontidão inicial. O policial deve iniciar este tipo de intervenção:</t>
+  </si>
+  <si>
+    <t>No estado Relaxado (Branco), pois o risco é reduzido e o foco é a cortesia.</t>
+  </si>
+  <si>
+    <t>No estado de Alerta (Laranja), considerando que qualquer cidadão é uma ameaça em potencial.</t>
+  </si>
+  <si>
+    <t>No estado de Atenção (Amarelo), devendo estar preparado para o caso da situação evoluir e ser necessário fazer o uso da força.</t>
+  </si>
+  <si>
+    <t>No estado de Alarme (Vermelho), para garantir a supremacia de força desde o primeiro contato.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.1, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 34): "O estado de prontidão, neste tipo de intervenção, deverá iniciar no estado de atenção (amarelo). O policial militar deve estar preparado para o caso da situação evoluir..."</t>
+    </r>
+  </si>
+  <si>
+    <t>Na verbalização, aspectos como timbre, dicção e velocidade são determinantes. O MTP 01 alerta que a fala muito rápida ("velocidade com que se fala") gera uma impressão negativa específica no interlocutor, denotando:</t>
+  </si>
+  <si>
+    <t>Indecisão ou desânimo.</t>
+  </si>
+  <si>
+    <t>Ansiedade, dúvida e desatenção.</t>
+  </si>
+  <si>
+    <t>Autoridade e domínio técnico.</t>
+  </si>
+  <si>
+    <t>Agressividade e falta de educação.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 44): "A fala confusa ou vagarosa causa a impressão de indecisão ou desânimo... Em contrapartida, falar muito rápido denota ansiedade, dúvida e desatenção."</t>
+    </r>
+  </si>
+  <si>
+    <t>O Nível Secundário do uso da força abrange três tipos de controle. O "Controle Físico" diferencia-se do "Controle de Contato" pois:</t>
+  </si>
+  <si>
+    <t>Utiliza instrumentos como algemas e bastões para submissão.</t>
+  </si>
+  <si>
+    <t>É o emprego de técnicas de defesa pessoal policial com maior potencial de submissão, visando a imobilização, evitando, sempre que possível, lesões.</t>
+  </si>
+  <si>
+    <t>Consiste apenas na orientação da distância e angulação, sem tocar no abordado.</t>
+  </si>
+  <si>
+    <t>Envolve o uso de golpes traumáticos em regiões vitais do corpo para causar inconsciência.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.1.2, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 61): "Controle físico: É o emprego das técnicas de defesa pessoal policial, com um maior potencial de submissão [...] Visa a sua imobilização e condução, evitando, sempre que possível, que resulte lesões..." (Controle de contato não usa defesa pessoal contundente; IMPO usa instrumentos; Regiões vitais é nível terciário).</t>
+    </r>
+  </si>
+  <si>
+    <t>O MTP 01 diferencia "Disparo de Advertência" (não previsto) de "Disparos Táticos". Os disparos táticos são autorizados e realizados com objetivos específicos, tais como:</t>
+  </si>
+  <si>
+    <t>Assustar o infrator para que ele se renda psicologicamente.</t>
+  </si>
+  <si>
+    <t>Dar cobertura a companheiros (fogo e movimento), diminuir a luminosidade de um ambiente ou romper obstáculos (ex: fechaduras).</t>
+  </si>
+  <si>
+    <t>Alertar a vizinhança sobre a ocorrência de um confronto armado.</t>
+  </si>
+  <si>
+    <t>Atingir os pneus de um veículo em fuga para evitar perseguição em alta velocidade.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 78): "d) Disparos táticos: [...] para dar cobertura a companheiros durante confrontos armados [...] também, para diminuir a luminosidade de um ambiente, romper a fechadura de uma porta ou outros obstáculos."</t>
+    </r>
+  </si>
+  <si>
+    <t>O disparo de arma de fogo contra animais é permitido em circunstâncias específicas. Além do caso de ataque (animal agressivo/fora de controle), é autorizado o disparo em caso de animal agonizante (sacrifício), desde que:</t>
+  </si>
+  <si>
+    <t>O proprietário do animal autorize por escrito.</t>
+  </si>
+  <si>
+    <t>O animal seja de pequeno porte e não haja risco de ricochete.</t>
+  </si>
+  <si>
+    <t>Seja para evitar sofrimento desnecessário, não se esteja próximo a veterinário que possa realizar a tarefa e não haja condições de atendimento por outros órgãos.</t>
+  </si>
+  <si>
+    <t>O animal esteja em via pública atrapalhando o trânsito, independentemente de estar ferido.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'f'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 79): "...encontra-se agonizante [...] para evitar sofrimento desnecessário e não estiver próximo a veterinário que possa realizar esta tarefa e não houver condições de atendimento por outros órgãos responsáveis."</t>
+    </r>
+  </si>
+  <si>
+    <t>Após um disparo de arma de fogo em serviço (intencional ou não), o superior imediato deve adotar várias providências. Em relação ao contato com as famílias das pessoas atingidas (inclusive a do policial), a norma estabelece que tal atribuição deve recair, preferencialmente:</t>
+  </si>
+  <si>
+    <t>Sobre o próprio autor do disparo, para demonstrar transparência e hombridade.</t>
+  </si>
+  <si>
+    <t>Sobre o Comandante Geral da PMMG, dada a gravidade institucional.</t>
+  </si>
+  <si>
+    <t>Sobre a Assistente Social da prefeitura local.</t>
+  </si>
+  <si>
+    <t>Em pessoa que não seja membro da equipe envolvida no incidente.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 80): "designar um policial militar para contatar com as famílias [...] Preferencialmente, tal atribuição dever recair em pessoa que não seja membro da equipe envolvida no incidente".</t>
+    </r>
+  </si>
+  <si>
+    <t>A "Posição 1 (Arma Localizada)" possui variações dependendo do armamento. No caso de armas portáteis (longas) em bandoleira, esta posição caracteriza-se por:</t>
+  </si>
+  <si>
+    <t>A arma estar nas costas, com as mãos livres para verbalização.</t>
+  </si>
+  <si>
+    <t>Colocar as duas mãos no armamento, ainda travado, sendo que a mão forte localiza o punho e a mão fraca é posta no guarda-mão, dedo fora do gatilho.</t>
+  </si>
+  <si>
+    <t>A arma estar apontada para o solo a 45 graus, destravada.</t>
+  </si>
+  <si>
+    <t>Segurar a arma apenas pela alça de transporte, mantendo-a junto ao corpo.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.3.1, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 68): "Com armas portáteis, em bandoleira, caracteriza-se por colocar as duas mãos no armamento, ainda travado, sendo que a mão forte localiza o punho e a mão a fraca é posta no guarda mão...".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CASO HIPOTÉTICO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uma guarnição policial realiza patrulhamento em área de zona quente (Intervenção Nível II) e visualiza um indivíduo em atitude de fundada suspeita. Ao desembarcar para a abordagem, considerando a análise subjetiva de que existe um risco potencial à segurança, o Comandante da guarnição adota uma postura tática específica com seu armamento. Com base na correlação entre Níveis de Risco, Estados de Prontidão e Posições da Arma prevista no MTP 01, a conduta tecnicamente CORRETA para este cenário (risco nível II ou III - análise subjetiva) é:</t>
+    </r>
+  </si>
+  <si>
+    <t>Manter-se no Estado de Atenção (Amarelo) e adotar a Posição 2 (Guarda-Baixa), com a arma a 45º para o solo.</t>
+  </si>
+  <si>
+    <t>Elevar para o Estado de Alerta (Laranja) e adotar a Posição 3 (Guarda-Alta), posicionando a arma entre o peito e o queixo, mantendo contato visual total com o alvo.</t>
+  </si>
+  <si>
+    <t>Elevar imediatamente para o Estado de Alarme (Vermelho) e adotar a Posição 4 (Pronta Resposta), alinhando a visada com o olho, pois a fundada suspeita já configura risco real.</t>
+  </si>
+  <si>
+    <t>Manter a arma na Posição 1 (Localizada) no coldre, pois o Estado de Alerta (Laranja) exige apenas que a mão esteja sobre o punho para o saque rápido.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o quadro </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATENÇÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 38) combinado com item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: "ARMA EM GUARDA-ALTA: Adotada em deslocamentos táticos e situações onde há risco potencial ou real [...] (análise subjetiva) RISCO NÍVEL II ou III". O estado coerente com Risco II é o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alerta (Laranja)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Item 3.1.c).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO SIMULADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durante uma ocorrência, um agressor armado com uma faca avança contra um policial que está com a arma no coldre. O policial percebe a ameaça a uma distância de 5 metros. Considerando a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regra de Tueller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Processo Mental da Agressão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, é CORRETO afirmar que o policial está em desvantagem tática porque:</t>
+    </r>
+  </si>
+  <si>
+    <t>A distância de 5 metros é inferior aos 6,4 metros (21 pés) necessários para reagir com segurança, e o policial possui uma etapa mental a mais que o agressor (Certificar).</t>
+  </si>
+  <si>
+    <t>O agressor precisa passar por quatro etapas (Identificar, Certificar, Decidir, Agir), enquanto o policial passa apenas por três, o que torna a reação do militar mais lenta.</t>
+  </si>
+  <si>
+    <t>A distância mínima de segurança é de 3 metros, portanto o policial tem tempo suficiente, desde que esteja no Estado de Atenção (Amarelo).</t>
+  </si>
+  <si>
+    <t>O fator "Autocontrole" do pensamento tático permite que o policial abrevie o ciclo mental, eliminando a fase de "Decidir" e agindo instintivamente.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 30 e 33): "...o policial militar passa por QUATRO fases (Identificar, Certificar, Decidir, Agir)..." e nota de rodapé 5 sobre a Regra de Tueller: "A regra estabelece que esta distância [6,4 metros] é a mínima para ter possibilidades de se defender...".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CASO HIPOTÉTICO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uma equipe policial foi acionada para uma ocorrência de perturbação do sossego (som alto). Ao chegar (Diagnóstico), estabeleceu que um militar verbalizaria e o outro faria a segurança (Plano de Ação). Durante a Execução, o infrator recusou-se a baixar o som e passou a insultar a guarnição, evoluindo para resistência ativa. De acordo com o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fluxo das Etapas da Intervenção (Figura 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, diante do resultado "Não Solucionou" na fase de Execução, o procedimento imediato dos militares deve ser:</t>
+    </r>
+  </si>
+  <si>
+    <t>Insistir na mesma Execução, aumentando apenas o tom de voz para impor autoridade.</t>
+  </si>
+  <si>
+    <t>Avançar diretamente para a etapa de Avaliação para registrar a falha no REDS.</t>
+  </si>
+  <si>
+    <t>Retornar à fase de "Avaliação de Riscos + Pensamento Tático" para elaborar um novo Diagnóstico e, consequentemente, um novo Plano de Ação.</t>
+  </si>
+  <si>
+    <t>Reiniciar o ciclo a partir do Preparo Mental, recuando a viatura para o quartel para análise de possibilidades.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figura 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 35): A seta que sai de "NÃO SOLUCIONOU" na etapa de Execução retorna para a caixa superior que contém "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AVALIAÇÃO DE RISCOS + PENSAMENTO TÁTICO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">", que por sua vez gera um novo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIAGNÓSTICO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO SIMULADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Em uma abordagem, o cidadão (Ponto Quente) mantém as mãos nos bolsos e ignora os comandos verbais, mas não agride os militares (Resistência Passiva). O Comandante da guarnição decide utilizar o nível de força "Controle Físico" imediatamente. Analisando sob a ótica dos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Princípios do Uso da Força</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelo de Uso Diferenciado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, essa decisão foi:</t>
+    </r>
+  </si>
+  <si>
+    <t>Correta, pois a resistência passiva autoriza o uso de técnicas de defesa pessoal com potencial de submissão (Controle Físico) para garantir a supremacia de força.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois para Resistência Passiva o nível adequado seria primeiramente o Controle de Contato ou Verbalização, ferindo o princípio da Proporcionalidade.</t>
+  </si>
+  <si>
+    <t>Correta, pois o princípio da Necessidade permite que o policial percorra todos os níveis de força rapidamente até obter a colaboração.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois a recusa em tirar as mãos do bolso configura agressão letal iminente, exigindo o uso de arma de fogo em pronta resposta.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figura 3 (Modelo Gráfico)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 62) e item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Proporcionalidade): A "Resistência Passiva" está alinhada no gráfico com "Controle de Contato" e "Verbalização". O "Controle Físico" é indicado para Resistência Ativa ou quando o contato não for suficiente, mas o salto imediato pode ferir a proporcionalidade se não houver agressão. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota: O gráfico liga Resistência Passiva prioritariamente ao Controle de Contato.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CASO HIPOTÉTICO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uma viatura realiza cerco a um veículo em fuga que acabou de cometer um roubo (Nível de Intervenção III). O veículo suspeito fura o bloqueio policial em alta velocidade, passando ao lado da guarnição, sem jogar o carro contra os militares. O Cabo PM, posicionado, efetua disparos nos pneus para cessar a fuga. Segundo as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Circunstâncias Especiais para Disparo (Seção 7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a conduta do Cabo PM foi:</t>
+    </r>
+  </si>
+  <si>
+    <t>Lícita, pois trata-se de um crime violento (roubo) e a fuga frustraria a aplicação da lei penal.</t>
+  </si>
+  <si>
+    <t>Lícita, amparada na variável controlada de "disparo tático" para romper obstáculos (pneus).</t>
+  </si>
+  <si>
+    <t>Indevida, pois policiais não devem disparar contra veículos que desrespeitem bloqueio, exceto se houver risco imediato à vida por meio de atropelamento intencional (veículo como arma).</t>
+  </si>
+  <si>
+    <t>Indevida, pois deveria ter atirado contra o condutor e não nos pneus, visto que o tiro em pneus tem pouca eficácia.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme o quadro </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATENÇÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 77): "Policiais militares não deverão disparar contra veículos que desrespeitem um bloqueio [...] a não ser que ele represente um risco imediato à vida [...] por meio de atropelamentos ou acidentes intencionais (o motorista utiliza o veículo como 'arma')."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO SIMULADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ao realizar uma busca pessoal, o Policial "A" (segurança) percebe que o Policial "B" (abordador) está muito próximo do suspeito e de costas para uma janela aberta (Ponto de Foco não controlado). O Policial "A" alerta o companheiro. Neste contexto, a falha tática do Policial "B" comprometeu primariamente qual fundamento do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSRAU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e qual conceito do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pensamento Tático</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Fundamento Segurança e o controle da Área de Risco.</t>
+  </si>
+  <si>
+    <t>Fundamento Unidade de Comando e o conceito de Ponto Quente.</t>
+  </si>
+  <si>
+    <t>Fundamento Ação Vigorosa e o conceito de Área de Segurança.</t>
+  </si>
+  <si>
+    <t>Fundamento Rapidez e o conceito de Preparo Mental.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.3.1, alínea 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 37): "Segurança: [...] identificar a área de segurança e a área de risco, monitorar os pontos de foco...". Ao dar as costas para um ponto de foco (janela), ele falhou na Segurança e no monitoramento do Ponto de Foco dentro da Área de Risco.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CASO HIPOTÉTICO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durante um confronto armado em ambiente confinado e escuro, o Comandante da equipe decide efetuar disparos contra uma lâmpada acesa para diminuir a luminosidade e facilitar o uso de óculos de visão noturna da equipe. Segundo o MTP 01, esta ação classifica-se tecnicamente como:</t>
+    </r>
+  </si>
+  <si>
+    <t>Disparo de Advertência, pois visa alterar o ambiente sem atingir pessoas.</t>
+  </si>
+  <si>
+    <t>Disparo Tático, que tem entre seus objetivos diminuir a luminosidade de um ambiente ou romper obstáculos.</t>
+  </si>
+  <si>
+    <t>Uso Dissuasivo de Arma de Fogo, pois demonstra força sem intenção letal.</t>
+  </si>
+  <si>
+    <t>Disparo de Força Potencialmente Letal, pois qualquer disparo assume o risco de ricochete.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.2.4.3, alínea 'd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 78): "Disparos táticos: [...] também, para diminuir a luminosidade de um ambiente, romper a fechadura de uma porta ou outros obstáculos."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO SIMULADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O Soldado X presencia o Sargento Y agredindo fisicamente um abordado já algemado e dominado (uso de violência/força excessiva). O Soldado X, por ser subordinado, receia intervir, mas relata o fato ao Tenente no dia seguinte. De acordo com a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Responsabilidade pelo uso da força</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a conduta do Soldado X foi:</t>
+    </r>
+  </si>
+  <si>
+    <t>Correta, pois respeitou a hierarquia no momento e cumpriu o dever de comunicar posteriormente.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois deveria ter assumido o comando da ocorrência e prendido o Sargento em flagrante imediatamente.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois deveria ter adotado todas as providências ao seu alcance para prevenir ou opor-se rigorosamente a tal ato no momento em que ocorria, além de comunicar.</t>
+  </si>
+  <si>
+    <t>Correta, pois a responsabilidade é individual e exclusiva do autor (Sargento Y).</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.1.4, alínea 'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 65): "qualquer policial militar que suspeite que outro [...] esteja fazendo uso da violência [...] deve adotar todas as providências ao seu alcance, para prevenir ou opor-se, rigorosamente, a tal ato." A comunicação é feita na primeira oportunidade, mas a oposição deve ser imediata.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CASO HIPOTÉTICO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Em uma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intervenção Nível I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (contato comunitário), o policial deseja "quebrar o gelo" e estabelecer vínculo de confiança. Contudo, em uma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intervenção Nível III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (repressiva), o comando deve ser imperativo. Assinale a alternativa que correlaciona CORRETAMENTE o nível de intervenção com o exemplo de verbalização preconizado pelo manual:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nível I: "Fique parado! Mãos na cabeça!"; Nível III: "Bom dia, posso ajudar?".</t>
+  </si>
+  <si>
+    <t>Nível I: Saudação verbal, olhando nos olhos e sorrindo; Nível III: "Deite-se! Coloque as mãos sobre a cabeça!".</t>
+  </si>
+  <si>
+    <t>Nível II: "Tudo bem com o senhor?"; Nível III: "Vamos realizar uma busca pessoal, você me entendeu?".</t>
+  </si>
+  <si>
+    <t>Nível I: Uso de gírias para aproximação; Nível III: Gritos de guerra para intimidação.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 44): "Numa intervenção nível I, pode 'quebrar o gelo' com uma saudação verbal [...] sorrindo. [...] Numa intervenção nível III, dando comandos imperativos, como: '- Deite-se! Coloque as mãos sobre a cabeça!'".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SITUAÇÃO SIMULADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Um policial militar, após atender uma ocorrência de troca de tiros (Estado de Alarme/Vermelho), continua agitado e tenso por horas após o fim do turno, sem conseguir relaxar. Baseado no texto sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preparo Mental e Estados de Prontidão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, essa permanência prolongada em estados elevados de prontidão pode levar a:</t>
+    </r>
+  </si>
+  <si>
+    <t>Um aprimoramento dos reflexos, tornando-o um policial mais eficiente para o próximo turno.</t>
+  </si>
+  <si>
+    <t>Síndromes de esgotamento (estresse crônico), comportamentos de irritabilidade e risco de entrar em Estado de Pânico (Preto) em futuras ocorrências.</t>
+  </si>
+  <si>
+    <t>Uma adaptação fisiológica benéfica, conhecida como "calejamento operacional".</t>
+  </si>
+  <si>
+    <t>Manutenção do Estado de Atenção (Amarelo) de forma permanente, o que é o ideal para a vida policial.</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conforme item </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pág. 19/20): "Operar continuamente nesses avançados níveis de prontidão pode desencadear reações adversas [...] levando a síndromes de esgotamento [...] Tudo isso pode favorecer o surgimento do estado de pânico (preto)..."</t>
+    </r>
+  </si>
+  <si>
+    <t>De acordo com as definições doutrinárias de Nucci (2016) citadas no Manual, acerca das hipóteses de flagrante, assinale a alternativa que descreve corretamente o "Flagrante esperado":</t>
+  </si>
+  <si>
+    <t>Ocorre quando um agente provocador induz ou instiga alguém a cometer uma infração penal, somente para assim poder prendê-la, tratando-se de crime impossível.</t>
+  </si>
+  <si>
+    <t>É a possibilidade que a polícia possui de retardar a realização da prisão em flagrante, para obter maiores dados e informações a respeito do funcionamento de uma organização criminosa.</t>
+  </si>
+  <si>
+    <t>Trata-se de um flagrante totalmente artificial, pois integralmente composto por terceiros, sendo fato atípico tendo em vista que a pessoa presa jamais pensou ou agiu para compor a infração.</t>
+  </si>
+  <si>
+    <t>Não há agente provocador, mas simplesmente chega à polícia a notícia de que um crime será, em breve, cometido, deslocando agentes para o local e aguardando-se a sua ocorrência.</t>
+  </si>
+  <si>
+    <t>A alternativa reproduz fielmente a definição de "Flagrante esperado" citada no item 1.2.2, alínea "c", do Manual: "Não há agente provocador, mas simplesmente chega à polícia a notícia de que um crime será, em breve, cometido. Deslocando agentes para o local, aguarda-se a sua ocorrência...".</t>
+  </si>
+  <si>
+    <t>Sobre os prazos de remessa do Auto de Prisão em Flagrante (APF) à Justiça Militar Estadual (JME), conforme disposto no Manual e no art. 251 do CPPM, é correto afirmar:</t>
+  </si>
+  <si>
+    <t>A remessa do APF à JME deve se dar sempre em até 24 horas, contadas do início da lavratura do auto, independentemente da necessidade de diligências complementares.</t>
+  </si>
+  <si>
+    <t>Caso haja necessidade de diligências, a remessa do APF ocorrerá no prazo máximo de 5 dias, sem prejuízo da comunicação formal ao juízo militar em até 24 horas.</t>
+  </si>
+  <si>
+    <t>O prazo para remessa é de 5 dias em qualquer hipótese, devendo a comunicação da prisão ocorrer imediatamente após a captura do militar infrator.</t>
+  </si>
+  <si>
+    <t>Se não houver necessidade de diligências, a remessa deve ocorrer em até 48 horas, contadas da voz de prisão, prorrogáveis por igual período mediante despacho fundamentado.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.8 do Manual: "Conforme previsto na parte final do art. 251 do CPPM, caso haja necessidade de diligências... a remessa do APF ocorrerá no prazo máximo de 5 dias, sem prejuízo da comunicação formal ao juízo militar em até 24 horas".</t>
+  </si>
+  <si>
+    <t>Na apuração do crime de deserção comum, para se apurar o requisito temporal de consumação (ausência por mais de oito dias), o Manual estabelece etapas rigorosas. Sobre a "Segunda etapa" (contagem dos dias), assinale a correta:</t>
+  </si>
+  <si>
+    <t>A contagem dos dias de ausência inicia-se no momento exato em que for verificada a falta injustificada do militar, coincidindo com o início do expediente.</t>
+  </si>
+  <si>
+    <t>A contagem dos dias de ausência inicia-se à zero hora do dia seguinte àquele em que for verificada a falta injustificada do militar, não importando o horário em que essa falta ocorreu.</t>
+  </si>
+  <si>
+    <t>A contagem inicia-se 24 horas após a constatação da falta, momento em que deve ser lavrada a Parte de Ausência pelo Comandante da subunidade.</t>
+  </si>
+  <si>
+    <t>O início da contagem se dá no oitavo dia de ausência, denominado período de graça, consumando-se o crime no nono dia subsequente.</t>
+  </si>
+  <si>
+    <t>A alternativa reflete literalmente a "Segunda etapa" descrita no item 2.1.1 do Manual: "a contagem dos dias de ausência inicia-se à zero hora do dia seguinte àquele em que for verificada a falta injustificada do militar, não importando o horário em que essa falta injustificada ocorreu".</t>
+  </si>
+  <si>
+    <t>Segundo o Manual de Polícia Judiciária, no que tange à designação do encarregado do Inquérito Policial Militar (IPM), em conformidade com o art. 15 do CPPM, este deverá ser, sempre que possível:</t>
+  </si>
+  <si>
+    <t>Oficial de posto não inferior ao de capitão ou capitão-tenente, atendida, em cada caso, a sua hierarquia, se oficial o indiciado.</t>
+  </si>
+  <si>
+    <t>Oficial superior, independentemente da hierarquia do indiciado, para garantir a imparcialidade e a autoridade da investigação criminal.</t>
+  </si>
+  <si>
+    <t>Oficial da reserva remunerada ou reformado, desde que convocado especificamente para a função de encarregado de IPM complexos.</t>
+  </si>
+  <si>
+    <t>O próprio Comandante da Unidade, não sendo permitida a delegação dessa atribuição em crimes contra a segurança nacional.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.4 do Manual, citando o art. 15 do CPPM: "Será encarregado do inquérito, sempre que possível, oficial de posto não inferior ao de capitão ou capitão-tenente... atendida, em cada caso, a sua hierarquia, se oficial o indiciado".</t>
+  </si>
+  <si>
+    <t>No contexto do APF, sobre a participação do advogado na instrução, com base no Estatuto da OAB e na Súmula Vinculante nº 14 do STF, o Manual orienta que:</t>
+  </si>
+  <si>
+    <t>O advogado constituído poderá acompanhar a oitiva de todas as testemunhas e do condutor, podendo formular perguntas diretamente a eles.</t>
+  </si>
+  <si>
+    <t>É direito do defensor ter acesso amplo aos elementos de prova que digam respeito ao exercício do direito de defesa, inclusive diligências em andamento como oitivas de testemunhas.</t>
+  </si>
+  <si>
+    <t>O advogado poderá ter acesso aos documentos já produzidos no APF (pretérito), o que não abrange documentos que estão sendo produzidos, como uma oitiva de testemunha em andamento.</t>
+  </si>
+  <si>
+    <t>A presença do advogado é obrigatória em todos os atos do APF, sob pena de nulidade absoluta do procedimento inquisitorial.</t>
+  </si>
+  <si>
+    <t>De acordo com o item 1.9.7 do Manual: "Depreende-se do texto da Súmula Vinculante nº 14 do STF que o advogado poderá ter acesso aos documentos já produzidos no APF (pretérito), o que não abrange documentos que estão sendo produzidos... mas não poderá ter acesso a uma oitiva, em andamento, de testemunha".</t>
+  </si>
+  <si>
+    <t>Em relação à detenção do indiciado decretada pelo encarregado do IPM, prevista no art. 18 do CPPM, o Manual esclarece que tal medida cautelar:</t>
+  </si>
+  <si>
+    <t>Alcança todas as espécies de crime militar, tanto os próprios quanto os impróprios, independentemente de flagrante delito.</t>
+  </si>
+  <si>
+    <t>Só alcança os crimes militares próprios, devendo o encarregado certificar a existência de indícios de autoria e enquadramento nas hipóteses do art. 255 do CPPM.</t>
+  </si>
+  <si>
+    <t>Deve ser decretada exclusivamente pelo Juiz de Direito da AJME, mediante representação da autoridade de polícia judiciária militar.</t>
+  </si>
+  <si>
+    <t>Tem prazo máximo de 10 dias, improrrogáveis, devendo ser comunicada imediatamente ao Ministério Público.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.9.1 do Manual: "defendemos que a detenção cautelar só alcança os crimes militares próprios... Em suma, antes de decretar a detenção cautelar o encarregado do IPM deverá certificar... a) indícios de autoria de crime militar (próprio); b) enquadramento em pelo menos uma das hipóteses do art. 255 do CPPM".</t>
+  </si>
+  <si>
+    <t>Sobre a lavratura do termo de deserção na Instrução Provisória de Deserção (IPD), é correto afirmar que este documento:</t>
+  </si>
+  <si>
+    <t>Deve ser lavrado imediatamente após a confecção da Parte de Ausência, no segundo dia de falta injustificada.</t>
+  </si>
+  <si>
+    <t>Somente poderá ser confeccionado após a consumação do crime, sob pena de se afastar o tipo penal militar ora violado pelo militar desertor.</t>
+  </si>
+  <si>
+    <t>É lavrado pelo Comandante da Subunidade assim que o militar ultrapassa o período de graça de 48 horas.</t>
+  </si>
+  <si>
+    <t>Substitui o laudo de inspeção de saúde para fins de agregação do militar ao respectivo quadro de pessoal.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.2.3.7 do Manual (parte final): "Por fim, é necessário reforçar que o termo de deserção somente poderá ser confeccionado após a consumação do crime, sob pena de se afastar o tipo penal militar ora violado pelo militar desertor".</t>
+  </si>
+  <si>
+    <t>Em casos de autoria colateral incerta durante a lavratura do APF, onde não se descobre inicialmente quem produziu o resultado ofensivo, a providência correta indicada no Manual é:</t>
+  </si>
+  <si>
+    <t>A autuação de todos os envolvidos pelo crime militar consumado, em concurso de pessoas.</t>
+  </si>
+  <si>
+    <t>O relaxamento da prisão de todos os envolvidos por falta de materialidade delitiva.</t>
+  </si>
+  <si>
+    <t>A autuação pelo crime militar, na forma tentada, em face dos que concorreram para o resultado ofensivo.</t>
+  </si>
+  <si>
+    <t>A instauração imediata de IPM, sem a lavratura do APF, para melhor elucidação da autoria.</t>
+  </si>
+  <si>
+    <t>De acordo com o Quadro 1 no item 1.9.5 do Manual: Autoria Colateral Incerta (Quando não se descobre, inicialmente, quem produziu o resultado ofensivo) -&gt; Providência: "Autuação pelo crime militar, na forma tentada em face dos que concorreram para o resultado ofensivo".</t>
+  </si>
+  <si>
+    <t>Conforme o Manual, nos inquéritos que apuram o uso da força letal praticado no exercício profissional (Art. 16-A do CPPM), se o investigado não constituir defensor no prazo de 48 horas após a citação, a autoridade responsável deverá:</t>
+  </si>
+  <si>
+    <t>Nomear imediatamente um Oficial da unidade para atuar como defensor dativo do investigado.</t>
+  </si>
+  <si>
+    <t>Intimar a instituição a que estava vinculado o investigado para que esta, no prazo de 48 horas, indique defensor para a representação do investigado.</t>
+  </si>
+  <si>
+    <t>Encerrar o IPM e remeter os autos à justiça, relatando a revelia do investigado.</t>
+  </si>
+  <si>
+    <t>Solicitar ao juízo militar a suspensão do feito até que o investigado constitua advogado particular.</t>
+  </si>
+  <si>
+    <t>O item 3.12 do Manual cita o §2º do Art. 16-A do CPPM: "Esgotado o prazo... a autoridade responsável pela investigação deverá intimar a instituição a que estava vinculado o investigado... para que esta, no prazo de 48 (quarenta e oito) horas, indique defensor...".</t>
+  </si>
+  <si>
+    <t>No que concerne à designação do escrivão durante a lavratura do APF, o art. 245, § 4º do CPPM, citado no Manual, estabelece que se o indiciado for Oficial, a autoridade designará para exercer as funções de escrivão:</t>
+  </si>
+  <si>
+    <t>Um subtenente ou sargento com curso superior em Direito.</t>
+  </si>
+  <si>
+    <t>Um Oficial de qualquer posto, desde que mais antigo que o indiciado.</t>
+  </si>
+  <si>
+    <t>Um capitão, capitão-tenente, primeiro ou segundo-tenente.</t>
+  </si>
+  <si>
+    <t>Um Oficial do Quadro de Oficiais Complementares (QOC) obrigatoriamente.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.4.7.2 do Manual, que cita o art. 245, § 4º do CPPM: "Sendo o auto presidido por autoridade militar, designará esta, para exercer as funções de escrivão, um capitão, capitão-tenente, primeiro ou segundo-tenente, se o indiciado for oficial".</t>
+  </si>
+  <si>
+    <t>3.11 - MANUAL DE POLÍCIA JUDICIÁRIA</t>
+  </si>
+  <si>
+    <t>Conforme as disposições sobre os prazos do IPM (item 3.1 do Manual), quando se tratar de investigado ou indiciado solto, o prazo para conclusão é de 40 dias, prorrogáveis por mais 20 dias. Sobre a contagem desse prazo, o Manual ressalta que ela se inicia a partir:</t>
+  </si>
+  <si>
+    <t>da data de recebimento da Portaria de Delegação pelo encarregado.</t>
+  </si>
+  <si>
+    <t>da data em que o fato se tornou conhecido pela Administração Militar.</t>
+  </si>
+  <si>
+    <t>da data de instauração do inquérito, registrada na peça processual de "Despacho de instauração e ordens iniciais".</t>
+  </si>
+  <si>
+    <t>do dia seguinte ao recebimento da delegação, salvo se houver diligência urgente.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.1 do Manual: "Ainda é importante ressaltar que o prazo do IPM com o indiciado solto será contado a partir da data de instauração do inquérito (atribuição esta do encarregado da investigação), tendo como marco inicial a data registrada na peça processual de 'Despacho de instauração e ordens iniciais'".</t>
+  </si>
+  <si>
+    <t>Analisando as definições doutrinárias de Nucci (2016) acolhidas pelo Manual no item 1.2.2, a hipótese de "Flagrante forjado" caracteriza-se por:</t>
+  </si>
+  <si>
+    <t>Ser um crime impossível (Súmula 145/STF), onde o agente provocador induz a infração para prender o autor.</t>
+  </si>
+  <si>
+    <t>Ser um fato atípico, pois a pessoa presa jamais pensou ou agiu para compor qualquer trecho da infração penal, sendo o flagrante integralmente composto por terceiros.</t>
+  </si>
+  <si>
+    <t>Ocorrer quando a polícia retarda a intervenção para obter maiores dados sobre uma organização criminosa (ação controlada).</t>
+  </si>
+  <si>
+    <t>Ser uma hipótese válida onde a polícia, sem provocar, aguarda a ocorrência do crime após receber notícia de que ele será cometido.</t>
+  </si>
+  <si>
+    <t>De acordo com o item 1.2.2, alínea "d", do Manual: "Flagrante forjado [...] É fato atípico, tendo em vista que a pessoa presa jamais pensou ou agiu para compor qualquer trecho da infração penal". As demais opções referem-se ao flagrante preparado, diferido e esperado, respectivamente.</t>
+  </si>
+  <si>
+    <t>Sobre a "Deserção Especial", prevista no art. 190 do CPM e descrita no item 2.1.2 do Manual, é correto afirmar que, diferentemente da deserção comum:</t>
+  </si>
+  <si>
+    <t>A contagem de prazo exige o transcurso de 8 dias, porém inicia-se na data da partida da aeronave.</t>
+  </si>
+  <si>
+    <t>Não há o chamado período de graça e é irrelevante a contagem de prazo para caracterização do delito.</t>
+  </si>
+  <si>
+    <t>O crime só se consuma após a lavratura do termo de deserção pelo Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>Aplica-se apenas aos militares que abandonam posto ou serviço durante manobras ou exercícios.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.1.2 do Manual: "Nessa modalidade de deserção, não há o chamado período de graça e é irrelevante a contagem de prazo para caracterização do delito, tendo em vista que o crime se consuma com a partida do navio ou aeronave...".</t>
+  </si>
+  <si>
+    <t>No tocante à exigência de instrumento de procuração do advogado no IPM, o Manual esclarece no item 3.2.4 que a expressão "mesmo sem procuração", contida no Estatuto da OAB (Lei nº 8.906/94):</t>
+  </si>
+  <si>
+    <t>Alcança o IPM, permitindo a atuação do advogado sem procuração em qualquer fase, exceto no indiciamento.</t>
+  </si>
+  <si>
+    <t>Não alcança o IPM por expressa disposição do art. 16 do CPPM, sendo a atuação vinculada à apresentação de instrumento de procuração regular.</t>
+  </si>
+  <si>
+    <t>Aplica-se ao IPM apenas se o investigado estiver preso, garantindo a ampla defesa imediata.</t>
+  </si>
+  <si>
+    <t>Depende de autorização discricionária do encarregado do IPM, que pode relativizar o sigilo conforme o interesse da sociedade.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.2.4 do Manual: "Isto significa que a expressão 'mesmo sem procuração', incluída no inciso XIV do art. 7º da Lei Federal nº 8.906... não alcança o IPM por expressa disposição do art. 16 do CPPM".</t>
+  </si>
+  <si>
+    <t>O item 3.13.1 do Manual trata do dever do encarregado do IPM em requisitar perícia. Sobre a ordem de preferência e possibilidades para a realização dos exames periciais, recomenda-se que a primeira opção seja:</t>
+  </si>
+  <si>
+    <t>A designação de peritos pelo próprio encarregado da investigação, preferencialmente Oficiais da ativa.</t>
+  </si>
+  <si>
+    <t>A requisição do exame pericial a um órgão interno da própria instituição militar.</t>
+  </si>
+  <si>
+    <t>A requisição direcionada aos órgãos externos especializados (Instituto Médico Legal, Instituto de Criminalística, etc.).</t>
+  </si>
+  <si>
+    <t>A requisição de cópia do exame pericial já realizado em outro procedimento administrativo.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.13.1 do Manual: "No que se refere à ordem de preferência da solicitação do exame pericial, recomenda-se que a primeira opção do encarregado do IPM seja a requisição direcionada aos órgãos externos especializados".</t>
+  </si>
+  <si>
+    <t>Se, durante o curso do inquérito, o encarregado verificar a existência de indícios contra oficial de posto superior ao seu, ou mais antigo, conforme o art. 10, § 5º do CPPM e item 3.8.3 do Manual, deverá:</t>
+  </si>
+  <si>
+    <t>Arquivar provisoriamente os autos e aguardar a promoção do investigado para a reserva.</t>
+  </si>
+  <si>
+    <t>Continuar as investigações, pois a delegação inicial supre a questão da hierarquia.</t>
+  </si>
+  <si>
+    <t>Nomear um escrivão mais antigo para conduzir os atos que envolvam o oficial superior.</t>
+  </si>
+  <si>
+    <t>Promover os autos à autoridade militar delegante com a finalidade de viabilizar a sua substituição.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.3 do Manual: "[...] deverá promover os autos à autoridade militar delegante com a finalidade de viabilizar a sua substituição".</t>
+  </si>
+  <si>
+    <t>Nas especificidades do IPM que apura o uso da força letal (item 3.12), se o investigado citado não constituir defensor no prazo de 48 horas, a autoridade responsável pela investigação deverá intimar a instituição vinculada. Segundo o Manual, para a defesa, deve-se priorizar:</t>
+  </si>
+  <si>
+    <t>A nomeação de um Oficial da Unidade com formação jurídica.</t>
+  </si>
+  <si>
+    <t>A contratação de advogado particular custeado pela associação de classe.</t>
+  </si>
+  <si>
+    <t>A Defensoria Pública e, nos locais onde não estiver instalada, a disponibilização de profissional pela União ou Unidade da Federação.</t>
+  </si>
+  <si>
+    <t>O acionamento obrigatório do Assessor Jurídico da Unidade para atuar na defesa técnica.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.12 do Manual, citando o §3º do Art. 16-A: "a defesa caberá preferencialmente à Defensoria Pública e, nos locais em que ela não estiver instalada, a União ou a Unidade da Federação... deverá disponibilizar profissional".</t>
+  </si>
+  <si>
+    <t>Sobre a peça "Termo de Inventário" na IPD, descrita no item 2.2.3.4, o encarregado deve arrecadar:</t>
+  </si>
+  <si>
+    <t>Apenas os bens particulares do militar que tenham valor econômico superior a um salário mínimo.</t>
+  </si>
+  <si>
+    <t>Todos os bens patrimoniados da Instituição Militar Estadual que estejam na posse do militar ausente, deixados "para trás" ou extraviados por ele.</t>
+  </si>
+  <si>
+    <t>Exclusivamente o armamento e munições, sendo vedada a arrecadação de fardamento ou equipamentos de proteção.</t>
+  </si>
+  <si>
+    <t>Todo e qualquer objeto encontrado no armário do militar, incluindo bens de uso pessoal e documentos privados.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.2.3.4 do Manual: "O inventário consiste no levantamento e localização de todos os bens patrimoniados da Instituição Militar Estadual e que estejam na posse do militar ausente, materiais esses deixados 'para trás' ou extraviados por ele".</t>
+  </si>
+  <si>
+    <t>O uso de videoconferência para inquirição no IPM, abordado no item 3.8.14 do Manual, é permitido com base na alínea "a" do art. 3º do CPPM (suplementariedade). Nesse contexto, recomenda-se que:</t>
+  </si>
+  <si>
+    <t>As mídias gravadas sejam transcritas integralmente (degravação) em todos os casos, descartando-se o arquivo digital.</t>
+  </si>
+  <si>
+    <t>A videoconferência seja utilizada apenas para oitivas de testemunhas, sendo vedada para o investigado.</t>
+  </si>
+  <si>
+    <t>As mídias gravadas sejam juntadas aos autos de IPM por meio do preenchimento de modelo referencial (Ata de Inquirição).</t>
+  </si>
+  <si>
+    <t>A carta precatória seja extinta, substituindo-se integralmente pela videoconferência em todas as situações.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.14 do Manual: "Destarte, recomenda-se que as mídias gravadas da videoconferência sejam juntadas aos autos de IPM por meio do preenchimento do modelo referencial 49". O texto também menciona que a carta precatória deve ser usada em casos de indisponibilidade tecnológica.</t>
+  </si>
+  <si>
+    <t>Em relação ao recolhimento do militar à prisão após a lavratura do APF (item 1.6.4), o Manual e o art. 246 do CPPM orientam que o Exame de Corpo de Delito (ECD) deve ser realizado:</t>
+  </si>
+  <si>
+    <t>Imediatamente, se for o caso, como ato antecedente ao recolhimento do militar ao estabelecimento prisional.</t>
+  </si>
+  <si>
+    <t>Em até 24 horas após o recolhimento, para confirmar a integridade física na entrada do presídio.</t>
+  </si>
+  <si>
+    <t>Apenas se o preso alegar ter sofrido agressões durante a captura.</t>
+  </si>
+  <si>
+    <t>Obrigatoriamente no momento da audiência de custódia, perante o juiz.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.6.4 do Manual: "[...] visto que tal exame é necessário para todos os casos em que houver prisão em flagrante, como ato antecedente ao recolhimento do militar ao estabelecimento prisional militar". Também cita o art. 246 do CPPM: "procedendo-se, imediatamente, se for o caso, a exame de corpo de delito".</t>
+  </si>
+  <si>
+    <t>O conceito de militar da ativa é fundamental para a caracterização do crime militar, conforme o art. 9º, inciso II, do CPM. De acordo com o Manual (item 1.1.2), citando o Estatuto dos Militares (EMEMG), para fins de caracterização de crime militar, o militar em situação de atividade:</t>
+  </si>
+  <si>
+    <t>Só pode figurar como sujeito ativo se estiver escalado em serviço ou ordem de empenho.</t>
+  </si>
+  <si>
+    <t>Não poderá figurar como sujeito ativo se estiver em gozo de férias ou licença, pois suspende-se o vínculo funcional.</t>
+  </si>
+  <si>
+    <t>Pode se encontrar de folga, de férias, agregado, inclusive preso e, mesmo assim, poderá figurar como sujeito ativo de crime militar.</t>
+  </si>
+  <si>
+    <t>Deve estar obrigatoriamente fardado para que se configure a hipótese de crime militar contra civil.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.1.2 do Manual: "Nesse sentido, podemos concluir que o militar em situação de atividade, para fins de caracterização de crime militar, pode se encontrar de folga, de férias, agregado, inclusive preso e, mesmo assim, poderá figurar como sujeito ativo de crime militar".</t>
+  </si>
+  <si>
+    <t>Sobre o uso de algemas durante a prisão em flagrante, o Manual transcreve a Súmula Vinculante nº 11 do STF. O descumprimento desta norma, ou seja, o uso não justificado por escrito da excepcionalidade, enseja:</t>
+  </si>
+  <si>
+    <t>Apenas a responsabilidade disciplinar do agente, mantendo-se a validade da prisão processual.</t>
+  </si>
+  <si>
+    <t>A nulidade da prisão ou do ato processual a que se refere, sem prejuízo da responsabilidade disciplinar, civil e penal do agente ou da autoridade.</t>
+  </si>
+  <si>
+    <t>A responsabilidade civil do Estado, sem reflexos na validade do auto de prisão em flagrante, dado o princípio da instrumentalidade das formas.</t>
+  </si>
+  <si>
+    <t>A nulidade relativa do ato, sanável mediante justificativa posterior em até 24 horas.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.2.4 do Manual (Súmula Vinculante nº 11): "[...] sob pena de responsabilidade disciplinar, civil e penal do agente ou da autoridade e de nulidade da prisão ou do ato processual a que se refere, sem prejuízo da responsabilidade civil do Estado".</t>
+  </si>
+  <si>
+    <t>O Manual aborda o conceito de "Flagrante Eficiente" no item 1.6.1. Embora não previsto expressamente na legislação militar, tal procedimento tem sido empregado no processo penal castrense para:</t>
+  </si>
+  <si>
+    <t>Permitir que o condutor, ofendido e testemunhas sejam liberados logo após as suas respectivas oitivas e coleta de assinaturas em seus termos.</t>
+  </si>
+  <si>
+    <t>Dispensar a lavratura do auto de prisão em flagrante em crimes de menor potencial ofensivo.</t>
+  </si>
+  <si>
+    <t>Permitir a oitiva simultânea de todas as testemunhas para agilizar a confecção da nota de culpa.</t>
+  </si>
+  <si>
+    <t>Possibilitar a ratificação da prisão antes mesmo da chegada do laudo pericial de constatação.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.6.1 do Manual: "O flagrante eficiente [...] é aquele em que o condutor, ofendido e testemunhas são liberados logo após as suas respectivas oitivas e coleta de assinaturas em seus termos".</t>
+  </si>
+  <si>
+    <t>Quando o Presidente do APF decide pela não ratificação da prisão (relaxamento), o Manual estabelece no item 1.6.6 que ele deverá elaborar o "Despacho não ratificador". Este documento tem a função processual específica de:</t>
+  </si>
+  <si>
+    <t>Complementar o relatório final, justificando a soltura.</t>
+  </si>
+  <si>
+    <t>Substituir o "relatório com a ratificação da prisão em flagrante".</t>
+  </si>
+  <si>
+    <t>Servir como alvará de soltura provisória a ser assinado pelo juiz.</t>
+  </si>
+  <si>
+    <t>Encaminhar o militar para avaliação disciplinar sumária.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.6.6, alínea "c", do Manual: "elaborar o despacho não ratificador (referido documento substituirá o “relatório com a ratificação da prisão em flagrante”), em conformidade ao modelo referencial".</t>
+  </si>
+  <si>
+    <t>Nos "Casos Assimilados" à deserção (art. 188 do CPM), a contagem do prazo também é relevante. Segundo o Manual (item 2.1.1), para definir o marco inicial da contagem do tempo (falta injustificada) na hipótese do inciso II do art. 188, deve-se considerar:</t>
+  </si>
+  <si>
+    <t>O dia seguinte ao término das férias.</t>
+  </si>
+  <si>
+    <t>O dia da evasão ou fuga da escolta.</t>
+  </si>
+  <si>
+    <t>O dia em que termina ou é cassada a licença ou agregação ou em que é declarado o estado de sítio ou de guerra.</t>
+  </si>
+  <si>
+    <t>O momento da partida do navio ou aeronave.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.1.1 do Manual, nas alíneas finais que descrevem os casos assimilados: "b) o dia em que termina ou é cassada a licença ou agregação ou em que é declarado o estado de sítio ou de guerra (inciso II do art. 188 do CPM)".</t>
+  </si>
+  <si>
+    <t>A reprodução simulada dos fatos (reconstituição) é um meio de prova admitido no IPM (item 3.13.4.5). Contudo, o Manual e o art. 13 do CPPM impõem vedações expressas. A reconstituição NÃO poderá ser procedida se:</t>
+  </si>
+  <si>
+    <t>O indiciado se recusar a participar, invocando o direito ao silêncio.</t>
+  </si>
+  <si>
+    <t>Não houver peritos oficiais disponíveis na unidade militar.</t>
+  </si>
+  <si>
+    <t>Contrariar a moralidade ou a ordem pública, ou atentar contra a hierarquia ou a disciplina militar.</t>
+  </si>
+  <si>
+    <t>O fato tiver ocorrido em local de difícil acesso ou fora da jurisdição militar.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.13.4.5 do Manual (citando o parágrafo único do Art. 13 do CPPM): "desde que esta não contrarie a moralidade ou a ordem pública, nem atente contra a hierarquia ou a disciplina militar".</t>
+  </si>
+  <si>
+    <t>Sobre o reconhecimento de pessoas no IPM, o Manual (item 3.8.17), amparado no art. 368 do CPPM, estabelece um rito. Quanto à colocação de outras pessoas ao lado daquela que deve ser reconhecida, a norma determina que tal providência deve ser tomada:</t>
+  </si>
+  <si>
+    <t>Obrigatoriamente, sob pena de nulidade do ato.</t>
+  </si>
+  <si>
+    <t>Se possível, devendo as pessoas ter qualquer semelhança com a que deve ser reconhecida.</t>
+  </si>
+  <si>
+    <t>Apenas se o reconhecedor manifestar dúvida quanto à fisionomia do autor.</t>
+  </si>
+  <si>
+    <t>Preferencialmente com pessoas de patentes superiores para garantir a isenção.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.17, alínea "b", do Manual: "a pessoa cujo reconhecimento se pretende fazer, será colocada, se possível, ao lado de outras que com ela tiverem qualquer semelhança".</t>
+  </si>
+  <si>
+    <t>A "Disponibilidade Cautelar" é uma medida administrativa citada no Manual (item 3.11) como opção ao encarregado do IPM. Esta medida consiste na transferência momentânea do militar e tem prazo de:</t>
+  </si>
+  <si>
+    <t>Até 30 dias, improrrogáveis.</t>
+  </si>
+  <si>
+    <t>Até 15 dias, prorrogável por igual período, mediante ato fundamentado do Comandante-Geral.</t>
+  </si>
+  <si>
+    <t>Até 20 dias, prorrogável por mais 10 dias, por decisão do Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>Tempo indeterminado, perdurando enquanto durar o IPM.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.11 do Manual: "A medida tem o prazo de até 15 dias, prorrogável por igual período, mediante ato fundamentado do Comandante-Geral da respectiva Instituição Militar Estadual".</t>
+  </si>
+  <si>
+    <t>Em relação à Menagem (item 3.9.3), o Manual estabelece uma distinção importante sobre o cômputo da pena (detração) caso haja condenação. Diferente da menagem em residência ou cidade, a menagem concedida em quartel (intra-murus):</t>
+  </si>
+  <si>
+    <t>Não dá direito à detração da pena.</t>
+  </si>
+  <si>
+    <t>Terá natureza de liberdade provisória e não se computará na pena.</t>
+  </si>
+  <si>
+    <t>Terá a natureza de prisão provisória e o militar terá direito à detração da pena.</t>
+  </si>
+  <si>
+    <t>Só pode ser decretada se o militar for réu confesso.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.9.3 do Manual: "Caso seja concedida em quartel, a menagem intra-murus terá a natureza de prisão provisória... se condenado, terá direito à detração da pena, alusivo ao tempo que teve que permanecer nos limites da Unidade Militar".</t>
+  </si>
+  <si>
+    <t>Quanto à oitiva de testemunhas no IPM, o art. 354 do CPPM, citado no Manual (item 3.8.13), prevê que certas pessoas (ascendente, descendente, cônjuge, irmão, filho adotivo) estão dispensadas de depor. Contudo, essa dispensa NÃO se aplica quando:</t>
+  </si>
+  <si>
+    <t>O crime for contra a administração militar.</t>
+  </si>
+  <si>
+    <t>A testemunha for militar da ativa.</t>
+  </si>
+  <si>
+    <t>O encarregado do IPM determinar o depoimento por conveniência da instrução.</t>
+  </si>
+  <si>
+    <t>Não for possível, por outro meio, obter a prova do fato delituoso.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.13 do Manual: "estão dispensadas de depor, salvo quando não for possível, por outro meio, obter a prova do fato delituoso".</t>
+  </si>
+  <si>
+    <t>Com o advento da Lei Federal nº 8.236/1991, houve alteração normativa referente às diligências para localização do desertor na Instrução Provisória de Deserção (IPD). Conforme o Manual (item 2.1.3), atualmente:</t>
+  </si>
+  <si>
+    <t>A realização das diligências é obrigatória apenas se o militar ausente for Oficial, devendo constar no termo de inventário.</t>
+  </si>
+  <si>
+    <t>Não há mais a previsão legal para a realização compulsória das diligências necessárias para a localização e retorno do ausente à sua Unidade no período compreendido entre a formalização da ausência e a consumação da deserção.</t>
+  </si>
+  <si>
+    <t>As diligências são facultativas, mas se realizadas, o termo de diligências deve ser obrigatoriamente juntado aos autos antes da Parte de Ausência.</t>
+  </si>
+  <si>
+    <t>A Administração Militar está proibida de realizar qualquer medida preliminar para localizar o ausente, sob pena de caracterizar constrangimento ilegal antes da consumação do delito.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.1.3 do Manual: "Vale ressaltar que, com o advento da Lei Federal nº 8.236... não há mais a previsão legal para a realização compulsória das diligências necessárias para a localização e retorno do ausente à sua Unidade, no período compreendido entre a formalização da ausência e a consumação da deserção".</t>
+  </si>
+  <si>
+    <t>No tocante à preservação do local de crime, quando houver necessidade de a guarnição adentrar o perímetro de isolamento, inclusive para socorro, o Manual (item 1.9.2, alínea "a") estabelece um protocolo específico de deslocamento. Os militares deverão:</t>
+  </si>
+  <si>
+    <t>Adentrar sempre em dupla, realizando varredura circular para garantir a segurança da cena.</t>
+  </si>
+  <si>
+    <t>Adentrar no perímetro de isolamento em linha reta, ou pelo menor trajeto possível, enquanto os demais militares cuidarão da segurança.</t>
+  </si>
+  <si>
+    <t>Contornar o perímetro externamente até o ponto mais próximo da vítima, evitando pisar em qualquer superfície não pavimentada.</t>
+  </si>
+  <si>
+    <t>Aguardar a chegada da perícia para qualquer incursão, salvo se houver risco iminente de explosão ou desabamento.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.9.2, alínea "a", do Manual: "adentrar no perímetro de isolamento em linha reta, ou pelo menor trajeto possível, enquanto os demais militares cuidarão da segurança".</t>
+  </si>
+  <si>
+    <t>Sobre a "Degravação" em sede de IPM (item 3.13.4.3), o Manual orienta que o texto deve conter exatamente o teor das falas. Quanto à extensão da transcrição, a norma ressalta que:</t>
+  </si>
+  <si>
+    <t>É obrigatória a degravação integral de todo o conteúdo das conversações para garantir a fidelidade da prova, sob pena de nulidade.</t>
+  </si>
+  <si>
+    <t>Não há necessidade de se degravar todo o conteúdo das conversações, podendo-se limitar às partes que sejam de interesse investigativo e que tenha relevância para a apuração.</t>
+  </si>
+  <si>
+    <t>Deve-se transcrever apenas as falas do investigado, descartando-se os diálogos de terceiros ou testemunhas.</t>
+  </si>
+  <si>
+    <t>O perito deve resumir os diálogos irrelevantes em tópicos, transcrevendo ipsis litteris apenas as confissões.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.13.4.3 do Manual: "Cumpre ressaltar que não há necessidade de se degravar todo o conteúdo das conversações, podendo-se limitar às partes que sejam de interesse investigativo e que tenha relevância para a apuração".</t>
+  </si>
+  <si>
+    <t>Em relação à "Acareação" de testemunhas no IPM (item 3.8.16), quando estas forem colocadas face a face para explicar divergências, o Manual esclarece um ponto específico sobre o compromisso legal. As testemunhas:</t>
+  </si>
+  <si>
+    <t>Devem prestar novo compromisso legal de dizer a verdade antes de iniciar a acareação.</t>
+  </si>
+  <si>
+    <t>Estão dispensadas de prestar novo compromisso, pois não se trata de um novo depoimento, mas de uma simples complementação daquele que já foi formalizado.</t>
+  </si>
+  <si>
+    <t>Só prestam compromisso se houver contradição sobre a autoria do delito.</t>
+  </si>
+  <si>
+    <t>Devem assinar um termo de retratação prévio caso mudem a versão dos fatos.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.16 do Manual: "No caso de testemunhas a serem acareadas, é importante ressaltar sobre a desnecessidade de se prestar um novo compromisso, pois não se trata de um novo depoimento, mas de uma simples complementação daquele que já foi formalizado".</t>
+  </si>
+  <si>
+    <t>Nos casos em que o conduzido se recusa a assinar o Auto de Prisão em Flagrante, ou não souber ou não puder fazê-lo, o Manual (item 1.4.7.7), citando o § 3º do art. 245 do CPPM, determina que o auto:</t>
+  </si>
+  <si>
+    <t>Será assinado por duas testemunhas, que lhe tenham ouvido a leitura na presença do indiciado, do condutor e das testemunhas do fato delituoso.</t>
+  </si>
+  <si>
+    <t>Será considerado nulo, devendo ser relaxada a prisão imediatamente.</t>
+  </si>
+  <si>
+    <t>Será assinado "a rogo" pelo advogado constituído ou defensor nomeado.</t>
+  </si>
+  <si>
+    <t>Deverá ser encaminhado ao juiz sem assinatura, com uma certidão do escrivão atestando a recusa.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.4.7.7 do Manual (citação do Art. 245, § 3º): "o auto será assinado por duas testemunhas, que lhe tenham ouvido a leitura na presença do indiciado, do condutor e das testemunhas do fato delituoso".</t>
+  </si>
+  <si>
+    <t>O reconhecimento fotográfico não está expressamente previsto na legislação processual penal militar como meio de prova. Contudo, o Manual (item 3.8.17) afirma que este meio probatório é perfeitamente válido em razão:</t>
+  </si>
+  <si>
+    <t>Do princípio da verdade real e da livre convicção do encarregado.</t>
+  </si>
+  <si>
+    <t>Da analogia com o Código de Processo Penal comum, permitida pelo art. 3º do CPPM.</t>
+  </si>
+  <si>
+    <t>Do disposto no art. 295 do CPPM, que trata da prova inominada.</t>
+  </si>
+  <si>
+    <t>Da jurisprudência consolidada do Superior Tribunal Militar que supre a lacuna legislativa.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.17 do Manual: "Todavia, entende-se que este meio probatório é perfeitamente válido em razão do disposto no art. 295 do CPPM".</t>
+  </si>
+  <si>
+    <t>Para a configuração de crime militar praticado por militar da reserva ou reformado (item 1.1.3 e Art. 9º, III do CPM), é necessário que a ação seja contra as instituições militares. Dentre as hipóteses, enquadra-se o crime praticado contra:</t>
+  </si>
+  <si>
+    <t>Militar da ativa que esteja em serviço ou, se de folga, em local sujeito à Administração Militar.</t>
+  </si>
+  <si>
+    <t>Qualquer militar, da ativa ou da reserva, desde que o fato ocorra em via pública.</t>
+  </si>
+  <si>
+    <t>Civil, desde que o autor utilize armamento de propriedade da corporação.</t>
+  </si>
+  <si>
+    <t>Patrimônio particular de outro militar, ainda que fora de lugar sujeito à administração militar.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.1.3 do Manual: "requerem que a ação ou omissão seja contra: militar da ativa que esteja em serviço ou, se de folga, em local sujeito à Administração Militar".</t>
+  </si>
+  <si>
+    <t>Além dos tópicos obrigatórios previstos no art. 22 do CPPM para o Relatório do IPM (transgressão, indícios de crime, prisão preventiva), o Manual (item 3.8.18) estabelece que é dever do encarregado emitir parecer também sobre:</t>
+  </si>
+  <si>
+    <t>A dosimetria da pena a ser aplicada ao indiciado.</t>
+  </si>
+  <si>
+    <t>A possibilidade de suspensão condicional do processo.</t>
+  </si>
+  <si>
+    <t>A possibilidade de declaração da legitimidade da ação do militar investigado, de acordo com parâmetros de norma conjunta própria.</t>
+  </si>
+  <si>
+    <t>A necessidade de instauração de Conselho de Justificação ou de Disciplina.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.18 do Manual: "Além dos tópicos acima mencionados é dever do encarregado do IPM emitir seu parecer quanto à possibilidade de declaração da legitimidade da ação do militar investigado...".</t>
+  </si>
+  <si>
+    <t>O Manual (item 3.2.4) estabelece uma distinção entre o caráter sigiloso do IPM (art. 16 do CPPM) e do inquérito policial comum (art. 20 do CPP). Diferentemente da autoridade policial comum, o encarregado do IPM:</t>
+  </si>
+  <si>
+    <t>Não possui margem de discricionariedade para relativizar o caráter sigiloso do inquérito.</t>
+  </si>
+  <si>
+    <t>Pode decretar o sigilo absoluto, inclusive para o advogado, em qualquer circunstância.</t>
+  </si>
+  <si>
+    <t>Deve submeter a decisão de sigilo à homologação do Ministério Público Militar.</t>
+  </si>
+  <si>
+    <t>Pode levantar o sigilo se houver clamor público ou interesse da imprensa.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.2.4 do Manual: "O CPPM não dá margem de discricionariedade ao encarregado do IPM para relativizar o seu caráter sigiloso, diferente do CPP que possibilita à autoridade policial essa faculdade...".</t>
+  </si>
+  <si>
+    <t>Sobre o "Indiciamento" no IPM (item 3.8.12), o Manual cita Sirino e Giostri para enumerar os pressupostos de validade da medida. Dentre eles, para que o militar seja indiciado, além da existência de infração penal e fundada suspeita de autoria, é necessário que:</t>
+  </si>
+  <si>
+    <t>O indiciado tenha confessado a prática do delito.</t>
+  </si>
+  <si>
+    <t>O Ministério Público tenha oferecido a denúncia.</t>
+  </si>
+  <si>
+    <t>Não tenha agido o indiciado em excludente de ilicitude.</t>
+  </si>
+  <si>
+    <t>A prisão preventiva tenha sido decretada pelo juiz.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.12 do Manual, listando os pressupostos: "c) não ter agido o indiciado em excludente de ilicitude".</t>
+  </si>
+  <si>
+    <t>CASO HIPOTÉTICO: O Soldado "Y" estava escalado para o serviço no dia 05 de abril (05/04), com término previsto para as 18h00min do mesmo dia. O militar faltou injustificadamente. Considerando a contagem de prazos para a deserção descrita no Manual (Quadro 2 - Item 2.1.1), assinale a alternativa que indica CORRETAMENTE a data em que deve ser confeccionada a "Parte de Ausência" e a data da "Consumação" do crime, respectivamente:</t>
+  </si>
+  <si>
+    <t>Parte de Ausência: 06/04; Consumação: 13/04.</t>
+  </si>
+  <si>
+    <t>Parte de Ausência: 07/04; Consumação: 14/04.</t>
+  </si>
+  <si>
+    <t>Parte de Ausência: 06/04; Consumação: 14/04.</t>
+  </si>
+  <si>
+    <t>Parte de Ausência: 07/04; Consumação: 13/04.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**Cálculo da Pegadinha:**1. Falta: 05/04.2. Início da Contagem (1º dia de ausência): 00h do dia seguinte (06/04).3. Parte de Ausência (3ª etapa): 24h após o início da contagem -&gt; 00h do dia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07/04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2º dia de ausência).4. Consumação (5ª etapa): Dia do término do serviço (05/04) + 9 = Dia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14/04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (00h00min do 9º dia de ausência).Conforme Item 2.1.1 e Quadro 2 do Manual.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre os prazos do IPM (Item 3.1), há uma distinção fundamental no marco inicial da contagem quando o indiciado está solto. Enquanto no caso de indiciado preso o prazo conta-se da execução da ordem de prisão, no caso de indiciado SOLTO, o prazo de 40 dias conta-se a partir:</t>
+  </si>
+  <si>
+    <t>Do recebimento da Portaria de Delegação pelo encarregado.</t>
+  </si>
+  <si>
+    <t>Da data do fato delituoso.</t>
+  </si>
+  <si>
+    <t>Da data registrada na peça processual de "Despacho de instauração e ordens iniciais".</t>
+  </si>
+  <si>
+    <t>Do primeiro ato de inquirição realizado no inquérito.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 3.1: "o prazo do IPM com o indiciado solto será contado a partir da data de instauração do inquérito... tendo como marco inicial a data registrada na peça processual de 'Despacho de instauração e ordens iniciais'". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A maioria dos candidatos pensaria na data da portaria de delegação.</t>
+    </r>
+  </si>
+  <si>
+    <t>O encarregado do IPM decidiu decretar a "Detenção do Indiciado" com base no art. 18 do CPPM (Item 3.9.1). Diferentemente da prisão preventiva e dos prazos do próprio inquérito, o prazo máximo legal para esta detenção (sem considerar prorrogações) e a autoridade competente para prorrogá-la são, respectivamente:</t>
+  </si>
+  <si>
+    <t>20 dias, prorrogáveis pelo Juiz de Direito.</t>
+  </si>
+  <si>
+    <t>30 dias, prorrogáveis pelo Comandante da Região/Distrito Naval/Zona Aérea.</t>
+  </si>
+  <si>
+    <t>15 dias, prorrogáveis pelo Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>30 dias, prorrogáveis pelo Encarregado do IPM mediante homologação do MP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 3.9.1 (Citação do Art. 18 do CPPM): "indiciado poderá ficar detido... até trinta dias... Esse prazo poderá ser prorrogado, por mais vinte dias pelo comandante da região, distrito naval ou zona aérea". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confundir o prazo da detenção (30 dias) com o prazo de conclusão do IPM de réu preso (20 dias).</t>
+    </r>
+  </si>
+  <si>
+    <t>Em um APF onde foram necessárias diligências complementares (ex: laudos periciais complexos), o prazo para a remessa dos autos à Justiça Militar, conforme o Manual (Item 1.8), sofre alteração. Nesse cenário específico, a remessa ocorrerá:</t>
+  </si>
+  <si>
+    <t>Imediatamente, independente das diligências.</t>
+  </si>
+  <si>
+    <t>No prazo máximo de 5 dias, dispensando-se qualquer comunicação prévia.</t>
+  </si>
+  <si>
+    <t>No prazo máximo de 5 dias, sem prejuízo da comunicação formal da prisão ao juízo militar em até 24 horas.</t>
+  </si>
+  <si>
+    <t>Em até 48 horas, prorrogáveis por mais 24 horas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 1.8: "caso haja necessidade de diligências... a remessa do APF ocorrerá no prazo máximo de 5 dias, sem prejuízo da comunicação formal ao juízo militar em até 24 horas". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Esquecer a obrigação de comunicar a prisão em 24h mesmo que o envio dos autos demore 5 dias.</t>
+    </r>
+  </si>
+  <si>
+    <t>CASO HIPOTÉTICO: Um Capitão PM é encarregado de um IPM onde o indiciado é um Sargento. O advogado do Sargento solicita acompanhar a oitiva de uma testemunha chave (um Tenente) que está sendo ouvida naquele momento. Com base na Súmula Vinculante nº 14 citada no Manual (Item 1.9.7 e 3.2), o encarregado deve:</t>
+  </si>
+  <si>
+    <t>Deferir o pedido, pois a ampla defesa garante acesso a todos os atos do inquérito.</t>
+  </si>
+  <si>
+    <t>Indeferir o pedido de acesso à oitiva em andamento, pois a Súmula garante acesso apenas aos elementos de prova já documentados (pretéritos).</t>
+  </si>
+  <si>
+    <t>Deferir parcialmente, permitindo que o advogado assista, mas não faça perguntas.</t>
+  </si>
+  <si>
+    <t>Indeferir, pois o advogado só pode participar do interrogatório do indiciado se tiver procuração com poderes especiais.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 1.9.7 (aplicável ao IPM): "o advogado poderá ter acesso aos documentos já produzidos... mas não poderá ter acesso a uma oitiva, em andamento, de testemunha". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A "ampla defesa" no inquérito é mitigada; o acesso é aos autos documentados, não às diligências em curso.</t>
+    </r>
+  </si>
+  <si>
+    <t>O instituto da "Disponibilidade Cautelar" (Item 3.11) permite transferir momentaneamente o militar para preservar a investigação. O prazo máximo total dessa medida, considerando a prorrogação permitida por ato do Comandante-Geral, é de:</t>
+  </si>
+  <si>
+    <t>15 dias improrrogáveis.</t>
+  </si>
+  <si>
+    <t>30 dias (15 dias + 15 dias).</t>
+  </si>
+  <si>
+    <t>40 dias (20 dias + 20 dias).</t>
+  </si>
+  <si>
+    <t>60 dias (30 dias + 30 dias).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 3.11: "A medida tem o prazo de até 15 dias, prorrogável por igual período...". Logo, 15 + 15 = 30 dias no total. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Confundir com os prazos de prisão ou do IPM.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobre a "Menagem" (Item 3.9.3), o Manual estabelece que apenas a autoridade judiciária pode decretá-la. Contudo, o encarregado do IPM pode solicitá-la. Se concedida na modalidade "intra-murus" (em quartel), ela possui uma característica jurídica específica em relação à pena futura:</t>
+  </si>
+  <si>
+    <t>Tem natureza de liberdade provisória e não abate da pena.</t>
+  </si>
+  <si>
+    <t>Tem natureza de prisão administrativa e conta em dobro para a pena.</t>
+  </si>
+  <si>
+    <t>Tem natureza de prisão provisória e dá direito à detração da pena.</t>
+  </si>
+  <si>
+    <t>É considerada medida disciplinar e não interfere na pena judicial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Item 3.9.3: "a menagem intra-murus terá a natureza de prisão provisória... se condenado, terá direito à detração da pena". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A menagem em residência/cidade NÃO dá direito à detração (liberdade provisória), diferentemente da intra-murus.</t>
+    </r>
+  </si>
+  <si>
+    <t>No tocante à formulação de quesitos para perícias no IPM (Item 3.13.3), o Manual destaca uma obrigação importante do encarregado para garantir a validade probatória futura (art. 9º, parágrafo único do CPPM). O encarregado deve:</t>
+  </si>
+  <si>
+    <t>Formular sozinho os quesitos para manter o sigilo.</t>
+  </si>
+  <si>
+    <t>Solicitar quesitos apenas ao Ministério Público.</t>
+  </si>
+  <si>
+    <t>Oportunizar ao indiciado (e seu advogado) a apresentação de quesitos e registrar tal fato nos autos.</t>
+  </si>
+  <si>
+    <t>Encaminhar os quesitos diretamente ao Juiz para homologação prévia.</t>
+  </si>
+  <si>
+    <t>Conforme Item 3.13.3: "é de suma importância que o encarregado registre nos autos do IPM que foi oportunizado ao indiciado a apresentação de quesitos... garante que a perícia... tenha validade probatória".</t>
+  </si>
+  <si>
+    <t>Em um caso de crime militar onde há concurso de agentes e não se consegue determinar inicialmente qual militar praticou o ato ("Autoria Indefinida"), a providência correta na lavratura do APF, segundo o Quadro 1 do Item 1.9.5, é:</t>
+  </si>
+  <si>
+    <t>Não lavrar o APF e instaurar IPM para apurar a autoria.</t>
+  </si>
+  <si>
+    <t>Lavrar o APF apenas contra o mais antigo da guarnição.</t>
+  </si>
+  <si>
+    <t>Lavrar o APF em face de todos os militares que agiram em concurso de pessoas.</t>
+  </si>
+  <si>
+    <t>Relaxar a prisão de todos por falta de indícios de autoria individualizada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conforme Quadro 1, Item 1.9.5: Autoria Indefinida -&gt; Providência: "Lavratura do APF em face de todos os militares que agiram em concurso de pessoas". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegadinha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Diferenciar de "autoria desconhecida" (onde se instaura IPM) e "autoria colateral".</t>
+    </r>
+  </si>
+  <si>
+    <t>De acordo com a Súmula Vinculante nº 11 citada no Manual (Item 1.2.4), o uso de algemas é excepcional. Se o agente usar algemas sem justificar a excepcionalidade por escrito, uma das consequências jurídicas expressas na Súmula é:</t>
+  </si>
+  <si>
+    <t>A nulidade da prisão ou do ato processual a que se refere.</t>
+  </si>
+  <si>
+    <t>Apenas a responsabilidade disciplinar, mantendo-se a validade da prisão.</t>
+  </si>
+  <si>
+    <t>A conversão automática da prisão em flagrante em prisão preventiva.</t>
+  </si>
+  <si>
+    <t>O trancamento imediato da ação penal por falta de justa causa.</t>
+  </si>
+  <si>
+    <t>Conforme Item 1.2.4 (Súmula Vinculante 11): "...sob pena de responsabilidade disciplinar, civil e penal do agente... e de nulidade da prisão ou do ato processual a que se refere".</t>
+  </si>
+  <si>
+    <t>O Manual aborda a "Suspeição do Encarregado do IPM" no item 3.5. Diferentemente do que ocorre no processo judicial, onde as partes podem recusar o juiz, no inquérito policial militar:</t>
+  </si>
+  <si>
+    <t>A suspeição pode ser arguida pelo indiciado a qualquer tempo, devendo ser resolvida pelo Comandante da Unidade em 48 horas.</t>
+  </si>
+  <si>
+    <t>A lei processual penal militar não permite a oposição de suspeição do encarregado de IPM, entretanto, este deve se declarar suspeito quando ocorrer motivo legal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A suspeição só pode ser levantada pelo Ministério Público, na qualidade de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>custos legis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, não cabendo à defesa tal prerrogativa na fase pré-processual.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aplica-se integralmente o rito do Código de Processo Penal comum, permitindo a exceção de suspeição com suspensão imediata das investigações.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.5 do Manual: "É importante assinalar que a lei processual penal militar não permite a oposição de suspeição do encarregado de IPM. Entretanto, o encarregado deve se declarar suspeito quando ocorrer o referido motivo legal...".</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.9.6 do Manual, as "Transgressões disciplinares residuais" afloradas ao final do APF devem ser tratadas de forma específica. Se o Presidente do APF constatar, em seu relatório, a existência de infração disciplinar a punir, tal questão será:</t>
+  </si>
+  <si>
+    <t>Resolvida pelo próprio Presidente do APF, que aplicará a sanção imediatamente após a lavratura do auto.</t>
+  </si>
+  <si>
+    <t>Encaminhada diretamente à Justiça Militar, juntamente com o APF, para que o Juiz aplique a medida disciplinar cabível.</t>
+  </si>
+  <si>
+    <t>Resolvida pela autoridade que primeiro detiver o poder disciplinar sobre o militar investigado, ou pelas autoridades superiores também competentes.</t>
+  </si>
+  <si>
+    <t>Arquivada, em razão do princípio da consunção, uma vez que o crime militar absorve a transgressão disciplinar.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.9.6 do Manual: "As transgressões disciplinares, porventura afloradas ao final Auto de Prisão em Flagrante, serão resolvidas pela autoridade que primeiro detiver o poder disciplinar sobre o militar investigado, ou pelas autoridades superiores...".</t>
+  </si>
+  <si>
+    <t>O instituto do "Desindiciamento" é abordado no item 3.8.12 do Manual. Caso seja necessário retirar a condição de indiciado de um militar durante o trâmite processual administrativo, quem possui competência para realizar tal ato e em que momento?</t>
+  </si>
+  <si>
+    <t>O próprio encarregado do IPM, a qualquer momento, mediante despacho fundamentado nos autos.</t>
+  </si>
+  <si>
+    <t>O Ministério Público Militar, no momento do oferecimento da denúncia.</t>
+  </si>
+  <si>
+    <t>O Juiz de Direito, após a remessa do Inquérito, mediante requerimento da defesa.</t>
+  </si>
+  <si>
+    <t>A autoridade de polícia judiciária militar delegante, de maneira motivada e na fase de avocação da solução do IPM.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.12 do Manual (parte final): "Por fim, a autoridade de polícia judiciária militar delegante poderá fazer o desindiciamento, desde que de maneira motivada e na fase de avocação da solução do IPM".</t>
+  </si>
+  <si>
+    <t>Sobre a participação do "Assessor Jurídico" na lavratura do APF, o Manual (item 1.9.3) estabelece que, caso a Unidade possua tal profissional, ele poderá ser acionado para:</t>
+  </si>
+  <si>
+    <t>Assumir a presidência do APF quando o crime for complexo.</t>
+  </si>
+  <si>
+    <t>Realizar a defesa técnica do militar conduzido, caso este não possua advogado.</t>
+  </si>
+  <si>
+    <t>Acompanhar e assessorar o Comandante e o Presidente do APF na adoção de providências pertinentes, em delitos praticados em serviço ou em decorrência deste.</t>
+  </si>
+  <si>
+    <t>Homologar a nota de culpa antes da sua entrega ao preso, garantindo a legalidade do ato.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.9.3 do Manual: "Caso a Unidade possua assessor jurídico, este poderá ser acionado para acompanhar e assessorar o Comandante e o Presidente do APF na adoção de providências pertinentes... em delitos praticados em serviço ou em decorrência deste".</t>
+  </si>
+  <si>
+    <t>No tocante à "Formulação de Quesitos" para perícias no IPM (item 3.13.3), o Manual cita o art. 316 do CPPM. De acordo com a norma, além da autoridade, quem mais pode formular quesitos durante a fase de inquérito?</t>
+  </si>
+  <si>
+    <t>Apenas o Ministério Público.</t>
+  </si>
+  <si>
+    <t>O indiciado.</t>
+  </si>
+  <si>
+    <t>As testemunhas e o ofendido.</t>
+  </si>
+  <si>
+    <t>Exclusivamente o perito designado.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.13.3 do Manual (citando o Art. 316 do CPPM): "Poderão, igualmente, fazê-lo: no inquérito, o indiciado; e, durante a instrução criminal, o Ministério Público e o acusado...".</t>
+  </si>
+  <si>
+    <t>O item 2.4 do Manual trata da "Apresentação voluntária do militar ausente antes da configuração do crime de deserção". Nesse cenário, a ausência injustificada por tempo inferior a 8 dias resulta em:</t>
+  </si>
+  <si>
+    <t>Prisão em flagrante por tentativa de deserção.</t>
+  </si>
+  <si>
+    <t>Perda de objeto da IPD, devendo o encarregado encerrar os trabalhos e encaminhar a documentação ao Comandante para solução e arquivamento.</t>
+  </si>
+  <si>
+    <t>Conversão automática da IPD em Inquérito Policial Militar (IPM) para apurar o crime de abandono de posto.</t>
+  </si>
+  <si>
+    <t>Remessa imediata dos autos à Justiça Militar para que o juiz decida sobre a atipicidade da conduta.</t>
+  </si>
+  <si>
+    <t>Conforme o item 2.4 do Manual: "A ausência injustificada por tempo inferior à previsão do crime de deserção resulta em perda de objeto da IPD... o encarregado deverá encerrar os trabalhos... Recebida a documentação, o Comandante... determinará... a edição de ato administrativo de solução e arquivamento da IPD".</t>
+  </si>
+  <si>
+    <t>Sobre o "Termo de declarações do ofendido" no IPM (item 3.8.10), o Manual cita o art. 311 do CPPM. Diferentemente da testemunha, se o ofendido deixar de comparecer sem motivo justo após notificado:</t>
+  </si>
+  <si>
+    <t>Poderá ser conduzido à presença da autoridade, ficando sujeito ao crime de desobediência.</t>
+  </si>
+  <si>
+    <t>Poderá ser conduzido à presença da autoridade, sem ficar sujeito, entretanto, a qualquer sanção.</t>
+  </si>
+  <si>
+    <t>Não poderá ser conduzido coercitivamente em nenhuma hipótese, salvo flagrante delito.</t>
+  </si>
+  <si>
+    <t>Deverá ser processado por crime de prevaricação se for militar.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.8.10 do Manual (citando o parágrafo único do Art. 311 do CPPM): "poderá ser conduzido à presença da autoridade, sem ficar sujeito, entretanto, a qualquer sanção".</t>
+  </si>
+  <si>
+    <t>O Manual aborda o "IPM com segredo de justiça" no item 3.2.3. Quando a investigação estiver sujeita a segredo de justiça decretado judicialmente, o Estatuto da OAB autoriza o encarregado do IPM a:</t>
+  </si>
+  <si>
+    <t>Impedir totalmente o acesso do advogado, inclusive aos autos findos.</t>
+  </si>
+  <si>
+    <t>Limitar o acesso do advogado aos autos da investigação, o que inclui todas as diligências (tanto as finalizadas quanto as em andamento), independente se foram ou não documentadas.</t>
+  </si>
+  <si>
+    <t>Conceder acesso parcial, apenas às provas testemunhais.</t>
+  </si>
+  <si>
+    <t>Exigir que o advogado assine termo de confidencialidade antes de ver os autos.</t>
+  </si>
+  <si>
+    <t>Conforme o item 3.2.3 do Manual: "autoriza o encarregado do IPM a limitar o acesso do advogado aos autos da investigação, o que inclui todas às diligências (tanto as finalizadas quanto as em andamento), independente se foram ou não documentadas nos autos, isto quando a investigação criminal estiver sujeita ao segredo de justiça".</t>
+  </si>
+  <si>
+    <t>O conceito de "Comparecimento Espontâneo" é tratado nas observações do Modelo Referencial 80 (Apêndice G). Segundo o Manual, o comparecimento espontâneo por si só:</t>
+  </si>
+  <si>
+    <t>Elide a lavratura do APF, impedindo a prisão em qualquer hipótese.</t>
+  </si>
+  <si>
+    <t>Não elidirá a lavratura do APF, desde que presentes os seus requisitos.</t>
+  </si>
+  <si>
+    <t>Substitui a prisão em flagrante por prisão preventiva automaticamente.</t>
+  </si>
+  <si>
+    <t>Garante ao militar o direito de responder ao processo em liberdade, independentemente da gravidade do crime.</t>
+  </si>
+  <si>
+    <t>Conforme a observação no Modelo Referencial 80 (Apêndice G): "por fim, cabe reforçar que o comparecimento espontâneo, por si só, não elidirá a lavratura do APF, desde que presentes os seus requisitos".</t>
+  </si>
+  <si>
+    <t>O item 1.1.2 do Manual define "Crime impropriamente militar e militar por extensão". Os crimes militares por extensão são aqueles previstos exclusivamente na legislação penal comum (CP e legislação extravagante) quando praticados por militar nas situações do inciso II do art. 9º do CPM. Esse conceito foi ampliado significativamente com o advento da:</t>
+  </si>
+  <si>
+    <t>Lei nº 9.099/1995.</t>
+  </si>
+  <si>
+    <t>Lei nº 13.964/2019 (Pacote Anticrime).</t>
+  </si>
+  <si>
+    <t>Lei nº 13.491/2017.</t>
+  </si>
+  <si>
+    <t>Emenda Constitucional nº 45/2004.</t>
+  </si>
+  <si>
+    <t>Conforme o item 1.1 do Manual: "Com o advento da Lei Federal nº 13.491, de 13 de outubro de 2017... houve modificação do conceito de crime militar, que passou a ter maior espectro... ampliou a competência das justiças militares para processar e julgar, também, os crimes previstos na legislação penal comum".</t>
   </si>
 </sst>
 </file>
@@ -27073,7 +30937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -27097,6 +30961,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27433,10 +31303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M929"/>
+  <dimension ref="A1:M1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A927" workbookViewId="0">
-      <selection activeCell="C931" sqref="C931"/>
+    <sheetView tabSelected="1" topLeftCell="A1014" workbookViewId="0">
+      <selection activeCell="C1031" sqref="C1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -60012,6 +63882,3506 @@
         <v>5241</v>
       </c>
     </row>
+    <row r="930" spans="1:11" ht="29.25">
+      <c r="A930" s="3">
+        <v>929</v>
+      </c>
+      <c r="B930" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C930" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D930" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E930" s="9" t="s">
+        <v>5243</v>
+      </c>
+      <c r="F930" s="9" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G930" s="9" t="s">
+        <v>5245</v>
+      </c>
+      <c r="H930" s="9" t="s">
+        <v>5246</v>
+      </c>
+      <c r="I930" s="9" t="s">
+        <v>5247</v>
+      </c>
+      <c r="J930" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K930" s="10" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="931" spans="1:11" ht="29.25">
+      <c r="A931" s="3">
+        <v>930</v>
+      </c>
+      <c r="B931" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C931" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E931" s="9" t="s">
+        <v>5249</v>
+      </c>
+      <c r="F931" s="9" t="s">
+        <v>5250</v>
+      </c>
+      <c r="G931" s="9" t="s">
+        <v>5251</v>
+      </c>
+      <c r="H931" s="9" t="s">
+        <v>5252</v>
+      </c>
+      <c r="I931" s="9" t="s">
+        <v>5253</v>
+      </c>
+      <c r="J931" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K931" s="10" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="932" spans="1:11" ht="29.25">
+      <c r="A932" s="3">
+        <v>931</v>
+      </c>
+      <c r="B932" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C932" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D932" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E932" s="9" t="s">
+        <v>5255</v>
+      </c>
+      <c r="F932" s="9" t="s">
+        <v>5256</v>
+      </c>
+      <c r="G932" s="9" t="s">
+        <v>5257</v>
+      </c>
+      <c r="H932" s="9" t="s">
+        <v>5258</v>
+      </c>
+      <c r="I932" s="9" t="s">
+        <v>5259</v>
+      </c>
+      <c r="J932" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K932" s="10" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="933" spans="1:11" ht="29.25">
+      <c r="A933" s="3">
+        <v>932</v>
+      </c>
+      <c r="B933" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C933" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D933" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E933" s="9" t="s">
+        <v>5261</v>
+      </c>
+      <c r="F933" s="9" t="s">
+        <v>5262</v>
+      </c>
+      <c r="G933" s="9" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H933" s="9" t="s">
+        <v>5263</v>
+      </c>
+      <c r="I933" s="9" t="s">
+        <v>5264</v>
+      </c>
+      <c r="J933" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K933" s="10" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="934" spans="1:11" ht="29.25">
+      <c r="A934" s="3">
+        <v>933</v>
+      </c>
+      <c r="B934" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C934" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D934" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E934" s="9" t="s">
+        <v>5266</v>
+      </c>
+      <c r="F934" s="9" t="s">
+        <v>5267</v>
+      </c>
+      <c r="G934" s="9" t="s">
+        <v>5268</v>
+      </c>
+      <c r="H934" s="9" t="s">
+        <v>5269</v>
+      </c>
+      <c r="I934" s="9" t="s">
+        <v>5270</v>
+      </c>
+      <c r="J934" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K934" s="10" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="935" spans="1:11" ht="29.25">
+      <c r="A935" s="3">
+        <v>934</v>
+      </c>
+      <c r="B935" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C935" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D935" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E935" s="9" t="s">
+        <v>5272</v>
+      </c>
+      <c r="F935" s="9" t="s">
+        <v>5273</v>
+      </c>
+      <c r="G935" s="9" t="s">
+        <v>5274</v>
+      </c>
+      <c r="H935" s="9" t="s">
+        <v>5275</v>
+      </c>
+      <c r="I935" s="9" t="s">
+        <v>5276</v>
+      </c>
+      <c r="J935" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K935" s="10" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="936" spans="1:11" ht="28.5">
+      <c r="A936" s="3">
+        <v>935</v>
+      </c>
+      <c r="B936" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C936" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D936" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E936" s="9" t="s">
+        <v>5278</v>
+      </c>
+      <c r="F936" s="9" t="s">
+        <v>5279</v>
+      </c>
+      <c r="G936" s="9" t="s">
+        <v>5280</v>
+      </c>
+      <c r="H936" s="9" t="s">
+        <v>5281</v>
+      </c>
+      <c r="I936" s="9" t="s">
+        <v>5282</v>
+      </c>
+      <c r="J936" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K936" s="10" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="937" spans="1:11" ht="29.25">
+      <c r="A937" s="3">
+        <v>936</v>
+      </c>
+      <c r="B937" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C937" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D937" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E937" s="9" t="s">
+        <v>5284</v>
+      </c>
+      <c r="F937" s="9" t="s">
+        <v>5285</v>
+      </c>
+      <c r="G937" s="9" t="s">
+        <v>5286</v>
+      </c>
+      <c r="H937" s="9" t="s">
+        <v>5287</v>
+      </c>
+      <c r="I937" s="9" t="s">
+        <v>5288</v>
+      </c>
+      <c r="J937" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K937" s="10" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="938" spans="1:11" ht="29.25">
+      <c r="A938" s="3">
+        <v>937</v>
+      </c>
+      <c r="B938" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C938" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D938" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E938" s="9" t="s">
+        <v>5290</v>
+      </c>
+      <c r="F938" s="9" t="s">
+        <v>5291</v>
+      </c>
+      <c r="G938" s="9" t="s">
+        <v>5292</v>
+      </c>
+      <c r="H938" s="9" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I938" s="9" t="s">
+        <v>5294</v>
+      </c>
+      <c r="J938" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K938" s="10" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="939" spans="1:11" ht="29.25">
+      <c r="A939" s="3">
+        <v>938</v>
+      </c>
+      <c r="B939" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C939" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D939" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E939" s="9" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F939" s="9" t="s">
+        <v>5297</v>
+      </c>
+      <c r="G939" s="9" t="s">
+        <v>5298</v>
+      </c>
+      <c r="H939" s="9" t="s">
+        <v>5299</v>
+      </c>
+      <c r="I939" s="9" t="s">
+        <v>5300</v>
+      </c>
+      <c r="J939" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K939" s="10" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="940" spans="1:11" ht="45">
+      <c r="A940" s="3">
+        <v>939</v>
+      </c>
+      <c r="B940" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C940" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D940" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E940" s="7" t="s">
+        <v>5302</v>
+      </c>
+      <c r="F940" s="7" t="s">
+        <v>5303</v>
+      </c>
+      <c r="G940" s="7" t="s">
+        <v>5304</v>
+      </c>
+      <c r="H940" s="7" t="s">
+        <v>5305</v>
+      </c>
+      <c r="I940" s="7" t="s">
+        <v>5306</v>
+      </c>
+      <c r="J940" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K940" s="8" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="941" spans="1:11" ht="30">
+      <c r="A941" s="3">
+        <v>940</v>
+      </c>
+      <c r="B941" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C941" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D941" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E941" s="7" t="s">
+        <v>5308</v>
+      </c>
+      <c r="F941" s="7" t="s">
+        <v>5309</v>
+      </c>
+      <c r="G941" s="7" t="s">
+        <v>5310</v>
+      </c>
+      <c r="H941" s="7" t="s">
+        <v>5311</v>
+      </c>
+      <c r="I941" s="7" t="s">
+        <v>5312</v>
+      </c>
+      <c r="J941" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K941" s="8" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="942" spans="1:11" ht="30">
+      <c r="A942" s="3">
+        <v>941</v>
+      </c>
+      <c r="B942" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C942" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D942" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E942" s="7" t="s">
+        <v>5314</v>
+      </c>
+      <c r="F942" s="7" t="s">
+        <v>5315</v>
+      </c>
+      <c r="G942" s="7" t="s">
+        <v>5316</v>
+      </c>
+      <c r="H942" s="7" t="s">
+        <v>5317</v>
+      </c>
+      <c r="I942" s="7" t="s">
+        <v>5318</v>
+      </c>
+      <c r="J942" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K942" s="8" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="943" spans="1:11" ht="30">
+      <c r="A943" s="3">
+        <v>942</v>
+      </c>
+      <c r="B943" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C943" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D943" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E943" s="7" t="s">
+        <v>5320</v>
+      </c>
+      <c r="F943" s="7" t="s">
+        <v>5321</v>
+      </c>
+      <c r="G943" s="7" t="s">
+        <v>5322</v>
+      </c>
+      <c r="H943" s="7" t="s">
+        <v>5323</v>
+      </c>
+      <c r="I943" s="7" t="s">
+        <v>5324</v>
+      </c>
+      <c r="J943" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K943" s="8" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="944" spans="1:11" ht="45">
+      <c r="A944" s="3">
+        <v>943</v>
+      </c>
+      <c r="B944" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C944" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D944" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E944" s="7" t="s">
+        <v>5326</v>
+      </c>
+      <c r="F944" s="7" t="s">
+        <v>5327</v>
+      </c>
+      <c r="G944" s="7" t="s">
+        <v>5328</v>
+      </c>
+      <c r="H944" s="7" t="s">
+        <v>5329</v>
+      </c>
+      <c r="I944" s="7" t="s">
+        <v>5330</v>
+      </c>
+      <c r="J944" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K944" s="8" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="945" spans="1:11" ht="45">
+      <c r="A945" s="3">
+        <v>944</v>
+      </c>
+      <c r="B945" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C945" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D945" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E945" s="7" t="s">
+        <v>5332</v>
+      </c>
+      <c r="F945" s="7" t="s">
+        <v>5333</v>
+      </c>
+      <c r="G945" s="7" t="s">
+        <v>5334</v>
+      </c>
+      <c r="H945" s="7" t="s">
+        <v>5335</v>
+      </c>
+      <c r="I945" s="7" t="s">
+        <v>5336</v>
+      </c>
+      <c r="J945" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K945" s="8" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="946" spans="1:11" ht="30">
+      <c r="A946" s="3">
+        <v>945</v>
+      </c>
+      <c r="B946" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C946" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D946" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E946" s="7" t="s">
+        <v>5338</v>
+      </c>
+      <c r="F946" s="7" t="s">
+        <v>5339</v>
+      </c>
+      <c r="G946" s="7" t="s">
+        <v>5340</v>
+      </c>
+      <c r="H946" s="7" t="s">
+        <v>5341</v>
+      </c>
+      <c r="I946" s="7" t="s">
+        <v>5342</v>
+      </c>
+      <c r="J946" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K946" s="8" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="947" spans="1:11" ht="30">
+      <c r="A947" s="3">
+        <v>946</v>
+      </c>
+      <c r="B947" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C947" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D947" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E947" s="7" t="s">
+        <v>5344</v>
+      </c>
+      <c r="F947" s="7" t="s">
+        <v>5345</v>
+      </c>
+      <c r="G947" s="7" t="s">
+        <v>5346</v>
+      </c>
+      <c r="H947" s="7" t="s">
+        <v>5347</v>
+      </c>
+      <c r="I947" s="7" t="s">
+        <v>5348</v>
+      </c>
+      <c r="J947" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K947" s="8" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="948" spans="1:11" ht="30">
+      <c r="A948" s="3">
+        <v>947</v>
+      </c>
+      <c r="B948" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C948" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D948" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E948" s="7" t="s">
+        <v>5350</v>
+      </c>
+      <c r="F948" s="7" t="s">
+        <v>5351</v>
+      </c>
+      <c r="G948" s="7" t="s">
+        <v>5352</v>
+      </c>
+      <c r="H948" s="7" t="s">
+        <v>5353</v>
+      </c>
+      <c r="I948" s="7" t="s">
+        <v>5354</v>
+      </c>
+      <c r="J948" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K948" s="8" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="949" spans="1:11" ht="45">
+      <c r="A949" s="3">
+        <v>948</v>
+      </c>
+      <c r="B949" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C949" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D949" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E949" s="7" t="s">
+        <v>5356</v>
+      </c>
+      <c r="F949" s="7" t="s">
+        <v>5357</v>
+      </c>
+      <c r="G949" s="7" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H949" s="7" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I949" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="J949" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K949" s="8" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="950" spans="1:11" ht="30">
+      <c r="A950" s="3">
+        <v>949</v>
+      </c>
+      <c r="B950" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C950" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D950" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E950" s="7" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F950" s="7" t="s">
+        <v>5363</v>
+      </c>
+      <c r="G950" s="7" t="s">
+        <v>5364</v>
+      </c>
+      <c r="H950" s="7" t="s">
+        <v>5365</v>
+      </c>
+      <c r="I950" s="7" t="s">
+        <v>5366</v>
+      </c>
+      <c r="J950" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K950" s="8" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="951" spans="1:11" ht="30">
+      <c r="A951" s="3">
+        <v>950</v>
+      </c>
+      <c r="B951" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C951" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D951" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E951" s="7" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F951" s="7" t="s">
+        <v>5369</v>
+      </c>
+      <c r="G951" s="7" t="s">
+        <v>5370</v>
+      </c>
+      <c r="H951" s="7" t="s">
+        <v>5371</v>
+      </c>
+      <c r="I951" s="7" t="s">
+        <v>5372</v>
+      </c>
+      <c r="J951" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K951" s="8" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="952" spans="1:11" ht="30">
+      <c r="A952" s="3">
+        <v>951</v>
+      </c>
+      <c r="B952" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C952" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D952" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E952" s="7" t="s">
+        <v>5374</v>
+      </c>
+      <c r="F952" s="7" t="s">
+        <v>5375</v>
+      </c>
+      <c r="G952" s="7" t="s">
+        <v>5376</v>
+      </c>
+      <c r="H952" s="7" t="s">
+        <v>5377</v>
+      </c>
+      <c r="I952" s="7" t="s">
+        <v>5378</v>
+      </c>
+      <c r="J952" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K952" s="8" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="953" spans="1:11" ht="30">
+      <c r="A953" s="3">
+        <v>952</v>
+      </c>
+      <c r="B953" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C953" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D953" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E953" s="7" t="s">
+        <v>5380</v>
+      </c>
+      <c r="F953" s="7" t="s">
+        <v>5381</v>
+      </c>
+      <c r="G953" s="7" t="s">
+        <v>5382</v>
+      </c>
+      <c r="H953" s="7" t="s">
+        <v>5383</v>
+      </c>
+      <c r="I953" s="7" t="s">
+        <v>5384</v>
+      </c>
+      <c r="J953" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K953" s="8" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="954" spans="1:11" ht="30">
+      <c r="A954" s="3">
+        <v>953</v>
+      </c>
+      <c r="B954" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C954" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D954" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E954" s="7" t="s">
+        <v>5386</v>
+      </c>
+      <c r="F954" s="7" t="s">
+        <v>5387</v>
+      </c>
+      <c r="G954" s="7" t="s">
+        <v>5388</v>
+      </c>
+      <c r="H954" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="I954" s="7" t="s">
+        <v>5390</v>
+      </c>
+      <c r="J954" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K954" s="8" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="955" spans="1:11" ht="45">
+      <c r="A955" s="3">
+        <v>954</v>
+      </c>
+      <c r="B955" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C955" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D955" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E955" s="7" t="s">
+        <v>5392</v>
+      </c>
+      <c r="F955" s="7" t="s">
+        <v>5393</v>
+      </c>
+      <c r="G955" s="7" t="s">
+        <v>5394</v>
+      </c>
+      <c r="H955" s="7" t="s">
+        <v>5395</v>
+      </c>
+      <c r="I955" s="7" t="s">
+        <v>5396</v>
+      </c>
+      <c r="J955" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K955" s="8" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="956" spans="1:11" ht="30">
+      <c r="A956" s="3">
+        <v>955</v>
+      </c>
+      <c r="B956" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C956" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D956" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E956" s="7" t="s">
+        <v>5398</v>
+      </c>
+      <c r="F956" s="7" t="s">
+        <v>5399</v>
+      </c>
+      <c r="G956" s="7" t="s">
+        <v>5400</v>
+      </c>
+      <c r="H956" s="7" t="s">
+        <v>5401</v>
+      </c>
+      <c r="I956" s="7" t="s">
+        <v>5402</v>
+      </c>
+      <c r="J956" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K956" s="8" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="957" spans="1:11" ht="30">
+      <c r="A957" s="3">
+        <v>956</v>
+      </c>
+      <c r="B957" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C957" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D957" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E957" s="7" t="s">
+        <v>5404</v>
+      </c>
+      <c r="F957" s="7" t="s">
+        <v>5405</v>
+      </c>
+      <c r="G957" s="7" t="s">
+        <v>5406</v>
+      </c>
+      <c r="H957" s="7" t="s">
+        <v>5407</v>
+      </c>
+      <c r="I957" s="7" t="s">
+        <v>5408</v>
+      </c>
+      <c r="J957" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K957" s="8" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="958" spans="1:11" ht="30">
+      <c r="A958" s="3">
+        <v>957</v>
+      </c>
+      <c r="B958" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C958" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D958" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E958" s="7" t="s">
+        <v>5410</v>
+      </c>
+      <c r="F958" s="7" t="s">
+        <v>5411</v>
+      </c>
+      <c r="G958" s="7" t="s">
+        <v>5412</v>
+      </c>
+      <c r="H958" s="7" t="s">
+        <v>5413</v>
+      </c>
+      <c r="I958" s="7" t="s">
+        <v>5414</v>
+      </c>
+      <c r="J958" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K958" s="8" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="959" spans="1:11" ht="30">
+      <c r="A959" s="3">
+        <v>958</v>
+      </c>
+      <c r="B959" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C959" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D959" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E959" s="7" t="s">
+        <v>5416</v>
+      </c>
+      <c r="F959" s="7" t="s">
+        <v>5417</v>
+      </c>
+      <c r="G959" s="7" t="s">
+        <v>5418</v>
+      </c>
+      <c r="H959" s="7" t="s">
+        <v>5419</v>
+      </c>
+      <c r="I959" s="7" t="s">
+        <v>5420</v>
+      </c>
+      <c r="J959" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K959" s="8" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="960" spans="1:11" ht="60">
+      <c r="A960" s="3">
+        <v>959</v>
+      </c>
+      <c r="B960" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C960" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D960" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E960" s="8" t="s">
+        <v>5422</v>
+      </c>
+      <c r="F960" s="7" t="s">
+        <v>5423</v>
+      </c>
+      <c r="G960" s="7" t="s">
+        <v>5424</v>
+      </c>
+      <c r="H960" s="7" t="s">
+        <v>5425</v>
+      </c>
+      <c r="I960" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="J960" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K960" s="8" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="961" spans="1:11" ht="45">
+      <c r="A961" s="3">
+        <v>960</v>
+      </c>
+      <c r="B961" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C961" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D961" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E961" s="8" t="s">
+        <v>5428</v>
+      </c>
+      <c r="F961" s="7" t="s">
+        <v>5429</v>
+      </c>
+      <c r="G961" s="7" t="s">
+        <v>5430</v>
+      </c>
+      <c r="H961" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="I961" s="7" t="s">
+        <v>5432</v>
+      </c>
+      <c r="J961" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K961" s="8" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="962" spans="1:11" ht="60">
+      <c r="A962" s="3">
+        <v>961</v>
+      </c>
+      <c r="B962" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C962" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D962" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E962" s="8" t="s">
+        <v>5434</v>
+      </c>
+      <c r="F962" s="7" t="s">
+        <v>5435</v>
+      </c>
+      <c r="G962" s="7" t="s">
+        <v>5436</v>
+      </c>
+      <c r="H962" s="7" t="s">
+        <v>5437</v>
+      </c>
+      <c r="I962" s="7" t="s">
+        <v>5438</v>
+      </c>
+      <c r="J962" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K962" s="8" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="963" spans="1:11" ht="45">
+      <c r="A963" s="3">
+        <v>962</v>
+      </c>
+      <c r="B963" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C963" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D963" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E963" s="8" t="s">
+        <v>5440</v>
+      </c>
+      <c r="F963" s="7" t="s">
+        <v>5441</v>
+      </c>
+      <c r="G963" s="7" t="s">
+        <v>5442</v>
+      </c>
+      <c r="H963" s="7" t="s">
+        <v>5443</v>
+      </c>
+      <c r="I963" s="7" t="s">
+        <v>5444</v>
+      </c>
+      <c r="J963" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K963" s="8" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="964" spans="1:11" ht="45">
+      <c r="A964" s="3">
+        <v>963</v>
+      </c>
+      <c r="B964" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C964" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D964" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E964" s="8" t="s">
+        <v>5446</v>
+      </c>
+      <c r="F964" s="7" t="s">
+        <v>5447</v>
+      </c>
+      <c r="G964" s="7" t="s">
+        <v>5448</v>
+      </c>
+      <c r="H964" s="7" t="s">
+        <v>5449</v>
+      </c>
+      <c r="I964" s="7" t="s">
+        <v>5450</v>
+      </c>
+      <c r="J964" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K964" s="8" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="965" spans="1:11" ht="45">
+      <c r="A965" s="3">
+        <v>964</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C965" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D965" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E965" s="8" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F965" s="7" t="s">
+        <v>5453</v>
+      </c>
+      <c r="G965" s="7" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H965" s="7" t="s">
+        <v>5455</v>
+      </c>
+      <c r="I965" s="7" t="s">
+        <v>5456</v>
+      </c>
+      <c r="J965" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K965" s="8" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="966" spans="1:11" ht="45">
+      <c r="A966" s="3">
+        <v>965</v>
+      </c>
+      <c r="B966" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C966" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D966" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E966" s="8" t="s">
+        <v>5458</v>
+      </c>
+      <c r="F966" s="7" t="s">
+        <v>5459</v>
+      </c>
+      <c r="G966" s="7" t="s">
+        <v>5460</v>
+      </c>
+      <c r="H966" s="7" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I966" s="7" t="s">
+        <v>5462</v>
+      </c>
+      <c r="J966" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K966" s="8" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="967" spans="1:11" ht="45">
+      <c r="A967" s="3">
+        <v>966</v>
+      </c>
+      <c r="B967" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C967" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D967" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E967" s="8" t="s">
+        <v>5464</v>
+      </c>
+      <c r="F967" s="7" t="s">
+        <v>5465</v>
+      </c>
+      <c r="G967" s="7" t="s">
+        <v>5466</v>
+      </c>
+      <c r="H967" s="7" t="s">
+        <v>5467</v>
+      </c>
+      <c r="I967" s="7" t="s">
+        <v>5468</v>
+      </c>
+      <c r="J967" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K967" s="8" t="s">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="968" spans="1:11" ht="45">
+      <c r="A968" s="3">
+        <v>967</v>
+      </c>
+      <c r="B968" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C968" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D968" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E968" s="8" t="s">
+        <v>5470</v>
+      </c>
+      <c r="F968" s="7" t="s">
+        <v>5471</v>
+      </c>
+      <c r="G968" s="7" t="s">
+        <v>5472</v>
+      </c>
+      <c r="H968" s="7" t="s">
+        <v>5473</v>
+      </c>
+      <c r="I968" s="7" t="s">
+        <v>5474</v>
+      </c>
+      <c r="J968" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K968" s="8" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="969" spans="1:11" ht="45">
+      <c r="A969" s="3">
+        <v>968</v>
+      </c>
+      <c r="B969" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C969" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D969" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E969" s="8" t="s">
+        <v>5476</v>
+      </c>
+      <c r="F969" s="7" t="s">
+        <v>5477</v>
+      </c>
+      <c r="G969" s="7" t="s">
+        <v>5478</v>
+      </c>
+      <c r="H969" s="7" t="s">
+        <v>5479</v>
+      </c>
+      <c r="I969" s="7" t="s">
+        <v>5480</v>
+      </c>
+      <c r="J969" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K969" s="8" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="970" spans="1:11" ht="30">
+      <c r="A970" s="3">
+        <v>969</v>
+      </c>
+      <c r="B970" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C970" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D970" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E970" s="7" t="s">
+        <v>5482</v>
+      </c>
+      <c r="F970" s="7" t="s">
+        <v>5483</v>
+      </c>
+      <c r="G970" s="7" t="s">
+        <v>5484</v>
+      </c>
+      <c r="H970" s="7" t="s">
+        <v>5485</v>
+      </c>
+      <c r="I970" s="7" t="s">
+        <v>5486</v>
+      </c>
+      <c r="J970" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K970" s="7" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="971" spans="1:11" ht="30">
+      <c r="A971" s="3">
+        <v>970</v>
+      </c>
+      <c r="B971" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C971" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D971" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E971" s="7" t="s">
+        <v>5488</v>
+      </c>
+      <c r="F971" s="7" t="s">
+        <v>5489</v>
+      </c>
+      <c r="G971" s="7" t="s">
+        <v>5490</v>
+      </c>
+      <c r="H971" s="7" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I971" s="7" t="s">
+        <v>5492</v>
+      </c>
+      <c r="J971" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K971" s="7" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="972" spans="1:11" ht="30">
+      <c r="A972" s="3">
+        <v>971</v>
+      </c>
+      <c r="B972" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C972" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D972" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E972" s="7" t="s">
+        <v>5494</v>
+      </c>
+      <c r="F972" s="7" t="s">
+        <v>5495</v>
+      </c>
+      <c r="G972" s="7" t="s">
+        <v>5496</v>
+      </c>
+      <c r="H972" s="7" t="s">
+        <v>5497</v>
+      </c>
+      <c r="I972" s="7" t="s">
+        <v>5498</v>
+      </c>
+      <c r="J972" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K972" s="7" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="973" spans="1:11" ht="30">
+      <c r="A973" s="3">
+        <v>972</v>
+      </c>
+      <c r="B973" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C973" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D973" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E973" s="7" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F973" s="7" t="s">
+        <v>5501</v>
+      </c>
+      <c r="G973" s="7" t="s">
+        <v>5502</v>
+      </c>
+      <c r="H973" s="7" t="s">
+        <v>5503</v>
+      </c>
+      <c r="I973" s="7" t="s">
+        <v>5504</v>
+      </c>
+      <c r="J973" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K973" s="7" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="974" spans="1:11" ht="30">
+      <c r="A974" s="3">
+        <v>973</v>
+      </c>
+      <c r="B974" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C974" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D974" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E974" s="7" t="s">
+        <v>5506</v>
+      </c>
+      <c r="F974" s="7" t="s">
+        <v>5507</v>
+      </c>
+      <c r="G974" s="7" t="s">
+        <v>5508</v>
+      </c>
+      <c r="H974" s="7" t="s">
+        <v>5509</v>
+      </c>
+      <c r="I974" s="7" t="s">
+        <v>5510</v>
+      </c>
+      <c r="J974" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K974" s="7" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="975" spans="1:11" ht="30">
+      <c r="A975" s="3">
+        <v>974</v>
+      </c>
+      <c r="B975" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C975" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D975" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E975" s="7" t="s">
+        <v>5512</v>
+      </c>
+      <c r="F975" s="7" t="s">
+        <v>5513</v>
+      </c>
+      <c r="G975" s="7" t="s">
+        <v>5514</v>
+      </c>
+      <c r="H975" s="7" t="s">
+        <v>5515</v>
+      </c>
+      <c r="I975" s="7" t="s">
+        <v>5516</v>
+      </c>
+      <c r="J975" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K975" s="7" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="976" spans="1:11" ht="30">
+      <c r="A976" s="3">
+        <v>975</v>
+      </c>
+      <c r="B976" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C976" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D976" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E976" s="7" t="s">
+        <v>5518</v>
+      </c>
+      <c r="F976" s="7" t="s">
+        <v>5519</v>
+      </c>
+      <c r="G976" s="7" t="s">
+        <v>5520</v>
+      </c>
+      <c r="H976" s="7" t="s">
+        <v>5521</v>
+      </c>
+      <c r="I976" s="7" t="s">
+        <v>5522</v>
+      </c>
+      <c r="J976" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K976" s="7" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="977" spans="1:11" ht="30">
+      <c r="A977" s="3">
+        <v>976</v>
+      </c>
+      <c r="B977" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C977" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D977" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E977" s="7" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F977" s="7" t="s">
+        <v>5525</v>
+      </c>
+      <c r="G977" s="7" t="s">
+        <v>5526</v>
+      </c>
+      <c r="H977" s="7" t="s">
+        <v>5527</v>
+      </c>
+      <c r="I977" s="7" t="s">
+        <v>5528</v>
+      </c>
+      <c r="J977" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K977" s="7" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="978" spans="1:11" ht="30">
+      <c r="A978" s="3">
+        <v>977</v>
+      </c>
+      <c r="B978" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C978" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D978" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E978" s="7" t="s">
+        <v>5530</v>
+      </c>
+      <c r="F978" s="7" t="s">
+        <v>5531</v>
+      </c>
+      <c r="G978" s="7" t="s">
+        <v>5532</v>
+      </c>
+      <c r="H978" s="7" t="s">
+        <v>5533</v>
+      </c>
+      <c r="I978" s="7" t="s">
+        <v>5534</v>
+      </c>
+      <c r="J978" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K978" s="7" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="979" spans="1:11" ht="30">
+      <c r="A979" s="3">
+        <v>978</v>
+      </c>
+      <c r="B979" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C979" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D979" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E979" s="7" t="s">
+        <v>5536</v>
+      </c>
+      <c r="F979" s="7" t="s">
+        <v>5537</v>
+      </c>
+      <c r="G979" s="7" t="s">
+        <v>5538</v>
+      </c>
+      <c r="H979" s="7" t="s">
+        <v>5539</v>
+      </c>
+      <c r="I979" s="7" t="s">
+        <v>5540</v>
+      </c>
+      <c r="J979" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K979" s="7" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="980" spans="1:11" ht="30">
+      <c r="A980" s="3">
+        <v>979</v>
+      </c>
+      <c r="B980" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C980" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D980" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E980" s="7" t="s">
+        <v>5543</v>
+      </c>
+      <c r="F980" s="7" t="s">
+        <v>5544</v>
+      </c>
+      <c r="G980" s="7" t="s">
+        <v>5545</v>
+      </c>
+      <c r="H980" s="7" t="s">
+        <v>5546</v>
+      </c>
+      <c r="I980" s="7" t="s">
+        <v>5547</v>
+      </c>
+      <c r="J980" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K980" s="7" t="s">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="981" spans="1:11" ht="30">
+      <c r="A981" s="3">
+        <v>980</v>
+      </c>
+      <c r="B981" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C981" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D981" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E981" s="7" t="s">
+        <v>5549</v>
+      </c>
+      <c r="F981" s="7" t="s">
+        <v>5550</v>
+      </c>
+      <c r="G981" s="7" t="s">
+        <v>5551</v>
+      </c>
+      <c r="H981" s="7" t="s">
+        <v>5552</v>
+      </c>
+      <c r="I981" s="7" t="s">
+        <v>5553</v>
+      </c>
+      <c r="J981" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K981" s="7" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="982" spans="1:11" ht="30">
+      <c r="A982" s="3">
+        <v>981</v>
+      </c>
+      <c r="B982" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C982" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D982" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E982" s="7" t="s">
+        <v>5555</v>
+      </c>
+      <c r="F982" s="7" t="s">
+        <v>5556</v>
+      </c>
+      <c r="G982" s="7" t="s">
+        <v>5557</v>
+      </c>
+      <c r="H982" s="7" t="s">
+        <v>5558</v>
+      </c>
+      <c r="I982" s="7" t="s">
+        <v>5559</v>
+      </c>
+      <c r="J982" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K982" s="7" t="s">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11" ht="30">
+      <c r="A983" s="3">
+        <v>982</v>
+      </c>
+      <c r="B983" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C983" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D983" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E983" s="7" t="s">
+        <v>5561</v>
+      </c>
+      <c r="F983" s="7" t="s">
+        <v>5562</v>
+      </c>
+      <c r="G983" s="7" t="s">
+        <v>5563</v>
+      </c>
+      <c r="H983" s="7" t="s">
+        <v>5564</v>
+      </c>
+      <c r="I983" s="7" t="s">
+        <v>5565</v>
+      </c>
+      <c r="J983" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K983" s="7" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="984" spans="1:11" ht="30">
+      <c r="A984" s="3">
+        <v>983</v>
+      </c>
+      <c r="B984" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C984" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D984" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E984" s="7" t="s">
+        <v>5567</v>
+      </c>
+      <c r="F984" s="7" t="s">
+        <v>5568</v>
+      </c>
+      <c r="G984" s="7" t="s">
+        <v>5569</v>
+      </c>
+      <c r="H984" s="7" t="s">
+        <v>5570</v>
+      </c>
+      <c r="I984" s="7" t="s">
+        <v>5571</v>
+      </c>
+      <c r="J984" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K984" s="7" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="985" spans="1:11" ht="30">
+      <c r="A985" s="3">
+        <v>984</v>
+      </c>
+      <c r="B985" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C985" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D985" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E985" s="7" t="s">
+        <v>5573</v>
+      </c>
+      <c r="F985" s="7" t="s">
+        <v>5574</v>
+      </c>
+      <c r="G985" s="7" t="s">
+        <v>5575</v>
+      </c>
+      <c r="H985" s="7" t="s">
+        <v>5576</v>
+      </c>
+      <c r="I985" s="7" t="s">
+        <v>5577</v>
+      </c>
+      <c r="J985" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K985" s="7" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="986" spans="1:11" ht="30">
+      <c r="A986" s="3">
+        <v>985</v>
+      </c>
+      <c r="B986" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C986" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D986" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E986" s="7" t="s">
+        <v>5579</v>
+      </c>
+      <c r="F986" s="7" t="s">
+        <v>5580</v>
+      </c>
+      <c r="G986" s="7" t="s">
+        <v>5581</v>
+      </c>
+      <c r="H986" s="7" t="s">
+        <v>5582</v>
+      </c>
+      <c r="I986" s="7" t="s">
+        <v>5583</v>
+      </c>
+      <c r="J986" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K986" s="7" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="987" spans="1:11" ht="30">
+      <c r="A987" s="3">
+        <v>986</v>
+      </c>
+      <c r="B987" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C987" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D987" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E987" s="7" t="s">
+        <v>5585</v>
+      </c>
+      <c r="F987" s="7" t="s">
+        <v>5586</v>
+      </c>
+      <c r="G987" s="7" t="s">
+        <v>5587</v>
+      </c>
+      <c r="H987" s="7" t="s">
+        <v>5588</v>
+      </c>
+      <c r="I987" s="7" t="s">
+        <v>5589</v>
+      </c>
+      <c r="J987" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K987" s="7" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="988" spans="1:11" ht="30">
+      <c r="A988" s="3">
+        <v>987</v>
+      </c>
+      <c r="B988" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C988" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D988" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E988" s="7" t="s">
+        <v>5591</v>
+      </c>
+      <c r="F988" s="7" t="s">
+        <v>5592</v>
+      </c>
+      <c r="G988" s="7" t="s">
+        <v>5593</v>
+      </c>
+      <c r="H988" s="7" t="s">
+        <v>5594</v>
+      </c>
+      <c r="I988" s="7" t="s">
+        <v>5595</v>
+      </c>
+      <c r="J988" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K988" s="7" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" ht="30">
+      <c r="A989" s="3">
+        <v>988</v>
+      </c>
+      <c r="B989" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C989" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D989" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E989" s="7" t="s">
+        <v>5597</v>
+      </c>
+      <c r="F989" s="7" t="s">
+        <v>5598</v>
+      </c>
+      <c r="G989" s="7" t="s">
+        <v>5599</v>
+      </c>
+      <c r="H989" s="7" t="s">
+        <v>5600</v>
+      </c>
+      <c r="I989" s="7" t="s">
+        <v>5601</v>
+      </c>
+      <c r="J989" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K989" s="7" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11" ht="30">
+      <c r="A990" s="3">
+        <v>989</v>
+      </c>
+      <c r="B990" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C990" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D990" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E990" s="7" t="s">
+        <v>5603</v>
+      </c>
+      <c r="F990" s="7" t="s">
+        <v>5604</v>
+      </c>
+      <c r="G990" s="7" t="s">
+        <v>5605</v>
+      </c>
+      <c r="H990" s="7" t="s">
+        <v>5606</v>
+      </c>
+      <c r="I990" s="7" t="s">
+        <v>5607</v>
+      </c>
+      <c r="J990" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K990" s="7" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11" ht="30">
+      <c r="A991" s="3">
+        <v>990</v>
+      </c>
+      <c r="B991" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C991" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D991" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E991" s="7" t="s">
+        <v>5609</v>
+      </c>
+      <c r="F991" s="7" t="s">
+        <v>5610</v>
+      </c>
+      <c r="G991" s="7" t="s">
+        <v>5611</v>
+      </c>
+      <c r="H991" s="7" t="s">
+        <v>5612</v>
+      </c>
+      <c r="I991" s="7" t="s">
+        <v>5613</v>
+      </c>
+      <c r="J991" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K991" s="7" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11" ht="30">
+      <c r="A992" s="3">
+        <v>991</v>
+      </c>
+      <c r="B992" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C992" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D992" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E992" s="7" t="s">
+        <v>5615</v>
+      </c>
+      <c r="F992" s="7" t="s">
+        <v>5616</v>
+      </c>
+      <c r="G992" s="7" t="s">
+        <v>5617</v>
+      </c>
+      <c r="H992" s="7" t="s">
+        <v>5618</v>
+      </c>
+      <c r="I992" s="7" t="s">
+        <v>5619</v>
+      </c>
+      <c r="J992" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K992" s="7" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11" ht="30">
+      <c r="A993" s="3">
+        <v>992</v>
+      </c>
+      <c r="B993" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C993" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D993" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E993" s="7" t="s">
+        <v>5621</v>
+      </c>
+      <c r="F993" s="7" t="s">
+        <v>5622</v>
+      </c>
+      <c r="G993" s="7" t="s">
+        <v>5623</v>
+      </c>
+      <c r="H993" s="7" t="s">
+        <v>5624</v>
+      </c>
+      <c r="I993" s="7" t="s">
+        <v>5625</v>
+      </c>
+      <c r="J993" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K993" s="7" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11" ht="30">
+      <c r="A994" s="3">
+        <v>993</v>
+      </c>
+      <c r="B994" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C994" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D994" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E994" s="7" t="s">
+        <v>5627</v>
+      </c>
+      <c r="F994" s="7" t="s">
+        <v>5628</v>
+      </c>
+      <c r="G994" s="7" t="s">
+        <v>5629</v>
+      </c>
+      <c r="H994" s="7" t="s">
+        <v>5630</v>
+      </c>
+      <c r="I994" s="7" t="s">
+        <v>5631</v>
+      </c>
+      <c r="J994" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K994" s="7" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11" ht="30">
+      <c r="A995" s="3">
+        <v>994</v>
+      </c>
+      <c r="B995" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C995" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D995" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E995" s="7" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F995" s="7" t="s">
+        <v>5634</v>
+      </c>
+      <c r="G995" s="7" t="s">
+        <v>5635</v>
+      </c>
+      <c r="H995" s="7" t="s">
+        <v>5636</v>
+      </c>
+      <c r="I995" s="7" t="s">
+        <v>5637</v>
+      </c>
+      <c r="J995" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K995" s="7" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="996" spans="1:11" ht="30">
+      <c r="A996" s="3">
+        <v>995</v>
+      </c>
+      <c r="B996" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C996" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D996" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E996" s="7" t="s">
+        <v>5639</v>
+      </c>
+      <c r="F996" s="7" t="s">
+        <v>5640</v>
+      </c>
+      <c r="G996" s="7" t="s">
+        <v>5641</v>
+      </c>
+      <c r="H996" s="7" t="s">
+        <v>5642</v>
+      </c>
+      <c r="I996" s="7" t="s">
+        <v>5643</v>
+      </c>
+      <c r="J996" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K996" s="7" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11" ht="30">
+      <c r="A997" s="3">
+        <v>996</v>
+      </c>
+      <c r="B997" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C997" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D997" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E997" s="7" t="s">
+        <v>5645</v>
+      </c>
+      <c r="F997" s="7" t="s">
+        <v>5646</v>
+      </c>
+      <c r="G997" s="7" t="s">
+        <v>5647</v>
+      </c>
+      <c r="H997" s="7" t="s">
+        <v>5648</v>
+      </c>
+      <c r="I997" s="7" t="s">
+        <v>5649</v>
+      </c>
+      <c r="J997" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K997" s="7" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11" ht="30">
+      <c r="A998" s="3">
+        <v>997</v>
+      </c>
+      <c r="B998" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C998" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D998" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E998" s="7" t="s">
+        <v>5651</v>
+      </c>
+      <c r="F998" s="7" t="s">
+        <v>5652</v>
+      </c>
+      <c r="G998" s="7" t="s">
+        <v>5653</v>
+      </c>
+      <c r="H998" s="7" t="s">
+        <v>5654</v>
+      </c>
+      <c r="I998" s="7" t="s">
+        <v>5655</v>
+      </c>
+      <c r="J998" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K998" s="7" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="999" spans="1:11" ht="30">
+      <c r="A999" s="3">
+        <v>998</v>
+      </c>
+      <c r="B999" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C999" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D999" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E999" s="7" t="s">
+        <v>5657</v>
+      </c>
+      <c r="F999" s="7" t="s">
+        <v>5658</v>
+      </c>
+      <c r="G999" s="7" t="s">
+        <v>5659</v>
+      </c>
+      <c r="H999" s="7" t="s">
+        <v>5660</v>
+      </c>
+      <c r="I999" s="7" t="s">
+        <v>5661</v>
+      </c>
+      <c r="J999" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K999" s="7" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:11" ht="45">
+      <c r="A1000" s="3">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1000" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1000" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1000" s="7" t="s">
+        <v>5663</v>
+      </c>
+      <c r="F1000" s="7" t="s">
+        <v>5664</v>
+      </c>
+      <c r="G1000" s="7" t="s">
+        <v>5665</v>
+      </c>
+      <c r="H1000" s="7" t="s">
+        <v>5666</v>
+      </c>
+      <c r="I1000" s="7" t="s">
+        <v>5667</v>
+      </c>
+      <c r="J1000" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1000" s="7" t="s">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:11" ht="30">
+      <c r="A1001" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1001" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1001" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1001" s="7" t="s">
+        <v>5669</v>
+      </c>
+      <c r="F1001" s="7" t="s">
+        <v>5670</v>
+      </c>
+      <c r="G1001" s="7" t="s">
+        <v>5671</v>
+      </c>
+      <c r="H1001" s="7" t="s">
+        <v>5672</v>
+      </c>
+      <c r="I1001" s="7" t="s">
+        <v>5673</v>
+      </c>
+      <c r="J1001" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1001" s="7" t="s">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:11" ht="30">
+      <c r="A1002" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1002" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1002" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1002" s="7" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F1002" s="7" t="s">
+        <v>5676</v>
+      </c>
+      <c r="G1002" s="7" t="s">
+        <v>5677</v>
+      </c>
+      <c r="H1002" s="7" t="s">
+        <v>5678</v>
+      </c>
+      <c r="I1002" s="7" t="s">
+        <v>5679</v>
+      </c>
+      <c r="J1002" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1002" s="7" t="s">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:11" ht="30">
+      <c r="A1003" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1003" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1003" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1003" s="7" t="s">
+        <v>5681</v>
+      </c>
+      <c r="F1003" s="7" t="s">
+        <v>5682</v>
+      </c>
+      <c r="G1003" s="7" t="s">
+        <v>5683</v>
+      </c>
+      <c r="H1003" s="7" t="s">
+        <v>5684</v>
+      </c>
+      <c r="I1003" s="7" t="s">
+        <v>5685</v>
+      </c>
+      <c r="J1003" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1003" s="7" t="s">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:11" ht="30">
+      <c r="A1004" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1004" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1004" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1004" s="7" t="s">
+        <v>5687</v>
+      </c>
+      <c r="F1004" s="7" t="s">
+        <v>5688</v>
+      </c>
+      <c r="G1004" s="7" t="s">
+        <v>5689</v>
+      </c>
+      <c r="H1004" s="7" t="s">
+        <v>5690</v>
+      </c>
+      <c r="I1004" s="7" t="s">
+        <v>5691</v>
+      </c>
+      <c r="J1004" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1004" s="7" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:11" ht="30">
+      <c r="A1005" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1005" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1005" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1005" s="7" t="s">
+        <v>5693</v>
+      </c>
+      <c r="F1005" s="7" t="s">
+        <v>5694</v>
+      </c>
+      <c r="G1005" s="7" t="s">
+        <v>5695</v>
+      </c>
+      <c r="H1005" s="7" t="s">
+        <v>5696</v>
+      </c>
+      <c r="I1005" s="7" t="s">
+        <v>5697</v>
+      </c>
+      <c r="J1005" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1005" s="7" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:11" ht="30">
+      <c r="A1006" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1006" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1006" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1006" s="7" t="s">
+        <v>5699</v>
+      </c>
+      <c r="F1006" s="7" t="s">
+        <v>5700</v>
+      </c>
+      <c r="G1006" s="7" t="s">
+        <v>5701</v>
+      </c>
+      <c r="H1006" s="7" t="s">
+        <v>5702</v>
+      </c>
+      <c r="I1006" s="7" t="s">
+        <v>5703</v>
+      </c>
+      <c r="J1006" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1006" s="7" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:11" ht="30">
+      <c r="A1007" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1007" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1007" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1007" s="7" t="s">
+        <v>5705</v>
+      </c>
+      <c r="F1007" s="7" t="s">
+        <v>5706</v>
+      </c>
+      <c r="G1007" s="7" t="s">
+        <v>5707</v>
+      </c>
+      <c r="H1007" s="7" t="s">
+        <v>5708</v>
+      </c>
+      <c r="I1007" s="7" t="s">
+        <v>5709</v>
+      </c>
+      <c r="J1007" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1007" s="7" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:11" ht="30">
+      <c r="A1008" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1008" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1008" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1008" s="7" t="s">
+        <v>5711</v>
+      </c>
+      <c r="F1008" s="7" t="s">
+        <v>5712</v>
+      </c>
+      <c r="G1008" s="7" t="s">
+        <v>5713</v>
+      </c>
+      <c r="H1008" s="7" t="s">
+        <v>5714</v>
+      </c>
+      <c r="I1008" s="7" t="s">
+        <v>5715</v>
+      </c>
+      <c r="J1008" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1008" s="7" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:11" ht="30">
+      <c r="A1009" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1009" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1009" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1009" s="7" t="s">
+        <v>5717</v>
+      </c>
+      <c r="F1009" s="7" t="s">
+        <v>5718</v>
+      </c>
+      <c r="G1009" s="7" t="s">
+        <v>5719</v>
+      </c>
+      <c r="H1009" s="7" t="s">
+        <v>5720</v>
+      </c>
+      <c r="I1009" s="7" t="s">
+        <v>5721</v>
+      </c>
+      <c r="J1009" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1009" s="7" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:11" ht="60">
+      <c r="A1010" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1010" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1010" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1010" s="7" t="s">
+        <v>5723</v>
+      </c>
+      <c r="F1010" s="7" t="s">
+        <v>5724</v>
+      </c>
+      <c r="G1010" s="7" t="s">
+        <v>5725</v>
+      </c>
+      <c r="H1010" s="7" t="s">
+        <v>5726</v>
+      </c>
+      <c r="I1010" s="7" t="s">
+        <v>5727</v>
+      </c>
+      <c r="J1010" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1010" s="7" t="s">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:11" ht="30">
+      <c r="A1011" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1011" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1011" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1011" s="7" t="s">
+        <v>5729</v>
+      </c>
+      <c r="F1011" s="7" t="s">
+        <v>5730</v>
+      </c>
+      <c r="G1011" s="7" t="s">
+        <v>5731</v>
+      </c>
+      <c r="H1011" s="7" t="s">
+        <v>5732</v>
+      </c>
+      <c r="I1011" s="7" t="s">
+        <v>5733</v>
+      </c>
+      <c r="J1011" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1011" s="7" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:11" ht="45">
+      <c r="A1012" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1012" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1012" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1012" s="7" t="s">
+        <v>5735</v>
+      </c>
+      <c r="F1012" s="7" t="s">
+        <v>5736</v>
+      </c>
+      <c r="G1012" s="7" t="s">
+        <v>5737</v>
+      </c>
+      <c r="H1012" s="7" t="s">
+        <v>5738</v>
+      </c>
+      <c r="I1012" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="J1012" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1012" s="7" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11" ht="30">
+      <c r="A1013" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1013" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1013" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1013" s="7" t="s">
+        <v>5741</v>
+      </c>
+      <c r="F1013" s="7" t="s">
+        <v>5742</v>
+      </c>
+      <c r="G1013" s="7" t="s">
+        <v>5743</v>
+      </c>
+      <c r="H1013" s="7" t="s">
+        <v>5744</v>
+      </c>
+      <c r="I1013" s="7" t="s">
+        <v>5745</v>
+      </c>
+      <c r="J1013" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1013" s="7" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:11" ht="45">
+      <c r="A1014" s="3">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1014" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1014" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1014" s="7" t="s">
+        <v>5747</v>
+      </c>
+      <c r="F1014" s="7" t="s">
+        <v>5748</v>
+      </c>
+      <c r="G1014" s="7" t="s">
+        <v>5749</v>
+      </c>
+      <c r="H1014" s="7" t="s">
+        <v>5750</v>
+      </c>
+      <c r="I1014" s="7" t="s">
+        <v>5751</v>
+      </c>
+      <c r="J1014" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1014" s="7" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:11" ht="30">
+      <c r="A1015" s="3">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1015" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1015" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1015" s="7" t="s">
+        <v>5753</v>
+      </c>
+      <c r="F1015" s="7" t="s">
+        <v>5754</v>
+      </c>
+      <c r="G1015" s="7" t="s">
+        <v>5755</v>
+      </c>
+      <c r="H1015" s="7" t="s">
+        <v>5756</v>
+      </c>
+      <c r="I1015" s="7" t="s">
+        <v>5757</v>
+      </c>
+      <c r="J1015" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1015" s="7" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:11" ht="30">
+      <c r="A1016" s="3">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1016" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1016" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1016" s="7" t="s">
+        <v>5759</v>
+      </c>
+      <c r="F1016" s="7" t="s">
+        <v>5760</v>
+      </c>
+      <c r="G1016" s="7" t="s">
+        <v>5761</v>
+      </c>
+      <c r="H1016" s="7" t="s">
+        <v>5762</v>
+      </c>
+      <c r="I1016" s="7" t="s">
+        <v>5763</v>
+      </c>
+      <c r="J1016" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1016" s="7" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:11" ht="30">
+      <c r="A1017" s="3">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1017" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1017" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1017" s="7" t="s">
+        <v>5765</v>
+      </c>
+      <c r="F1017" s="7" t="s">
+        <v>5766</v>
+      </c>
+      <c r="G1017" s="7" t="s">
+        <v>5767</v>
+      </c>
+      <c r="H1017" s="7" t="s">
+        <v>5768</v>
+      </c>
+      <c r="I1017" s="7" t="s">
+        <v>5769</v>
+      </c>
+      <c r="J1017" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1017" s="7" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:11" ht="30">
+      <c r="A1018" s="3">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1018" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1018" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1018" s="7" t="s">
+        <v>5771</v>
+      </c>
+      <c r="F1018" s="7" t="s">
+        <v>5772</v>
+      </c>
+      <c r="G1018" s="7" t="s">
+        <v>5773</v>
+      </c>
+      <c r="H1018" s="7" t="s">
+        <v>5774</v>
+      </c>
+      <c r="I1018" s="7" t="s">
+        <v>5775</v>
+      </c>
+      <c r="J1018" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1018" s="7" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:11" ht="30">
+      <c r="A1019" s="3">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1019" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1019" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1019" s="7" t="s">
+        <v>5777</v>
+      </c>
+      <c r="F1019" s="7" t="s">
+        <v>5778</v>
+      </c>
+      <c r="G1019" s="7" t="s">
+        <v>5779</v>
+      </c>
+      <c r="H1019" s="7" t="s">
+        <v>5780</v>
+      </c>
+      <c r="I1019" s="7" t="s">
+        <v>5781</v>
+      </c>
+      <c r="J1019" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1019" s="7" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:11" ht="30">
+      <c r="A1020" s="3">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1020" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1020" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1020" s="7" t="s">
+        <v>5783</v>
+      </c>
+      <c r="F1020" s="7" t="s">
+        <v>5784</v>
+      </c>
+      <c r="G1020" s="7" t="s">
+        <v>5785</v>
+      </c>
+      <c r="H1020" s="7" t="s">
+        <v>5786</v>
+      </c>
+      <c r="I1020" s="7" t="s">
+        <v>5787</v>
+      </c>
+      <c r="J1020" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1020" s="7" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:11" ht="30">
+      <c r="A1021" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1021" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1021" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1021" s="7" t="s">
+        <v>5789</v>
+      </c>
+      <c r="F1021" s="7" t="s">
+        <v>5790</v>
+      </c>
+      <c r="G1021" s="7" t="s">
+        <v>5791</v>
+      </c>
+      <c r="H1021" s="7" t="s">
+        <v>5792</v>
+      </c>
+      <c r="I1021" s="7" t="s">
+        <v>5793</v>
+      </c>
+      <c r="J1021" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1021" s="7" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:11" ht="30">
+      <c r="A1022" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1022" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1022" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1022" s="7" t="s">
+        <v>5795</v>
+      </c>
+      <c r="F1022" s="7" t="s">
+        <v>5796</v>
+      </c>
+      <c r="G1022" s="7" t="s">
+        <v>5797</v>
+      </c>
+      <c r="H1022" s="7" t="s">
+        <v>5798</v>
+      </c>
+      <c r="I1022" s="7" t="s">
+        <v>5799</v>
+      </c>
+      <c r="J1022" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1022" s="7" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:11" ht="30">
+      <c r="A1023" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1023" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1023" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1023" s="7" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F1023" s="7" t="s">
+        <v>5802</v>
+      </c>
+      <c r="G1023" s="7" t="s">
+        <v>5803</v>
+      </c>
+      <c r="H1023" s="7" t="s">
+        <v>5804</v>
+      </c>
+      <c r="I1023" s="7" t="s">
+        <v>5805</v>
+      </c>
+      <c r="J1023" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1023" s="7" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:11" ht="30">
+      <c r="A1024" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1024" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1024" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1024" s="7" t="s">
+        <v>5807</v>
+      </c>
+      <c r="F1024" s="7" t="s">
+        <v>5808</v>
+      </c>
+      <c r="G1024" s="7" t="s">
+        <v>5809</v>
+      </c>
+      <c r="H1024" s="7" t="s">
+        <v>5810</v>
+      </c>
+      <c r="I1024" s="7" t="s">
+        <v>5811</v>
+      </c>
+      <c r="J1024" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1024" s="7" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" ht="30">
+      <c r="A1025" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1025" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1025" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1025" s="7" t="s">
+        <v>5813</v>
+      </c>
+      <c r="F1025" s="7" t="s">
+        <v>5814</v>
+      </c>
+      <c r="G1025" s="7" t="s">
+        <v>5815</v>
+      </c>
+      <c r="H1025" s="7" t="s">
+        <v>5816</v>
+      </c>
+      <c r="I1025" s="7" t="s">
+        <v>5817</v>
+      </c>
+      <c r="J1025" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1025" s="7" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11" ht="30">
+      <c r="A1026" s="3">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1026" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1026" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1026" s="7" t="s">
+        <v>5819</v>
+      </c>
+      <c r="F1026" s="7" t="s">
+        <v>5820</v>
+      </c>
+      <c r="G1026" s="7" t="s">
+        <v>5821</v>
+      </c>
+      <c r="H1026" s="7" t="s">
+        <v>5822</v>
+      </c>
+      <c r="I1026" s="7" t="s">
+        <v>5823</v>
+      </c>
+      <c r="J1026" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1026" s="7" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:11" ht="30">
+      <c r="A1027" s="3">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1027" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1027" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1027" s="7" t="s">
+        <v>5825</v>
+      </c>
+      <c r="F1027" s="7" t="s">
+        <v>5826</v>
+      </c>
+      <c r="G1027" s="7" t="s">
+        <v>5827</v>
+      </c>
+      <c r="H1027" s="7" t="s">
+        <v>5828</v>
+      </c>
+      <c r="I1027" s="7" t="s">
+        <v>5829</v>
+      </c>
+      <c r="J1027" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1027" s="7" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:11" ht="30">
+      <c r="A1028" s="3">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1028" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1028" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1028" s="7" t="s">
+        <v>5831</v>
+      </c>
+      <c r="F1028" s="7" t="s">
+        <v>5832</v>
+      </c>
+      <c r="G1028" s="7" t="s">
+        <v>5833</v>
+      </c>
+      <c r="H1028" s="7" t="s">
+        <v>5834</v>
+      </c>
+      <c r="I1028" s="7" t="s">
+        <v>5835</v>
+      </c>
+      <c r="J1028" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1028" s="7" t="s">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:11" ht="45">
+      <c r="A1029" s="3">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1029" s="7" t="s">
+        <v>5542</v>
+      </c>
+      <c r="D1029" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1029" s="7" t="s">
+        <v>5837</v>
+      </c>
+      <c r="F1029" s="7" t="s">
+        <v>5838</v>
+      </c>
+      <c r="G1029" s="7" t="s">
+        <v>5839</v>
+      </c>
+      <c r="H1029" s="7" t="s">
+        <v>5840</v>
+      </c>
+      <c r="I1029" s="7" t="s">
+        <v>5841</v>
+      </c>
+      <c r="J1029" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1029" s="7" t="s">
+        <v>5842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/perguntascho2026.xlsx
+++ b/perguntascho2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julião\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1550621-3EE9-410D-A747-94331793F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45682227-5457-4B9A-B2CA-7F74119EB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C9B4D97-84B9-4E48-8A8F-DF3EE0788C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10286" uniqueCount="5843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10786" uniqueCount="6138">
   <si>
     <t>ID</t>
   </si>
@@ -30837,6 +30837,1606 @@
   </si>
   <si>
     <t>Conforme o item 1.1 do Manual: "Com o advento da Lei Federal nº 13.491, de 13 de outubro de 2017... houve modificação do conceito de crime militar, que passou a ter maior espectro... ampliou a competência das justiças militares para processar e julgar, também, os crimes previstos na legislação penal comum".</t>
+  </si>
+  <si>
+    <t>3.07 - MAGEF (FROTA)</t>
+  </si>
+  <si>
+    <t>No tocante à inclusão de viaturas na carga patrimonial e o controle patrimonial, a gestão será compartilhada em três esferas de competência. De acordo com o texto expresso do Manual, como é definido o "Segundo esforço de atuação"?</t>
+  </si>
+  <si>
+    <t>Gestor de Frota da Unidade – Chefe da Seção Administrativa.</t>
+  </si>
+  <si>
+    <t>Gestor de Frota Regional – Chefe da Seção Frota.</t>
+  </si>
+  <si>
+    <t>Gestor de Frota do Órgão – CMI.</t>
+  </si>
+  <si>
+    <t>Gestor de Frota do Nível Estratégico – DAL.</t>
+  </si>
+  <si>
+    <t>Sobre a Inclusão em Carga por Comodato, analise a situação hipotética: Um ente privado propõe ceder um veículo à PMMG, inserindo no contrato uma cláusula que exige a devolução do bem em estado idêntico ao recebido, sem ressalvas. Segundo as vedações expressas no Manual, tal cláusula:</t>
+  </si>
+  <si>
+    <t>É permitida, desde que o veículo seja destinado exclusivamente a serviços administrativos.</t>
+  </si>
+  <si>
+    <t>É permitida, contanto que o Comandante da Unidade assine um termo de responsabilidade solidária.</t>
+  </si>
+  <si>
+    <t>É vedada, tendo-se em vista o desgaste decorrente do uso, que inviabiliza o cumprimento de referida condição.</t>
+  </si>
+  <si>
+    <t>É vedada, exceto se houver previsão orçamentária para reforma completa do bem antes da devolução.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As viaturas da PMMG possuem classificações específicas conforme sua destinação. Em relação aos Veículos de Coordenação Estratégica e Coordenação e Controle, é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORRETO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> afirmar que:</t>
+    </r>
+  </si>
+  <si>
+    <t>Poderão ser veículos da frota locada, desde que autorizados pelo Chefe do Estado-Maior.</t>
+  </si>
+  <si>
+    <t>Deverão ser veículos da frota orgânica, sendo vedado o emprego de veículos da frota locada.</t>
+  </si>
+  <si>
+    <t>Destinam-se exclusivamente às atividades de coordenação e controle pelos oficiais que compõem o Alto-Comando.</t>
+  </si>
+  <si>
+    <t>Podem utilizar películas não refletivas (insulfilm) apenas se forem classificados como de Coordenação e Controle, sendo vedado para Coordenação Estratégica.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Manual estabelece procedimentos rigorosos para a redistribuição de viaturas entre Comandos Intermediários distintos. Para que tal movimentação ocorra, além da proposta formalizada à DAL, a viatura </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve possuir impedimentos. São considerados impedimentos expressos no texto, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXCETO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Multas ou notificações de trânsito.</t>
+  </si>
+  <si>
+    <t>Seguro obrigatório pendente.</t>
+  </si>
+  <si>
+    <t>Acidente e encargos financeiros.</t>
+  </si>
+  <si>
+    <t>Necessidade de manutenção preventiva programada.</t>
+  </si>
+  <si>
+    <t>Conforme o Capítulo V - Da Descarga de Viaturas, especificamente sobre o Processo de Descarga por Inservibilidade, o sistema SIAD bloqueará automaticamente o lançamento de nova manutenção para a viatura quando:</t>
+  </si>
+  <si>
+    <t>A recuperação implicar em despesas superiores a 50% do valor de sua cotação no mercado.</t>
+  </si>
+  <si>
+    <t>No período de 12 meses, ultrapassar 40% do seu valor de mercado com gastos de manutenção.</t>
+  </si>
+  <si>
+    <t>O veículo completar 10 anos de fabricação, independentemente do estado de conservação.</t>
+  </si>
+  <si>
+    <t>O custo de manutenção mensal for superior a 10% do valor da tabela FIPE.</t>
+  </si>
+  <si>
+    <t>No que tange às Condições Gerais do Uso de Viaturas e a prioridade de emprego nas frações, o Manual determina que:</t>
+  </si>
+  <si>
+    <t>As viaturas orgânicas têm prioridade absoluta de emprego para evitar custos adicionais em contratos de locação.</t>
+  </si>
+  <si>
+    <t>O emprego deve ser alternado equitativamente entre viaturas orgânicas e locadas para garantir desgaste uniforme.</t>
+  </si>
+  <si>
+    <t>Deverá ser priorizado o emprego de viaturas locadas, não sendo admitido o emprego de viaturas orgânicas no serviço se houver viaturas locadas subutilizadas.</t>
+  </si>
+  <si>
+    <t>A escolha da viatura a ser empregada é ato discricionário do Comandante da Fração, baseado na especificidade da missão.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em relação à Gestão Total de Abastecimento, especificamente sobre o uso de combustíveis em postos orgânicos, é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VEDADO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>O abastecimento de viaturas caracterizadas de outras Unidades da PMMG em trânsito.</t>
+  </si>
+  <si>
+    <t>O uso de combustível dos postos orgânicos para abastecer embarcações aquáticas, maquinários ou equipamentos em uso na PMMG.</t>
+  </si>
+  <si>
+    <t>O abastecimento de viaturas administrativas sem a apresentação prévia da Ficha de Movimentação de Viatura.</t>
+  </si>
+  <si>
+    <t>O recebimento de combustível pela distribuidora sem a presença física do Gestor de Frota Regional.</t>
+  </si>
+  <si>
+    <t>O condutor da viatura, ao identificar irregularidade durante a vistoria prévia ou durante a utilização, deve preencher um documento específico e encaminhá-lo ao Gestor de Frota da Unidade. Qual é a nomenclatura oficial deste documento conforme o Manual?</t>
+  </si>
+  <si>
+    <t>Parte de Comunicação de Dano em Material do Estado.</t>
+  </si>
+  <si>
+    <t>Relatório Circunstanciado do Condutor.</t>
+  </si>
+  <si>
+    <t>Ordem de Serviço para Manutenção da Viatura.</t>
+  </si>
+  <si>
+    <t>Ficha de Alteração de Viatura Policial.</t>
+  </si>
+  <si>
+    <t>No âmbito das providências de gestão dos recursos logísticos pós-acidente, o Gestor de Frota da Unidade possui um prazo específico para fazer a análise preliminar e emitir parecer digital sobre o credenciamento do condutor e o dano resultante. Qual é este prazo e a quem a documentação deve ser encaminhada via SICOR?</t>
+  </si>
+  <si>
+    <t>02 dias úteis, encaminhando ao NJD ou equivalente.</t>
+  </si>
+  <si>
+    <t>05 dias úteis, encaminhando ao Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>10 dias úteis, encaminhando à DAL para homologação.</t>
+  </si>
+  <si>
+    <t>48 horas, encaminhando diretamente à Corregedoria (CPM).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre o Arquivamento Prévio em casos de acidentes com viaturas, considera-se "uso regular da viatura", excluindo a culpa do militar, quando este estiver, entre outras condições, em atuação responsável, sem excesso culposo ou doloso. Contudo, o Manual estabelece expressamente que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> será objeto de arquivamento prévio o acidente de viatura que:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ocorrer durante deslocamento administrativo não urgente.</t>
+  </si>
+  <si>
+    <t>Envolver condutor civil da PMMG, mesmo que habilitado.</t>
+  </si>
+  <si>
+    <t>Ocasionar danos em patrimônio de terceiros.</t>
+  </si>
+  <si>
+    <t>Resultar apenas em danos de pequena monta na viatura oficial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre a inclusão em carga mediante Autorização Judicial, o Manual estabelece um fluxo hierárquico rígido para a solicitação. Antes de iniciar as tratativas com o Poder Judiciário, solicitando a disponibilização do bem, qual é o procedimento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBRIGATÓRIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a ser adotado pelo Gestor de Frota da Unidade?</t>
+    </r>
+  </si>
+  <si>
+    <t>Solicitar diretamente à DAL a emissão de parecer técnico favorável, dispensando a oitiva do nível intermediário.</t>
+  </si>
+  <si>
+    <t>Solicitar à Quarta Seção do Estado-Maior que se manifeste quanto à conveniência do recebimento, face aos custos de manutenção.</t>
+  </si>
+  <si>
+    <t>Requerer ao Juiz da Comarca a isenção de taxas e tributos para posterior análise da viabilidade pela RPM.</t>
+  </si>
+  <si>
+    <t>Providenciar a vistoria do veículo em oficina credenciada para instruir o pedido ao Comandante-Geral.</t>
+  </si>
+  <si>
+    <t>O processo de reclassificação de viaturas para o SIPOM (Sistema de Inteligência) ou de viaturas descaracterizadas para emprego no policiamento velado exige trâmite específico. A solicitação deve ser encaminhada pela Seção Frota Regional para qual órgão, visando a emissão de parecer prévio à aprovação do EMPM?</t>
+  </si>
+  <si>
+    <t>Diretoria de Apoio Logístico (DAL).</t>
+  </si>
+  <si>
+    <t>Centro de Motomecanização e Intendência (CMI).</t>
+  </si>
+  <si>
+    <t>Diretoria de Inteligência (DInt).</t>
+  </si>
+  <si>
+    <t>Corregedoria de Polícia Militar (CPM).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No tocante à distribuição e redistribuição de viaturas do SIPOM, o Manual estabelece regras de publicidade específicas para preservar a segurança das operações. Sobre a publicação destes atos, é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORRETO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> afirmar:</t>
+    </r>
+  </si>
+  <si>
+    <t>É vedada qualquer publicação em Boletim Geral, devendo o ato ser arquivado em pasta sigilosa na DInt.</t>
+  </si>
+  <si>
+    <t>Obedecerá aos mesmos critérios das demais viaturas, não havendo necessidade de publicação em BGPM de acesso restrito, uma vez que não será publicada a numeração da placa particular.</t>
+  </si>
+  <si>
+    <t>Deve ser publicada exclusivamente em BGPM Reservado, contendo a numeração da placa particular e o chassi do veículo.</t>
+  </si>
+  <si>
+    <t>A publicação é facultativa, a critério do Chefe do Estado-Maior, dependendo do grau de sensibilidade da missão da viatura.</t>
+  </si>
+  <si>
+    <t>Durante o processo de descarga de viaturas, o Gestor de Frota deve providenciar a descaracterização e a retirada de equipamentos. Segundo o Manual, qual é o destino correto e específico para o rádio de comunicação/GPS e para o sinalizador acústico visual (giroflex), respectivamente?</t>
+  </si>
+  <si>
+    <t>Ambos devem ser recolhidos para a DAL/CMI.</t>
+  </si>
+  <si>
+    <t>Ambos devem ser recolhidos para a Diretoria de Tecnologia e Sistemas (DTS).</t>
+  </si>
+  <si>
+    <t>Rádio/GPS para a DTS e Giroflex para a DAL/CMI.</t>
+  </si>
+  <si>
+    <t>Rádio/GPS para a DAL e Giroflex para o Almoxarifado da Unidade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre a retirada e aproveitamento de peças (canibalização) em viaturas com indicação de descarga, o Manual impõe condições restritivas. A substituição de peças nestas viaturas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOMENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> poderá ocorrer:</t>
+    </r>
+  </si>
+  <si>
+    <t>A qualquer tempo, desde que autorizado pelo Gestor de Frota Regional.</t>
+  </si>
+  <si>
+    <t>Após a confecção do Laudo de Vistoria, para garantir que o veículo vá a leilão completo.</t>
+  </si>
+  <si>
+    <t>Antes da confecção do Laudo de Vistoria pelo presidente da comissão permanente de alienação.</t>
+  </si>
+  <si>
+    <t>Quando a peça retirada não possuir número de série ou patrimônio.</t>
+  </si>
+  <si>
+    <t>O credenciamento de condutores é responsabilidade da Unidade, que deve nomear uma Comissão de Credenciamento e Atualização. Sobre a composição e requisitos desta comissão, o Manual determina que:</t>
+  </si>
+  <si>
+    <t>Será composta por três militares, sendo o presidente necessariamente o Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>Um dos membros da comissão deverá estar habilitado e credenciado em categoria igual ou superior à do militar que será avaliado.</t>
+  </si>
+  <si>
+    <t>A comissão deve ser presidida por um Oficial ou Praça a partir da graduação de Subtenente.</t>
+  </si>
+  <si>
+    <t>Todos os membros da comissão devem possuir curso de Instrutor de Trânsito ou Legislação.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No procedimento de gestão de multas de trânsito, caso o militar condutor da viatura se recuse a assinar o Formulário de Identificação do Condutor Infrator (FICI), qual a conduta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBRIGATÓRIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do Gestor de Frota da Unidade para evitar prejuízo ao erário?</t>
+    </r>
+  </si>
+  <si>
+    <t>Instaurar imediatamente um Procedimento Administrativo Disciplinar (PAD) por desobediência e aguardar a conclusão.</t>
+  </si>
+  <si>
+    <t>Devolver a notificação ao órgão de trânsito informando a impossibilidade de identificação devido à recusa.</t>
+  </si>
+  <si>
+    <t>Preencher o FICI informando os dados do condutor com base na escala de serviço e Ficha de Movimentação, e enviar ao órgão autuador.</t>
+  </si>
+  <si>
+    <t>Pagar a multa com recursos da Unidade e posteriormente descontar em folha do militar recusante.</t>
+  </si>
+  <si>
+    <t>Em relação à aquisição de insumos básicos de manutenção, como pneumáticos e óleos lubrificantes, o Manual define que tais aquisições serão realizadas prioritariamente de qual forma?</t>
+  </si>
+  <si>
+    <t>Descentralizada, por cada Unidade Gestora, mediante verba de custeio.</t>
+  </si>
+  <si>
+    <t>Centralizada pelo CMI, visando à obtenção de melhores preços.</t>
+  </si>
+  <si>
+    <t>Por meio de adesão a atas de registro de preços municipais onde a Unidade está sediada.</t>
+  </si>
+  <si>
+    <t>Diretamente pelo Gestor de Frota Regional, conforme demanda das Unidades subordinadas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para fins de imputação de responsabilidade em acidentes, o conceito de "uso regular da viatura" é fundamental. O Manual elenca situações que caracterizam esse uso regular. Dentre as opções abaixo, qual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é um requisito cumulativo para caracterizar o uso regular da viatura?</t>
+    </r>
+  </si>
+  <si>
+    <t>Estar o condutor devidamente habilitado e credenciado.</t>
+  </si>
+  <si>
+    <t>Estar o militar escalado ou em diligência regulamentar autorizada.</t>
+  </si>
+  <si>
+    <t>Ter o condutor evitado o acidente mediante manobra evasiva eficaz, independentemente da prioridade de passagem.</t>
+  </si>
+  <si>
+    <t>Estar em atuação responsável, sem excesso culposo ou doloso.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em caso de danos causados a veículos de terceiros que estejam sob a responsabilidade da PMMG (como comodato, cessão de uso ou locados), as indenizações por danos irreparáveis possuem uma vedação específica quanto à forma de pagamento. Segundo o Manual, tais indenizações </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> poderão ser realizadas por meio de:</t>
+    </r>
+  </si>
+  <si>
+    <t>Reparo em oficina particular custeado pelo militar.</t>
+  </si>
+  <si>
+    <t>Aquisição de peças pelo responsável pelo dano.</t>
+  </si>
+  <si>
+    <t>Documento de Arrecadação Estadual (DAE) ou desconto em folha de pagamento.</t>
+  </si>
+  <si>
+    <t>Pagamento direto ao proprietário mediante recibo e termo de acordo.</t>
+  </si>
+  <si>
+    <t>No que concerne à gestão total da manutenção, o Manual impõe um prazo rígido para o controle de conformidade. O Gestor de Frota da Unidade deverá providenciar laudo técnico ou documento equivalente, atestando a conformidade das manutenções contratadas (serviços e peças), com qual periodicidade e prazo?</t>
+  </si>
+  <si>
+    <t>Mensalmente, até o último dia útil do mês de referência.</t>
+  </si>
+  <si>
+    <t>Quinzenalmente, até o 2º dia útil subsequente ao período.</t>
+  </si>
+  <si>
+    <t>Mensalmente, até o 5º (quinto) dia útil posterior ao mês de referência.</t>
+  </si>
+  <si>
+    <t>Bimestralmente, até o 10º dia útil do mês subsequente ao fechamento do bimestre.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em caso de sinistro envolvendo viatura policial, o Manual distingue as competências no local da ocorrência. Dentre as ações abaixo, qual é de responsabilidade específica do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comandante da Viatura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ou quem suas vezes fizer), e não do Oficial de Serviço?</t>
+    </r>
+  </si>
+  <si>
+    <t>Preencher o Termo de Compromisso de Ressarcimento de Dano.</t>
+  </si>
+  <si>
+    <t>Confeccionar, digitalmente, o Relatório Circunstanciado.</t>
+  </si>
+  <si>
+    <t>Realizar o teste de etilômetro (bafômetro) nos motoristas envolvidos.</t>
+  </si>
+  <si>
+    <t>Impedir acordos que possam gerar ônus ao Estado.</t>
+  </si>
+  <si>
+    <t>A redistribuição de viaturas dentro do mesmo Comando Intermediário (ex: entre Batalhões da mesma RPM) possui rito simplificado, mas exige formalização. Tal movimentação é competência dos respectivos Comandantes/Diretores e deve observar, obrigatoriamente, a movimentação do patrimônio no SIAD e a comunicação à DAL no prazo máximo de:</t>
+  </si>
+  <si>
+    <t>05 dias úteis.</t>
+  </si>
+  <si>
+    <t>10 dias.</t>
+  </si>
+  <si>
+    <t>15 dias.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre as condições de estacionamento e guarda das viaturas, o Manual estabelece prioridades e vedações. Em relação aos locais destinados ao estacionamento ou engarajamento de viaturas nas Unidades, é expressamente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VEDADO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>O estacionamento de viaturas pertencentes a outra Unidade da PMMG, salvo com autorização do Comandante Geral.</t>
+  </si>
+  <si>
+    <t>A demarcação de vaga privativa na via pública, devendo as viaturas concorrerem com o fluxo comum.</t>
+  </si>
+  <si>
+    <t>A ocupação das vagas por veículos particulares.</t>
+  </si>
+  <si>
+    <t>O pernoite de viaturas fora de garagens cobertas, independentemente da segurança do local.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O credenciamento para condução de viaturas pode ser suspenso ou cancelado (descredenciamento). Segundo o Manual, constitui causa específica para a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUSPENSÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> da condição de motorista credenciado, a critério do Comandante da Unidade:</t>
+    </r>
+  </si>
+  <si>
+    <t>A reincidência em acidente com vítima na condução de viatura.</t>
+  </si>
+  <si>
+    <t>A cassação da CNH do Policial Militar.</t>
+  </si>
+  <si>
+    <t>O atingimento do conceito B - 25 (B menos vinte e cinco) ou inferior.</t>
+  </si>
+  <si>
+    <t>A invalidez física ou psíquica permanente.</t>
+  </si>
+  <si>
+    <t>No Processo de Descarga por Inservibilidade, a viatura é considerada inservível (perda total técnica) quando sua recuperação implicar em despesas superiores a uma determinada porcentagem do seu valor de mercado. Qual é essa porcentagem e qual a tabela de referência principal a ser utilizada?</t>
+  </si>
+  <si>
+    <t>40% do valor de mercado, considerado o valor-base de incidência do IPVA/MG.</t>
+  </si>
+  <si>
+    <t>50% do valor de mercado, considerado o valor da Tabela FIPE.</t>
+  </si>
+  <si>
+    <t>60% do valor de mercado, considerado o valor de aquisição corrigido.</t>
+  </si>
+  <si>
+    <t>70% do valor de mercado, considerado o valor de leilão estimado.</t>
+  </si>
+  <si>
+    <t>A inclusão em carga por "Dação em Pagamento" possui um trâmite específico. Para que o Comandante da Unidade se manifeste quanto à conveniência do recebimento, a documentação encaminhada à DAL deve conter, obrigatoriamente, quais avaliações/pareceres prévios?</t>
+  </si>
+  <si>
+    <t>Apenas a avaliação de mercado feita por oficial avaliador designado.</t>
+  </si>
+  <si>
+    <t>Parecer do assessor jurídico da Unidade e avaliação da CPARM.</t>
+  </si>
+  <si>
+    <t>Parecer da Seção de Orçamento e Finanças (SOFI) e laudo de vistoria do DETRAN.</t>
+  </si>
+  <si>
+    <t>Autorização do Secretário de Estado de Planejamento e Gestão e parecer do Chefe do EMPM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Procedimento Administrativo de Viatura (PAV) possui prazos processuais definidos. Após a instauração e tramitação eletrônica via SICOR, qual é o prazo máximo concedido ao </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encarregado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para realizar a apuração dos fatos?</t>
+    </r>
+  </si>
+  <si>
+    <t>20 dias corridos.</t>
+  </si>
+  <si>
+    <t>60 dias, prorrogáveis por igual período.</t>
+  </si>
+  <si>
+    <t>Caso a cota de combustível da Unidade seja insuficiente, os pedidos de suplementação ou majoração devem obedecer a um fluxo hierárquico. O pedido justificado deve ser encaminhado primeiramente a quem?</t>
+  </si>
+  <si>
+    <t>Diretamente à DAL, que detém a gestão financeira.</t>
+  </si>
+  <si>
+    <t>Ao Comandante Geral, via canal técnico.</t>
+  </si>
+  <si>
+    <t>Ao Gestor de Frota Regional.</t>
+  </si>
+  <si>
+    <t>À Superintendência de Planejamento, Orçamento e Finanças (SPOF).</t>
+  </si>
+  <si>
+    <t>Em relação à identificação da frota, especificamente sobre viaturas destinadas ao transporte de funcionários civis que prestam serviços na PMMG, o Manual exige uma caracterização visual específica. Tais veículos deverão:</t>
+  </si>
+  <si>
+    <t>Permanecer totalmente descaracterizados para garantir a segurança dos funcionários.</t>
+  </si>
+  <si>
+    <t>Utilizar placas brancas oficiais, dispensando-se outras identificações visuais.</t>
+  </si>
+  <si>
+    <t>Ser caracterizados por meio de plotagem, adesivo ou manta magnética, indicando se tratar de veículos oficiais a serviço.</t>
+  </si>
+  <si>
+    <t>Ser pintados na cor padrão da PMMG (branca), porém sem os grafismos operacionais.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Manual estabelece vedações rigorosas quanto à modificação das características originais das viaturas. No que tange à aplicação de películas não refletivas (insulfilm), a norma prevê exceções taxativas. Assinale a alternativa que indica corretamente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TODAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as categorias de viaturas autorizadas a utilizar tal acessório, segundo o texto expresso:</t>
+    </r>
+  </si>
+  <si>
+    <t>Apenas viaturas do SIPOM e viaturas descaracterizadas de serviço administrativo.</t>
+  </si>
+  <si>
+    <t>Viaturas do SIPOM, viaturas de Coordenação Estratégica e viaturas de Coordenação e Controle.</t>
+  </si>
+  <si>
+    <t>Apenas viaturas do SIPOM e viaturas de Coordenação Estratégica.</t>
+  </si>
+  <si>
+    <t>Todas as viaturas da frota orgânica, desde que autorizado pelo Gestor de Frota Regional.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No contexto de um acidente envolvendo viatura policial, o Manual divide as atribuições entre o Comandante da Viatura e o Oficial de Serviço (ou correspondente). É competência </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXCLUSIVA do Oficial de Serviço</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no local da ocorrência:</t>
+    </r>
+  </si>
+  <si>
+    <t>Fotografar o local do acidente e os danos da viatura.</t>
+  </si>
+  <si>
+    <t>Preservar o local do acidente para os trabalhos da perícia.</t>
+  </si>
+  <si>
+    <t>Impedir acordos que possam gerar ônus ao Estado, envolvendo particulares ou seguradoras.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gestão de frota é compartilhada em três esferas de competência. Em uma questão que exige a correta correlação entre o nível de esforço e o responsável, assinale a alternativa que apresenta uma associação </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCORRETA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> segundo o Manual:</t>
+    </r>
+  </si>
+  <si>
+    <t>Primeiro esforço de atuação: Gestor de Frota da Unidade (Chefe da Seção Administrativa).</t>
+  </si>
+  <si>
+    <t>Segundo esforço de atuação: Gestor de Frota Regional (Chefe da Seção Frota).</t>
+  </si>
+  <si>
+    <t>Terceiro esforço de atuação: Gestor de Frota do Nível Estratégico (Diretor da DAL).</t>
+  </si>
+  <si>
+    <t>Terceiro esforço de atuação: Gestor de Frota do Órgão (CMI).</t>
+  </si>
+  <si>
+    <r>
+      <t>EXPLICAÇÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A alternativa correta (que aponta o erro) é a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item 2.1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> define taxativamente: "c) Terceiro esforço de atuação: Gestor de Frota do Órgão – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>". A DAL é o nível de autorização/direção superior, mas o "terceiro esforço" na gestão operacional descrita é o CMI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre o abastecimento em Postos Orgânicos (dentro dos quartéis), existe uma vedação específica quanto ao tipo de bem que pode ser abastecido. O Manual determina que, nessas bombas, é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VEDADO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abastecer:</t>
+    </r>
+  </si>
+  <si>
+    <t>Viaturas de Coordenação Estratégica, devido à alta octanagem exigida.</t>
+  </si>
+  <si>
+    <t>Embarcações aquáticas, maquinários ou equipamentos em uso na PMMG.</t>
+  </si>
+  <si>
+    <t>Viaturas pertencentes a outras Unidades da PMMG que estejam apenas de passagem.</t>
+  </si>
+  <si>
+    <t>Veículos locados, salvo se houver cláusula contratual específica permitindo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O credenciamento de condutores possui regras para suspensão e descredenciamento. Um militar que atinge o conceito </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"B - 25"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (B menos vinte e cinco) estará sujeito a qual medida administrativa em relação à condução de viaturas?</t>
+    </r>
+  </si>
+  <si>
+    <t>Será automaticamente descredenciado.</t>
+  </si>
+  <si>
+    <t>Poderá ser suspenso da condição de motorista credenciado, a critério do Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>Manterá o credenciamento normalmente, pois o limite mínimo é "C - 25".</t>
+  </si>
+  <si>
+    <t>Deverá passar por reciclagem obrigatória, mas não perde a condição de condutor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No processo de descarga por inservibilidade, o parâmetro financeiro para considerar uma viatura "economicamente inviável" é quando o reparo supera 40% do valor de mercado. Para essa aferição, qual é a tabela de referência </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMÁRIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (obrigatória) a ser utilizada?</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabela FIPE.</t>
+  </si>
+  <si>
+    <t>Média de três orçamentos de mercado local.</t>
+  </si>
+  <si>
+    <t>Tabela do valor-base de incidência do IPVA/MG.</t>
+  </si>
+  <si>
+    <t>Tabela de depreciação contábil da SEPLAG.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No âmbito do Procedimento Administrativo de Viatura (PAV), após a conclusão do relatório pelo encarregado e análise pelo NJD, a autoridade competente emitirá a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Solução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. O prazo regulamentar para este ato é de:</t>
+    </r>
+  </si>
+  <si>
+    <t>08 dias úteis.</t>
+  </si>
+  <si>
+    <t>30 dias corridos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para a inclusão de viaturas mediante Autorização Judicial (veículos apreendidos), existe um fluxo prévio obrigatório. O Manual determina que a Unidade interessada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve iniciar tratativas com o Judiciário antes de consultar:</t>
+    </r>
+  </si>
+  <si>
+    <t>O Centro de Motomecanização e Intendência (CMI).</t>
+  </si>
+  <si>
+    <t>A Seção Logística do Nível Estratégico, via RPM.</t>
+  </si>
+  <si>
+    <t>O Ministério Público da Comarca.</t>
+  </si>
+  <si>
+    <t>A Advocacia-Geral do Estado (AGE).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobre a publicidade dos atos de distribuição de viaturas do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIPOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, o Manual define um procedimento específico para preservar a segurança. Assinale a afirmativa correta:</t>
+    </r>
+  </si>
+  <si>
+    <t>A publicação em BGPM é dispensada, bastando o registro em boletim reservado da DInt.</t>
+  </si>
+  <si>
+    <t>A publicação ocorrerá em BGPM de acesso restrito, contendo a placa particular e o chassi.</t>
+  </si>
+  <si>
+    <t>A publicação obedecerá aos mesmos critérios das demais viaturas, mas não será publicada a numeração da placa de particular.</t>
+  </si>
+  <si>
+    <t>A publicação deve omitir o prefixo e a unidade de destino, mantendo apenas a placa oficial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em caso de danos causados a viaturas de terceiros (ex: locadas ou cedidas) sob responsabilidade da PMMG, se for necessária a indenização financeira por parte do militar responsável, o Manual estabelece uma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VEDAÇÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expressa quanto à forma de pagamento. O pagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> poderá ser feito via:</t>
+    </r>
+  </si>
+  <si>
+    <t>Depósito direto na conta do proprietário/locadora.</t>
+  </si>
+  <si>
+    <t>Pagamento de boleto emitido pela locadora.</t>
+  </si>
+  <si>
+    <t>DAE (Documento de Arrecadação Estadual) ou desconto em folha.</t>
+  </si>
+  <si>
+    <t>Compra de peças para reposição direta.</t>
+  </si>
+  <si>
+    <t>O Cb PM João, motorista da viatura prefixo 12345, durante seu turno de serviço, foi notificado por excesso de velocidade. Ao ser comunicado pelo Gestor de Frota da Unidade, o militar reconheceu que estava na condução, mas se recusou peremptoriamente a assinar o Formulário de Identificação do Condutor Infrator (FICI), alegando que estava em ocorrência de urgência. Diante dessa recusa, qual deve ser a conduta imediata do Gestor de Frota para evitar prejuízo ao erário, conforme o Manual?</t>
+  </si>
+  <si>
+    <t>Devolver a notificação ao órgão de trânsito informando a recusa do militar, para que o Estado assuma a pontuação.</t>
+  </si>
+  <si>
+    <t>Instaurar um Procedimento Administrativo de Viatura (PAV) imediatamente para compelir o militar a assinar.</t>
+  </si>
+  <si>
+    <t>Preencher o FICI informando os dados do condutor com base na escala e Ficha de Movimentação, e enviar ao órgão autuador.</t>
+  </si>
+  <si>
+    <t>Pagar a multa com recursos da Unidade e descontar em folha do militar posteriormente, sem indicar o condutor.</t>
+  </si>
+  <si>
+    <t>O Comandante da 15ª RPM deseja redistribuir uma viatura do 19º BPM para o 23º BPM (ambos subordinados à mesma Região). A viatura encontra-se em perfeitas condições mecânicas e sem impedimentos. Para concretizar essa movimentação, o Comandante Regional deverá:</t>
+  </si>
+  <si>
+    <t>Solicitar autorização prévia ao Chefe do Estado-Maior, dada a mudança de Unidade Gestora.</t>
+  </si>
+  <si>
+    <t>Determinar a redistribuição por ato próprio, publicar em Boletim Interno e comunicar à DAL no prazo máximo de 10 dias.</t>
+  </si>
+  <si>
+    <t>Apenas realizar a transferência física do bem, sendo vedada a alteração no SIAD antes do fim do exercício financeiro.</t>
+  </si>
+  <si>
+    <t>Encaminhar proposta à DAL para que esta emita parecer técnico sobre o impacto no custeio antes da movimentação.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durante uma perseguição policial a um veículo roubado, o Sgt PM Silva, devidamente habilitado e credenciado, colidiu a viatura com um veículo particular estacionado, causando danos materiais em ambos. O militar estava com giroflex ligado e agiu sem excesso. O NJD analisou o caso. Diante do exposto, sobre a possibilidade de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arquivamento Prévio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, é CORRETO afirmar:</t>
+    </r>
+  </si>
+  <si>
+    <t>O caso deve ser objeto de arquivamento prévio, pois o militar estava em uso regular da viatura e em situação de urgência.</t>
+  </si>
+  <si>
+    <t>O caso não será objeto de arquivamento prévio, pois houve danos em patrimônio de terceiros.</t>
+  </si>
+  <si>
+    <t>O arquivamento prévio poderá ocorrer se o terceiro assumir a culpa pelo acidente.</t>
+  </si>
+  <si>
+    <t>A autoridade militar poderá arquivar preliminarmente, desde que o valor do dano seja inferior a 40% do valor da viatura.</t>
+  </si>
+  <si>
+    <t>O 50º BPM recebeu, por meio de Autorização Judicial, um veículo de luxo apreendido para ser utilizado no serviço de inteligência. O Gestor de Frota da Unidade deseja colocar placas particulares (placas frias/segurança) neste veículo. Conforme o Manual, qual é o procedimento para obter essa autorização específica?</t>
+  </si>
+  <si>
+    <t>A autorização é automática para veículos do SIPOM, bastando o Comandante da Unidade comunicar ao DETRAN.</t>
+  </si>
+  <si>
+    <t>O Gestor deve solicitar ao Juiz da comarca, no momento do pedido de uso do bem.</t>
+  </si>
+  <si>
+    <t>A autorização será disciplinada pela DAL, conforme legislação vigente.</t>
+  </si>
+  <si>
+    <t>É vedado o uso de placas particulares em veículos de autorização judicial, sendo restrito à frota orgânica.</t>
+  </si>
+  <si>
+    <t>O Sd PM Souza, ao assumir o serviço, realizou a vistoria diária na viatura e constatou que o pneu sobressalente (estepe) estava furado. Conforme o procedimento padrão previsto no Manual, qual documento o militar deve preencher e a quem deve encaminhar para sanar o problema?</t>
+  </si>
+  <si>
+    <t>Parte de Comunicação de Alteração, encaminhada ao Sargento de Dia.</t>
+  </si>
+  <si>
+    <t>Relatório Circunstanciado de Avarias, encaminhado ao Comandante da Companhia.</t>
+  </si>
+  <si>
+    <t>Ordem de Serviço para Manutenção da Viatura (Anexo XII), encaminhada ao Gestor de Frota da Unidade.</t>
+  </si>
+  <si>
+    <t>Ficha de Movimentação de Viatura apenas, registrando a alteração no campo de observações.</t>
+  </si>
+  <si>
+    <t>Uma viatura do Tático Móvel sofreu um acidente e teve perda total. O processo de descarga foi autorizado e o veículo será enviado para leilão (alienação). O Sgt Mecânico da Unidade sugere retirar o motor, que está intacto, para colocar em outra viatura que está com o motor fundido. Segundo o Manual, tal procedimento:</t>
+  </si>
+  <si>
+    <t>É permitido, desde que autorizado pela DAL e realizado após a confecção do Laudo de Vistoria final.</t>
+  </si>
+  <si>
+    <t>É vedado, pois não se pode retirar peças de viaturas baixadas para inservibilidade.</t>
+  </si>
+  <si>
+    <t>É permitido, mediante justificativa à DAL e regularização junto à SEPLAG/DETRAN, desde que a viatura baixada não fique incompleta (deve-se colocar o motor fundido nela).</t>
+  </si>
+  <si>
+    <t>É permitido automaticamente, pois se trata de gestão eficiente de recursos logísticos internos.</t>
+  </si>
+  <si>
+    <t>O Comandante da 10ª RPM deseja implementar um controle rigoroso sobre o combustível. Ele observa que o jardineiro da Unidade está abastecendo o cortador de grama e o soprador de folhas utilizando gasolina da bomba do Posto Orgânico do Batalhão. Diante do Manual, essa prática está:</t>
+  </si>
+  <si>
+    <t>Correta, pois equipamentos de manutenção da unidade são considerados carga patrimonial e têm direito ao abastecimento orgânico.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois é vedado o uso de combustível de postos orgânicos para maquinários, devendo ser utilizado o Sistema de Abastecimento Alternativo (Cartão).</t>
+  </si>
+  <si>
+    <t>Correta, desde que o Comandante autorize expressamente e o jardineiro preencha a Ficha de Abastecimento.</t>
+  </si>
+  <si>
+    <t>Incorreta, pois maquinários devem ser abastecidos exclusivamente com recursos de adiantamento financeiro (verba de custeio).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Cb PM Pedro, motorista credenciado, se envolveu em um acidente com viatura e, após a apuração, ficou comprovado que ele agiu com imprudência. O valor do conserto foi de R$ 2.000,00. O militar aceitou pagar o prejuízo. Contudo, a viatura acidentada era </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Neste cenário, como deve ser feito o ressarcimento?</t>
+    </r>
+  </si>
+  <si>
+    <t>O militar deve autorizar o desconto em folha de pagamento em favor do Fundo de Apoio Logístico.</t>
+  </si>
+  <si>
+    <t>O militar deve emitir um DAE (Documento de Arrecadação Estadual) no valor do dano.</t>
+  </si>
+  <si>
+    <t>O pagamento não poderá ser realizado via DAE ou desconto em folha; o Gestor deve contatar a locadora para acordar a forma de pagamento direto.</t>
+  </si>
+  <si>
+    <t>O Estado paga a locadora e o militar ressarce o Estado via desconto parcelado.</t>
+  </si>
+  <si>
+    <t>Uma Prefeitura Municipal decide doar um veículo usado, já emplacado, para a Fração PM local. O Prefeito assina o Termo de Doação. Para que a PMMG inclua este veículo em sua carga patrimonial, além do Termo de Doação e do Termo de Recebimento, é imprescindível apresentar cópia digitalizada de qual documento específico referente à regularidade do bem?</t>
+  </si>
+  <si>
+    <t>Nota fiscal original de compra do veículo pela Prefeitura, emitida há menos de 5 anos.</t>
+  </si>
+  <si>
+    <t>Extrato da situação atual do veículo no DETRAN/MG, comprovando taxas, impostos e multas regularizados e licenciamento do ano atual.</t>
+  </si>
+  <si>
+    <t>Declaração de isenção de IPVA emitida pela Secretaria de Estado de Fazenda.</t>
+  </si>
+  <si>
+    <t>Certidão negativa de débitos trabalhistas da Prefeitura Municipal.</t>
+  </si>
+  <si>
+    <t>O 30º BPM possui uma viatura VW Gol ano 2012 que apresenta problemas mecânicos constantes. O valor de mercado da viatura (Tabela IPVA) é de R$ 20.000,00. No acumulado dos últimos 12 meses, já foram gastos R$ 7.500,00 em manutenção. Agora, o carro precisa de um novo reparo orçado em R$ 1.000,00. Ao tentar lançar a ordem de serviço no SIAD, o que ocorrerá?</t>
+  </si>
+  <si>
+    <t>O sistema permitirá o lançamento, pois o gasto pontual (R$ 1.000,00) é inferior a 40% do valor do bem.</t>
+  </si>
+  <si>
+    <t>O sistema bloqueará automaticamente o lançamento, pois a soma das manutenções (R$ 8.500,00) ultrapassará 40% do valor de mercado (R$ 8.000,00) em 12 meses.</t>
+  </si>
+  <si>
+    <t>O sistema emitirá um alerta, mas permitirá o lançamento mediante senha do Comandante da Unidade.</t>
+  </si>
+  <si>
+    <t>O sistema bloqueará o lançamento, exigindo que a viatura seja imediatamente encaminhada para leilão, sem possibilidade de recurso.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 2.1.5, alínea "b", a gestão será compartilhada em três esferas, sendo o Segundo esforço de atuação definido como: "Gestor de Frota Regional – Chefe da Seção Frota". A opção A refere-se ao primeiro esforço e a opção C ao terceiro esforço.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 3.1.5: "Os veículos de Coordenação Estratégica e Coordenação e Controle deverão ser veículos da frota orgânica, sendo vedado o emprego de veículos da frota locada." A opção C está incorreta pois restringe ao Alto-Comando (Coordenação Estratégica), excluindo os demais comandantes previstos no item 3.1.2.2 "b".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . De acordo com o Item 5.2.4: "A viatura que, no período de 12 meses, ultrapassar 40% do seu valor de mercado com gastos de manutenção se tornará economicamente inviável [...]. O SIAD bloqueará automaticamente o lançamento de nova manutenção para a viatura que atingir, dentro do ano, o índice supramencionado."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 7.2.1.3: "É vedado o uso de combustível dos postos orgânicos para abastecer embarcações aquáticas, maquinários ou equipamentos em uso na PMMG, devendo, nessas situações, ser utilizado o Sistema de Abastecimento Alternativo."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 2.3.2: "Antes de iniciar as tratativas com o Poder Judiciário... o Gestor de Frota da Unidade deverá solicitar à Quarta Seção do Estado-Maior para que se manifeste quanto à conveniência ou não do seu recebimento, face aos custos para sua manutenção na carga patrimonial."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 4.7 determina: "A publicação da distribuição e redistribuição de viaturas do SIPOM obedecerá aos mesmos critérios dos itens 4.1 e 4.2, não havendo a necessidade de publicação em BGPM de acesso restrito, uma vez que não será publicada a numeração da placa de particular, preservando a operacionalidade das viaturas."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 6.5.1.1: "Um dos membros da comissão deverá estar habilitado e credenciado em categoria igual ou superior à do militar que será avaliado." O Item 6.5.1 define que a presidência é de um Oficial PM.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 8.2.9: "As aquisições de pneumáticos e de óleos lubrificantes serão realizadas, prioritariamente, de forma centralizada pelo CMI, visando à obtenção de melhores preços..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 4.5 determina: "...a movimentação do patrimônio no SIAD e a comunicação à DAL, no prazo máximo de 10 dias..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 2.10.2 estabelece que o encaminhamento à DAL deve ser feito "com parecer do assessor jurídico da Unidade e avaliação da CPARM".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 7.2.1.3 é claro: "É vedado o uso de combustível dos postos orgânicos para abastecer embarcações aquáticas, maquinários ou equipamentos em uso na PMMG, devendo, nessas situações, ser utilizado o Sistema de Abastecimento Alternativo."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Cuidado com a diferença entre B-24 e B-25. O requisito para ser credenciado é no mínimo B-24 (Item 6.5.4). Se cair para B-25, incide no Item 6.6.3, alínea "e": "O condutor... poderá ser suspenso... quando: e) atingir o conceito B - 25". É caso de suspensão, não descredenciamento automático.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 2.1.9: "A Unidade interessada deverá consultar a Seção Logística do Nível Estratégico, via RPM... antes de iniciar as tratativas e formalização do pedido ao Poder Judiciário."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 4.5 estabelece que a redistribuição dentro do mesmo Comando Intermediário é de competência dos respectivos Comandantes, exigindo "publicação do ato em Boletim Interno, a movimentação do patrimônio no SIAD e a comunicação à DAL, no prazo máximo de 10 dias".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Embora o militar estivesse em "uso regular" (Item 9.3.4), o Item 9.3.9 traz uma exceção taxativa: "Não será objeto de arquivamento prévio o acidente de viatura que ocasionar danos em patrimônio de terceiros." Portanto, deve-se instaurar o PAV.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 7.2.1.3 estabelece a vedação: "É vedado o uso de combustível dos postos orgânicos para abastecer embarcações aquáticas, maquinários ou equipamentos... devendo, nessas situações, ser utilizado o Sistema de Abastecimento Alternativo."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Anexo I, item 1 (Checklist), alínea "i", exige-se: "Cópia digitalizada do extrato da situação atual do veículo no DETRAN/MG (taxas, impostos e multas regularizados, veículo tem que estar licenciado no ano atual)."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 5.2.4 define que se os gastos em 12 meses ultrapassarem 40% do valor de mercado (40% de 20.000 = 8.000), a viatura torna-se antieconômica. Como 7.500 + 1.000 = 8.500, o limite será ultrapassado e "O SIAD bloqueará automaticamente o lançamento de nova manutenção".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.2.2 determina: "O Gestor de Frota da Unidade fará análise preliminar e emitirá parecer digital, no prazo de 02 dias úteis, sobre o credenciamento do condutor [...] encaminhado via SICOR, toda documentação ao NJD ou equivalente."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 5.2.1 define: "...superior a 40% do valor de sua cotação no mercado, considerado o valor-base de incidência do Imposto sobre IPVA/MG...". A tabela FIPE (Item 5.2.2) só é usada se o valor não estiver disponível na tabela IPVA.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 2.6.4 estabelece expressamente que "É vedada a inclusão de cláusulas que obriguem a PMMG devolver a viatura em perfeito estado de conservação, tendo-se em vista o desgaste decorrente do uso, que inviabiliza o cumprimento de referida condição."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 6.1.6 é taxativo: "Deverá ser priorizado o emprego de viaturas locadas nas frações, não sendo admitido o emprego de viaturas orgânicas no serviço se houver viaturas locadas subutilizadas na fração."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . De acordo com o Item 8.1.5: "Identificada irregularidade na viatura [...] o condutor deverá preencher a Ordem de Serviço para Manutenção da Viatura, conforme modelo constante do Anexo XII, e encaminhar ao Gestor de Frota da Unidade..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.3.9 é explícito ao afirmar: "Não será objeto de arquivamento prévio o acidente de viatura que ocasionar danos em patrimônio de terceiros."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . De acordo com o Item 3.2.8: "A solicitação de reclassificação... deverá ser encaminhada pela Seção Frota Regional para a DInt, que emitirá parecer e encaminhará ao EMPM... para aprovação."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 5.1.2.2: "...o rádio de comunicação e o GPS que deverão ser recolhidos para a Diretoria de Sistemas e Tecnologia [DTS], o sinalizador acústico visual (giroflex) que deverá ser recolhido para a DAL/CMI..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 5.2.8.2 é taxativo: "A substituição de peças de viaturas com indicação de descarga previstas neste item somente poderá ocorrer antes da confecção do Laudo de Vistoria pelo presidente da comissão permanente de alienação de veículos oficiais."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 6.4.5 estabelece: "No caso da recusa do militar condutor da viatura em assinar o FICI, deverá o Gestor de Frota da Unidade preenchê-lo, informando os dados do condutor infrator... enviando a documentação para o órgão autuador, impedindo, dessa forma, nova autuação por 'não identificação do infrator'."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O item "C" não consta no rol do Item 9.3.4 como requisito para uso regular. Os requisitos listados são: a) habilitado e credenciado; b) escalado/autorizado; c) atividade policial/urgência/emergência; d) atuação responsável sem excesso culposo ou doloso. A eficácia da manobra não é critério de definição de uso regular no texto.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.7.3, alínea "d", determina expressamente: "...as indenizações a danos causados a veículos de terceiros... não poderão ser realizadas por meio de DAE ou desconto em folha de pagamento." Isso ocorre porque o valor deve ir para o dono do bem, e não para a conta única do Estado.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 8.1.11 estabelece: "O Gestor de Frota da Unidade deverá providenciar, mensalmente, até o 5º (quinto) dia útil posterior ao mês de referência, laudo técnico ou documento equivalente, atestando a conformidade das manutenções contratadas..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 9.1.1, compete ao Comandante da Viatura "g) realizar o teste de bafômetro nos motoristas envolvidos". As demais opções (A, B e D) são atribuições do Oficial de Serviço/Coordenador, conforme o Item 9.1.3.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 6.1.10 é taxativo: "Nos locais destinados ao estacionamento ou engarajamento de viaturas, não será admitida a ocupação das vagas por veículos particulares."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 6.6.3, alínea "e", a suspensão ocorre quando o militar "atingir o conceito B - 25 (menos vinte e cinco) ou inferior". As opções A, B e D são causas de descredenciamento (Item 6.6.4).</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . De acordo com o Item 9.4.2.6: "O PAV será tramitado, eletronicamente, via SICOR, ao encarregado, que terá o prazo máximo de 30 dias para realizar a apuração."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 7.1.3 determina: "Os pedidos de suplementação... deverão ser encaminhados ao Gestor de Frota Regional, que, caso não consiga suprir a demanda, encaminhará à DAL..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 3.3.9 estabelece: "As viaturas destinadas ao transporte de funcionários civis... deverão ser caracterizadas por meio de plotagem, adesivo ou manta magnética, indicando se tratar de veículos oficiais a serviço..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 3.3.6, alínea "g", veda a colocação de películas, exceto para: "viaturas SIPOM e Coordenação Estratégica". A pegadinha comum é incluir "Coordenação e Controle" (Comandantes de Batalhão), que não possuem essa prerrogativa no texto.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 5.2.1 estabelece como regra principal: "...considerado o valor-base de incidência do Imposto sobre IPVA/MG...". A Tabela FIPE (Item 5.2.2) é subsidiária, autorizada apenas "quando o valor do veículo não estiver disponível na tabela do IPVA/MG".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.4.7.1 determina: "O ato de solução se dará no prazo de 10 dias úteis...". A banca pode tentar confundir com o prazo de defesa (5 dias) ou de instrução (30 dias).</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 4.7 esclarece que a publicação segue os critérios normais (itens 4.1 e 4.2), "não havendo a necessidade de publicação em BGPM de acesso restrito, uma vez que não será publicada a numeração da placa de particular".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.7.3, alínea "d", determina que: "as indenizações a danos causados a veículos de terceiros... não poderão ser realizadas por meio de DAE ou desconto em folha de pagamento." Isso ocorre porque o dinheiro iria para o Estado, e não para o verdadeiro dono do veículo (o terceiro).</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 6.4.5, no caso de recusa do militar em assinar o FICI, o Gestor de Frota deverá preenchê-lo, informando os dados do condutor (com base em documentos oficiais como a escala) e enviar ao órgão autuador, "impedindo, dessa forma, nova autuação por 'não identificação do infrator'".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 2.3.7 determina expressamente: "A autorização para utilização da placa particular será disciplinada pela DAL, conforme legislação vigente." Embora o pedido de uso seja feito ao Juiz, a norma interna remete à DAL a disciplina sobre a placa particular.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 8.1.5 é claro: "Identificada irregularidade na viatura... o condutor deverá preencher a Ordem de Serviço para Manutenção da Viatura, conforme modelo constante do Anexo XII, e encaminhar ao Gestor de Frota da Unidade..."</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 5.2.8.4 exige justificativa à DAL e regularização na SEPLAG para troca de motor. Além disso, o Item 5.2.8.3 determina que "as peças reaproveitadas deverão ser substituídas por outras, de modo que o veículo não seja entregue incompleto ao leilão".</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 9.7.3, alínea "d", determina que indenizações a danos em veículos de terceiros (incluindo locados) "não poderão ser realizadas por meio de DAE ou desconto em folha de pagamento". O acerto deve ser com o proprietário/locadora.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . O Item 4.2, alínea "a", lista taxativamente os impedimentos: "multas ou notificações de trânsito, seguro obrigatório, acidente e encargos financeiros". A necessidade de manutenção preventiva não consta no rol de impedimentos para redistribuição neste item específico.</t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO: . Conforme o Item 9.1.3, alínea "e", cabe ao Oficial de Serviço "impedir acordos que possam gerar ônus ao Estado". As opções A, B e C são atribuições do Comandante da Viatura (Item 9.1.1).</t>
   </si>
 </sst>
 </file>
@@ -31303,10 +32903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53096D-6A57-4F0C-A4DE-F244F8C28EE1}">
-  <dimension ref="A1:M1029"/>
+  <dimension ref="A1:M1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1014" workbookViewId="0">
-      <selection activeCell="C1031" sqref="C1031"/>
+    <sheetView tabSelected="1" topLeftCell="A1074" workbookViewId="0">
+      <selection activeCell="C1082" sqref="C1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -67382,6 +68982,1756 @@
         <v>5842</v>
       </c>
     </row>
+    <row r="1030" spans="1:11" ht="30">
+      <c r="A1030" s="3">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1030" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1030" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1030" s="7" t="s">
+        <v>5844</v>
+      </c>
+      <c r="F1030" s="7" t="s">
+        <v>5845</v>
+      </c>
+      <c r="G1030" s="7" t="s">
+        <v>5846</v>
+      </c>
+      <c r="H1030" s="7" t="s">
+        <v>5847</v>
+      </c>
+      <c r="I1030" s="7" t="s">
+        <v>5848</v>
+      </c>
+      <c r="J1030" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1030" s="8" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11" ht="45">
+      <c r="A1031" s="3">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1031" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1031" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1031" s="7" t="s">
+        <v>5849</v>
+      </c>
+      <c r="F1031" s="7" t="s">
+        <v>5850</v>
+      </c>
+      <c r="G1031" s="7" t="s">
+        <v>5851</v>
+      </c>
+      <c r="H1031" s="7" t="s">
+        <v>5852</v>
+      </c>
+      <c r="I1031" s="7" t="s">
+        <v>5853</v>
+      </c>
+      <c r="J1031" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1031" s="8" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:11" ht="30">
+      <c r="A1032" s="3">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1032" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1032" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1032" s="7" t="s">
+        <v>5854</v>
+      </c>
+      <c r="F1032" s="7" t="s">
+        <v>5855</v>
+      </c>
+      <c r="G1032" s="7" t="s">
+        <v>5856</v>
+      </c>
+      <c r="H1032" s="7" t="s">
+        <v>5857</v>
+      </c>
+      <c r="I1032" s="7" t="s">
+        <v>5858</v>
+      </c>
+      <c r="J1032" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1032" s="8" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:11" ht="45">
+      <c r="A1033" s="3">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1033" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1033" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1033" s="7" t="s">
+        <v>5859</v>
+      </c>
+      <c r="F1033" s="7" t="s">
+        <v>5860</v>
+      </c>
+      <c r="G1033" s="7" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H1033" s="7" t="s">
+        <v>5862</v>
+      </c>
+      <c r="I1033" s="7" t="s">
+        <v>5863</v>
+      </c>
+      <c r="J1033" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1033" s="8" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11" ht="30">
+      <c r="A1034" s="3">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1034" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1034" s="7" t="s">
+        <v>5864</v>
+      </c>
+      <c r="F1034" s="7" t="s">
+        <v>5865</v>
+      </c>
+      <c r="G1034" s="7" t="s">
+        <v>5866</v>
+      </c>
+      <c r="H1034" s="7" t="s">
+        <v>5867</v>
+      </c>
+      <c r="I1034" s="7" t="s">
+        <v>5868</v>
+      </c>
+      <c r="J1034" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1034" s="8" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:11" ht="30">
+      <c r="A1035" s="3">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1035" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1035" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1035" s="7" t="s">
+        <v>5869</v>
+      </c>
+      <c r="F1035" s="7" t="s">
+        <v>5870</v>
+      </c>
+      <c r="G1035" s="7" t="s">
+        <v>5871</v>
+      </c>
+      <c r="H1035" s="7" t="s">
+        <v>5872</v>
+      </c>
+      <c r="I1035" s="7" t="s">
+        <v>5873</v>
+      </c>
+      <c r="J1035" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1035" s="8" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" ht="30">
+      <c r="A1036" s="3">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1036" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1036" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1036" s="7" t="s">
+        <v>5874</v>
+      </c>
+      <c r="F1036" s="7" t="s">
+        <v>5875</v>
+      </c>
+      <c r="G1036" s="7" t="s">
+        <v>5876</v>
+      </c>
+      <c r="H1036" s="7" t="s">
+        <v>5877</v>
+      </c>
+      <c r="I1036" s="7" t="s">
+        <v>5878</v>
+      </c>
+      <c r="J1036" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1036" s="8" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:11" ht="30">
+      <c r="A1037" s="3">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1037" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1037" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1037" s="7" t="s">
+        <v>5879</v>
+      </c>
+      <c r="F1037" s="7" t="s">
+        <v>5880</v>
+      </c>
+      <c r="G1037" s="7" t="s">
+        <v>5881</v>
+      </c>
+      <c r="H1037" s="7" t="s">
+        <v>5882</v>
+      </c>
+      <c r="I1037" s="7" t="s">
+        <v>5883</v>
+      </c>
+      <c r="J1037" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1037" s="8" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11" ht="45">
+      <c r="A1038" s="3">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1038" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1038" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1038" s="7" t="s">
+        <v>5884</v>
+      </c>
+      <c r="F1038" s="7" t="s">
+        <v>5885</v>
+      </c>
+      <c r="G1038" s="7" t="s">
+        <v>5886</v>
+      </c>
+      <c r="H1038" s="7" t="s">
+        <v>5887</v>
+      </c>
+      <c r="I1038" s="7" t="s">
+        <v>5888</v>
+      </c>
+      <c r="J1038" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1038" s="8" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:11" ht="45">
+      <c r="A1039" s="3">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1039" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1039" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1039" s="7" t="s">
+        <v>5889</v>
+      </c>
+      <c r="F1039" s="7" t="s">
+        <v>5890</v>
+      </c>
+      <c r="G1039" s="7" t="s">
+        <v>5891</v>
+      </c>
+      <c r="H1039" s="7" t="s">
+        <v>5892</v>
+      </c>
+      <c r="I1039" s="7" t="s">
+        <v>5893</v>
+      </c>
+      <c r="J1039" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1039" s="8" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" ht="45">
+      <c r="A1040" s="3">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1040" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1040" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1040" s="7" t="s">
+        <v>5894</v>
+      </c>
+      <c r="F1040" s="7" t="s">
+        <v>5895</v>
+      </c>
+      <c r="G1040" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="H1040" s="7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="I1040" s="7" t="s">
+        <v>5898</v>
+      </c>
+      <c r="J1040" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1040" s="8" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:11" ht="45">
+      <c r="A1041" s="3">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1041" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1041" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1041" s="7" t="s">
+        <v>5899</v>
+      </c>
+      <c r="F1041" s="7" t="s">
+        <v>5900</v>
+      </c>
+      <c r="G1041" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="H1041" s="7" t="s">
+        <v>5902</v>
+      </c>
+      <c r="I1041" s="7" t="s">
+        <v>5903</v>
+      </c>
+      <c r="J1041" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1041" s="8" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" ht="30">
+      <c r="A1042" s="3">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1042" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1042" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1042" s="7" t="s">
+        <v>5904</v>
+      </c>
+      <c r="F1042" s="7" t="s">
+        <v>5905</v>
+      </c>
+      <c r="G1042" s="7" t="s">
+        <v>5906</v>
+      </c>
+      <c r="H1042" s="7" t="s">
+        <v>5907</v>
+      </c>
+      <c r="I1042" s="7" t="s">
+        <v>5908</v>
+      </c>
+      <c r="J1042" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1042" s="8" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:11" ht="30">
+      <c r="A1043" s="3">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1043" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1043" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1043" s="7" t="s">
+        <v>5909</v>
+      </c>
+      <c r="F1043" s="7" t="s">
+        <v>5910</v>
+      </c>
+      <c r="G1043" s="7" t="s">
+        <v>5911</v>
+      </c>
+      <c r="H1043" s="7" t="s">
+        <v>5912</v>
+      </c>
+      <c r="I1043" s="7" t="s">
+        <v>5913</v>
+      </c>
+      <c r="J1043" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1043" s="8" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:11" ht="30">
+      <c r="A1044" s="3">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1044" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1044" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1044" s="7" t="s">
+        <v>5914</v>
+      </c>
+      <c r="F1044" s="7" t="s">
+        <v>5915</v>
+      </c>
+      <c r="G1044" s="7" t="s">
+        <v>5916</v>
+      </c>
+      <c r="H1044" s="7" t="s">
+        <v>5917</v>
+      </c>
+      <c r="I1044" s="7" t="s">
+        <v>5918</v>
+      </c>
+      <c r="J1044" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1044" s="8" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" ht="30">
+      <c r="A1045" s="3">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1045" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1045" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1045" s="7" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F1045" s="7" t="s">
+        <v>5920</v>
+      </c>
+      <c r="G1045" s="7" t="s">
+        <v>5921</v>
+      </c>
+      <c r="H1045" s="7" t="s">
+        <v>5922</v>
+      </c>
+      <c r="I1045" s="7" t="s">
+        <v>5923</v>
+      </c>
+      <c r="J1045" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1045" s="8" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" ht="30">
+      <c r="A1046" s="3">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1046" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1046" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1046" s="7" t="s">
+        <v>5924</v>
+      </c>
+      <c r="F1046" s="7" t="s">
+        <v>5925</v>
+      </c>
+      <c r="G1046" s="7" t="s">
+        <v>5926</v>
+      </c>
+      <c r="H1046" s="7" t="s">
+        <v>5927</v>
+      </c>
+      <c r="I1046" s="7" t="s">
+        <v>5928</v>
+      </c>
+      <c r="J1046" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1046" s="8" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:11" ht="30">
+      <c r="A1047" s="3">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1047" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1047" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1047" s="7" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1047" s="7" t="s">
+        <v>5930</v>
+      </c>
+      <c r="G1047" s="7" t="s">
+        <v>5931</v>
+      </c>
+      <c r="H1047" s="7" t="s">
+        <v>5932</v>
+      </c>
+      <c r="I1047" s="7" t="s">
+        <v>5933</v>
+      </c>
+      <c r="J1047" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1047" s="8" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" ht="45">
+      <c r="A1048" s="3">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1048" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1048" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1048" s="7" t="s">
+        <v>5934</v>
+      </c>
+      <c r="F1048" s="7" t="s">
+        <v>5935</v>
+      </c>
+      <c r="G1048" s="7" t="s">
+        <v>5936</v>
+      </c>
+      <c r="H1048" s="7" t="s">
+        <v>5937</v>
+      </c>
+      <c r="I1048" s="7" t="s">
+        <v>5938</v>
+      </c>
+      <c r="J1048" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1048" s="8" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" ht="45">
+      <c r="A1049" s="3">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1049" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1049" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1049" s="7" t="s">
+        <v>5939</v>
+      </c>
+      <c r="F1049" s="7" t="s">
+        <v>5940</v>
+      </c>
+      <c r="G1049" s="7" t="s">
+        <v>5941</v>
+      </c>
+      <c r="H1049" s="7" t="s">
+        <v>5942</v>
+      </c>
+      <c r="I1049" s="7" t="s">
+        <v>5943</v>
+      </c>
+      <c r="J1049" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1049" s="8" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" ht="45">
+      <c r="A1050" s="3">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1050" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1050" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1050" s="7" t="s">
+        <v>5944</v>
+      </c>
+      <c r="F1050" s="7" t="s">
+        <v>5945</v>
+      </c>
+      <c r="G1050" s="7" t="s">
+        <v>5946</v>
+      </c>
+      <c r="H1050" s="7" t="s">
+        <v>5947</v>
+      </c>
+      <c r="I1050" s="7" t="s">
+        <v>5948</v>
+      </c>
+      <c r="J1050" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1050" s="8" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" ht="30">
+      <c r="A1051" s="3">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1051" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1051" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1051" s="7" t="s">
+        <v>5949</v>
+      </c>
+      <c r="F1051" s="7" t="s">
+        <v>5950</v>
+      </c>
+      <c r="G1051" s="7" t="s">
+        <v>5951</v>
+      </c>
+      <c r="H1051" s="7" t="s">
+        <v>5952</v>
+      </c>
+      <c r="I1051" s="7" t="s">
+        <v>5953</v>
+      </c>
+      <c r="J1051" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1051" s="8" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" ht="45">
+      <c r="A1052" s="3">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1052" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1052" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1052" s="7" t="s">
+        <v>5954</v>
+      </c>
+      <c r="F1052" s="7" t="s">
+        <v>5955</v>
+      </c>
+      <c r="G1052" s="7" t="s">
+        <v>5956</v>
+      </c>
+      <c r="H1052" s="7" t="s">
+        <v>5957</v>
+      </c>
+      <c r="I1052" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="J1052" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1052" s="8" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" ht="30">
+      <c r="A1053" s="3">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1053" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1053" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1053" s="7" t="s">
+        <v>5958</v>
+      </c>
+      <c r="F1053" s="7" t="s">
+        <v>5959</v>
+      </c>
+      <c r="G1053" s="7" t="s">
+        <v>5960</v>
+      </c>
+      <c r="H1053" s="7" t="s">
+        <v>5961</v>
+      </c>
+      <c r="I1053" s="7" t="s">
+        <v>5962</v>
+      </c>
+      <c r="J1053" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1053" s="8" t="s">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" ht="30">
+      <c r="A1054" s="3">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1054" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1054" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1054" s="7" t="s">
+        <v>5963</v>
+      </c>
+      <c r="F1054" s="7" t="s">
+        <v>5964</v>
+      </c>
+      <c r="G1054" s="7" t="s">
+        <v>5965</v>
+      </c>
+      <c r="H1054" s="7" t="s">
+        <v>5966</v>
+      </c>
+      <c r="I1054" s="7" t="s">
+        <v>5967</v>
+      </c>
+      <c r="J1054" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1054" s="8" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:11" ht="45">
+      <c r="A1055" s="3">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1055" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1055" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1055" s="7" t="s">
+        <v>5968</v>
+      </c>
+      <c r="F1055" s="7" t="s">
+        <v>5969</v>
+      </c>
+      <c r="G1055" s="7" t="s">
+        <v>5970</v>
+      </c>
+      <c r="H1055" s="7" t="s">
+        <v>5971</v>
+      </c>
+      <c r="I1055" s="7" t="s">
+        <v>5972</v>
+      </c>
+      <c r="J1055" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1055" s="8" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:11" ht="30">
+      <c r="A1056" s="3">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1056" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1056" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1056" s="7" t="s">
+        <v>5973</v>
+      </c>
+      <c r="F1056" s="7" t="s">
+        <v>5974</v>
+      </c>
+      <c r="G1056" s="7" t="s">
+        <v>5975</v>
+      </c>
+      <c r="H1056" s="7" t="s">
+        <v>5976</v>
+      </c>
+      <c r="I1056" s="7" t="s">
+        <v>5977</v>
+      </c>
+      <c r="J1056" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1056" s="8" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:11" ht="30">
+      <c r="A1057" s="3">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1057" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1057" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1057" s="7" t="s">
+        <v>5978</v>
+      </c>
+      <c r="F1057" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G1057" s="7" t="s">
+        <v>5979</v>
+      </c>
+      <c r="H1057" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I1057" s="7" t="s">
+        <v>5980</v>
+      </c>
+      <c r="J1057" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1057" s="8" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:11" ht="30">
+      <c r="A1058" s="3">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1058" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1058" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1058" s="7" t="s">
+        <v>5981</v>
+      </c>
+      <c r="F1058" s="7" t="s">
+        <v>5982</v>
+      </c>
+      <c r="G1058" s="7" t="s">
+        <v>5983</v>
+      </c>
+      <c r="H1058" s="7" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I1058" s="7" t="s">
+        <v>5985</v>
+      </c>
+      <c r="J1058" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1058" s="8" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:11" ht="30">
+      <c r="A1059" s="3">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1059" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1059" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1059" s="7" t="s">
+        <v>5986</v>
+      </c>
+      <c r="F1059" s="7" t="s">
+        <v>5987</v>
+      </c>
+      <c r="G1059" s="7" t="s">
+        <v>5988</v>
+      </c>
+      <c r="H1059" s="7" t="s">
+        <v>5989</v>
+      </c>
+      <c r="I1059" s="7" t="s">
+        <v>5990</v>
+      </c>
+      <c r="J1059" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1059" s="8" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:11" ht="45">
+      <c r="A1060" s="3">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1060" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1060" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1060" s="7" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F1060" s="7" t="s">
+        <v>5992</v>
+      </c>
+      <c r="G1060" s="7" t="s">
+        <v>5993</v>
+      </c>
+      <c r="H1060" s="7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="I1060" s="7" t="s">
+        <v>5995</v>
+      </c>
+      <c r="J1060" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1060" s="8" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:11" ht="30">
+      <c r="A1061" s="3">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1061" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1061" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1061" s="7" t="s">
+        <v>5996</v>
+      </c>
+      <c r="F1061" s="7" t="s">
+        <v>5952</v>
+      </c>
+      <c r="G1061" s="7" t="s">
+        <v>5997</v>
+      </c>
+      <c r="H1061" s="7" t="s">
+        <v>5998</v>
+      </c>
+      <c r="I1061" s="7" t="s">
+        <v>5999</v>
+      </c>
+      <c r="J1061" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1061" s="8" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:11" ht="30">
+      <c r="A1062" s="3">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1062" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1062" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1062" s="7" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F1062" s="7" t="s">
+        <v>6001</v>
+      </c>
+      <c r="G1062" s="7" t="s">
+        <v>6002</v>
+      </c>
+      <c r="H1062" s="7" t="s">
+        <v>6003</v>
+      </c>
+      <c r="I1062" s="7" t="s">
+        <v>6004</v>
+      </c>
+      <c r="J1062" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1062" s="8" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:11" ht="30">
+      <c r="A1063" s="3">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1063" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1063" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1063" s="7" t="s">
+        <v>6006</v>
+      </c>
+      <c r="F1063" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="G1063" s="7" t="s">
+        <v>6008</v>
+      </c>
+      <c r="H1063" s="7" t="s">
+        <v>6009</v>
+      </c>
+      <c r="I1063" s="7" t="s">
+        <v>6010</v>
+      </c>
+      <c r="J1063" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1063" s="8" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:11" ht="30">
+      <c r="A1064" s="3">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1064" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1064" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1064" s="7" t="s">
+        <v>6011</v>
+      </c>
+      <c r="F1064" s="7" t="s">
+        <v>6012</v>
+      </c>
+      <c r="G1064" s="7" t="s">
+        <v>6013</v>
+      </c>
+      <c r="H1064" s="7" t="s">
+        <v>6014</v>
+      </c>
+      <c r="I1064" s="7" t="s">
+        <v>6015</v>
+      </c>
+      <c r="J1064" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1064" s="8" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:11" ht="30">
+      <c r="A1065" s="3">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1065" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1065" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1065" s="7" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F1065" s="7" t="s">
+        <v>6017</v>
+      </c>
+      <c r="G1065" s="7" t="s">
+        <v>6018</v>
+      </c>
+      <c r="H1065" s="7" t="s">
+        <v>6019</v>
+      </c>
+      <c r="I1065" s="7" t="s">
+        <v>6020</v>
+      </c>
+      <c r="J1065" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1065" s="8" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:11" ht="30">
+      <c r="A1066" s="3">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1066" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1066" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1066" s="7" t="s">
+        <v>6021</v>
+      </c>
+      <c r="F1066" s="7" t="s">
+        <v>5955</v>
+      </c>
+      <c r="G1066" s="7" t="s">
+        <v>6022</v>
+      </c>
+      <c r="H1066" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I1066" s="7" t="s">
+        <v>6023</v>
+      </c>
+      <c r="J1066" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1066" s="8" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11" ht="30">
+      <c r="A1067" s="3">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1067" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1067" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1067" s="7" t="s">
+        <v>6024</v>
+      </c>
+      <c r="F1067" s="7" t="s">
+        <v>6025</v>
+      </c>
+      <c r="G1067" s="7" t="s">
+        <v>6026</v>
+      </c>
+      <c r="H1067" s="7" t="s">
+        <v>6027</v>
+      </c>
+      <c r="I1067" s="7" t="s">
+        <v>6028</v>
+      </c>
+      <c r="J1067" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1067" s="8" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11" ht="30">
+      <c r="A1068" s="3">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1068" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1068" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1068" s="7" t="s">
+        <v>6029</v>
+      </c>
+      <c r="F1068" s="7" t="s">
+        <v>6030</v>
+      </c>
+      <c r="G1068" s="7" t="s">
+        <v>6031</v>
+      </c>
+      <c r="H1068" s="7" t="s">
+        <v>6032</v>
+      </c>
+      <c r="I1068" s="7" t="s">
+        <v>6033</v>
+      </c>
+      <c r="J1068" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1068" s="8" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11" ht="45">
+      <c r="A1069" s="3">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1069" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1069" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1069" s="7" t="s">
+        <v>6034</v>
+      </c>
+      <c r="F1069" s="7" t="s">
+        <v>6035</v>
+      </c>
+      <c r="G1069" s="7" t="s">
+        <v>6036</v>
+      </c>
+      <c r="H1069" s="7" t="s">
+        <v>6037</v>
+      </c>
+      <c r="I1069" s="7" t="s">
+        <v>6038</v>
+      </c>
+      <c r="J1069" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1069" s="8" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" ht="60">
+      <c r="A1070" s="3">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1070" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1070" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1070" s="7" t="s">
+        <v>6039</v>
+      </c>
+      <c r="F1070" s="7" t="s">
+        <v>6040</v>
+      </c>
+      <c r="G1070" s="7" t="s">
+        <v>6041</v>
+      </c>
+      <c r="H1070" s="7" t="s">
+        <v>6042</v>
+      </c>
+      <c r="I1070" s="7" t="s">
+        <v>6043</v>
+      </c>
+      <c r="J1070" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1070" s="8" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" ht="30">
+      <c r="A1071" s="3">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1071" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1071" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1071" s="7" t="s">
+        <v>6044</v>
+      </c>
+      <c r="F1071" s="7" t="s">
+        <v>6045</v>
+      </c>
+      <c r="G1071" s="7" t="s">
+        <v>6046</v>
+      </c>
+      <c r="H1071" s="7" t="s">
+        <v>6047</v>
+      </c>
+      <c r="I1071" s="7" t="s">
+        <v>6048</v>
+      </c>
+      <c r="J1071" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1071" s="8" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:11" ht="45">
+      <c r="A1072" s="3">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1072" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1072" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1072" s="7" t="s">
+        <v>6049</v>
+      </c>
+      <c r="F1072" s="7" t="s">
+        <v>6050</v>
+      </c>
+      <c r="G1072" s="7" t="s">
+        <v>6051</v>
+      </c>
+      <c r="H1072" s="7" t="s">
+        <v>6052</v>
+      </c>
+      <c r="I1072" s="7" t="s">
+        <v>6053</v>
+      </c>
+      <c r="J1072" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1072" s="8" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11" ht="45">
+      <c r="A1073" s="3">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1073" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1073" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1073" s="7" t="s">
+        <v>6054</v>
+      </c>
+      <c r="F1073" s="7" t="s">
+        <v>6055</v>
+      </c>
+      <c r="G1073" s="7" t="s">
+        <v>6056</v>
+      </c>
+      <c r="H1073" s="7" t="s">
+        <v>6057</v>
+      </c>
+      <c r="I1073" s="7" t="s">
+        <v>6058</v>
+      </c>
+      <c r="J1073" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1073" s="8" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11" ht="30">
+      <c r="A1074" s="3">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1074" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1074" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1074" s="7" t="s">
+        <v>6059</v>
+      </c>
+      <c r="F1074" s="7" t="s">
+        <v>6060</v>
+      </c>
+      <c r="G1074" s="7" t="s">
+        <v>6061</v>
+      </c>
+      <c r="H1074" s="7" t="s">
+        <v>6062</v>
+      </c>
+      <c r="I1074" s="7" t="s">
+        <v>6063</v>
+      </c>
+      <c r="J1074" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1074" s="8" t="s">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" ht="45">
+      <c r="A1075" s="3">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1075" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1075" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1075" s="7" t="s">
+        <v>6064</v>
+      </c>
+      <c r="F1075" s="7" t="s">
+        <v>6065</v>
+      </c>
+      <c r="G1075" s="7" t="s">
+        <v>6066</v>
+      </c>
+      <c r="H1075" s="7" t="s">
+        <v>6067</v>
+      </c>
+      <c r="I1075" s="7" t="s">
+        <v>6068</v>
+      </c>
+      <c r="J1075" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1075" s="8" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" ht="45">
+      <c r="A1076" s="3">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1076" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1076" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1076" s="7" t="s">
+        <v>6069</v>
+      </c>
+      <c r="F1076" s="7" t="s">
+        <v>6070</v>
+      </c>
+      <c r="G1076" s="7" t="s">
+        <v>6071</v>
+      </c>
+      <c r="H1076" s="7" t="s">
+        <v>6072</v>
+      </c>
+      <c r="I1076" s="7" t="s">
+        <v>6073</v>
+      </c>
+      <c r="J1076" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1076" s="8" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" ht="45">
+      <c r="A1077" s="3">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1077" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1077" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1077" s="7" t="s">
+        <v>6074</v>
+      </c>
+      <c r="F1077" s="7" t="s">
+        <v>6075</v>
+      </c>
+      <c r="G1077" s="7" t="s">
+        <v>6076</v>
+      </c>
+      <c r="H1077" s="7" t="s">
+        <v>6077</v>
+      </c>
+      <c r="I1077" s="7" t="s">
+        <v>6078</v>
+      </c>
+      <c r="J1077" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1077" s="8" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" ht="45">
+      <c r="A1078" s="3">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1078" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1078" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1078" s="7" t="s">
+        <v>6079</v>
+      </c>
+      <c r="F1078" s="7" t="s">
+        <v>6080</v>
+      </c>
+      <c r="G1078" s="7" t="s">
+        <v>6081</v>
+      </c>
+      <c r="H1078" s="7" t="s">
+        <v>6082</v>
+      </c>
+      <c r="I1078" s="7" t="s">
+        <v>6083</v>
+      </c>
+      <c r="J1078" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1078" s="8" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" ht="45">
+      <c r="A1079" s="3">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1079" s="7" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D1079" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1079" s="7" t="s">
+        <v>6084</v>
+      </c>
+      <c r="F1079" s="7" t="s">
+        <v>6085</v>
+      </c>
+      <c r="G1079" s="7" t="s">
+        <v>6086</v>
+      </c>
+      <c r="H1079" s="7" t="s">
+        <v>6087</v>
+      </c>
+      <c r="I1079" s="7" t="s">
+        <v>6088</v>
+      </c>
+      <c r="J1079" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1079" s="8" t="s">
+        <v>6106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
